--- a/030_設計ドキュメント/020_サンプル/090_データモデル設計/ドメイン定義書_サンプル.xlsx
+++ b/030_設計ドキュメント/020_サンプル/090_データモデル設計/ドメイン定義書_サンプル.xlsx
@@ -108,9 +108,7 @@
           <t xml:space="preserve">【ドメインクラス生成ツール読み込み対象】
 &lt;データ型が数値の場合&gt;
 数値の桁数を記載する。
-※「最大値/最小値」を定義する場合は、「最大」列「最小」列は記載せず、
-　「その他の定義」列に仕様を記載し、「追加アノテーション」列に
-　アノテーションの定義を記載すること。
+※単純に桁数で表現できない場合（例えば1や120といった値）は「最小」列「最大」列を記載せず、「その他の定義」列に仕様を記載し、「追加アノテーション」列にアノテーションの定義を記載すること。
 &lt;データ型が文字列（半角英数など）の場合&gt;
 文字列の桁数を記載する。
 &lt;データ型が数値と文字列以外の場合&gt;
@@ -3733,15 +3731,144 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="24" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3781,15 +3908,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3799,135 +3917,51 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="24" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -3955,41 +3989,26 @@
     <xf numFmtId="0" fontId="34" fillId="24" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3997,26 +4016,37 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4026,233 +4056,180 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4278,6 +4255,27 @@
     <xf numFmtId="0" fontId="1" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
@@ -10649,57 +10647,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="11" customFormat="1">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="152" t="s">
+      <c r="B1" s="182"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="195" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="150"/>
-      <c r="G1" s="150"/>
-      <c r="H1" s="150"/>
-      <c r="I1" s="150"/>
-      <c r="J1" s="150"/>
-      <c r="K1" s="150"/>
-      <c r="L1" s="150"/>
-      <c r="M1" s="150"/>
-      <c r="N1" s="151"/>
-      <c r="O1" s="140" t="s">
+      <c r="F1" s="193"/>
+      <c r="G1" s="193"/>
+      <c r="H1" s="193"/>
+      <c r="I1" s="193"/>
+      <c r="J1" s="193"/>
+      <c r="K1" s="193"/>
+      <c r="L1" s="193"/>
+      <c r="M1" s="193"/>
+      <c r="N1" s="194"/>
+      <c r="O1" s="183" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="141"/>
-      <c r="Q1" s="141"/>
-      <c r="R1" s="142"/>
-      <c r="S1" s="187" t="s">
+      <c r="P1" s="184"/>
+      <c r="Q1" s="184"/>
+      <c r="R1" s="185"/>
+      <c r="S1" s="151" t="s">
         <v>54</v>
       </c>
-      <c r="T1" s="188"/>
-      <c r="U1" s="188"/>
-      <c r="V1" s="188"/>
-      <c r="W1" s="188"/>
-      <c r="X1" s="188"/>
-      <c r="Y1" s="188"/>
-      <c r="Z1" s="189"/>
-      <c r="AA1" s="137" t="s">
+      <c r="T1" s="152"/>
+      <c r="U1" s="152"/>
+      <c r="V1" s="152"/>
+      <c r="W1" s="152"/>
+      <c r="X1" s="152"/>
+      <c r="Y1" s="152"/>
+      <c r="Z1" s="153"/>
+      <c r="AA1" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" s="139"/>
-      <c r="AC1" s="196" t="str">
+      <c r="AB1" s="141"/>
+      <c r="AC1" s="142" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="197"/>
-      <c r="AE1" s="197"/>
-      <c r="AF1" s="198"/>
-      <c r="AG1" s="153">
+      <c r="AD1" s="143"/>
+      <c r="AE1" s="143"/>
+      <c r="AF1" s="144"/>
+      <c r="AG1" s="145">
         <f>IF(D8="","",D8)</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="154"/>
-      <c r="AI1" s="155"/>
+      <c r="AH1" s="146"/>
+      <c r="AI1" s="147"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="9"/>
@@ -10707,53 +10705,53 @@
       <c r="AN1" s="10"/>
     </row>
     <row r="2" spans="1:40" s="11" customFormat="1">
-      <c r="A2" s="137" t="s">
+      <c r="A2" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="152" t="s">
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="195" t="s">
         <v>100</v>
       </c>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
-      <c r="I2" s="150"/>
-      <c r="J2" s="150"/>
-      <c r="K2" s="150"/>
-      <c r="L2" s="150"/>
-      <c r="M2" s="150"/>
-      <c r="N2" s="151"/>
-      <c r="O2" s="143"/>
-      <c r="P2" s="144"/>
-      <c r="Q2" s="144"/>
-      <c r="R2" s="145"/>
-      <c r="S2" s="190"/>
-      <c r="T2" s="191"/>
-      <c r="U2" s="191"/>
-      <c r="V2" s="191"/>
-      <c r="W2" s="191"/>
-      <c r="X2" s="191"/>
-      <c r="Y2" s="191"/>
-      <c r="Z2" s="192"/>
-      <c r="AA2" s="137" t="s">
+      <c r="F2" s="193"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="193"/>
+      <c r="I2" s="193"/>
+      <c r="J2" s="193"/>
+      <c r="K2" s="193"/>
+      <c r="L2" s="193"/>
+      <c r="M2" s="193"/>
+      <c r="N2" s="194"/>
+      <c r="O2" s="186"/>
+      <c r="P2" s="187"/>
+      <c r="Q2" s="187"/>
+      <c r="R2" s="188"/>
+      <c r="S2" s="154"/>
+      <c r="T2" s="155"/>
+      <c r="U2" s="155"/>
+      <c r="V2" s="155"/>
+      <c r="W2" s="155"/>
+      <c r="X2" s="155"/>
+      <c r="Y2" s="155"/>
+      <c r="Z2" s="156"/>
+      <c r="AA2" s="140" t="s">
         <v>22</v>
       </c>
-      <c r="AB2" s="139"/>
-      <c r="AC2" s="156" t="str">
+      <c r="AB2" s="141"/>
+      <c r="AC2" s="196" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="157"/>
-      <c r="AE2" s="157"/>
-      <c r="AF2" s="158"/>
-      <c r="AG2" s="153" t="str">
+      <c r="AD2" s="197"/>
+      <c r="AE2" s="197"/>
+      <c r="AF2" s="198"/>
+      <c r="AG2" s="145" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="154"/>
-      <c r="AI2" s="155"/>
+      <c r="AH2" s="146"/>
+      <c r="AI2" s="147"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
@@ -10761,43 +10759,43 @@
       <c r="AN2" s="9"/>
     </row>
     <row r="3" spans="1:40" s="11" customFormat="1">
-      <c r="A3" s="137" t="s">
+      <c r="A3" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="138"/>
-      <c r="C3" s="138"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="150"/>
-      <c r="I3" s="150"/>
-      <c r="J3" s="150"/>
-      <c r="K3" s="150"/>
-      <c r="L3" s="150"/>
-      <c r="M3" s="150"/>
-      <c r="N3" s="151"/>
-      <c r="O3" s="146"/>
-      <c r="P3" s="147"/>
-      <c r="Q3" s="147"/>
-      <c r="R3" s="148"/>
-      <c r="S3" s="193"/>
-      <c r="T3" s="194"/>
-      <c r="U3" s="194"/>
-      <c r="V3" s="194"/>
-      <c r="W3" s="194"/>
-      <c r="X3" s="194"/>
-      <c r="Y3" s="194"/>
-      <c r="Z3" s="195"/>
-      <c r="AA3" s="137"/>
-      <c r="AB3" s="139"/>
-      <c r="AC3" s="196"/>
-      <c r="AD3" s="197"/>
-      <c r="AE3" s="197"/>
-      <c r="AF3" s="198"/>
-      <c r="AG3" s="153"/>
-      <c r="AH3" s="154"/>
-      <c r="AI3" s="155"/>
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="193"/>
+      <c r="G3" s="193"/>
+      <c r="H3" s="193"/>
+      <c r="I3" s="193"/>
+      <c r="J3" s="193"/>
+      <c r="K3" s="193"/>
+      <c r="L3" s="193"/>
+      <c r="M3" s="193"/>
+      <c r="N3" s="194"/>
+      <c r="O3" s="189"/>
+      <c r="P3" s="190"/>
+      <c r="Q3" s="190"/>
+      <c r="R3" s="191"/>
+      <c r="S3" s="157"/>
+      <c r="T3" s="158"/>
+      <c r="U3" s="158"/>
+      <c r="V3" s="158"/>
+      <c r="W3" s="158"/>
+      <c r="X3" s="158"/>
+      <c r="Y3" s="158"/>
+      <c r="Z3" s="159"/>
+      <c r="AA3" s="140"/>
+      <c r="AB3" s="141"/>
+      <c r="AC3" s="142"/>
+      <c r="AD3" s="143"/>
+      <c r="AE3" s="143"/>
+      <c r="AF3" s="144"/>
+      <c r="AG3" s="145"/>
+      <c r="AH3" s="146"/>
+      <c r="AI3" s="147"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
@@ -10936,52 +10934,52 @@
       <c r="A7" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="159" t="s">
+      <c r="B7" s="166" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="160"/>
-      <c r="D7" s="159" t="s">
+      <c r="C7" s="167"/>
+      <c r="D7" s="166" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="161"/>
-      <c r="F7" s="160"/>
-      <c r="G7" s="159" t="s">
+      <c r="E7" s="168"/>
+      <c r="F7" s="167"/>
+      <c r="G7" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="161"/>
-      <c r="I7" s="160"/>
-      <c r="J7" s="159" t="s">
+      <c r="H7" s="168"/>
+      <c r="I7" s="167"/>
+      <c r="J7" s="166" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="161"/>
-      <c r="L7" s="161"/>
-      <c r="M7" s="161"/>
-      <c r="N7" s="161"/>
-      <c r="O7" s="161"/>
-      <c r="P7" s="160"/>
-      <c r="Q7" s="159" t="s">
+      <c r="K7" s="168"/>
+      <c r="L7" s="168"/>
+      <c r="M7" s="168"/>
+      <c r="N7" s="168"/>
+      <c r="O7" s="168"/>
+      <c r="P7" s="167"/>
+      <c r="Q7" s="166" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="161"/>
-      <c r="S7" s="161"/>
-      <c r="T7" s="161"/>
-      <c r="U7" s="161"/>
-      <c r="V7" s="161"/>
-      <c r="W7" s="161"/>
-      <c r="X7" s="161"/>
-      <c r="Y7" s="161"/>
-      <c r="Z7" s="161"/>
-      <c r="AA7" s="161"/>
-      <c r="AB7" s="161"/>
-      <c r="AC7" s="161"/>
-      <c r="AD7" s="161"/>
-      <c r="AE7" s="160"/>
-      <c r="AF7" s="159" t="s">
+      <c r="R7" s="168"/>
+      <c r="S7" s="168"/>
+      <c r="T7" s="168"/>
+      <c r="U7" s="168"/>
+      <c r="V7" s="168"/>
+      <c r="W7" s="168"/>
+      <c r="X7" s="168"/>
+      <c r="Y7" s="168"/>
+      <c r="Z7" s="168"/>
+      <c r="AA7" s="168"/>
+      <c r="AB7" s="168"/>
+      <c r="AC7" s="168"/>
+      <c r="AD7" s="168"/>
+      <c r="AE7" s="167"/>
+      <c r="AF7" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="161"/>
-      <c r="AH7" s="161"/>
-      <c r="AI7" s="160"/>
+      <c r="AG7" s="168"/>
+      <c r="AH7" s="168"/>
+      <c r="AI7" s="167"/>
       <c r="AJ7" s="31"/>
       <c r="AK7" s="31"/>
       <c r="AL7" s="31"/>
@@ -10992,52 +10990,52 @@
       <c r="A8" s="94">
         <v>1</v>
       </c>
-      <c r="B8" s="162" t="s">
+      <c r="B8" s="169" t="s">
         <v>114</v>
       </c>
-      <c r="C8" s="163"/>
-      <c r="D8" s="164">
+      <c r="C8" s="170"/>
+      <c r="D8" s="171">
         <v>43336</v>
       </c>
-      <c r="E8" s="165"/>
-      <c r="F8" s="166"/>
-      <c r="G8" s="162" t="s">
+      <c r="E8" s="172"/>
+      <c r="F8" s="173"/>
+      <c r="G8" s="169" t="s">
         <v>115</v>
       </c>
-      <c r="H8" s="167"/>
-      <c r="I8" s="163"/>
-      <c r="J8" s="171" t="s">
+      <c r="H8" s="174"/>
+      <c r="I8" s="170"/>
+      <c r="J8" s="178" t="s">
         <v>116</v>
       </c>
-      <c r="K8" s="169"/>
-      <c r="L8" s="169"/>
-      <c r="M8" s="169"/>
-      <c r="N8" s="169"/>
-      <c r="O8" s="169"/>
-      <c r="P8" s="170"/>
-      <c r="Q8" s="172" t="s">
+      <c r="K8" s="176"/>
+      <c r="L8" s="176"/>
+      <c r="M8" s="176"/>
+      <c r="N8" s="176"/>
+      <c r="O8" s="176"/>
+      <c r="P8" s="177"/>
+      <c r="Q8" s="179" t="s">
         <v>117</v>
       </c>
-      <c r="R8" s="173"/>
-      <c r="S8" s="173"/>
-      <c r="T8" s="173"/>
-      <c r="U8" s="173"/>
-      <c r="V8" s="173"/>
-      <c r="W8" s="173"/>
-      <c r="X8" s="173"/>
-      <c r="Y8" s="173"/>
-      <c r="Z8" s="173"/>
-      <c r="AA8" s="173"/>
-      <c r="AB8" s="173"/>
-      <c r="AC8" s="173"/>
-      <c r="AD8" s="173"/>
-      <c r="AE8" s="174"/>
-      <c r="AF8" s="168" t="s">
+      <c r="R8" s="180"/>
+      <c r="S8" s="180"/>
+      <c r="T8" s="180"/>
+      <c r="U8" s="180"/>
+      <c r="V8" s="180"/>
+      <c r="W8" s="180"/>
+      <c r="X8" s="180"/>
+      <c r="Y8" s="180"/>
+      <c r="Z8" s="180"/>
+      <c r="AA8" s="180"/>
+      <c r="AB8" s="180"/>
+      <c r="AC8" s="180"/>
+      <c r="AD8" s="180"/>
+      <c r="AE8" s="181"/>
+      <c r="AF8" s="175" t="s">
         <v>118</v>
       </c>
-      <c r="AG8" s="169"/>
-      <c r="AH8" s="169"/>
-      <c r="AI8" s="170"/>
+      <c r="AG8" s="176"/>
+      <c r="AH8" s="176"/>
+      <c r="AI8" s="177"/>
       <c r="AJ8" s="31"/>
       <c r="AK8" s="31"/>
       <c r="AL8" s="31"/>
@@ -11046,40 +11044,40 @@
     </row>
     <row r="9" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="94"/>
-      <c r="B9" s="175"/>
-      <c r="C9" s="176"/>
-      <c r="D9" s="177"/>
-      <c r="E9" s="178"/>
-      <c r="F9" s="179"/>
-      <c r="G9" s="175"/>
-      <c r="H9" s="180"/>
-      <c r="I9" s="176"/>
-      <c r="J9" s="181"/>
-      <c r="K9" s="182"/>
-      <c r="L9" s="182"/>
-      <c r="M9" s="182"/>
-      <c r="N9" s="182"/>
-      <c r="O9" s="182"/>
-      <c r="P9" s="183"/>
-      <c r="Q9" s="184"/>
-      <c r="R9" s="185"/>
-      <c r="S9" s="185"/>
-      <c r="T9" s="185"/>
-      <c r="U9" s="185"/>
-      <c r="V9" s="185"/>
-      <c r="W9" s="185"/>
-      <c r="X9" s="185"/>
-      <c r="Y9" s="185"/>
-      <c r="Z9" s="185"/>
-      <c r="AA9" s="185"/>
-      <c r="AB9" s="185"/>
-      <c r="AC9" s="185"/>
-      <c r="AD9" s="185"/>
-      <c r="AE9" s="186"/>
-      <c r="AF9" s="181"/>
-      <c r="AG9" s="182"/>
-      <c r="AH9" s="182"/>
-      <c r="AI9" s="183"/>
+      <c r="B9" s="160"/>
+      <c r="C9" s="162"/>
+      <c r="D9" s="163"/>
+      <c r="E9" s="164"/>
+      <c r="F9" s="165"/>
+      <c r="G9" s="160"/>
+      <c r="H9" s="161"/>
+      <c r="I9" s="162"/>
+      <c r="J9" s="137"/>
+      <c r="K9" s="138"/>
+      <c r="L9" s="138"/>
+      <c r="M9" s="138"/>
+      <c r="N9" s="138"/>
+      <c r="O9" s="138"/>
+      <c r="P9" s="139"/>
+      <c r="Q9" s="148"/>
+      <c r="R9" s="149"/>
+      <c r="S9" s="149"/>
+      <c r="T9" s="149"/>
+      <c r="U9" s="149"/>
+      <c r="V9" s="149"/>
+      <c r="W9" s="149"/>
+      <c r="X9" s="149"/>
+      <c r="Y9" s="149"/>
+      <c r="Z9" s="149"/>
+      <c r="AA9" s="149"/>
+      <c r="AB9" s="149"/>
+      <c r="AC9" s="149"/>
+      <c r="AD9" s="149"/>
+      <c r="AE9" s="150"/>
+      <c r="AF9" s="137"/>
+      <c r="AG9" s="138"/>
+      <c r="AH9" s="138"/>
+      <c r="AI9" s="139"/>
       <c r="AJ9" s="31"/>
       <c r="AK9" s="31"/>
       <c r="AL9" s="31"/>
@@ -11088,40 +11086,40 @@
     </row>
     <row r="10" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="94"/>
-      <c r="B10" s="175"/>
-      <c r="C10" s="176"/>
-      <c r="D10" s="177"/>
-      <c r="E10" s="178"/>
-      <c r="F10" s="179"/>
-      <c r="G10" s="175"/>
-      <c r="H10" s="180"/>
-      <c r="I10" s="176"/>
-      <c r="J10" s="181"/>
-      <c r="K10" s="182"/>
-      <c r="L10" s="182"/>
-      <c r="M10" s="182"/>
-      <c r="N10" s="182"/>
-      <c r="O10" s="182"/>
-      <c r="P10" s="183"/>
-      <c r="Q10" s="184"/>
-      <c r="R10" s="185"/>
-      <c r="S10" s="185"/>
-      <c r="T10" s="185"/>
-      <c r="U10" s="185"/>
-      <c r="V10" s="185"/>
-      <c r="W10" s="185"/>
-      <c r="X10" s="185"/>
-      <c r="Y10" s="185"/>
-      <c r="Z10" s="185"/>
-      <c r="AA10" s="185"/>
-      <c r="AB10" s="185"/>
-      <c r="AC10" s="185"/>
-      <c r="AD10" s="185"/>
-      <c r="AE10" s="186"/>
-      <c r="AF10" s="181"/>
-      <c r="AG10" s="182"/>
-      <c r="AH10" s="182"/>
-      <c r="AI10" s="183"/>
+      <c r="B10" s="160"/>
+      <c r="C10" s="162"/>
+      <c r="D10" s="163"/>
+      <c r="E10" s="164"/>
+      <c r="F10" s="165"/>
+      <c r="G10" s="160"/>
+      <c r="H10" s="161"/>
+      <c r="I10" s="162"/>
+      <c r="J10" s="137"/>
+      <c r="K10" s="138"/>
+      <c r="L10" s="138"/>
+      <c r="M10" s="138"/>
+      <c r="N10" s="138"/>
+      <c r="O10" s="138"/>
+      <c r="P10" s="139"/>
+      <c r="Q10" s="148"/>
+      <c r="R10" s="149"/>
+      <c r="S10" s="149"/>
+      <c r="T10" s="149"/>
+      <c r="U10" s="149"/>
+      <c r="V10" s="149"/>
+      <c r="W10" s="149"/>
+      <c r="X10" s="149"/>
+      <c r="Y10" s="149"/>
+      <c r="Z10" s="149"/>
+      <c r="AA10" s="149"/>
+      <c r="AB10" s="149"/>
+      <c r="AC10" s="149"/>
+      <c r="AD10" s="149"/>
+      <c r="AE10" s="150"/>
+      <c r="AF10" s="137"/>
+      <c r="AG10" s="138"/>
+      <c r="AH10" s="138"/>
+      <c r="AI10" s="139"/>
       <c r="AJ10" s="31"/>
       <c r="AK10" s="31"/>
       <c r="AL10" s="31"/>
@@ -11130,40 +11128,40 @@
     </row>
     <row r="11" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="94"/>
-      <c r="B11" s="175"/>
-      <c r="C11" s="176"/>
-      <c r="D11" s="177"/>
-      <c r="E11" s="178"/>
-      <c r="F11" s="179"/>
-      <c r="G11" s="175"/>
-      <c r="H11" s="180"/>
-      <c r="I11" s="176"/>
-      <c r="J11" s="181"/>
-      <c r="K11" s="182"/>
-      <c r="L11" s="182"/>
-      <c r="M11" s="182"/>
-      <c r="N11" s="182"/>
-      <c r="O11" s="182"/>
-      <c r="P11" s="183"/>
-      <c r="Q11" s="184"/>
-      <c r="R11" s="185"/>
-      <c r="S11" s="185"/>
-      <c r="T11" s="185"/>
-      <c r="U11" s="185"/>
-      <c r="V11" s="185"/>
-      <c r="W11" s="185"/>
-      <c r="X11" s="185"/>
-      <c r="Y11" s="185"/>
-      <c r="Z11" s="185"/>
-      <c r="AA11" s="185"/>
-      <c r="AB11" s="185"/>
-      <c r="AC11" s="185"/>
-      <c r="AD11" s="185"/>
-      <c r="AE11" s="186"/>
-      <c r="AF11" s="181"/>
-      <c r="AG11" s="182"/>
-      <c r="AH11" s="182"/>
-      <c r="AI11" s="183"/>
+      <c r="B11" s="160"/>
+      <c r="C11" s="162"/>
+      <c r="D11" s="163"/>
+      <c r="E11" s="164"/>
+      <c r="F11" s="165"/>
+      <c r="G11" s="160"/>
+      <c r="H11" s="161"/>
+      <c r="I11" s="162"/>
+      <c r="J11" s="137"/>
+      <c r="K11" s="138"/>
+      <c r="L11" s="138"/>
+      <c r="M11" s="138"/>
+      <c r="N11" s="138"/>
+      <c r="O11" s="138"/>
+      <c r="P11" s="139"/>
+      <c r="Q11" s="148"/>
+      <c r="R11" s="149"/>
+      <c r="S11" s="149"/>
+      <c r="T11" s="149"/>
+      <c r="U11" s="149"/>
+      <c r="V11" s="149"/>
+      <c r="W11" s="149"/>
+      <c r="X11" s="149"/>
+      <c r="Y11" s="149"/>
+      <c r="Z11" s="149"/>
+      <c r="AA11" s="149"/>
+      <c r="AB11" s="149"/>
+      <c r="AC11" s="149"/>
+      <c r="AD11" s="149"/>
+      <c r="AE11" s="150"/>
+      <c r="AF11" s="137"/>
+      <c r="AG11" s="138"/>
+      <c r="AH11" s="138"/>
+      <c r="AI11" s="139"/>
       <c r="AJ11" s="31"/>
       <c r="AK11" s="31"/>
       <c r="AL11" s="31"/>
@@ -11172,40 +11170,40 @@
     </row>
     <row r="12" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="94"/>
-      <c r="B12" s="175"/>
-      <c r="C12" s="176"/>
-      <c r="D12" s="177"/>
-      <c r="E12" s="178"/>
-      <c r="F12" s="179"/>
-      <c r="G12" s="175"/>
-      <c r="H12" s="180"/>
-      <c r="I12" s="176"/>
-      <c r="J12" s="181"/>
-      <c r="K12" s="182"/>
-      <c r="L12" s="182"/>
-      <c r="M12" s="182"/>
-      <c r="N12" s="182"/>
-      <c r="O12" s="182"/>
-      <c r="P12" s="183"/>
-      <c r="Q12" s="184"/>
-      <c r="R12" s="185"/>
-      <c r="S12" s="185"/>
-      <c r="T12" s="185"/>
-      <c r="U12" s="185"/>
-      <c r="V12" s="185"/>
-      <c r="W12" s="185"/>
-      <c r="X12" s="185"/>
-      <c r="Y12" s="185"/>
-      <c r="Z12" s="185"/>
-      <c r="AA12" s="185"/>
-      <c r="AB12" s="185"/>
-      <c r="AC12" s="185"/>
-      <c r="AD12" s="185"/>
-      <c r="AE12" s="186"/>
-      <c r="AF12" s="181"/>
-      <c r="AG12" s="182"/>
-      <c r="AH12" s="182"/>
-      <c r="AI12" s="183"/>
+      <c r="B12" s="160"/>
+      <c r="C12" s="162"/>
+      <c r="D12" s="163"/>
+      <c r="E12" s="164"/>
+      <c r="F12" s="165"/>
+      <c r="G12" s="160"/>
+      <c r="H12" s="161"/>
+      <c r="I12" s="162"/>
+      <c r="J12" s="137"/>
+      <c r="K12" s="138"/>
+      <c r="L12" s="138"/>
+      <c r="M12" s="138"/>
+      <c r="N12" s="138"/>
+      <c r="O12" s="138"/>
+      <c r="P12" s="139"/>
+      <c r="Q12" s="148"/>
+      <c r="R12" s="149"/>
+      <c r="S12" s="149"/>
+      <c r="T12" s="149"/>
+      <c r="U12" s="149"/>
+      <c r="V12" s="149"/>
+      <c r="W12" s="149"/>
+      <c r="X12" s="149"/>
+      <c r="Y12" s="149"/>
+      <c r="Z12" s="149"/>
+      <c r="AA12" s="149"/>
+      <c r="AB12" s="149"/>
+      <c r="AC12" s="149"/>
+      <c r="AD12" s="149"/>
+      <c r="AE12" s="150"/>
+      <c r="AF12" s="137"/>
+      <c r="AG12" s="138"/>
+      <c r="AH12" s="138"/>
+      <c r="AI12" s="139"/>
       <c r="AJ12" s="31"/>
       <c r="AK12" s="31"/>
       <c r="AL12" s="31"/>
@@ -11214,40 +11212,40 @@
     </row>
     <row r="13" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="94"/>
-      <c r="B13" s="175"/>
-      <c r="C13" s="176"/>
-      <c r="D13" s="177"/>
-      <c r="E13" s="178"/>
-      <c r="F13" s="179"/>
-      <c r="G13" s="175"/>
-      <c r="H13" s="180"/>
-      <c r="I13" s="176"/>
-      <c r="J13" s="181"/>
-      <c r="K13" s="182"/>
-      <c r="L13" s="182"/>
-      <c r="M13" s="182"/>
-      <c r="N13" s="182"/>
-      <c r="O13" s="182"/>
-      <c r="P13" s="183"/>
-      <c r="Q13" s="184"/>
-      <c r="R13" s="185"/>
-      <c r="S13" s="185"/>
-      <c r="T13" s="185"/>
-      <c r="U13" s="185"/>
-      <c r="V13" s="185"/>
-      <c r="W13" s="185"/>
-      <c r="X13" s="185"/>
-      <c r="Y13" s="185"/>
-      <c r="Z13" s="185"/>
-      <c r="AA13" s="185"/>
-      <c r="AB13" s="185"/>
-      <c r="AC13" s="185"/>
-      <c r="AD13" s="185"/>
-      <c r="AE13" s="186"/>
-      <c r="AF13" s="181"/>
-      <c r="AG13" s="182"/>
-      <c r="AH13" s="182"/>
-      <c r="AI13" s="183"/>
+      <c r="B13" s="160"/>
+      <c r="C13" s="162"/>
+      <c r="D13" s="163"/>
+      <c r="E13" s="164"/>
+      <c r="F13" s="165"/>
+      <c r="G13" s="160"/>
+      <c r="H13" s="161"/>
+      <c r="I13" s="162"/>
+      <c r="J13" s="137"/>
+      <c r="K13" s="138"/>
+      <c r="L13" s="138"/>
+      <c r="M13" s="138"/>
+      <c r="N13" s="138"/>
+      <c r="O13" s="138"/>
+      <c r="P13" s="139"/>
+      <c r="Q13" s="148"/>
+      <c r="R13" s="149"/>
+      <c r="S13" s="149"/>
+      <c r="T13" s="149"/>
+      <c r="U13" s="149"/>
+      <c r="V13" s="149"/>
+      <c r="W13" s="149"/>
+      <c r="X13" s="149"/>
+      <c r="Y13" s="149"/>
+      <c r="Z13" s="149"/>
+      <c r="AA13" s="149"/>
+      <c r="AB13" s="149"/>
+      <c r="AC13" s="149"/>
+      <c r="AD13" s="149"/>
+      <c r="AE13" s="150"/>
+      <c r="AF13" s="137"/>
+      <c r="AG13" s="138"/>
+      <c r="AH13" s="138"/>
+      <c r="AI13" s="139"/>
       <c r="AJ13" s="31"/>
       <c r="AK13" s="31"/>
       <c r="AL13" s="31"/>
@@ -11256,40 +11254,40 @@
     </row>
     <row r="14" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="94"/>
-      <c r="B14" s="175"/>
-      <c r="C14" s="176"/>
-      <c r="D14" s="177"/>
-      <c r="E14" s="178"/>
-      <c r="F14" s="179"/>
-      <c r="G14" s="175"/>
-      <c r="H14" s="180"/>
-      <c r="I14" s="176"/>
-      <c r="J14" s="181"/>
-      <c r="K14" s="182"/>
-      <c r="L14" s="182"/>
-      <c r="M14" s="182"/>
-      <c r="N14" s="182"/>
-      <c r="O14" s="182"/>
-      <c r="P14" s="183"/>
-      <c r="Q14" s="184"/>
-      <c r="R14" s="185"/>
-      <c r="S14" s="185"/>
-      <c r="T14" s="185"/>
-      <c r="U14" s="185"/>
-      <c r="V14" s="185"/>
-      <c r="W14" s="185"/>
-      <c r="X14" s="185"/>
-      <c r="Y14" s="185"/>
-      <c r="Z14" s="185"/>
-      <c r="AA14" s="185"/>
-      <c r="AB14" s="185"/>
-      <c r="AC14" s="185"/>
-      <c r="AD14" s="185"/>
-      <c r="AE14" s="186"/>
-      <c r="AF14" s="181"/>
-      <c r="AG14" s="182"/>
-      <c r="AH14" s="182"/>
-      <c r="AI14" s="183"/>
+      <c r="B14" s="160"/>
+      <c r="C14" s="162"/>
+      <c r="D14" s="163"/>
+      <c r="E14" s="164"/>
+      <c r="F14" s="165"/>
+      <c r="G14" s="160"/>
+      <c r="H14" s="161"/>
+      <c r="I14" s="162"/>
+      <c r="J14" s="137"/>
+      <c r="K14" s="138"/>
+      <c r="L14" s="138"/>
+      <c r="M14" s="138"/>
+      <c r="N14" s="138"/>
+      <c r="O14" s="138"/>
+      <c r="P14" s="139"/>
+      <c r="Q14" s="148"/>
+      <c r="R14" s="149"/>
+      <c r="S14" s="149"/>
+      <c r="T14" s="149"/>
+      <c r="U14" s="149"/>
+      <c r="V14" s="149"/>
+      <c r="W14" s="149"/>
+      <c r="X14" s="149"/>
+      <c r="Y14" s="149"/>
+      <c r="Z14" s="149"/>
+      <c r="AA14" s="149"/>
+      <c r="AB14" s="149"/>
+      <c r="AC14" s="149"/>
+      <c r="AD14" s="149"/>
+      <c r="AE14" s="150"/>
+      <c r="AF14" s="137"/>
+      <c r="AG14" s="138"/>
+      <c r="AH14" s="138"/>
+      <c r="AI14" s="139"/>
       <c r="AJ14" s="31"/>
       <c r="AK14" s="31"/>
       <c r="AL14" s="31"/>
@@ -11298,40 +11296,40 @@
     </row>
     <row r="15" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="94"/>
-      <c r="B15" s="175"/>
-      <c r="C15" s="176"/>
-      <c r="D15" s="177"/>
-      <c r="E15" s="178"/>
-      <c r="F15" s="179"/>
-      <c r="G15" s="175"/>
-      <c r="H15" s="180"/>
-      <c r="I15" s="176"/>
-      <c r="J15" s="181"/>
-      <c r="K15" s="182"/>
-      <c r="L15" s="182"/>
-      <c r="M15" s="182"/>
-      <c r="N15" s="182"/>
-      <c r="O15" s="182"/>
-      <c r="P15" s="183"/>
-      <c r="Q15" s="184"/>
-      <c r="R15" s="185"/>
-      <c r="S15" s="185"/>
-      <c r="T15" s="185"/>
-      <c r="U15" s="185"/>
-      <c r="V15" s="185"/>
-      <c r="W15" s="185"/>
-      <c r="X15" s="185"/>
-      <c r="Y15" s="185"/>
-      <c r="Z15" s="185"/>
-      <c r="AA15" s="185"/>
-      <c r="AB15" s="185"/>
-      <c r="AC15" s="185"/>
-      <c r="AD15" s="185"/>
-      <c r="AE15" s="186"/>
-      <c r="AF15" s="181"/>
-      <c r="AG15" s="182"/>
-      <c r="AH15" s="182"/>
-      <c r="AI15" s="183"/>
+      <c r="B15" s="160"/>
+      <c r="C15" s="162"/>
+      <c r="D15" s="163"/>
+      <c r="E15" s="164"/>
+      <c r="F15" s="165"/>
+      <c r="G15" s="160"/>
+      <c r="H15" s="161"/>
+      <c r="I15" s="162"/>
+      <c r="J15" s="137"/>
+      <c r="K15" s="138"/>
+      <c r="L15" s="138"/>
+      <c r="M15" s="138"/>
+      <c r="N15" s="138"/>
+      <c r="O15" s="138"/>
+      <c r="P15" s="139"/>
+      <c r="Q15" s="148"/>
+      <c r="R15" s="149"/>
+      <c r="S15" s="149"/>
+      <c r="T15" s="149"/>
+      <c r="U15" s="149"/>
+      <c r="V15" s="149"/>
+      <c r="W15" s="149"/>
+      <c r="X15" s="149"/>
+      <c r="Y15" s="149"/>
+      <c r="Z15" s="149"/>
+      <c r="AA15" s="149"/>
+      <c r="AB15" s="149"/>
+      <c r="AC15" s="149"/>
+      <c r="AD15" s="149"/>
+      <c r="AE15" s="150"/>
+      <c r="AF15" s="137"/>
+      <c r="AG15" s="138"/>
+      <c r="AH15" s="138"/>
+      <c r="AI15" s="139"/>
       <c r="AJ15" s="31"/>
       <c r="AK15" s="31"/>
       <c r="AL15" s="31"/>
@@ -11340,40 +11338,40 @@
     </row>
     <row r="16" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="94"/>
-      <c r="B16" s="175"/>
-      <c r="C16" s="176"/>
-      <c r="D16" s="177"/>
-      <c r="E16" s="178"/>
-      <c r="F16" s="179"/>
-      <c r="G16" s="175"/>
-      <c r="H16" s="180"/>
-      <c r="I16" s="176"/>
-      <c r="J16" s="181"/>
-      <c r="K16" s="182"/>
-      <c r="L16" s="182"/>
-      <c r="M16" s="182"/>
-      <c r="N16" s="182"/>
-      <c r="O16" s="182"/>
-      <c r="P16" s="183"/>
-      <c r="Q16" s="184"/>
-      <c r="R16" s="185"/>
-      <c r="S16" s="185"/>
-      <c r="T16" s="185"/>
-      <c r="U16" s="185"/>
-      <c r="V16" s="185"/>
-      <c r="W16" s="185"/>
-      <c r="X16" s="185"/>
-      <c r="Y16" s="185"/>
-      <c r="Z16" s="185"/>
-      <c r="AA16" s="185"/>
-      <c r="AB16" s="185"/>
-      <c r="AC16" s="185"/>
-      <c r="AD16" s="185"/>
-      <c r="AE16" s="186"/>
-      <c r="AF16" s="181"/>
-      <c r="AG16" s="182"/>
-      <c r="AH16" s="182"/>
-      <c r="AI16" s="183"/>
+      <c r="B16" s="160"/>
+      <c r="C16" s="162"/>
+      <c r="D16" s="163"/>
+      <c r="E16" s="164"/>
+      <c r="F16" s="165"/>
+      <c r="G16" s="160"/>
+      <c r="H16" s="161"/>
+      <c r="I16" s="162"/>
+      <c r="J16" s="137"/>
+      <c r="K16" s="138"/>
+      <c r="L16" s="138"/>
+      <c r="M16" s="138"/>
+      <c r="N16" s="138"/>
+      <c r="O16" s="138"/>
+      <c r="P16" s="139"/>
+      <c r="Q16" s="148"/>
+      <c r="R16" s="149"/>
+      <c r="S16" s="149"/>
+      <c r="T16" s="149"/>
+      <c r="U16" s="149"/>
+      <c r="V16" s="149"/>
+      <c r="W16" s="149"/>
+      <c r="X16" s="149"/>
+      <c r="Y16" s="149"/>
+      <c r="Z16" s="149"/>
+      <c r="AA16" s="149"/>
+      <c r="AB16" s="149"/>
+      <c r="AC16" s="149"/>
+      <c r="AD16" s="149"/>
+      <c r="AE16" s="150"/>
+      <c r="AF16" s="137"/>
+      <c r="AG16" s="138"/>
+      <c r="AH16" s="138"/>
+      <c r="AI16" s="139"/>
       <c r="AJ16" s="31"/>
       <c r="AK16" s="31"/>
       <c r="AL16" s="31"/>
@@ -11382,40 +11380,40 @@
     </row>
     <row r="17" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="94"/>
-      <c r="B17" s="175"/>
-      <c r="C17" s="176"/>
-      <c r="D17" s="177"/>
-      <c r="E17" s="178"/>
-      <c r="F17" s="179"/>
-      <c r="G17" s="175"/>
-      <c r="H17" s="180"/>
-      <c r="I17" s="176"/>
-      <c r="J17" s="181"/>
-      <c r="K17" s="182"/>
-      <c r="L17" s="182"/>
-      <c r="M17" s="182"/>
-      <c r="N17" s="182"/>
-      <c r="O17" s="182"/>
-      <c r="P17" s="183"/>
-      <c r="Q17" s="184"/>
-      <c r="R17" s="185"/>
-      <c r="S17" s="185"/>
-      <c r="T17" s="185"/>
-      <c r="U17" s="185"/>
-      <c r="V17" s="185"/>
-      <c r="W17" s="185"/>
-      <c r="X17" s="185"/>
-      <c r="Y17" s="185"/>
-      <c r="Z17" s="185"/>
-      <c r="AA17" s="185"/>
-      <c r="AB17" s="185"/>
-      <c r="AC17" s="185"/>
-      <c r="AD17" s="185"/>
-      <c r="AE17" s="186"/>
-      <c r="AF17" s="181"/>
-      <c r="AG17" s="182"/>
-      <c r="AH17" s="182"/>
-      <c r="AI17" s="183"/>
+      <c r="B17" s="160"/>
+      <c r="C17" s="162"/>
+      <c r="D17" s="163"/>
+      <c r="E17" s="164"/>
+      <c r="F17" s="165"/>
+      <c r="G17" s="160"/>
+      <c r="H17" s="161"/>
+      <c r="I17" s="162"/>
+      <c r="J17" s="137"/>
+      <c r="K17" s="138"/>
+      <c r="L17" s="138"/>
+      <c r="M17" s="138"/>
+      <c r="N17" s="138"/>
+      <c r="O17" s="138"/>
+      <c r="P17" s="139"/>
+      <c r="Q17" s="148"/>
+      <c r="R17" s="149"/>
+      <c r="S17" s="149"/>
+      <c r="T17" s="149"/>
+      <c r="U17" s="149"/>
+      <c r="V17" s="149"/>
+      <c r="W17" s="149"/>
+      <c r="X17" s="149"/>
+      <c r="Y17" s="149"/>
+      <c r="Z17" s="149"/>
+      <c r="AA17" s="149"/>
+      <c r="AB17" s="149"/>
+      <c r="AC17" s="149"/>
+      <c r="AD17" s="149"/>
+      <c r="AE17" s="150"/>
+      <c r="AF17" s="137"/>
+      <c r="AG17" s="138"/>
+      <c r="AH17" s="138"/>
+      <c r="AI17" s="139"/>
       <c r="AJ17" s="31"/>
       <c r="AK17" s="31"/>
       <c r="AL17" s="31"/>
@@ -11424,40 +11422,40 @@
     </row>
     <row r="18" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="94"/>
-      <c r="B18" s="175"/>
-      <c r="C18" s="176"/>
-      <c r="D18" s="177"/>
-      <c r="E18" s="178"/>
-      <c r="F18" s="179"/>
-      <c r="G18" s="175"/>
-      <c r="H18" s="180"/>
-      <c r="I18" s="176"/>
-      <c r="J18" s="181"/>
-      <c r="K18" s="182"/>
-      <c r="L18" s="182"/>
-      <c r="M18" s="182"/>
-      <c r="N18" s="182"/>
-      <c r="O18" s="182"/>
-      <c r="P18" s="183"/>
-      <c r="Q18" s="184"/>
-      <c r="R18" s="185"/>
-      <c r="S18" s="185"/>
-      <c r="T18" s="185"/>
-      <c r="U18" s="185"/>
-      <c r="V18" s="185"/>
-      <c r="W18" s="185"/>
-      <c r="X18" s="185"/>
-      <c r="Y18" s="185"/>
-      <c r="Z18" s="185"/>
-      <c r="AA18" s="185"/>
-      <c r="AB18" s="185"/>
-      <c r="AC18" s="185"/>
-      <c r="AD18" s="185"/>
-      <c r="AE18" s="186"/>
-      <c r="AF18" s="181"/>
-      <c r="AG18" s="182"/>
-      <c r="AH18" s="182"/>
-      <c r="AI18" s="183"/>
+      <c r="B18" s="160"/>
+      <c r="C18" s="162"/>
+      <c r="D18" s="163"/>
+      <c r="E18" s="164"/>
+      <c r="F18" s="165"/>
+      <c r="G18" s="160"/>
+      <c r="H18" s="161"/>
+      <c r="I18" s="162"/>
+      <c r="J18" s="137"/>
+      <c r="K18" s="138"/>
+      <c r="L18" s="138"/>
+      <c r="M18" s="138"/>
+      <c r="N18" s="138"/>
+      <c r="O18" s="138"/>
+      <c r="P18" s="139"/>
+      <c r="Q18" s="148"/>
+      <c r="R18" s="149"/>
+      <c r="S18" s="149"/>
+      <c r="T18" s="149"/>
+      <c r="U18" s="149"/>
+      <c r="V18" s="149"/>
+      <c r="W18" s="149"/>
+      <c r="X18" s="149"/>
+      <c r="Y18" s="149"/>
+      <c r="Z18" s="149"/>
+      <c r="AA18" s="149"/>
+      <c r="AB18" s="149"/>
+      <c r="AC18" s="149"/>
+      <c r="AD18" s="149"/>
+      <c r="AE18" s="150"/>
+      <c r="AF18" s="137"/>
+      <c r="AG18" s="138"/>
+      <c r="AH18" s="138"/>
+      <c r="AI18" s="139"/>
       <c r="AJ18" s="31"/>
       <c r="AK18" s="31"/>
       <c r="AL18" s="31"/>
@@ -11466,40 +11464,40 @@
     </row>
     <row r="19" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="94"/>
-      <c r="B19" s="175"/>
-      <c r="C19" s="176"/>
-      <c r="D19" s="177"/>
-      <c r="E19" s="178"/>
-      <c r="F19" s="179"/>
-      <c r="G19" s="175"/>
-      <c r="H19" s="180"/>
-      <c r="I19" s="176"/>
-      <c r="J19" s="181"/>
-      <c r="K19" s="182"/>
-      <c r="L19" s="182"/>
-      <c r="M19" s="182"/>
-      <c r="N19" s="182"/>
-      <c r="O19" s="182"/>
-      <c r="P19" s="183"/>
-      <c r="Q19" s="184"/>
-      <c r="R19" s="185"/>
-      <c r="S19" s="185"/>
-      <c r="T19" s="185"/>
-      <c r="U19" s="185"/>
-      <c r="V19" s="185"/>
-      <c r="W19" s="185"/>
-      <c r="X19" s="185"/>
-      <c r="Y19" s="185"/>
-      <c r="Z19" s="185"/>
-      <c r="AA19" s="185"/>
-      <c r="AB19" s="185"/>
-      <c r="AC19" s="185"/>
-      <c r="AD19" s="185"/>
-      <c r="AE19" s="186"/>
-      <c r="AF19" s="181"/>
-      <c r="AG19" s="182"/>
-      <c r="AH19" s="182"/>
-      <c r="AI19" s="183"/>
+      <c r="B19" s="160"/>
+      <c r="C19" s="162"/>
+      <c r="D19" s="163"/>
+      <c r="E19" s="164"/>
+      <c r="F19" s="165"/>
+      <c r="G19" s="160"/>
+      <c r="H19" s="161"/>
+      <c r="I19" s="162"/>
+      <c r="J19" s="137"/>
+      <c r="K19" s="138"/>
+      <c r="L19" s="138"/>
+      <c r="M19" s="138"/>
+      <c r="N19" s="138"/>
+      <c r="O19" s="138"/>
+      <c r="P19" s="139"/>
+      <c r="Q19" s="148"/>
+      <c r="R19" s="149"/>
+      <c r="S19" s="149"/>
+      <c r="T19" s="149"/>
+      <c r="U19" s="149"/>
+      <c r="V19" s="149"/>
+      <c r="W19" s="149"/>
+      <c r="X19" s="149"/>
+      <c r="Y19" s="149"/>
+      <c r="Z19" s="149"/>
+      <c r="AA19" s="149"/>
+      <c r="AB19" s="149"/>
+      <c r="AC19" s="149"/>
+      <c r="AD19" s="149"/>
+      <c r="AE19" s="150"/>
+      <c r="AF19" s="137"/>
+      <c r="AG19" s="138"/>
+      <c r="AH19" s="138"/>
+      <c r="AI19" s="139"/>
       <c r="AJ19" s="31"/>
       <c r="AK19" s="31"/>
       <c r="AL19" s="31"/>
@@ -11508,40 +11506,40 @@
     </row>
     <row r="20" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="94"/>
-      <c r="B20" s="175"/>
-      <c r="C20" s="176"/>
-      <c r="D20" s="177"/>
-      <c r="E20" s="178"/>
-      <c r="F20" s="179"/>
-      <c r="G20" s="175"/>
-      <c r="H20" s="180"/>
-      <c r="I20" s="176"/>
-      <c r="J20" s="181"/>
-      <c r="K20" s="182"/>
-      <c r="L20" s="182"/>
-      <c r="M20" s="182"/>
-      <c r="N20" s="182"/>
-      <c r="O20" s="182"/>
-      <c r="P20" s="183"/>
-      <c r="Q20" s="184"/>
-      <c r="R20" s="185"/>
-      <c r="S20" s="185"/>
-      <c r="T20" s="185"/>
-      <c r="U20" s="185"/>
-      <c r="V20" s="185"/>
-      <c r="W20" s="185"/>
-      <c r="X20" s="185"/>
-      <c r="Y20" s="185"/>
-      <c r="Z20" s="185"/>
-      <c r="AA20" s="185"/>
-      <c r="AB20" s="185"/>
-      <c r="AC20" s="185"/>
-      <c r="AD20" s="185"/>
-      <c r="AE20" s="186"/>
-      <c r="AF20" s="181"/>
-      <c r="AG20" s="182"/>
-      <c r="AH20" s="182"/>
-      <c r="AI20" s="183"/>
+      <c r="B20" s="160"/>
+      <c r="C20" s="162"/>
+      <c r="D20" s="163"/>
+      <c r="E20" s="164"/>
+      <c r="F20" s="165"/>
+      <c r="G20" s="160"/>
+      <c r="H20" s="161"/>
+      <c r="I20" s="162"/>
+      <c r="J20" s="137"/>
+      <c r="K20" s="138"/>
+      <c r="L20" s="138"/>
+      <c r="M20" s="138"/>
+      <c r="N20" s="138"/>
+      <c r="O20" s="138"/>
+      <c r="P20" s="139"/>
+      <c r="Q20" s="148"/>
+      <c r="R20" s="149"/>
+      <c r="S20" s="149"/>
+      <c r="T20" s="149"/>
+      <c r="U20" s="149"/>
+      <c r="V20" s="149"/>
+      <c r="W20" s="149"/>
+      <c r="X20" s="149"/>
+      <c r="Y20" s="149"/>
+      <c r="Z20" s="149"/>
+      <c r="AA20" s="149"/>
+      <c r="AB20" s="149"/>
+      <c r="AC20" s="149"/>
+      <c r="AD20" s="149"/>
+      <c r="AE20" s="150"/>
+      <c r="AF20" s="137"/>
+      <c r="AG20" s="138"/>
+      <c r="AH20" s="138"/>
+      <c r="AI20" s="139"/>
       <c r="AJ20" s="31"/>
       <c r="AK20" s="31"/>
       <c r="AL20" s="31"/>
@@ -11550,40 +11548,40 @@
     </row>
     <row r="21" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="94"/>
-      <c r="B21" s="175"/>
-      <c r="C21" s="176"/>
-      <c r="D21" s="177"/>
-      <c r="E21" s="178"/>
-      <c r="F21" s="179"/>
-      <c r="G21" s="175"/>
-      <c r="H21" s="180"/>
-      <c r="I21" s="176"/>
-      <c r="J21" s="181"/>
-      <c r="K21" s="182"/>
-      <c r="L21" s="182"/>
-      <c r="M21" s="182"/>
-      <c r="N21" s="182"/>
-      <c r="O21" s="182"/>
-      <c r="P21" s="183"/>
-      <c r="Q21" s="184"/>
-      <c r="R21" s="185"/>
-      <c r="S21" s="185"/>
-      <c r="T21" s="185"/>
-      <c r="U21" s="185"/>
-      <c r="V21" s="185"/>
-      <c r="W21" s="185"/>
-      <c r="X21" s="185"/>
-      <c r="Y21" s="185"/>
-      <c r="Z21" s="185"/>
-      <c r="AA21" s="185"/>
-      <c r="AB21" s="185"/>
-      <c r="AC21" s="185"/>
-      <c r="AD21" s="185"/>
-      <c r="AE21" s="186"/>
-      <c r="AF21" s="181"/>
-      <c r="AG21" s="182"/>
-      <c r="AH21" s="182"/>
-      <c r="AI21" s="183"/>
+      <c r="B21" s="160"/>
+      <c r="C21" s="162"/>
+      <c r="D21" s="163"/>
+      <c r="E21" s="164"/>
+      <c r="F21" s="165"/>
+      <c r="G21" s="160"/>
+      <c r="H21" s="161"/>
+      <c r="I21" s="162"/>
+      <c r="J21" s="137"/>
+      <c r="K21" s="138"/>
+      <c r="L21" s="138"/>
+      <c r="M21" s="138"/>
+      <c r="N21" s="138"/>
+      <c r="O21" s="138"/>
+      <c r="P21" s="139"/>
+      <c r="Q21" s="148"/>
+      <c r="R21" s="149"/>
+      <c r="S21" s="149"/>
+      <c r="T21" s="149"/>
+      <c r="U21" s="149"/>
+      <c r="V21" s="149"/>
+      <c r="W21" s="149"/>
+      <c r="X21" s="149"/>
+      <c r="Y21" s="149"/>
+      <c r="Z21" s="149"/>
+      <c r="AA21" s="149"/>
+      <c r="AB21" s="149"/>
+      <c r="AC21" s="149"/>
+      <c r="AD21" s="149"/>
+      <c r="AE21" s="150"/>
+      <c r="AF21" s="137"/>
+      <c r="AG21" s="138"/>
+      <c r="AH21" s="138"/>
+      <c r="AI21" s="139"/>
       <c r="AJ21" s="31"/>
       <c r="AK21" s="31"/>
       <c r="AL21" s="31"/>
@@ -11592,40 +11590,40 @@
     </row>
     <row r="22" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="94"/>
-      <c r="B22" s="175"/>
-      <c r="C22" s="176"/>
-      <c r="D22" s="177"/>
-      <c r="E22" s="178"/>
-      <c r="F22" s="179"/>
-      <c r="G22" s="175"/>
-      <c r="H22" s="180"/>
-      <c r="I22" s="176"/>
-      <c r="J22" s="181"/>
-      <c r="K22" s="182"/>
-      <c r="L22" s="182"/>
-      <c r="M22" s="182"/>
-      <c r="N22" s="182"/>
-      <c r="O22" s="182"/>
-      <c r="P22" s="183"/>
-      <c r="Q22" s="184"/>
-      <c r="R22" s="185"/>
-      <c r="S22" s="185"/>
-      <c r="T22" s="185"/>
-      <c r="U22" s="185"/>
-      <c r="V22" s="185"/>
-      <c r="W22" s="185"/>
-      <c r="X22" s="185"/>
-      <c r="Y22" s="185"/>
-      <c r="Z22" s="185"/>
-      <c r="AA22" s="185"/>
-      <c r="AB22" s="185"/>
-      <c r="AC22" s="185"/>
-      <c r="AD22" s="185"/>
-      <c r="AE22" s="186"/>
-      <c r="AF22" s="181"/>
-      <c r="AG22" s="182"/>
-      <c r="AH22" s="182"/>
-      <c r="AI22" s="183"/>
+      <c r="B22" s="160"/>
+      <c r="C22" s="162"/>
+      <c r="D22" s="163"/>
+      <c r="E22" s="164"/>
+      <c r="F22" s="165"/>
+      <c r="G22" s="160"/>
+      <c r="H22" s="161"/>
+      <c r="I22" s="162"/>
+      <c r="J22" s="137"/>
+      <c r="K22" s="138"/>
+      <c r="L22" s="138"/>
+      <c r="M22" s="138"/>
+      <c r="N22" s="138"/>
+      <c r="O22" s="138"/>
+      <c r="P22" s="139"/>
+      <c r="Q22" s="148"/>
+      <c r="R22" s="149"/>
+      <c r="S22" s="149"/>
+      <c r="T22" s="149"/>
+      <c r="U22" s="149"/>
+      <c r="V22" s="149"/>
+      <c r="W22" s="149"/>
+      <c r="X22" s="149"/>
+      <c r="Y22" s="149"/>
+      <c r="Z22" s="149"/>
+      <c r="AA22" s="149"/>
+      <c r="AB22" s="149"/>
+      <c r="AC22" s="149"/>
+      <c r="AD22" s="149"/>
+      <c r="AE22" s="150"/>
+      <c r="AF22" s="137"/>
+      <c r="AG22" s="138"/>
+      <c r="AH22" s="138"/>
+      <c r="AI22" s="139"/>
       <c r="AJ22" s="31"/>
       <c r="AK22" s="31"/>
       <c r="AL22" s="31"/>
@@ -11634,40 +11632,40 @@
     </row>
     <row r="23" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="94"/>
-      <c r="B23" s="175"/>
-      <c r="C23" s="176"/>
-      <c r="D23" s="177"/>
-      <c r="E23" s="178"/>
-      <c r="F23" s="179"/>
-      <c r="G23" s="175"/>
-      <c r="H23" s="180"/>
-      <c r="I23" s="176"/>
-      <c r="J23" s="181"/>
-      <c r="K23" s="182"/>
-      <c r="L23" s="182"/>
-      <c r="M23" s="182"/>
-      <c r="N23" s="182"/>
-      <c r="O23" s="182"/>
-      <c r="P23" s="183"/>
-      <c r="Q23" s="184"/>
-      <c r="R23" s="185"/>
-      <c r="S23" s="185"/>
-      <c r="T23" s="185"/>
-      <c r="U23" s="185"/>
-      <c r="V23" s="185"/>
-      <c r="W23" s="185"/>
-      <c r="X23" s="185"/>
-      <c r="Y23" s="185"/>
-      <c r="Z23" s="185"/>
-      <c r="AA23" s="185"/>
-      <c r="AB23" s="185"/>
-      <c r="AC23" s="185"/>
-      <c r="AD23" s="185"/>
-      <c r="AE23" s="186"/>
-      <c r="AF23" s="181"/>
-      <c r="AG23" s="182"/>
-      <c r="AH23" s="182"/>
-      <c r="AI23" s="183"/>
+      <c r="B23" s="160"/>
+      <c r="C23" s="162"/>
+      <c r="D23" s="163"/>
+      <c r="E23" s="164"/>
+      <c r="F23" s="165"/>
+      <c r="G23" s="160"/>
+      <c r="H23" s="161"/>
+      <c r="I23" s="162"/>
+      <c r="J23" s="137"/>
+      <c r="K23" s="138"/>
+      <c r="L23" s="138"/>
+      <c r="M23" s="138"/>
+      <c r="N23" s="138"/>
+      <c r="O23" s="138"/>
+      <c r="P23" s="139"/>
+      <c r="Q23" s="148"/>
+      <c r="R23" s="149"/>
+      <c r="S23" s="149"/>
+      <c r="T23" s="149"/>
+      <c r="U23" s="149"/>
+      <c r="V23" s="149"/>
+      <c r="W23" s="149"/>
+      <c r="X23" s="149"/>
+      <c r="Y23" s="149"/>
+      <c r="Z23" s="149"/>
+      <c r="AA23" s="149"/>
+      <c r="AB23" s="149"/>
+      <c r="AC23" s="149"/>
+      <c r="AD23" s="149"/>
+      <c r="AE23" s="150"/>
+      <c r="AF23" s="137"/>
+      <c r="AG23" s="138"/>
+      <c r="AH23" s="138"/>
+      <c r="AI23" s="139"/>
       <c r="AJ23" s="31"/>
       <c r="AK23" s="31"/>
       <c r="AL23" s="31"/>
@@ -11676,40 +11674,40 @@
     </row>
     <row r="24" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="94"/>
-      <c r="B24" s="175"/>
-      <c r="C24" s="176"/>
-      <c r="D24" s="177"/>
-      <c r="E24" s="178"/>
-      <c r="F24" s="179"/>
-      <c r="G24" s="175"/>
-      <c r="H24" s="180"/>
-      <c r="I24" s="176"/>
-      <c r="J24" s="181"/>
-      <c r="K24" s="182"/>
-      <c r="L24" s="182"/>
-      <c r="M24" s="182"/>
-      <c r="N24" s="182"/>
-      <c r="O24" s="182"/>
-      <c r="P24" s="183"/>
-      <c r="Q24" s="184"/>
-      <c r="R24" s="185"/>
-      <c r="S24" s="185"/>
-      <c r="T24" s="185"/>
-      <c r="U24" s="185"/>
-      <c r="V24" s="185"/>
-      <c r="W24" s="185"/>
-      <c r="X24" s="185"/>
-      <c r="Y24" s="185"/>
-      <c r="Z24" s="185"/>
-      <c r="AA24" s="185"/>
-      <c r="AB24" s="185"/>
-      <c r="AC24" s="185"/>
-      <c r="AD24" s="185"/>
-      <c r="AE24" s="186"/>
-      <c r="AF24" s="181"/>
-      <c r="AG24" s="182"/>
-      <c r="AH24" s="182"/>
-      <c r="AI24" s="183"/>
+      <c r="B24" s="160"/>
+      <c r="C24" s="162"/>
+      <c r="D24" s="163"/>
+      <c r="E24" s="164"/>
+      <c r="F24" s="165"/>
+      <c r="G24" s="160"/>
+      <c r="H24" s="161"/>
+      <c r="I24" s="162"/>
+      <c r="J24" s="137"/>
+      <c r="K24" s="138"/>
+      <c r="L24" s="138"/>
+      <c r="M24" s="138"/>
+      <c r="N24" s="138"/>
+      <c r="O24" s="138"/>
+      <c r="P24" s="139"/>
+      <c r="Q24" s="148"/>
+      <c r="R24" s="149"/>
+      <c r="S24" s="149"/>
+      <c r="T24" s="149"/>
+      <c r="U24" s="149"/>
+      <c r="V24" s="149"/>
+      <c r="W24" s="149"/>
+      <c r="X24" s="149"/>
+      <c r="Y24" s="149"/>
+      <c r="Z24" s="149"/>
+      <c r="AA24" s="149"/>
+      <c r="AB24" s="149"/>
+      <c r="AC24" s="149"/>
+      <c r="AD24" s="149"/>
+      <c r="AE24" s="150"/>
+      <c r="AF24" s="137"/>
+      <c r="AG24" s="138"/>
+      <c r="AH24" s="138"/>
+      <c r="AI24" s="139"/>
       <c r="AJ24" s="31"/>
       <c r="AK24" s="31"/>
       <c r="AL24" s="31"/>
@@ -11718,40 +11716,40 @@
     </row>
     <row r="25" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="94"/>
-      <c r="B25" s="175"/>
-      <c r="C25" s="176"/>
-      <c r="D25" s="177"/>
-      <c r="E25" s="178"/>
-      <c r="F25" s="179"/>
-      <c r="G25" s="175"/>
-      <c r="H25" s="180"/>
-      <c r="I25" s="176"/>
-      <c r="J25" s="181"/>
-      <c r="K25" s="182"/>
-      <c r="L25" s="182"/>
-      <c r="M25" s="182"/>
-      <c r="N25" s="182"/>
-      <c r="O25" s="182"/>
-      <c r="P25" s="183"/>
-      <c r="Q25" s="184"/>
-      <c r="R25" s="185"/>
-      <c r="S25" s="185"/>
-      <c r="T25" s="185"/>
-      <c r="U25" s="185"/>
-      <c r="V25" s="185"/>
-      <c r="W25" s="185"/>
-      <c r="X25" s="185"/>
-      <c r="Y25" s="185"/>
-      <c r="Z25" s="185"/>
-      <c r="AA25" s="185"/>
-      <c r="AB25" s="185"/>
-      <c r="AC25" s="185"/>
-      <c r="AD25" s="185"/>
-      <c r="AE25" s="186"/>
-      <c r="AF25" s="181"/>
-      <c r="AG25" s="182"/>
-      <c r="AH25" s="182"/>
-      <c r="AI25" s="183"/>
+      <c r="B25" s="160"/>
+      <c r="C25" s="162"/>
+      <c r="D25" s="163"/>
+      <c r="E25" s="164"/>
+      <c r="F25" s="165"/>
+      <c r="G25" s="160"/>
+      <c r="H25" s="161"/>
+      <c r="I25" s="162"/>
+      <c r="J25" s="137"/>
+      <c r="K25" s="138"/>
+      <c r="L25" s="138"/>
+      <c r="M25" s="138"/>
+      <c r="N25" s="138"/>
+      <c r="O25" s="138"/>
+      <c r="P25" s="139"/>
+      <c r="Q25" s="148"/>
+      <c r="R25" s="149"/>
+      <c r="S25" s="149"/>
+      <c r="T25" s="149"/>
+      <c r="U25" s="149"/>
+      <c r="V25" s="149"/>
+      <c r="W25" s="149"/>
+      <c r="X25" s="149"/>
+      <c r="Y25" s="149"/>
+      <c r="Z25" s="149"/>
+      <c r="AA25" s="149"/>
+      <c r="AB25" s="149"/>
+      <c r="AC25" s="149"/>
+      <c r="AD25" s="149"/>
+      <c r="AE25" s="150"/>
+      <c r="AF25" s="137"/>
+      <c r="AG25" s="138"/>
+      <c r="AH25" s="138"/>
+      <c r="AI25" s="139"/>
       <c r="AJ25" s="31"/>
       <c r="AK25" s="31"/>
       <c r="AL25" s="31"/>
@@ -11760,40 +11758,40 @@
     </row>
     <row r="26" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="94"/>
-      <c r="B26" s="175"/>
-      <c r="C26" s="176"/>
-      <c r="D26" s="177"/>
-      <c r="E26" s="178"/>
-      <c r="F26" s="179"/>
-      <c r="G26" s="175"/>
-      <c r="H26" s="180"/>
-      <c r="I26" s="176"/>
-      <c r="J26" s="181"/>
-      <c r="K26" s="182"/>
-      <c r="L26" s="182"/>
-      <c r="M26" s="182"/>
-      <c r="N26" s="182"/>
-      <c r="O26" s="182"/>
-      <c r="P26" s="183"/>
-      <c r="Q26" s="184"/>
-      <c r="R26" s="185"/>
-      <c r="S26" s="185"/>
-      <c r="T26" s="185"/>
-      <c r="U26" s="185"/>
-      <c r="V26" s="185"/>
-      <c r="W26" s="185"/>
-      <c r="X26" s="185"/>
-      <c r="Y26" s="185"/>
-      <c r="Z26" s="185"/>
-      <c r="AA26" s="185"/>
-      <c r="AB26" s="185"/>
-      <c r="AC26" s="185"/>
-      <c r="AD26" s="185"/>
-      <c r="AE26" s="186"/>
-      <c r="AF26" s="181"/>
-      <c r="AG26" s="182"/>
-      <c r="AH26" s="182"/>
-      <c r="AI26" s="183"/>
+      <c r="B26" s="160"/>
+      <c r="C26" s="162"/>
+      <c r="D26" s="163"/>
+      <c r="E26" s="164"/>
+      <c r="F26" s="165"/>
+      <c r="G26" s="160"/>
+      <c r="H26" s="161"/>
+      <c r="I26" s="162"/>
+      <c r="J26" s="137"/>
+      <c r="K26" s="138"/>
+      <c r="L26" s="138"/>
+      <c r="M26" s="138"/>
+      <c r="N26" s="138"/>
+      <c r="O26" s="138"/>
+      <c r="P26" s="139"/>
+      <c r="Q26" s="148"/>
+      <c r="R26" s="149"/>
+      <c r="S26" s="149"/>
+      <c r="T26" s="149"/>
+      <c r="U26" s="149"/>
+      <c r="V26" s="149"/>
+      <c r="W26" s="149"/>
+      <c r="X26" s="149"/>
+      <c r="Y26" s="149"/>
+      <c r="Z26" s="149"/>
+      <c r="AA26" s="149"/>
+      <c r="AB26" s="149"/>
+      <c r="AC26" s="149"/>
+      <c r="AD26" s="149"/>
+      <c r="AE26" s="150"/>
+      <c r="AF26" s="137"/>
+      <c r="AG26" s="138"/>
+      <c r="AH26" s="138"/>
+      <c r="AI26" s="139"/>
       <c r="AJ26" s="31"/>
       <c r="AK26" s="31"/>
       <c r="AL26" s="31"/>
@@ -11802,40 +11800,40 @@
     </row>
     <row r="27" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="94"/>
-      <c r="B27" s="175"/>
-      <c r="C27" s="176"/>
-      <c r="D27" s="177"/>
-      <c r="E27" s="178"/>
-      <c r="F27" s="179"/>
-      <c r="G27" s="175"/>
-      <c r="H27" s="180"/>
-      <c r="I27" s="176"/>
-      <c r="J27" s="181"/>
-      <c r="K27" s="182"/>
-      <c r="L27" s="182"/>
-      <c r="M27" s="182"/>
-      <c r="N27" s="182"/>
-      <c r="O27" s="182"/>
-      <c r="P27" s="183"/>
-      <c r="Q27" s="184"/>
-      <c r="R27" s="185"/>
-      <c r="S27" s="185"/>
-      <c r="T27" s="185"/>
-      <c r="U27" s="185"/>
-      <c r="V27" s="185"/>
-      <c r="W27" s="185"/>
-      <c r="X27" s="185"/>
-      <c r="Y27" s="185"/>
-      <c r="Z27" s="185"/>
-      <c r="AA27" s="185"/>
-      <c r="AB27" s="185"/>
-      <c r="AC27" s="185"/>
-      <c r="AD27" s="185"/>
-      <c r="AE27" s="186"/>
-      <c r="AF27" s="181"/>
-      <c r="AG27" s="182"/>
-      <c r="AH27" s="182"/>
-      <c r="AI27" s="183"/>
+      <c r="B27" s="160"/>
+      <c r="C27" s="162"/>
+      <c r="D27" s="163"/>
+      <c r="E27" s="164"/>
+      <c r="F27" s="165"/>
+      <c r="G27" s="160"/>
+      <c r="H27" s="161"/>
+      <c r="I27" s="162"/>
+      <c r="J27" s="137"/>
+      <c r="K27" s="138"/>
+      <c r="L27" s="138"/>
+      <c r="M27" s="138"/>
+      <c r="N27" s="138"/>
+      <c r="O27" s="138"/>
+      <c r="P27" s="139"/>
+      <c r="Q27" s="148"/>
+      <c r="R27" s="149"/>
+      <c r="S27" s="149"/>
+      <c r="T27" s="149"/>
+      <c r="U27" s="149"/>
+      <c r="V27" s="149"/>
+      <c r="W27" s="149"/>
+      <c r="X27" s="149"/>
+      <c r="Y27" s="149"/>
+      <c r="Z27" s="149"/>
+      <c r="AA27" s="149"/>
+      <c r="AB27" s="149"/>
+      <c r="AC27" s="149"/>
+      <c r="AD27" s="149"/>
+      <c r="AE27" s="150"/>
+      <c r="AF27" s="137"/>
+      <c r="AG27" s="138"/>
+      <c r="AH27" s="138"/>
+      <c r="AI27" s="139"/>
       <c r="AJ27" s="31"/>
       <c r="AK27" s="31"/>
       <c r="AL27" s="31"/>
@@ -11844,40 +11842,40 @@
     </row>
     <row r="28" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="94"/>
-      <c r="B28" s="175"/>
-      <c r="C28" s="176"/>
-      <c r="D28" s="177"/>
-      <c r="E28" s="178"/>
-      <c r="F28" s="179"/>
-      <c r="G28" s="175"/>
-      <c r="H28" s="180"/>
-      <c r="I28" s="176"/>
-      <c r="J28" s="181"/>
-      <c r="K28" s="182"/>
-      <c r="L28" s="182"/>
-      <c r="M28" s="182"/>
-      <c r="N28" s="182"/>
-      <c r="O28" s="182"/>
-      <c r="P28" s="183"/>
-      <c r="Q28" s="184"/>
-      <c r="R28" s="185"/>
-      <c r="S28" s="185"/>
-      <c r="T28" s="185"/>
-      <c r="U28" s="185"/>
-      <c r="V28" s="185"/>
-      <c r="W28" s="185"/>
-      <c r="X28" s="185"/>
-      <c r="Y28" s="185"/>
-      <c r="Z28" s="185"/>
-      <c r="AA28" s="185"/>
-      <c r="AB28" s="185"/>
-      <c r="AC28" s="185"/>
-      <c r="AD28" s="185"/>
-      <c r="AE28" s="186"/>
-      <c r="AF28" s="181"/>
-      <c r="AG28" s="182"/>
-      <c r="AH28" s="182"/>
-      <c r="AI28" s="183"/>
+      <c r="B28" s="160"/>
+      <c r="C28" s="162"/>
+      <c r="D28" s="163"/>
+      <c r="E28" s="164"/>
+      <c r="F28" s="165"/>
+      <c r="G28" s="160"/>
+      <c r="H28" s="161"/>
+      <c r="I28" s="162"/>
+      <c r="J28" s="137"/>
+      <c r="K28" s="138"/>
+      <c r="L28" s="138"/>
+      <c r="M28" s="138"/>
+      <c r="N28" s="138"/>
+      <c r="O28" s="138"/>
+      <c r="P28" s="139"/>
+      <c r="Q28" s="148"/>
+      <c r="R28" s="149"/>
+      <c r="S28" s="149"/>
+      <c r="T28" s="149"/>
+      <c r="U28" s="149"/>
+      <c r="V28" s="149"/>
+      <c r="W28" s="149"/>
+      <c r="X28" s="149"/>
+      <c r="Y28" s="149"/>
+      <c r="Z28" s="149"/>
+      <c r="AA28" s="149"/>
+      <c r="AB28" s="149"/>
+      <c r="AC28" s="149"/>
+      <c r="AD28" s="149"/>
+      <c r="AE28" s="150"/>
+      <c r="AF28" s="137"/>
+      <c r="AG28" s="138"/>
+      <c r="AH28" s="138"/>
+      <c r="AI28" s="139"/>
       <c r="AJ28" s="31"/>
       <c r="AK28" s="31"/>
       <c r="AL28" s="31"/>
@@ -11886,40 +11884,40 @@
     </row>
     <row r="29" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="94"/>
-      <c r="B29" s="175"/>
-      <c r="C29" s="176"/>
-      <c r="D29" s="177"/>
-      <c r="E29" s="178"/>
-      <c r="F29" s="179"/>
-      <c r="G29" s="175"/>
-      <c r="H29" s="180"/>
-      <c r="I29" s="176"/>
-      <c r="J29" s="181"/>
-      <c r="K29" s="182"/>
-      <c r="L29" s="182"/>
-      <c r="M29" s="182"/>
-      <c r="N29" s="182"/>
-      <c r="O29" s="182"/>
-      <c r="P29" s="183"/>
-      <c r="Q29" s="184"/>
-      <c r="R29" s="185"/>
-      <c r="S29" s="185"/>
-      <c r="T29" s="185"/>
-      <c r="U29" s="185"/>
-      <c r="V29" s="185"/>
-      <c r="W29" s="185"/>
-      <c r="X29" s="185"/>
-      <c r="Y29" s="185"/>
-      <c r="Z29" s="185"/>
-      <c r="AA29" s="185"/>
-      <c r="AB29" s="185"/>
-      <c r="AC29" s="185"/>
-      <c r="AD29" s="185"/>
-      <c r="AE29" s="186"/>
-      <c r="AF29" s="181"/>
-      <c r="AG29" s="182"/>
-      <c r="AH29" s="182"/>
-      <c r="AI29" s="183"/>
+      <c r="B29" s="160"/>
+      <c r="C29" s="162"/>
+      <c r="D29" s="163"/>
+      <c r="E29" s="164"/>
+      <c r="F29" s="165"/>
+      <c r="G29" s="160"/>
+      <c r="H29" s="161"/>
+      <c r="I29" s="162"/>
+      <c r="J29" s="137"/>
+      <c r="K29" s="138"/>
+      <c r="L29" s="138"/>
+      <c r="M29" s="138"/>
+      <c r="N29" s="138"/>
+      <c r="O29" s="138"/>
+      <c r="P29" s="139"/>
+      <c r="Q29" s="148"/>
+      <c r="R29" s="149"/>
+      <c r="S29" s="149"/>
+      <c r="T29" s="149"/>
+      <c r="U29" s="149"/>
+      <c r="V29" s="149"/>
+      <c r="W29" s="149"/>
+      <c r="X29" s="149"/>
+      <c r="Y29" s="149"/>
+      <c r="Z29" s="149"/>
+      <c r="AA29" s="149"/>
+      <c r="AB29" s="149"/>
+      <c r="AC29" s="149"/>
+      <c r="AD29" s="149"/>
+      <c r="AE29" s="150"/>
+      <c r="AF29" s="137"/>
+      <c r="AG29" s="138"/>
+      <c r="AH29" s="138"/>
+      <c r="AI29" s="139"/>
       <c r="AJ29" s="31"/>
       <c r="AK29" s="31"/>
       <c r="AL29" s="31"/>
@@ -11928,40 +11926,40 @@
     </row>
     <row r="30" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="94"/>
-      <c r="B30" s="175"/>
-      <c r="C30" s="176"/>
-      <c r="D30" s="177"/>
-      <c r="E30" s="178"/>
-      <c r="F30" s="179"/>
-      <c r="G30" s="175"/>
-      <c r="H30" s="180"/>
-      <c r="I30" s="176"/>
-      <c r="J30" s="181"/>
-      <c r="K30" s="182"/>
-      <c r="L30" s="182"/>
-      <c r="M30" s="182"/>
-      <c r="N30" s="182"/>
-      <c r="O30" s="182"/>
-      <c r="P30" s="183"/>
-      <c r="Q30" s="184"/>
-      <c r="R30" s="185"/>
-      <c r="S30" s="185"/>
-      <c r="T30" s="185"/>
-      <c r="U30" s="185"/>
-      <c r="V30" s="185"/>
-      <c r="W30" s="185"/>
-      <c r="X30" s="185"/>
-      <c r="Y30" s="185"/>
-      <c r="Z30" s="185"/>
-      <c r="AA30" s="185"/>
-      <c r="AB30" s="185"/>
-      <c r="AC30" s="185"/>
-      <c r="AD30" s="185"/>
-      <c r="AE30" s="186"/>
-      <c r="AF30" s="181"/>
-      <c r="AG30" s="182"/>
-      <c r="AH30" s="182"/>
-      <c r="AI30" s="183"/>
+      <c r="B30" s="160"/>
+      <c r="C30" s="162"/>
+      <c r="D30" s="163"/>
+      <c r="E30" s="164"/>
+      <c r="F30" s="165"/>
+      <c r="G30" s="160"/>
+      <c r="H30" s="161"/>
+      <c r="I30" s="162"/>
+      <c r="J30" s="137"/>
+      <c r="K30" s="138"/>
+      <c r="L30" s="138"/>
+      <c r="M30" s="138"/>
+      <c r="N30" s="138"/>
+      <c r="O30" s="138"/>
+      <c r="P30" s="139"/>
+      <c r="Q30" s="148"/>
+      <c r="R30" s="149"/>
+      <c r="S30" s="149"/>
+      <c r="T30" s="149"/>
+      <c r="U30" s="149"/>
+      <c r="V30" s="149"/>
+      <c r="W30" s="149"/>
+      <c r="X30" s="149"/>
+      <c r="Y30" s="149"/>
+      <c r="Z30" s="149"/>
+      <c r="AA30" s="149"/>
+      <c r="AB30" s="149"/>
+      <c r="AC30" s="149"/>
+      <c r="AD30" s="149"/>
+      <c r="AE30" s="150"/>
+      <c r="AF30" s="137"/>
+      <c r="AG30" s="138"/>
+      <c r="AH30" s="138"/>
+      <c r="AI30" s="139"/>
       <c r="AJ30" s="31"/>
       <c r="AK30" s="31"/>
       <c r="AL30" s="31"/>
@@ -11970,40 +11968,40 @@
     </row>
     <row r="31" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="94"/>
-      <c r="B31" s="175"/>
-      <c r="C31" s="176"/>
-      <c r="D31" s="177"/>
-      <c r="E31" s="178"/>
-      <c r="F31" s="179"/>
-      <c r="G31" s="175"/>
-      <c r="H31" s="180"/>
-      <c r="I31" s="176"/>
-      <c r="J31" s="181"/>
-      <c r="K31" s="182"/>
-      <c r="L31" s="182"/>
-      <c r="M31" s="182"/>
-      <c r="N31" s="182"/>
-      <c r="O31" s="182"/>
-      <c r="P31" s="183"/>
-      <c r="Q31" s="184"/>
-      <c r="R31" s="185"/>
-      <c r="S31" s="185"/>
-      <c r="T31" s="185"/>
-      <c r="U31" s="185"/>
-      <c r="V31" s="185"/>
-      <c r="W31" s="185"/>
-      <c r="X31" s="185"/>
-      <c r="Y31" s="185"/>
-      <c r="Z31" s="185"/>
-      <c r="AA31" s="185"/>
-      <c r="AB31" s="185"/>
-      <c r="AC31" s="185"/>
-      <c r="AD31" s="185"/>
-      <c r="AE31" s="186"/>
-      <c r="AF31" s="181"/>
-      <c r="AG31" s="182"/>
-      <c r="AH31" s="182"/>
-      <c r="AI31" s="183"/>
+      <c r="B31" s="160"/>
+      <c r="C31" s="162"/>
+      <c r="D31" s="163"/>
+      <c r="E31" s="164"/>
+      <c r="F31" s="165"/>
+      <c r="G31" s="160"/>
+      <c r="H31" s="161"/>
+      <c r="I31" s="162"/>
+      <c r="J31" s="137"/>
+      <c r="K31" s="138"/>
+      <c r="L31" s="138"/>
+      <c r="M31" s="138"/>
+      <c r="N31" s="138"/>
+      <c r="O31" s="138"/>
+      <c r="P31" s="139"/>
+      <c r="Q31" s="148"/>
+      <c r="R31" s="149"/>
+      <c r="S31" s="149"/>
+      <c r="T31" s="149"/>
+      <c r="U31" s="149"/>
+      <c r="V31" s="149"/>
+      <c r="W31" s="149"/>
+      <c r="X31" s="149"/>
+      <c r="Y31" s="149"/>
+      <c r="Z31" s="149"/>
+      <c r="AA31" s="149"/>
+      <c r="AB31" s="149"/>
+      <c r="AC31" s="149"/>
+      <c r="AD31" s="149"/>
+      <c r="AE31" s="150"/>
+      <c r="AF31" s="137"/>
+      <c r="AG31" s="138"/>
+      <c r="AH31" s="138"/>
+      <c r="AI31" s="139"/>
       <c r="AJ31" s="31"/>
       <c r="AK31" s="31"/>
       <c r="AL31" s="31"/>
@@ -12012,40 +12010,40 @@
     </row>
     <row r="32" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="94"/>
-      <c r="B32" s="175"/>
-      <c r="C32" s="176"/>
-      <c r="D32" s="177"/>
-      <c r="E32" s="178"/>
-      <c r="F32" s="179"/>
-      <c r="G32" s="175"/>
-      <c r="H32" s="180"/>
-      <c r="I32" s="176"/>
-      <c r="J32" s="181"/>
-      <c r="K32" s="182"/>
-      <c r="L32" s="182"/>
-      <c r="M32" s="182"/>
-      <c r="N32" s="182"/>
-      <c r="O32" s="182"/>
-      <c r="P32" s="183"/>
-      <c r="Q32" s="184"/>
-      <c r="R32" s="185"/>
-      <c r="S32" s="185"/>
-      <c r="T32" s="185"/>
-      <c r="U32" s="185"/>
-      <c r="V32" s="185"/>
-      <c r="W32" s="185"/>
-      <c r="X32" s="185"/>
-      <c r="Y32" s="185"/>
-      <c r="Z32" s="185"/>
-      <c r="AA32" s="185"/>
-      <c r="AB32" s="185"/>
-      <c r="AC32" s="185"/>
-      <c r="AD32" s="185"/>
-      <c r="AE32" s="186"/>
-      <c r="AF32" s="181"/>
-      <c r="AG32" s="182"/>
-      <c r="AH32" s="182"/>
-      <c r="AI32" s="183"/>
+      <c r="B32" s="160"/>
+      <c r="C32" s="162"/>
+      <c r="D32" s="163"/>
+      <c r="E32" s="164"/>
+      <c r="F32" s="165"/>
+      <c r="G32" s="160"/>
+      <c r="H32" s="161"/>
+      <c r="I32" s="162"/>
+      <c r="J32" s="137"/>
+      <c r="K32" s="138"/>
+      <c r="L32" s="138"/>
+      <c r="M32" s="138"/>
+      <c r="N32" s="138"/>
+      <c r="O32" s="138"/>
+      <c r="P32" s="139"/>
+      <c r="Q32" s="148"/>
+      <c r="R32" s="149"/>
+      <c r="S32" s="149"/>
+      <c r="T32" s="149"/>
+      <c r="U32" s="149"/>
+      <c r="V32" s="149"/>
+      <c r="W32" s="149"/>
+      <c r="X32" s="149"/>
+      <c r="Y32" s="149"/>
+      <c r="Z32" s="149"/>
+      <c r="AA32" s="149"/>
+      <c r="AB32" s="149"/>
+      <c r="AC32" s="149"/>
+      <c r="AD32" s="149"/>
+      <c r="AE32" s="150"/>
+      <c r="AF32" s="137"/>
+      <c r="AG32" s="138"/>
+      <c r="AH32" s="138"/>
+      <c r="AI32" s="139"/>
       <c r="AJ32" s="31"/>
       <c r="AK32" s="31"/>
       <c r="AL32" s="31"/>
@@ -12054,40 +12052,40 @@
     </row>
     <row r="33" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="94"/>
-      <c r="B33" s="175"/>
-      <c r="C33" s="176"/>
-      <c r="D33" s="177"/>
-      <c r="E33" s="178"/>
-      <c r="F33" s="179"/>
-      <c r="G33" s="175"/>
-      <c r="H33" s="180"/>
-      <c r="I33" s="176"/>
-      <c r="J33" s="181"/>
-      <c r="K33" s="182"/>
-      <c r="L33" s="182"/>
-      <c r="M33" s="182"/>
-      <c r="N33" s="182"/>
-      <c r="O33" s="182"/>
-      <c r="P33" s="183"/>
-      <c r="Q33" s="184"/>
-      <c r="R33" s="185"/>
-      <c r="S33" s="185"/>
-      <c r="T33" s="185"/>
-      <c r="U33" s="185"/>
-      <c r="V33" s="185"/>
-      <c r="W33" s="185"/>
-      <c r="X33" s="185"/>
-      <c r="Y33" s="185"/>
-      <c r="Z33" s="185"/>
-      <c r="AA33" s="185"/>
-      <c r="AB33" s="185"/>
-      <c r="AC33" s="185"/>
-      <c r="AD33" s="185"/>
-      <c r="AE33" s="186"/>
-      <c r="AF33" s="181"/>
-      <c r="AG33" s="182"/>
-      <c r="AH33" s="182"/>
-      <c r="AI33" s="183"/>
+      <c r="B33" s="160"/>
+      <c r="C33" s="162"/>
+      <c r="D33" s="163"/>
+      <c r="E33" s="164"/>
+      <c r="F33" s="165"/>
+      <c r="G33" s="160"/>
+      <c r="H33" s="161"/>
+      <c r="I33" s="162"/>
+      <c r="J33" s="137"/>
+      <c r="K33" s="138"/>
+      <c r="L33" s="138"/>
+      <c r="M33" s="138"/>
+      <c r="N33" s="138"/>
+      <c r="O33" s="138"/>
+      <c r="P33" s="139"/>
+      <c r="Q33" s="148"/>
+      <c r="R33" s="149"/>
+      <c r="S33" s="149"/>
+      <c r="T33" s="149"/>
+      <c r="U33" s="149"/>
+      <c r="V33" s="149"/>
+      <c r="W33" s="149"/>
+      <c r="X33" s="149"/>
+      <c r="Y33" s="149"/>
+      <c r="Z33" s="149"/>
+      <c r="AA33" s="149"/>
+      <c r="AB33" s="149"/>
+      <c r="AC33" s="149"/>
+      <c r="AD33" s="149"/>
+      <c r="AE33" s="150"/>
+      <c r="AF33" s="137"/>
+      <c r="AG33" s="138"/>
+      <c r="AH33" s="138"/>
+      <c r="AI33" s="139"/>
       <c r="AJ33" s="31"/>
       <c r="AK33" s="31"/>
       <c r="AL33" s="31"/>
@@ -12180,6 +12178,161 @@
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="AF32:AI32"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
@@ -12204,161 +12357,6 @@
     <mergeCell ref="Q13:AE13"/>
     <mergeCell ref="AF19:AI19"/>
     <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
   </mergeCells>
   <phoneticPr fontId="32"/>
   <printOptions horizontalCentered="1"/>
@@ -12514,157 +12512,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="41" customFormat="1" ht="11.25">
-      <c r="A1" s="199" t="s">
+      <c r="A1" s="202" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="200"/>
-      <c r="C1" s="200"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="149" t="str">
+      <c r="B1" s="213"/>
+      <c r="C1" s="213"/>
+      <c r="D1" s="203"/>
+      <c r="E1" s="192" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="150"/>
-      <c r="G1" s="150"/>
-      <c r="H1" s="150"/>
-      <c r="I1" s="150"/>
-      <c r="J1" s="150"/>
-      <c r="K1" s="150"/>
-      <c r="L1" s="150"/>
-      <c r="M1" s="150"/>
-      <c r="N1" s="151"/>
-      <c r="O1" s="202" t="s">
+      <c r="F1" s="193"/>
+      <c r="G1" s="193"/>
+      <c r="H1" s="193"/>
+      <c r="I1" s="193"/>
+      <c r="J1" s="193"/>
+      <c r="K1" s="193"/>
+      <c r="L1" s="193"/>
+      <c r="M1" s="193"/>
+      <c r="N1" s="194"/>
+      <c r="O1" s="214" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="203"/>
-      <c r="Q1" s="203"/>
-      <c r="R1" s="204"/>
-      <c r="S1" s="214" t="str">
+      <c r="P1" s="215"/>
+      <c r="Q1" s="215"/>
+      <c r="R1" s="216"/>
+      <c r="S1" s="204" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>ドメイン定義書</v>
       </c>
-      <c r="T1" s="215"/>
-      <c r="U1" s="215"/>
-      <c r="V1" s="215"/>
-      <c r="W1" s="215"/>
-      <c r="X1" s="215"/>
-      <c r="Y1" s="215"/>
-      <c r="Z1" s="216"/>
-      <c r="AA1" s="199" t="s">
+      <c r="T1" s="205"/>
+      <c r="U1" s="205"/>
+      <c r="V1" s="205"/>
+      <c r="W1" s="205"/>
+      <c r="X1" s="205"/>
+      <c r="Y1" s="205"/>
+      <c r="Z1" s="206"/>
+      <c r="AA1" s="202" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="201"/>
-      <c r="AC1" s="196" t="str">
+      <c r="AB1" s="203"/>
+      <c r="AC1" s="142" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="197"/>
-      <c r="AE1" s="197"/>
-      <c r="AF1" s="198"/>
-      <c r="AG1" s="211">
+      <c r="AD1" s="143"/>
+      <c r="AE1" s="143"/>
+      <c r="AF1" s="144"/>
+      <c r="AG1" s="199">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="212"/>
-      <c r="AI1" s="213"/>
+      <c r="AH1" s="200"/>
+      <c r="AI1" s="201"/>
     </row>
     <row r="2" spans="1:35" s="41" customFormat="1" ht="11.25">
-      <c r="A2" s="199" t="s">
+      <c r="A2" s="202" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="200"/>
-      <c r="C2" s="200"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="149" t="str">
+      <c r="B2" s="213"/>
+      <c r="C2" s="213"/>
+      <c r="D2" s="203"/>
+      <c r="E2" s="192" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
-      <c r="I2" s="150"/>
-      <c r="J2" s="150"/>
-      <c r="K2" s="150"/>
-      <c r="L2" s="150"/>
-      <c r="M2" s="150"/>
-      <c r="N2" s="151"/>
-      <c r="O2" s="205"/>
-      <c r="P2" s="206"/>
-      <c r="Q2" s="206"/>
-      <c r="R2" s="207"/>
-      <c r="S2" s="217"/>
-      <c r="T2" s="218"/>
-      <c r="U2" s="218"/>
-      <c r="V2" s="218"/>
-      <c r="W2" s="218"/>
-      <c r="X2" s="218"/>
-      <c r="Y2" s="218"/>
-      <c r="Z2" s="219"/>
-      <c r="AA2" s="199" t="s">
+      <c r="F2" s="193"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="193"/>
+      <c r="I2" s="193"/>
+      <c r="J2" s="193"/>
+      <c r="K2" s="193"/>
+      <c r="L2" s="193"/>
+      <c r="M2" s="193"/>
+      <c r="N2" s="194"/>
+      <c r="O2" s="217"/>
+      <c r="P2" s="218"/>
+      <c r="Q2" s="218"/>
+      <c r="R2" s="219"/>
+      <c r="S2" s="207"/>
+      <c r="T2" s="208"/>
+      <c r="U2" s="208"/>
+      <c r="V2" s="208"/>
+      <c r="W2" s="208"/>
+      <c r="X2" s="208"/>
+      <c r="Y2" s="208"/>
+      <c r="Z2" s="209"/>
+      <c r="AA2" s="202" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="201"/>
-      <c r="AC2" s="196" t="str">
+      <c r="AB2" s="203"/>
+      <c r="AC2" s="142" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="197"/>
-      <c r="AE2" s="197"/>
-      <c r="AF2" s="198"/>
-      <c r="AG2" s="211" t="str">
+      <c r="AD2" s="143"/>
+      <c r="AE2" s="143"/>
+      <c r="AF2" s="144"/>
+      <c r="AG2" s="199" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="212"/>
-      <c r="AI2" s="213"/>
+      <c r="AH2" s="200"/>
+      <c r="AI2" s="201"/>
     </row>
     <row r="3" spans="1:35" s="41" customFormat="1" ht="11.25">
-      <c r="A3" s="199" t="s">
+      <c r="A3" s="202" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="200"/>
-      <c r="C3" s="200"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="149" t="str">
+      <c r="B3" s="213"/>
+      <c r="C3" s="213"/>
+      <c r="D3" s="203"/>
+      <c r="E3" s="192" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="150"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="150"/>
-      <c r="I3" s="150"/>
-      <c r="J3" s="150"/>
-      <c r="K3" s="150"/>
-      <c r="L3" s="150"/>
-      <c r="M3" s="150"/>
-      <c r="N3" s="151"/>
-      <c r="O3" s="208"/>
-      <c r="P3" s="209"/>
-      <c r="Q3" s="209"/>
-      <c r="R3" s="210"/>
-      <c r="S3" s="220"/>
-      <c r="T3" s="221"/>
-      <c r="U3" s="221"/>
-      <c r="V3" s="221"/>
-      <c r="W3" s="221"/>
-      <c r="X3" s="221"/>
-      <c r="Y3" s="221"/>
-      <c r="Z3" s="222"/>
-      <c r="AA3" s="199"/>
-      <c r="AB3" s="201"/>
-      <c r="AC3" s="196" t="str">
+      <c r="F3" s="193"/>
+      <c r="G3" s="193"/>
+      <c r="H3" s="193"/>
+      <c r="I3" s="193"/>
+      <c r="J3" s="193"/>
+      <c r="K3" s="193"/>
+      <c r="L3" s="193"/>
+      <c r="M3" s="193"/>
+      <c r="N3" s="194"/>
+      <c r="O3" s="220"/>
+      <c r="P3" s="221"/>
+      <c r="Q3" s="221"/>
+      <c r="R3" s="222"/>
+      <c r="S3" s="210"/>
+      <c r="T3" s="211"/>
+      <c r="U3" s="211"/>
+      <c r="V3" s="211"/>
+      <c r="W3" s="211"/>
+      <c r="X3" s="211"/>
+      <c r="Y3" s="211"/>
+      <c r="Z3" s="212"/>
+      <c r="AA3" s="202"/>
+      <c r="AB3" s="203"/>
+      <c r="AC3" s="142" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="197"/>
-      <c r="AE3" s="197"/>
-      <c r="AF3" s="198"/>
-      <c r="AG3" s="211" t="str">
+      <c r="AD3" s="143"/>
+      <c r="AE3" s="143"/>
+      <c r="AF3" s="144"/>
+      <c r="AG3" s="199" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="212"/>
-      <c r="AI3" s="213"/>
+      <c r="AH3" s="200"/>
+      <c r="AI3" s="201"/>
     </row>
     <row r="4" spans="1:35" s="44" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="42"/>
@@ -13964,12 +13962,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -13981,6 +13973,12 @@
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AG1:AI1"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -14010,157 +14008,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="41" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="199" t="s">
+      <c r="A1" s="202" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="200"/>
-      <c r="C1" s="200"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="149" t="str">
+      <c r="B1" s="213"/>
+      <c r="C1" s="213"/>
+      <c r="D1" s="203"/>
+      <c r="E1" s="192" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="150"/>
-      <c r="G1" s="150"/>
-      <c r="H1" s="150"/>
-      <c r="I1" s="150"/>
-      <c r="J1" s="150"/>
-      <c r="K1" s="150"/>
-      <c r="L1" s="150"/>
-      <c r="M1" s="150"/>
-      <c r="N1" s="151"/>
-      <c r="O1" s="140" t="s">
+      <c r="F1" s="193"/>
+      <c r="G1" s="193"/>
+      <c r="H1" s="193"/>
+      <c r="I1" s="193"/>
+      <c r="J1" s="193"/>
+      <c r="K1" s="193"/>
+      <c r="L1" s="193"/>
+      <c r="M1" s="193"/>
+      <c r="N1" s="194"/>
+      <c r="O1" s="183" t="s">
         <v>181</v>
       </c>
-      <c r="P1" s="141"/>
-      <c r="Q1" s="141"/>
-      <c r="R1" s="142"/>
-      <c r="S1" s="214" t="str">
+      <c r="P1" s="184"/>
+      <c r="Q1" s="184"/>
+      <c r="R1" s="185"/>
+      <c r="S1" s="204" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>ドメイン定義書</v>
       </c>
-      <c r="T1" s="215"/>
-      <c r="U1" s="215"/>
-      <c r="V1" s="215"/>
-      <c r="W1" s="215"/>
-      <c r="X1" s="215"/>
-      <c r="Y1" s="215"/>
-      <c r="Z1" s="216"/>
-      <c r="AA1" s="137" t="s">
+      <c r="T1" s="205"/>
+      <c r="U1" s="205"/>
+      <c r="V1" s="205"/>
+      <c r="W1" s="205"/>
+      <c r="X1" s="205"/>
+      <c r="Y1" s="205"/>
+      <c r="Z1" s="206"/>
+      <c r="AA1" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="139"/>
-      <c r="AC1" s="196" t="str">
+      <c r="AB1" s="141"/>
+      <c r="AC1" s="142" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="197"/>
-      <c r="AE1" s="197"/>
-      <c r="AF1" s="198"/>
-      <c r="AG1" s="211">
+      <c r="AD1" s="143"/>
+      <c r="AE1" s="143"/>
+      <c r="AF1" s="144"/>
+      <c r="AG1" s="199">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="212"/>
-      <c r="AI1" s="213"/>
+      <c r="AH1" s="200"/>
+      <c r="AI1" s="201"/>
     </row>
     <row r="2" spans="1:35" s="41" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="137" t="s">
+      <c r="A2" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="149" t="str">
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="192" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
-      <c r="I2" s="150"/>
-      <c r="J2" s="150"/>
-      <c r="K2" s="150"/>
-      <c r="L2" s="150"/>
-      <c r="M2" s="150"/>
-      <c r="N2" s="151"/>
-      <c r="O2" s="143"/>
-      <c r="P2" s="144"/>
-      <c r="Q2" s="144"/>
-      <c r="R2" s="145"/>
-      <c r="S2" s="217"/>
-      <c r="T2" s="218"/>
-      <c r="U2" s="218"/>
-      <c r="V2" s="218"/>
-      <c r="W2" s="218"/>
-      <c r="X2" s="218"/>
-      <c r="Y2" s="218"/>
-      <c r="Z2" s="219"/>
-      <c r="AA2" s="137" t="s">
+      <c r="F2" s="193"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="193"/>
+      <c r="I2" s="193"/>
+      <c r="J2" s="193"/>
+      <c r="K2" s="193"/>
+      <c r="L2" s="193"/>
+      <c r="M2" s="193"/>
+      <c r="N2" s="194"/>
+      <c r="O2" s="186"/>
+      <c r="P2" s="187"/>
+      <c r="Q2" s="187"/>
+      <c r="R2" s="188"/>
+      <c r="S2" s="207"/>
+      <c r="T2" s="208"/>
+      <c r="U2" s="208"/>
+      <c r="V2" s="208"/>
+      <c r="W2" s="208"/>
+      <c r="X2" s="208"/>
+      <c r="Y2" s="208"/>
+      <c r="Z2" s="209"/>
+      <c r="AA2" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="139"/>
-      <c r="AC2" s="196" t="str">
+      <c r="AB2" s="141"/>
+      <c r="AC2" s="142" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="197"/>
-      <c r="AE2" s="197"/>
-      <c r="AF2" s="198"/>
-      <c r="AG2" s="211" t="str">
+      <c r="AD2" s="143"/>
+      <c r="AE2" s="143"/>
+      <c r="AF2" s="144"/>
+      <c r="AG2" s="199" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="212"/>
-      <c r="AI2" s="213"/>
+      <c r="AH2" s="200"/>
+      <c r="AI2" s="201"/>
     </row>
     <row r="3" spans="1:35" s="41" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="137" t="s">
+      <c r="A3" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="138"/>
-      <c r="C3" s="138"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="149" t="str">
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="192" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="150"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="150"/>
-      <c r="I3" s="150"/>
-      <c r="J3" s="150"/>
-      <c r="K3" s="150"/>
-      <c r="L3" s="150"/>
-      <c r="M3" s="150"/>
-      <c r="N3" s="151"/>
-      <c r="O3" s="146"/>
-      <c r="P3" s="147"/>
-      <c r="Q3" s="147"/>
-      <c r="R3" s="148"/>
-      <c r="S3" s="220"/>
-      <c r="T3" s="221"/>
-      <c r="U3" s="221"/>
-      <c r="V3" s="221"/>
-      <c r="W3" s="221"/>
-      <c r="X3" s="221"/>
-      <c r="Y3" s="221"/>
-      <c r="Z3" s="222"/>
-      <c r="AA3" s="137"/>
-      <c r="AB3" s="139"/>
-      <c r="AC3" s="196" t="str">
+      <c r="F3" s="193"/>
+      <c r="G3" s="193"/>
+      <c r="H3" s="193"/>
+      <c r="I3" s="193"/>
+      <c r="J3" s="193"/>
+      <c r="K3" s="193"/>
+      <c r="L3" s="193"/>
+      <c r="M3" s="193"/>
+      <c r="N3" s="194"/>
+      <c r="O3" s="189"/>
+      <c r="P3" s="190"/>
+      <c r="Q3" s="190"/>
+      <c r="R3" s="191"/>
+      <c r="S3" s="210"/>
+      <c r="T3" s="211"/>
+      <c r="U3" s="211"/>
+      <c r="V3" s="211"/>
+      <c r="W3" s="211"/>
+      <c r="X3" s="211"/>
+      <c r="Y3" s="211"/>
+      <c r="Z3" s="212"/>
+      <c r="AA3" s="140"/>
+      <c r="AB3" s="141"/>
+      <c r="AC3" s="142" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="197"/>
-      <c r="AE3" s="197"/>
-      <c r="AF3" s="198"/>
-      <c r="AG3" s="211" t="str">
+      <c r="AD3" s="143"/>
+      <c r="AE3" s="143"/>
+      <c r="AF3" s="144"/>
+      <c r="AG3" s="199" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="212"/>
-      <c r="AI3" s="213"/>
+      <c r="AH3" s="200"/>
+      <c r="AI3" s="201"/>
     </row>
     <row r="5" spans="1:35">
       <c r="B5" s="40"/>
@@ -14191,146 +14189,146 @@
       </c>
     </row>
     <row r="17" spans="3:33">
-      <c r="D17" s="225" t="s">
+      <c r="D17" s="226" t="s">
         <v>102</v>
       </c>
-      <c r="E17" s="225"/>
-      <c r="F17" s="225"/>
-      <c r="G17" s="225"/>
-      <c r="H17" s="225"/>
-      <c r="I17" s="225"/>
-      <c r="J17" s="225"/>
-      <c r="K17" s="225" t="s">
+      <c r="E17" s="226"/>
+      <c r="F17" s="226"/>
+      <c r="G17" s="226"/>
+      <c r="H17" s="226"/>
+      <c r="I17" s="226"/>
+      <c r="J17" s="226"/>
+      <c r="K17" s="226" t="s">
         <v>59</v>
       </c>
-      <c r="L17" s="225"/>
-      <c r="M17" s="225"/>
-      <c r="N17" s="225"/>
-      <c r="O17" s="225"/>
-      <c r="P17" s="225"/>
-      <c r="Q17" s="225"/>
-      <c r="R17" s="225"/>
-      <c r="S17" s="225"/>
-      <c r="T17" s="225"/>
-      <c r="U17" s="225"/>
-      <c r="V17" s="225"/>
-      <c r="W17" s="225"/>
-      <c r="X17" s="225"/>
-      <c r="Y17" s="225"/>
-      <c r="Z17" s="225"/>
-      <c r="AA17" s="225"/>
-      <c r="AB17" s="225"/>
-      <c r="AC17" s="225"/>
-      <c r="AD17" s="225"/>
-      <c r="AE17" s="225"/>
-      <c r="AF17" s="225"/>
-      <c r="AG17" s="225"/>
+      <c r="L17" s="226"/>
+      <c r="M17" s="226"/>
+      <c r="N17" s="226"/>
+      <c r="O17" s="226"/>
+      <c r="P17" s="226"/>
+      <c r="Q17" s="226"/>
+      <c r="R17" s="226"/>
+      <c r="S17" s="226"/>
+      <c r="T17" s="226"/>
+      <c r="U17" s="226"/>
+      <c r="V17" s="226"/>
+      <c r="W17" s="226"/>
+      <c r="X17" s="226"/>
+      <c r="Y17" s="226"/>
+      <c r="Z17" s="226"/>
+      <c r="AA17" s="226"/>
+      <c r="AB17" s="226"/>
+      <c r="AC17" s="226"/>
+      <c r="AD17" s="226"/>
+      <c r="AE17" s="226"/>
+      <c r="AF17" s="226"/>
+      <c r="AG17" s="226"/>
     </row>
     <row r="18" spans="3:33">
-      <c r="D18" s="226" t="s">
+      <c r="D18" s="223" t="s">
         <v>185</v>
       </c>
-      <c r="E18" s="226"/>
-      <c r="F18" s="226"/>
-      <c r="G18" s="226"/>
-      <c r="H18" s="226"/>
-      <c r="I18" s="226"/>
-      <c r="J18" s="226"/>
-      <c r="K18" s="226" t="s">
+      <c r="E18" s="223"/>
+      <c r="F18" s="223"/>
+      <c r="G18" s="223"/>
+      <c r="H18" s="223"/>
+      <c r="I18" s="223"/>
+      <c r="J18" s="223"/>
+      <c r="K18" s="223" t="s">
         <v>186</v>
       </c>
-      <c r="L18" s="226"/>
-      <c r="M18" s="226"/>
-      <c r="N18" s="226"/>
-      <c r="O18" s="226"/>
-      <c r="P18" s="226"/>
-      <c r="Q18" s="226"/>
-      <c r="R18" s="226"/>
-      <c r="S18" s="226"/>
-      <c r="T18" s="226"/>
-      <c r="U18" s="226"/>
-      <c r="V18" s="226"/>
-      <c r="W18" s="226"/>
-      <c r="X18" s="226"/>
-      <c r="Y18" s="226"/>
-      <c r="Z18" s="226"/>
-      <c r="AA18" s="226"/>
-      <c r="AB18" s="226"/>
-      <c r="AC18" s="226"/>
-      <c r="AD18" s="226"/>
-      <c r="AE18" s="226"/>
-      <c r="AF18" s="226"/>
-      <c r="AG18" s="226"/>
+      <c r="L18" s="223"/>
+      <c r="M18" s="223"/>
+      <c r="N18" s="223"/>
+      <c r="O18" s="223"/>
+      <c r="P18" s="223"/>
+      <c r="Q18" s="223"/>
+      <c r="R18" s="223"/>
+      <c r="S18" s="223"/>
+      <c r="T18" s="223"/>
+      <c r="U18" s="223"/>
+      <c r="V18" s="223"/>
+      <c r="W18" s="223"/>
+      <c r="X18" s="223"/>
+      <c r="Y18" s="223"/>
+      <c r="Z18" s="223"/>
+      <c r="AA18" s="223"/>
+      <c r="AB18" s="223"/>
+      <c r="AC18" s="223"/>
+      <c r="AD18" s="223"/>
+      <c r="AE18" s="223"/>
+      <c r="AF18" s="223"/>
+      <c r="AG18" s="223"/>
     </row>
     <row r="19" spans="3:33">
-      <c r="D19" s="223" t="s">
+      <c r="D19" s="230" t="s">
         <v>90</v>
       </c>
-      <c r="E19" s="223"/>
-      <c r="F19" s="223"/>
-      <c r="G19" s="223"/>
-      <c r="H19" s="223"/>
-      <c r="I19" s="223"/>
-      <c r="J19" s="223"/>
-      <c r="K19" s="224" t="s">
+      <c r="E19" s="230"/>
+      <c r="F19" s="230"/>
+      <c r="G19" s="230"/>
+      <c r="H19" s="230"/>
+      <c r="I19" s="230"/>
+      <c r="J19" s="230"/>
+      <c r="K19" s="231" t="s">
         <v>187</v>
       </c>
-      <c r="L19" s="223"/>
-      <c r="M19" s="223"/>
-      <c r="N19" s="223"/>
-      <c r="O19" s="223"/>
-      <c r="P19" s="223"/>
-      <c r="Q19" s="223"/>
-      <c r="R19" s="223"/>
-      <c r="S19" s="223"/>
-      <c r="T19" s="223"/>
-      <c r="U19" s="223"/>
-      <c r="V19" s="223"/>
-      <c r="W19" s="223"/>
-      <c r="X19" s="223"/>
-      <c r="Y19" s="223"/>
-      <c r="Z19" s="223"/>
-      <c r="AA19" s="223"/>
-      <c r="AB19" s="223"/>
-      <c r="AC19" s="223"/>
-      <c r="AD19" s="223"/>
-      <c r="AE19" s="223"/>
-      <c r="AF19" s="223"/>
-      <c r="AG19" s="223"/>
+      <c r="L19" s="230"/>
+      <c r="M19" s="230"/>
+      <c r="N19" s="230"/>
+      <c r="O19" s="230"/>
+      <c r="P19" s="230"/>
+      <c r="Q19" s="230"/>
+      <c r="R19" s="230"/>
+      <c r="S19" s="230"/>
+      <c r="T19" s="230"/>
+      <c r="U19" s="230"/>
+      <c r="V19" s="230"/>
+      <c r="W19" s="230"/>
+      <c r="X19" s="230"/>
+      <c r="Y19" s="230"/>
+      <c r="Z19" s="230"/>
+      <c r="AA19" s="230"/>
+      <c r="AB19" s="230"/>
+      <c r="AC19" s="230"/>
+      <c r="AD19" s="230"/>
+      <c r="AE19" s="230"/>
+      <c r="AF19" s="230"/>
+      <c r="AG19" s="230"/>
     </row>
     <row r="20" spans="3:33">
-      <c r="D20" s="227"/>
-      <c r="E20" s="227"/>
-      <c r="F20" s="227"/>
-      <c r="G20" s="227"/>
-      <c r="H20" s="227"/>
-      <c r="I20" s="227"/>
-      <c r="J20" s="227"/>
-      <c r="K20" s="228" t="s">
+      <c r="D20" s="228"/>
+      <c r="E20" s="228"/>
+      <c r="F20" s="228"/>
+      <c r="G20" s="228"/>
+      <c r="H20" s="228"/>
+      <c r="I20" s="228"/>
+      <c r="J20" s="228"/>
+      <c r="K20" s="229" t="s">
         <v>101</v>
       </c>
-      <c r="L20" s="227"/>
-      <c r="M20" s="227"/>
-      <c r="N20" s="227"/>
-      <c r="O20" s="227"/>
-      <c r="P20" s="227"/>
-      <c r="Q20" s="227"/>
-      <c r="R20" s="227"/>
-      <c r="S20" s="227"/>
-      <c r="T20" s="227"/>
-      <c r="U20" s="227"/>
-      <c r="V20" s="227"/>
-      <c r="W20" s="227"/>
-      <c r="X20" s="227"/>
-      <c r="Y20" s="227"/>
-      <c r="Z20" s="227"/>
-      <c r="AA20" s="227"/>
-      <c r="AB20" s="227"/>
-      <c r="AC20" s="227"/>
-      <c r="AD20" s="227"/>
-      <c r="AE20" s="227"/>
-      <c r="AF20" s="227"/>
-      <c r="AG20" s="227"/>
+      <c r="L20" s="228"/>
+      <c r="M20" s="228"/>
+      <c r="N20" s="228"/>
+      <c r="O20" s="228"/>
+      <c r="P20" s="228"/>
+      <c r="Q20" s="228"/>
+      <c r="R20" s="228"/>
+      <c r="S20" s="228"/>
+      <c r="T20" s="228"/>
+      <c r="U20" s="228"/>
+      <c r="V20" s="228"/>
+      <c r="W20" s="228"/>
+      <c r="X20" s="228"/>
+      <c r="Y20" s="228"/>
+      <c r="Z20" s="228"/>
+      <c r="AA20" s="228"/>
+      <c r="AB20" s="228"/>
+      <c r="AC20" s="228"/>
+      <c r="AD20" s="228"/>
+      <c r="AE20" s="228"/>
+      <c r="AF20" s="228"/>
+      <c r="AG20" s="228"/>
     </row>
     <row r="22" spans="3:33">
       <c r="C22" s="40" t="s">
@@ -14338,148 +14336,148 @@
       </c>
     </row>
     <row r="24" spans="3:33">
-      <c r="D24" s="225" t="s">
+      <c r="D24" s="226" t="s">
         <v>102</v>
       </c>
-      <c r="E24" s="225"/>
-      <c r="F24" s="225"/>
-      <c r="G24" s="225"/>
-      <c r="H24" s="225"/>
-      <c r="I24" s="225"/>
-      <c r="J24" s="225"/>
-      <c r="K24" s="225" t="s">
+      <c r="E24" s="226"/>
+      <c r="F24" s="226"/>
+      <c r="G24" s="226"/>
+      <c r="H24" s="226"/>
+      <c r="I24" s="226"/>
+      <c r="J24" s="226"/>
+      <c r="K24" s="226" t="s">
         <v>59</v>
       </c>
-      <c r="L24" s="225"/>
-      <c r="M24" s="225"/>
-      <c r="N24" s="225"/>
-      <c r="O24" s="225"/>
-      <c r="P24" s="225"/>
-      <c r="Q24" s="225"/>
-      <c r="R24" s="225"/>
-      <c r="S24" s="225"/>
-      <c r="T24" s="225"/>
-      <c r="U24" s="225"/>
-      <c r="V24" s="225"/>
-      <c r="W24" s="225"/>
-      <c r="X24" s="225"/>
-      <c r="Y24" s="225"/>
-      <c r="Z24" s="225"/>
-      <c r="AA24" s="225"/>
-      <c r="AB24" s="225"/>
-      <c r="AC24" s="225"/>
-      <c r="AD24" s="225"/>
-      <c r="AE24" s="225"/>
-      <c r="AF24" s="225"/>
-      <c r="AG24" s="225"/>
+      <c r="L24" s="226"/>
+      <c r="M24" s="226"/>
+      <c r="N24" s="226"/>
+      <c r="O24" s="226"/>
+      <c r="P24" s="226"/>
+      <c r="Q24" s="226"/>
+      <c r="R24" s="226"/>
+      <c r="S24" s="226"/>
+      <c r="T24" s="226"/>
+      <c r="U24" s="226"/>
+      <c r="V24" s="226"/>
+      <c r="W24" s="226"/>
+      <c r="X24" s="226"/>
+      <c r="Y24" s="226"/>
+      <c r="Z24" s="226"/>
+      <c r="AA24" s="226"/>
+      <c r="AB24" s="226"/>
+      <c r="AC24" s="226"/>
+      <c r="AD24" s="226"/>
+      <c r="AE24" s="226"/>
+      <c r="AF24" s="226"/>
+      <c r="AG24" s="226"/>
     </row>
     <row r="25" spans="3:33">
-      <c r="D25" s="226" t="s">
+      <c r="D25" s="223" t="s">
         <v>189</v>
       </c>
-      <c r="E25" s="226"/>
-      <c r="F25" s="226"/>
-      <c r="G25" s="226"/>
-      <c r="H25" s="226"/>
-      <c r="I25" s="226"/>
-      <c r="J25" s="226"/>
-      <c r="K25" s="226" t="s">
+      <c r="E25" s="223"/>
+      <c r="F25" s="223"/>
+      <c r="G25" s="223"/>
+      <c r="H25" s="223"/>
+      <c r="I25" s="223"/>
+      <c r="J25" s="223"/>
+      <c r="K25" s="223" t="s">
         <v>190</v>
       </c>
-      <c r="L25" s="226"/>
-      <c r="M25" s="226"/>
-      <c r="N25" s="226"/>
-      <c r="O25" s="226"/>
-      <c r="P25" s="226"/>
-      <c r="Q25" s="226"/>
-      <c r="R25" s="226"/>
-      <c r="S25" s="226"/>
-      <c r="T25" s="226"/>
-      <c r="U25" s="226"/>
-      <c r="V25" s="226"/>
-      <c r="W25" s="226"/>
-      <c r="X25" s="226"/>
-      <c r="Y25" s="226"/>
-      <c r="Z25" s="226"/>
-      <c r="AA25" s="226"/>
-      <c r="AB25" s="226"/>
-      <c r="AC25" s="226"/>
-      <c r="AD25" s="226"/>
-      <c r="AE25" s="226"/>
-      <c r="AF25" s="226"/>
-      <c r="AG25" s="226"/>
+      <c r="L25" s="223"/>
+      <c r="M25" s="223"/>
+      <c r="N25" s="223"/>
+      <c r="O25" s="223"/>
+      <c r="P25" s="223"/>
+      <c r="Q25" s="223"/>
+      <c r="R25" s="223"/>
+      <c r="S25" s="223"/>
+      <c r="T25" s="223"/>
+      <c r="U25" s="223"/>
+      <c r="V25" s="223"/>
+      <c r="W25" s="223"/>
+      <c r="X25" s="223"/>
+      <c r="Y25" s="223"/>
+      <c r="Z25" s="223"/>
+      <c r="AA25" s="223"/>
+      <c r="AB25" s="223"/>
+      <c r="AC25" s="223"/>
+      <c r="AD25" s="223"/>
+      <c r="AE25" s="223"/>
+      <c r="AF25" s="223"/>
+      <c r="AG25" s="223"/>
     </row>
     <row r="26" spans="3:33">
-      <c r="D26" s="226" t="s">
+      <c r="D26" s="223" t="s">
         <v>191</v>
       </c>
-      <c r="E26" s="226"/>
-      <c r="F26" s="226"/>
-      <c r="G26" s="226"/>
-      <c r="H26" s="226"/>
-      <c r="I26" s="226"/>
-      <c r="J26" s="226"/>
-      <c r="K26" s="226" t="s">
+      <c r="E26" s="223"/>
+      <c r="F26" s="223"/>
+      <c r="G26" s="223"/>
+      <c r="H26" s="223"/>
+      <c r="I26" s="223"/>
+      <c r="J26" s="223"/>
+      <c r="K26" s="223" t="s">
         <v>91</v>
       </c>
-      <c r="L26" s="226"/>
-      <c r="M26" s="226"/>
-      <c r="N26" s="226"/>
-      <c r="O26" s="226"/>
-      <c r="P26" s="226"/>
-      <c r="Q26" s="226"/>
-      <c r="R26" s="226"/>
-      <c r="S26" s="226"/>
-      <c r="T26" s="226"/>
-      <c r="U26" s="226"/>
-      <c r="V26" s="226"/>
-      <c r="W26" s="226"/>
-      <c r="X26" s="226"/>
-      <c r="Y26" s="226"/>
-      <c r="Z26" s="226"/>
-      <c r="AA26" s="226"/>
-      <c r="AB26" s="226"/>
-      <c r="AC26" s="226"/>
-      <c r="AD26" s="226"/>
-      <c r="AE26" s="226"/>
-      <c r="AF26" s="226"/>
-      <c r="AG26" s="226"/>
+      <c r="L26" s="223"/>
+      <c r="M26" s="223"/>
+      <c r="N26" s="223"/>
+      <c r="O26" s="223"/>
+      <c r="P26" s="223"/>
+      <c r="Q26" s="223"/>
+      <c r="R26" s="223"/>
+      <c r="S26" s="223"/>
+      <c r="T26" s="223"/>
+      <c r="U26" s="223"/>
+      <c r="V26" s="223"/>
+      <c r="W26" s="223"/>
+      <c r="X26" s="223"/>
+      <c r="Y26" s="223"/>
+      <c r="Z26" s="223"/>
+      <c r="AA26" s="223"/>
+      <c r="AB26" s="223"/>
+      <c r="AC26" s="223"/>
+      <c r="AD26" s="223"/>
+      <c r="AE26" s="223"/>
+      <c r="AF26" s="223"/>
+      <c r="AG26" s="223"/>
     </row>
     <row r="27" spans="3:33">
-      <c r="D27" s="226" t="s">
+      <c r="D27" s="223" t="s">
         <v>192</v>
       </c>
-      <c r="E27" s="226"/>
-      <c r="F27" s="226"/>
-      <c r="G27" s="226"/>
-      <c r="H27" s="226"/>
-      <c r="I27" s="226"/>
-      <c r="J27" s="226"/>
-      <c r="K27" s="226" t="s">
+      <c r="E27" s="223"/>
+      <c r="F27" s="223"/>
+      <c r="G27" s="223"/>
+      <c r="H27" s="223"/>
+      <c r="I27" s="223"/>
+      <c r="J27" s="223"/>
+      <c r="K27" s="223" t="s">
         <v>193</v>
       </c>
-      <c r="L27" s="226"/>
-      <c r="M27" s="226"/>
-      <c r="N27" s="226"/>
-      <c r="O27" s="226"/>
-      <c r="P27" s="226"/>
-      <c r="Q27" s="226"/>
-      <c r="R27" s="226"/>
-      <c r="S27" s="226"/>
-      <c r="T27" s="226"/>
-      <c r="U27" s="226"/>
-      <c r="V27" s="226"/>
-      <c r="W27" s="226"/>
-      <c r="X27" s="226"/>
-      <c r="Y27" s="226"/>
-      <c r="Z27" s="226"/>
-      <c r="AA27" s="226"/>
-      <c r="AB27" s="226"/>
-      <c r="AC27" s="226"/>
-      <c r="AD27" s="226"/>
-      <c r="AE27" s="226"/>
-      <c r="AF27" s="226"/>
-      <c r="AG27" s="226"/>
+      <c r="L27" s="223"/>
+      <c r="M27" s="223"/>
+      <c r="N27" s="223"/>
+      <c r="O27" s="223"/>
+      <c r="P27" s="223"/>
+      <c r="Q27" s="223"/>
+      <c r="R27" s="223"/>
+      <c r="S27" s="223"/>
+      <c r="T27" s="223"/>
+      <c r="U27" s="223"/>
+      <c r="V27" s="223"/>
+      <c r="W27" s="223"/>
+      <c r="X27" s="223"/>
+      <c r="Y27" s="223"/>
+      <c r="Z27" s="223"/>
+      <c r="AA27" s="223"/>
+      <c r="AB27" s="223"/>
+      <c r="AC27" s="223"/>
+      <c r="AD27" s="223"/>
+      <c r="AE27" s="223"/>
+      <c r="AF27" s="223"/>
+      <c r="AG27" s="223"/>
     </row>
     <row r="29" spans="3:33">
       <c r="C29" s="40" t="s">
@@ -14487,216 +14485,216 @@
       </c>
     </row>
     <row r="31" spans="3:33">
-      <c r="D31" s="225" t="s">
+      <c r="D31" s="226" t="s">
         <v>102</v>
       </c>
-      <c r="E31" s="225"/>
-      <c r="F31" s="225"/>
-      <c r="G31" s="225"/>
-      <c r="H31" s="225"/>
-      <c r="I31" s="225"/>
-      <c r="J31" s="225"/>
-      <c r="K31" s="225" t="s">
+      <c r="E31" s="226"/>
+      <c r="F31" s="226"/>
+      <c r="G31" s="226"/>
+      <c r="H31" s="226"/>
+      <c r="I31" s="226"/>
+      <c r="J31" s="226"/>
+      <c r="K31" s="226" t="s">
         <v>59</v>
       </c>
-      <c r="L31" s="225"/>
-      <c r="M31" s="225"/>
-      <c r="N31" s="225"/>
-      <c r="O31" s="225"/>
-      <c r="P31" s="225"/>
-      <c r="Q31" s="225"/>
-      <c r="R31" s="225"/>
-      <c r="S31" s="225"/>
-      <c r="T31" s="225"/>
-      <c r="U31" s="225"/>
-      <c r="V31" s="225"/>
-      <c r="W31" s="225"/>
-      <c r="X31" s="225"/>
-      <c r="Y31" s="225"/>
-      <c r="Z31" s="225"/>
-      <c r="AA31" s="225"/>
-      <c r="AB31" s="225"/>
-      <c r="AC31" s="225"/>
-      <c r="AD31" s="225"/>
-      <c r="AE31" s="225"/>
-      <c r="AF31" s="225"/>
-      <c r="AG31" s="225"/>
+      <c r="L31" s="226"/>
+      <c r="M31" s="226"/>
+      <c r="N31" s="226"/>
+      <c r="O31" s="226"/>
+      <c r="P31" s="226"/>
+      <c r="Q31" s="226"/>
+      <c r="R31" s="226"/>
+      <c r="S31" s="226"/>
+      <c r="T31" s="226"/>
+      <c r="U31" s="226"/>
+      <c r="V31" s="226"/>
+      <c r="W31" s="226"/>
+      <c r="X31" s="226"/>
+      <c r="Y31" s="226"/>
+      <c r="Z31" s="226"/>
+      <c r="AA31" s="226"/>
+      <c r="AB31" s="226"/>
+      <c r="AC31" s="226"/>
+      <c r="AD31" s="226"/>
+      <c r="AE31" s="226"/>
+      <c r="AF31" s="226"/>
+      <c r="AG31" s="226"/>
     </row>
     <row r="32" spans="3:33">
-      <c r="D32" s="229" t="s">
+      <c r="D32" s="227" t="s">
         <v>195</v>
       </c>
-      <c r="E32" s="229"/>
-      <c r="F32" s="229"/>
-      <c r="G32" s="229"/>
-      <c r="H32" s="229"/>
-      <c r="I32" s="229"/>
-      <c r="J32" s="229"/>
-      <c r="K32" s="229" t="s">
+      <c r="E32" s="227"/>
+      <c r="F32" s="227"/>
+      <c r="G32" s="227"/>
+      <c r="H32" s="227"/>
+      <c r="I32" s="227"/>
+      <c r="J32" s="227"/>
+      <c r="K32" s="227" t="s">
         <v>196</v>
       </c>
-      <c r="L32" s="229"/>
-      <c r="M32" s="229"/>
-      <c r="N32" s="229"/>
-      <c r="O32" s="229"/>
-      <c r="P32" s="229"/>
-      <c r="Q32" s="229"/>
-      <c r="R32" s="229"/>
-      <c r="S32" s="229"/>
-      <c r="T32" s="229"/>
-      <c r="U32" s="229"/>
-      <c r="V32" s="229"/>
-      <c r="W32" s="229"/>
-      <c r="X32" s="229"/>
-      <c r="Y32" s="229"/>
-      <c r="Z32" s="229"/>
-      <c r="AA32" s="229"/>
-      <c r="AB32" s="229"/>
-      <c r="AC32" s="229"/>
-      <c r="AD32" s="229"/>
-      <c r="AE32" s="229"/>
-      <c r="AF32" s="229"/>
-      <c r="AG32" s="229"/>
+      <c r="L32" s="227"/>
+      <c r="M32" s="227"/>
+      <c r="N32" s="227"/>
+      <c r="O32" s="227"/>
+      <c r="P32" s="227"/>
+      <c r="Q32" s="227"/>
+      <c r="R32" s="227"/>
+      <c r="S32" s="227"/>
+      <c r="T32" s="227"/>
+      <c r="U32" s="227"/>
+      <c r="V32" s="227"/>
+      <c r="W32" s="227"/>
+      <c r="X32" s="227"/>
+      <c r="Y32" s="227"/>
+      <c r="Z32" s="227"/>
+      <c r="AA32" s="227"/>
+      <c r="AB32" s="227"/>
+      <c r="AC32" s="227"/>
+      <c r="AD32" s="227"/>
+      <c r="AE32" s="227"/>
+      <c r="AF32" s="227"/>
+      <c r="AG32" s="227"/>
     </row>
     <row r="33" spans="2:33">
-      <c r="D33" s="230"/>
-      <c r="E33" s="230"/>
-      <c r="F33" s="230"/>
-      <c r="G33" s="230"/>
-      <c r="H33" s="230"/>
-      <c r="I33" s="230"/>
-      <c r="J33" s="230"/>
-      <c r="K33" s="230" t="s">
+      <c r="D33" s="224"/>
+      <c r="E33" s="224"/>
+      <c r="F33" s="224"/>
+      <c r="G33" s="224"/>
+      <c r="H33" s="224"/>
+      <c r="I33" s="224"/>
+      <c r="J33" s="224"/>
+      <c r="K33" s="224" t="s">
         <v>197</v>
       </c>
-      <c r="L33" s="230"/>
-      <c r="M33" s="230"/>
-      <c r="N33" s="230"/>
-      <c r="O33" s="230"/>
-      <c r="P33" s="230"/>
-      <c r="Q33" s="230"/>
-      <c r="R33" s="230"/>
-      <c r="S33" s="230"/>
-      <c r="T33" s="230"/>
-      <c r="U33" s="230"/>
-      <c r="V33" s="230"/>
-      <c r="W33" s="230"/>
-      <c r="X33" s="230"/>
-      <c r="Y33" s="230"/>
-      <c r="Z33" s="230"/>
-      <c r="AA33" s="230"/>
-      <c r="AB33" s="230"/>
-      <c r="AC33" s="230"/>
-      <c r="AD33" s="230"/>
-      <c r="AE33" s="230"/>
-      <c r="AF33" s="230"/>
-      <c r="AG33" s="230"/>
+      <c r="L33" s="224"/>
+      <c r="M33" s="224"/>
+      <c r="N33" s="224"/>
+      <c r="O33" s="224"/>
+      <c r="P33" s="224"/>
+      <c r="Q33" s="224"/>
+      <c r="R33" s="224"/>
+      <c r="S33" s="224"/>
+      <c r="T33" s="224"/>
+      <c r="U33" s="224"/>
+      <c r="V33" s="224"/>
+      <c r="W33" s="224"/>
+      <c r="X33" s="224"/>
+      <c r="Y33" s="224"/>
+      <c r="Z33" s="224"/>
+      <c r="AA33" s="224"/>
+      <c r="AB33" s="224"/>
+      <c r="AC33" s="224"/>
+      <c r="AD33" s="224"/>
+      <c r="AE33" s="224"/>
+      <c r="AF33" s="224"/>
+      <c r="AG33" s="224"/>
     </row>
     <row r="34" spans="2:33">
-      <c r="D34" s="229" t="s">
+      <c r="D34" s="227" t="s">
         <v>198</v>
       </c>
-      <c r="E34" s="229"/>
-      <c r="F34" s="229"/>
-      <c r="G34" s="229"/>
-      <c r="H34" s="229"/>
-      <c r="I34" s="229"/>
-      <c r="J34" s="229"/>
-      <c r="K34" s="229" t="s">
+      <c r="E34" s="227"/>
+      <c r="F34" s="227"/>
+      <c r="G34" s="227"/>
+      <c r="H34" s="227"/>
+      <c r="I34" s="227"/>
+      <c r="J34" s="227"/>
+      <c r="K34" s="227" t="s">
         <v>199</v>
       </c>
-      <c r="L34" s="229"/>
-      <c r="M34" s="229"/>
-      <c r="N34" s="229"/>
-      <c r="O34" s="229"/>
-      <c r="P34" s="229"/>
-      <c r="Q34" s="229"/>
-      <c r="R34" s="229"/>
-      <c r="S34" s="229"/>
-      <c r="T34" s="229"/>
-      <c r="U34" s="229"/>
-      <c r="V34" s="229"/>
-      <c r="W34" s="229"/>
-      <c r="X34" s="229"/>
-      <c r="Y34" s="229"/>
-      <c r="Z34" s="229"/>
-      <c r="AA34" s="229"/>
-      <c r="AB34" s="229"/>
-      <c r="AC34" s="229"/>
-      <c r="AD34" s="229"/>
-      <c r="AE34" s="229"/>
-      <c r="AF34" s="229"/>
-      <c r="AG34" s="229"/>
+      <c r="L34" s="227"/>
+      <c r="M34" s="227"/>
+      <c r="N34" s="227"/>
+      <c r="O34" s="227"/>
+      <c r="P34" s="227"/>
+      <c r="Q34" s="227"/>
+      <c r="R34" s="227"/>
+      <c r="S34" s="227"/>
+      <c r="T34" s="227"/>
+      <c r="U34" s="227"/>
+      <c r="V34" s="227"/>
+      <c r="W34" s="227"/>
+      <c r="X34" s="227"/>
+      <c r="Y34" s="227"/>
+      <c r="Z34" s="227"/>
+      <c r="AA34" s="227"/>
+      <c r="AB34" s="227"/>
+      <c r="AC34" s="227"/>
+      <c r="AD34" s="227"/>
+      <c r="AE34" s="227"/>
+      <c r="AF34" s="227"/>
+      <c r="AG34" s="227"/>
     </row>
     <row r="35" spans="2:33">
-      <c r="D35" s="230"/>
-      <c r="E35" s="230"/>
-      <c r="F35" s="230"/>
-      <c r="G35" s="230"/>
-      <c r="H35" s="230"/>
-      <c r="I35" s="230"/>
-      <c r="J35" s="230"/>
-      <c r="K35" s="230" t="s">
+      <c r="D35" s="224"/>
+      <c r="E35" s="224"/>
+      <c r="F35" s="224"/>
+      <c r="G35" s="224"/>
+      <c r="H35" s="224"/>
+      <c r="I35" s="224"/>
+      <c r="J35" s="224"/>
+      <c r="K35" s="224" t="s">
         <v>200</v>
       </c>
-      <c r="L35" s="230"/>
-      <c r="M35" s="230"/>
-      <c r="N35" s="230"/>
-      <c r="O35" s="230"/>
-      <c r="P35" s="230"/>
-      <c r="Q35" s="230"/>
-      <c r="R35" s="230"/>
-      <c r="S35" s="230"/>
-      <c r="T35" s="230"/>
-      <c r="U35" s="230"/>
-      <c r="V35" s="230"/>
-      <c r="W35" s="230"/>
-      <c r="X35" s="230"/>
-      <c r="Y35" s="230"/>
-      <c r="Z35" s="230"/>
-      <c r="AA35" s="230"/>
-      <c r="AB35" s="230"/>
-      <c r="AC35" s="230"/>
-      <c r="AD35" s="230"/>
-      <c r="AE35" s="230"/>
-      <c r="AF35" s="230"/>
-      <c r="AG35" s="230"/>
+      <c r="L35" s="224"/>
+      <c r="M35" s="224"/>
+      <c r="N35" s="224"/>
+      <c r="O35" s="224"/>
+      <c r="P35" s="224"/>
+      <c r="Q35" s="224"/>
+      <c r="R35" s="224"/>
+      <c r="S35" s="224"/>
+      <c r="T35" s="224"/>
+      <c r="U35" s="224"/>
+      <c r="V35" s="224"/>
+      <c r="W35" s="224"/>
+      <c r="X35" s="224"/>
+      <c r="Y35" s="224"/>
+      <c r="Z35" s="224"/>
+      <c r="AA35" s="224"/>
+      <c r="AB35" s="224"/>
+      <c r="AC35" s="224"/>
+      <c r="AD35" s="224"/>
+      <c r="AE35" s="224"/>
+      <c r="AF35" s="224"/>
+      <c r="AG35" s="224"/>
     </row>
     <row r="36" spans="2:33" ht="13.5" customHeight="1">
-      <c r="D36" s="231" t="s">
+      <c r="D36" s="225" t="s">
         <v>201</v>
       </c>
-      <c r="E36" s="231"/>
-      <c r="F36" s="231"/>
-      <c r="G36" s="231"/>
-      <c r="H36" s="231"/>
-      <c r="I36" s="231"/>
-      <c r="J36" s="231"/>
-      <c r="K36" s="231" t="s">
+      <c r="E36" s="225"/>
+      <c r="F36" s="225"/>
+      <c r="G36" s="225"/>
+      <c r="H36" s="225"/>
+      <c r="I36" s="225"/>
+      <c r="J36" s="225"/>
+      <c r="K36" s="225" t="s">
         <v>202</v>
       </c>
-      <c r="L36" s="231"/>
-      <c r="M36" s="231"/>
-      <c r="N36" s="231"/>
-      <c r="O36" s="231"/>
-      <c r="P36" s="231"/>
-      <c r="Q36" s="231"/>
-      <c r="R36" s="231"/>
-      <c r="S36" s="231"/>
-      <c r="T36" s="231"/>
-      <c r="U36" s="231"/>
-      <c r="V36" s="231"/>
-      <c r="W36" s="231"/>
-      <c r="X36" s="231"/>
-      <c r="Y36" s="231"/>
-      <c r="Z36" s="231"/>
-      <c r="AA36" s="231"/>
-      <c r="AB36" s="231"/>
-      <c r="AC36" s="231"/>
-      <c r="AD36" s="231"/>
-      <c r="AE36" s="231"/>
-      <c r="AF36" s="231"/>
-      <c r="AG36" s="231"/>
+      <c r="L36" s="225"/>
+      <c r="M36" s="225"/>
+      <c r="N36" s="225"/>
+      <c r="O36" s="225"/>
+      <c r="P36" s="225"/>
+      <c r="Q36" s="225"/>
+      <c r="R36" s="225"/>
+      <c r="S36" s="225"/>
+      <c r="T36" s="225"/>
+      <c r="U36" s="225"/>
+      <c r="V36" s="225"/>
+      <c r="W36" s="225"/>
+      <c r="X36" s="225"/>
+      <c r="Y36" s="225"/>
+      <c r="Z36" s="225"/>
+      <c r="AA36" s="225"/>
+      <c r="AB36" s="225"/>
+      <c r="AC36" s="225"/>
+      <c r="AD36" s="225"/>
+      <c r="AE36" s="225"/>
+      <c r="AF36" s="225"/>
+      <c r="AG36" s="225"/>
     </row>
     <row r="37" spans="2:33">
       <c r="D37" s="95"/>
@@ -14736,76 +14734,76 @@
       </c>
     </row>
     <row r="40" spans="2:33">
-      <c r="D40" s="225" t="s">
+      <c r="D40" s="226" t="s">
         <v>102</v>
       </c>
-      <c r="E40" s="225"/>
-      <c r="F40" s="225"/>
-      <c r="G40" s="225"/>
-      <c r="H40" s="225"/>
-      <c r="I40" s="225"/>
-      <c r="J40" s="225"/>
-      <c r="K40" s="225" t="s">
+      <c r="E40" s="226"/>
+      <c r="F40" s="226"/>
+      <c r="G40" s="226"/>
+      <c r="H40" s="226"/>
+      <c r="I40" s="226"/>
+      <c r="J40" s="226"/>
+      <c r="K40" s="226" t="s">
         <v>59</v>
       </c>
-      <c r="L40" s="225"/>
-      <c r="M40" s="225"/>
-      <c r="N40" s="225"/>
-      <c r="O40" s="225"/>
-      <c r="P40" s="225"/>
-      <c r="Q40" s="225"/>
-      <c r="R40" s="225"/>
-      <c r="S40" s="225"/>
-      <c r="T40" s="225"/>
-      <c r="U40" s="225"/>
-      <c r="V40" s="225"/>
-      <c r="W40" s="225"/>
-      <c r="X40" s="225"/>
-      <c r="Y40" s="225"/>
-      <c r="Z40" s="225"/>
-      <c r="AA40" s="225"/>
-      <c r="AB40" s="225"/>
-      <c r="AC40" s="225"/>
-      <c r="AD40" s="225"/>
-      <c r="AE40" s="225"/>
-      <c r="AF40" s="225"/>
-      <c r="AG40" s="225"/>
+      <c r="L40" s="226"/>
+      <c r="M40" s="226"/>
+      <c r="N40" s="226"/>
+      <c r="O40" s="226"/>
+      <c r="P40" s="226"/>
+      <c r="Q40" s="226"/>
+      <c r="R40" s="226"/>
+      <c r="S40" s="226"/>
+      <c r="T40" s="226"/>
+      <c r="U40" s="226"/>
+      <c r="V40" s="226"/>
+      <c r="W40" s="226"/>
+      <c r="X40" s="226"/>
+      <c r="Y40" s="226"/>
+      <c r="Z40" s="226"/>
+      <c r="AA40" s="226"/>
+      <c r="AB40" s="226"/>
+      <c r="AC40" s="226"/>
+      <c r="AD40" s="226"/>
+      <c r="AE40" s="226"/>
+      <c r="AF40" s="226"/>
+      <c r="AG40" s="226"/>
     </row>
     <row r="41" spans="2:33">
-      <c r="D41" s="226" t="s">
+      <c r="D41" s="223" t="s">
         <v>60</v>
       </c>
-      <c r="E41" s="226"/>
-      <c r="F41" s="226"/>
-      <c r="G41" s="226"/>
-      <c r="H41" s="226"/>
-      <c r="I41" s="226"/>
-      <c r="J41" s="226"/>
-      <c r="K41" s="226" t="s">
+      <c r="E41" s="223"/>
+      <c r="F41" s="223"/>
+      <c r="G41" s="223"/>
+      <c r="H41" s="223"/>
+      <c r="I41" s="223"/>
+      <c r="J41" s="223"/>
+      <c r="K41" s="223" t="s">
         <v>92</v>
       </c>
-      <c r="L41" s="226"/>
-      <c r="M41" s="226"/>
-      <c r="N41" s="226"/>
-      <c r="O41" s="226"/>
-      <c r="P41" s="226"/>
-      <c r="Q41" s="226"/>
-      <c r="R41" s="226"/>
-      <c r="S41" s="226"/>
-      <c r="T41" s="226"/>
-      <c r="U41" s="226"/>
-      <c r="V41" s="226"/>
-      <c r="W41" s="226"/>
-      <c r="X41" s="226"/>
-      <c r="Y41" s="226"/>
-      <c r="Z41" s="226"/>
-      <c r="AA41" s="226"/>
-      <c r="AB41" s="226"/>
-      <c r="AC41" s="226"/>
-      <c r="AD41" s="226"/>
-      <c r="AE41" s="226"/>
-      <c r="AF41" s="226"/>
-      <c r="AG41" s="226"/>
+      <c r="L41" s="223"/>
+      <c r="M41" s="223"/>
+      <c r="N41" s="223"/>
+      <c r="O41" s="223"/>
+      <c r="P41" s="223"/>
+      <c r="Q41" s="223"/>
+      <c r="R41" s="223"/>
+      <c r="S41" s="223"/>
+      <c r="T41" s="223"/>
+      <c r="U41" s="223"/>
+      <c r="V41" s="223"/>
+      <c r="W41" s="223"/>
+      <c r="X41" s="223"/>
+      <c r="Y41" s="223"/>
+      <c r="Z41" s="223"/>
+      <c r="AA41" s="223"/>
+      <c r="AB41" s="223"/>
+      <c r="AC41" s="223"/>
+      <c r="AD41" s="223"/>
+      <c r="AE41" s="223"/>
+      <c r="AF41" s="223"/>
+      <c r="AG41" s="223"/>
     </row>
     <row r="42" spans="2:33">
       <c r="D42" s="73"/>
@@ -15692,39 +15690,6 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="D41:J41"/>
-    <mergeCell ref="K41:AG41"/>
-    <mergeCell ref="D35:J35"/>
-    <mergeCell ref="K35:AG35"/>
-    <mergeCell ref="D36:J36"/>
-    <mergeCell ref="K36:AG36"/>
-    <mergeCell ref="D40:J40"/>
-    <mergeCell ref="K40:AG40"/>
-    <mergeCell ref="D32:J32"/>
-    <mergeCell ref="K32:AG32"/>
-    <mergeCell ref="D33:J33"/>
-    <mergeCell ref="K33:AG33"/>
-    <mergeCell ref="D34:J34"/>
-    <mergeCell ref="K34:AG34"/>
-    <mergeCell ref="D26:J26"/>
-    <mergeCell ref="K26:AG26"/>
-    <mergeCell ref="D27:J27"/>
-    <mergeCell ref="K27:AG27"/>
-    <mergeCell ref="D31:J31"/>
-    <mergeCell ref="K31:AG31"/>
-    <mergeCell ref="D20:J20"/>
-    <mergeCell ref="K20:AG20"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="K24:AG24"/>
-    <mergeCell ref="D25:J25"/>
-    <mergeCell ref="K25:AG25"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="D17:J17"/>
-    <mergeCell ref="K17:AG17"/>
-    <mergeCell ref="D18:J18"/>
-    <mergeCell ref="K18:AG18"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="D19:J19"/>
     <mergeCell ref="K19:AG19"/>
     <mergeCell ref="AG1:AI1"/>
@@ -15741,6 +15706,39 @@
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="K17:AG17"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="K18:AG18"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="D20:J20"/>
+    <mergeCell ref="K20:AG20"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="K24:AG24"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="K25:AG25"/>
+    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="K26:AG26"/>
+    <mergeCell ref="D27:J27"/>
+    <mergeCell ref="K27:AG27"/>
+    <mergeCell ref="D31:J31"/>
+    <mergeCell ref="K31:AG31"/>
+    <mergeCell ref="D32:J32"/>
+    <mergeCell ref="K32:AG32"/>
+    <mergeCell ref="D33:J33"/>
+    <mergeCell ref="K33:AG33"/>
+    <mergeCell ref="D34:J34"/>
+    <mergeCell ref="K34:AG34"/>
+    <mergeCell ref="D41:J41"/>
+    <mergeCell ref="K41:AG41"/>
+    <mergeCell ref="D35:J35"/>
+    <mergeCell ref="K35:AG35"/>
+    <mergeCell ref="D36:J36"/>
+    <mergeCell ref="K36:AG36"/>
+    <mergeCell ref="D40:J40"/>
+    <mergeCell ref="K40:AG40"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -15779,163 +15777,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" s="41" customFormat="1">
-      <c r="A1" s="199" t="s">
+      <c r="A1" s="202" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="200"/>
-      <c r="C1" s="200"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="149" t="str">
+      <c r="B1" s="213"/>
+      <c r="C1" s="213"/>
+      <c r="D1" s="203"/>
+      <c r="E1" s="192" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="150"/>
-      <c r="G1" s="150"/>
-      <c r="H1" s="150"/>
-      <c r="I1" s="150"/>
-      <c r="J1" s="150"/>
-      <c r="K1" s="150"/>
-      <c r="L1" s="150"/>
-      <c r="M1" s="150"/>
-      <c r="N1" s="151"/>
-      <c r="O1" s="140" t="s">
+      <c r="F1" s="193"/>
+      <c r="G1" s="193"/>
+      <c r="H1" s="193"/>
+      <c r="I1" s="193"/>
+      <c r="J1" s="193"/>
+      <c r="K1" s="193"/>
+      <c r="L1" s="193"/>
+      <c r="M1" s="193"/>
+      <c r="N1" s="194"/>
+      <c r="O1" s="183" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="141"/>
-      <c r="Q1" s="141"/>
-      <c r="R1" s="142"/>
-      <c r="S1" s="214" t="str">
+      <c r="P1" s="184"/>
+      <c r="Q1" s="184"/>
+      <c r="R1" s="185"/>
+      <c r="S1" s="204" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>ドメイン定義書</v>
       </c>
-      <c r="T1" s="215"/>
-      <c r="U1" s="215"/>
-      <c r="V1" s="215"/>
-      <c r="W1" s="215"/>
-      <c r="X1" s="215"/>
-      <c r="Y1" s="215"/>
-      <c r="Z1" s="216"/>
-      <c r="AA1" s="137" t="s">
+      <c r="T1" s="205"/>
+      <c r="U1" s="205"/>
+      <c r="V1" s="205"/>
+      <c r="W1" s="205"/>
+      <c r="X1" s="205"/>
+      <c r="Y1" s="205"/>
+      <c r="Z1" s="206"/>
+      <c r="AA1" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="139"/>
-      <c r="AC1" s="196" t="str">
+      <c r="AB1" s="141"/>
+      <c r="AC1" s="142" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="197"/>
-      <c r="AE1" s="197"/>
-      <c r="AF1" s="198"/>
-      <c r="AG1" s="211">
+      <c r="AD1" s="143"/>
+      <c r="AE1" s="143"/>
+      <c r="AF1" s="144"/>
+      <c r="AG1" s="199">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="212"/>
-      <c r="AI1" s="213"/>
+      <c r="AH1" s="200"/>
+      <c r="AI1" s="201"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="10"/>
     </row>
     <row r="2" spans="1:66" s="41" customFormat="1">
-      <c r="A2" s="137" t="s">
+      <c r="A2" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="149" t="str">
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="192" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
-      <c r="I2" s="150"/>
-      <c r="J2" s="150"/>
-      <c r="K2" s="150"/>
-      <c r="L2" s="150"/>
-      <c r="M2" s="150"/>
-      <c r="N2" s="151"/>
-      <c r="O2" s="143"/>
-      <c r="P2" s="144"/>
-      <c r="Q2" s="144"/>
-      <c r="R2" s="145"/>
-      <c r="S2" s="217"/>
-      <c r="T2" s="218"/>
-      <c r="U2" s="218"/>
-      <c r="V2" s="218"/>
-      <c r="W2" s="218"/>
-      <c r="X2" s="218"/>
-      <c r="Y2" s="218"/>
-      <c r="Z2" s="219"/>
-      <c r="AA2" s="137" t="s">
+      <c r="F2" s="193"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="193"/>
+      <c r="I2" s="193"/>
+      <c r="J2" s="193"/>
+      <c r="K2" s="193"/>
+      <c r="L2" s="193"/>
+      <c r="M2" s="193"/>
+      <c r="N2" s="194"/>
+      <c r="O2" s="186"/>
+      <c r="P2" s="187"/>
+      <c r="Q2" s="187"/>
+      <c r="R2" s="188"/>
+      <c r="S2" s="207"/>
+      <c r="T2" s="208"/>
+      <c r="U2" s="208"/>
+      <c r="V2" s="208"/>
+      <c r="W2" s="208"/>
+      <c r="X2" s="208"/>
+      <c r="Y2" s="208"/>
+      <c r="Z2" s="209"/>
+      <c r="AA2" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="139"/>
-      <c r="AC2" s="196" t="str">
+      <c r="AB2" s="141"/>
+      <c r="AC2" s="142" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="197"/>
-      <c r="AE2" s="197"/>
-      <c r="AF2" s="198"/>
-      <c r="AG2" s="211" t="str">
+      <c r="AD2" s="143"/>
+      <c r="AE2" s="143"/>
+      <c r="AF2" s="144"/>
+      <c r="AG2" s="199" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="212"/>
-      <c r="AI2" s="213"/>
+      <c r="AH2" s="200"/>
+      <c r="AI2" s="201"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
     </row>
     <row r="3" spans="1:66" s="41" customFormat="1">
-      <c r="A3" s="137" t="s">
+      <c r="A3" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="138"/>
-      <c r="C3" s="138"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="149" t="str">
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="192" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="150"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="150"/>
-      <c r="I3" s="150"/>
-      <c r="J3" s="150"/>
-      <c r="K3" s="150"/>
-      <c r="L3" s="150"/>
-      <c r="M3" s="150"/>
-      <c r="N3" s="151"/>
-      <c r="O3" s="146"/>
-      <c r="P3" s="147"/>
-      <c r="Q3" s="147"/>
-      <c r="R3" s="148"/>
-      <c r="S3" s="220"/>
-      <c r="T3" s="221"/>
-      <c r="U3" s="221"/>
-      <c r="V3" s="221"/>
-      <c r="W3" s="221"/>
-      <c r="X3" s="221"/>
-      <c r="Y3" s="221"/>
-      <c r="Z3" s="222"/>
-      <c r="AA3" s="137"/>
-      <c r="AB3" s="139"/>
-      <c r="AC3" s="196" t="str">
+      <c r="F3" s="193"/>
+      <c r="G3" s="193"/>
+      <c r="H3" s="193"/>
+      <c r="I3" s="193"/>
+      <c r="J3" s="193"/>
+      <c r="K3" s="193"/>
+      <c r="L3" s="193"/>
+      <c r="M3" s="193"/>
+      <c r="N3" s="194"/>
+      <c r="O3" s="189"/>
+      <c r="P3" s="190"/>
+      <c r="Q3" s="190"/>
+      <c r="R3" s="191"/>
+      <c r="S3" s="210"/>
+      <c r="T3" s="211"/>
+      <c r="U3" s="211"/>
+      <c r="V3" s="211"/>
+      <c r="W3" s="211"/>
+      <c r="X3" s="211"/>
+      <c r="Y3" s="211"/>
+      <c r="Z3" s="212"/>
+      <c r="AA3" s="140"/>
+      <c r="AB3" s="141"/>
+      <c r="AC3" s="142" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="197"/>
-      <c r="AE3" s="197"/>
-      <c r="AF3" s="198"/>
-      <c r="AG3" s="211" t="str">
+      <c r="AD3" s="143"/>
+      <c r="AE3" s="143"/>
+      <c r="AF3" s="144"/>
+      <c r="AG3" s="199" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="212"/>
-      <c r="AI3" s="213"/>
+      <c r="AH3" s="200"/>
+      <c r="AI3" s="201"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
@@ -15946,1101 +15944,1101 @@
       </c>
     </row>
     <row r="7" spans="1:66">
-      <c r="A7" s="268" t="s">
+      <c r="A7" s="275" t="s">
         <v>234</v>
       </c>
-      <c r="B7" s="270" t="s">
+      <c r="B7" s="277" t="s">
         <v>235</v>
       </c>
-      <c r="C7" s="270"/>
-      <c r="D7" s="270"/>
-      <c r="E7" s="270"/>
-      <c r="F7" s="270"/>
-      <c r="G7" s="262" t="s">
+      <c r="C7" s="277"/>
+      <c r="D7" s="277"/>
+      <c r="E7" s="277"/>
+      <c r="F7" s="277"/>
+      <c r="G7" s="269" t="s">
         <v>174</v>
       </c>
-      <c r="H7" s="263"/>
-      <c r="I7" s="263"/>
-      <c r="J7" s="263"/>
-      <c r="K7" s="263"/>
-      <c r="L7" s="263"/>
-      <c r="M7" s="263"/>
-      <c r="N7" s="264"/>
-      <c r="O7" s="241" t="s">
+      <c r="H7" s="270"/>
+      <c r="I7" s="270"/>
+      <c r="J7" s="270"/>
+      <c r="K7" s="270"/>
+      <c r="L7" s="270"/>
+      <c r="M7" s="270"/>
+      <c r="N7" s="271"/>
+      <c r="O7" s="261" t="s">
         <v>25</v>
       </c>
-      <c r="P7" s="241"/>
-      <c r="Q7" s="241"/>
-      <c r="R7" s="225" t="s">
+      <c r="P7" s="261"/>
+      <c r="Q7" s="261"/>
+      <c r="R7" s="226" t="s">
         <v>27</v>
       </c>
-      <c r="S7" s="225"/>
-      <c r="T7" s="225"/>
-      <c r="U7" s="225"/>
-      <c r="V7" s="225"/>
-      <c r="W7" s="225"/>
-      <c r="X7" s="273" t="s">
+      <c r="S7" s="226"/>
+      <c r="T7" s="226"/>
+      <c r="U7" s="226"/>
+      <c r="V7" s="226"/>
+      <c r="W7" s="226"/>
+      <c r="X7" s="262" t="s">
         <v>236</v>
       </c>
-      <c r="Y7" s="274"/>
-      <c r="Z7" s="274"/>
-      <c r="AA7" s="274"/>
-      <c r="AB7" s="274"/>
-      <c r="AC7" s="275"/>
-      <c r="AD7" s="241" t="s">
+      <c r="Y7" s="263"/>
+      <c r="Z7" s="263"/>
+      <c r="AA7" s="263"/>
+      <c r="AB7" s="263"/>
+      <c r="AC7" s="264"/>
+      <c r="AD7" s="261" t="s">
         <v>11</v>
       </c>
-      <c r="AE7" s="241"/>
-      <c r="AF7" s="241"/>
-      <c r="AG7" s="241"/>
-      <c r="AH7" s="241"/>
-      <c r="AI7" s="241"/>
+      <c r="AE7" s="261"/>
+      <c r="AF7" s="261"/>
+      <c r="AG7" s="261"/>
+      <c r="AH7" s="261"/>
+      <c r="AI7" s="261"/>
       <c r="AJ7" s="89"/>
-      <c r="AL7" s="242" t="s">
+      <c r="AL7" s="279" t="s">
         <v>175</v>
       </c>
-      <c r="AM7" s="243"/>
-      <c r="AN7" s="243"/>
-      <c r="AO7" s="243"/>
-      <c r="AP7" s="243"/>
-      <c r="AQ7" s="243"/>
-      <c r="AR7" s="243"/>
-      <c r="AS7" s="243"/>
-      <c r="AT7" s="243"/>
-      <c r="AU7" s="243"/>
-      <c r="AV7" s="243"/>
-      <c r="AW7" s="243"/>
-      <c r="AX7" s="242" t="s">
+      <c r="AM7" s="280"/>
+      <c r="AN7" s="280"/>
+      <c r="AO7" s="280"/>
+      <c r="AP7" s="280"/>
+      <c r="AQ7" s="280"/>
+      <c r="AR7" s="280"/>
+      <c r="AS7" s="280"/>
+      <c r="AT7" s="280"/>
+      <c r="AU7" s="280"/>
+      <c r="AV7" s="280"/>
+      <c r="AW7" s="280"/>
+      <c r="AX7" s="279" t="s">
         <v>24</v>
       </c>
-      <c r="AY7" s="243"/>
-      <c r="AZ7" s="243"/>
-      <c r="BA7" s="243"/>
-      <c r="BB7" s="243"/>
-      <c r="BC7" s="253" t="s">
+      <c r="AY7" s="280"/>
+      <c r="AZ7" s="280"/>
+      <c r="BA7" s="280"/>
+      <c r="BB7" s="280"/>
+      <c r="BC7" s="281" t="s">
         <v>52</v>
       </c>
-      <c r="BD7" s="254"/>
-      <c r="BE7" s="254"/>
-      <c r="BF7" s="254"/>
-      <c r="BG7" s="255"/>
-      <c r="BH7" s="243" t="s">
+      <c r="BD7" s="282"/>
+      <c r="BE7" s="282"/>
+      <c r="BF7" s="282"/>
+      <c r="BG7" s="283"/>
+      <c r="BH7" s="280" t="s">
         <v>51</v>
       </c>
-      <c r="BI7" s="243"/>
-      <c r="BJ7" s="243"/>
-      <c r="BK7" s="243"/>
-      <c r="BL7" s="243"/>
-      <c r="BM7" s="243"/>
-      <c r="BN7" s="243"/>
+      <c r="BI7" s="280"/>
+      <c r="BJ7" s="280"/>
+      <c r="BK7" s="280"/>
+      <c r="BL7" s="280"/>
+      <c r="BM7" s="280"/>
+      <c r="BN7" s="280"/>
     </row>
     <row r="8" spans="1:66" s="90" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A8" s="269"/>
-      <c r="B8" s="270"/>
-      <c r="C8" s="270"/>
-      <c r="D8" s="270"/>
-      <c r="E8" s="270"/>
-      <c r="F8" s="270"/>
-      <c r="G8" s="265"/>
-      <c r="H8" s="266"/>
-      <c r="I8" s="266"/>
-      <c r="J8" s="266"/>
-      <c r="K8" s="266"/>
-      <c r="L8" s="266"/>
-      <c r="M8" s="266"/>
-      <c r="N8" s="267"/>
-      <c r="O8" s="241"/>
-      <c r="P8" s="241"/>
-      <c r="Q8" s="241"/>
-      <c r="R8" s="271" t="s">
+      <c r="A8" s="276"/>
+      <c r="B8" s="277"/>
+      <c r="C8" s="277"/>
+      <c r="D8" s="277"/>
+      <c r="E8" s="277"/>
+      <c r="F8" s="277"/>
+      <c r="G8" s="272"/>
+      <c r="H8" s="273"/>
+      <c r="I8" s="273"/>
+      <c r="J8" s="273"/>
+      <c r="K8" s="273"/>
+      <c r="L8" s="273"/>
+      <c r="M8" s="273"/>
+      <c r="N8" s="274"/>
+      <c r="O8" s="261"/>
+      <c r="P8" s="261"/>
+      <c r="Q8" s="261"/>
+      <c r="R8" s="278" t="s">
         <v>28</v>
       </c>
-      <c r="S8" s="235"/>
-      <c r="T8" s="235" t="s">
+      <c r="S8" s="268"/>
+      <c r="T8" s="268" t="s">
         <v>29</v>
       </c>
-      <c r="U8" s="235"/>
-      <c r="V8" s="260" t="s">
+      <c r="U8" s="268"/>
+      <c r="V8" s="265" t="s">
         <v>30</v>
       </c>
-      <c r="W8" s="236"/>
-      <c r="X8" s="261" t="s">
+      <c r="W8" s="266"/>
+      <c r="X8" s="267" t="s">
         <v>237</v>
       </c>
-      <c r="Y8" s="235"/>
-      <c r="Z8" s="235"/>
-      <c r="AA8" s="234" t="s">
+      <c r="Y8" s="268"/>
+      <c r="Z8" s="268"/>
+      <c r="AA8" s="288" t="s">
         <v>238</v>
       </c>
-      <c r="AB8" s="235"/>
-      <c r="AC8" s="236"/>
-      <c r="AD8" s="241"/>
-      <c r="AE8" s="241"/>
-      <c r="AF8" s="241"/>
-      <c r="AG8" s="241"/>
-      <c r="AH8" s="241"/>
-      <c r="AI8" s="241"/>
+      <c r="AB8" s="268"/>
+      <c r="AC8" s="266"/>
+      <c r="AD8" s="261"/>
+      <c r="AE8" s="261"/>
+      <c r="AF8" s="261"/>
+      <c r="AG8" s="261"/>
+      <c r="AH8" s="261"/>
+      <c r="AI8" s="261"/>
       <c r="AJ8" s="89"/>
-      <c r="AL8" s="243"/>
-      <c r="AM8" s="243"/>
-      <c r="AN8" s="243"/>
-      <c r="AO8" s="243"/>
-      <c r="AP8" s="243"/>
-      <c r="AQ8" s="243"/>
-      <c r="AR8" s="243"/>
-      <c r="AS8" s="243"/>
-      <c r="AT8" s="243"/>
-      <c r="AU8" s="243"/>
-      <c r="AV8" s="243"/>
-      <c r="AW8" s="243"/>
-      <c r="AX8" s="243"/>
-      <c r="AY8" s="243"/>
-      <c r="AZ8" s="243"/>
-      <c r="BA8" s="243"/>
-      <c r="BB8" s="243"/>
-      <c r="BC8" s="256"/>
-      <c r="BD8" s="257"/>
-      <c r="BE8" s="257"/>
-      <c r="BF8" s="257"/>
-      <c r="BG8" s="258"/>
-      <c r="BH8" s="243"/>
-      <c r="BI8" s="243"/>
-      <c r="BJ8" s="243"/>
-      <c r="BK8" s="243"/>
-      <c r="BL8" s="243"/>
-      <c r="BM8" s="243"/>
-      <c r="BN8" s="243"/>
+      <c r="AL8" s="280"/>
+      <c r="AM8" s="280"/>
+      <c r="AN8" s="280"/>
+      <c r="AO8" s="280"/>
+      <c r="AP8" s="280"/>
+      <c r="AQ8" s="280"/>
+      <c r="AR8" s="280"/>
+      <c r="AS8" s="280"/>
+      <c r="AT8" s="280"/>
+      <c r="AU8" s="280"/>
+      <c r="AV8" s="280"/>
+      <c r="AW8" s="280"/>
+      <c r="AX8" s="280"/>
+      <c r="AY8" s="280"/>
+      <c r="AZ8" s="280"/>
+      <c r="BA8" s="280"/>
+      <c r="BB8" s="280"/>
+      <c r="BC8" s="284"/>
+      <c r="BD8" s="285"/>
+      <c r="BE8" s="285"/>
+      <c r="BF8" s="285"/>
+      <c r="BG8" s="286"/>
+      <c r="BH8" s="280"/>
+      <c r="BI8" s="280"/>
+      <c r="BJ8" s="280"/>
+      <c r="BK8" s="280"/>
+      <c r="BL8" s="280"/>
+      <c r="BM8" s="280"/>
+      <c r="BN8" s="280"/>
     </row>
     <row r="9" spans="1:66" s="92" customFormat="1" ht="30" customHeight="1">
       <c r="A9" s="91">
         <v>1</v>
       </c>
-      <c r="B9" s="276" t="s">
+      <c r="B9" s="247" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="277"/>
-      <c r="D9" s="277"/>
-      <c r="E9" s="277"/>
-      <c r="F9" s="278"/>
-      <c r="G9" s="237" t="s">
+      <c r="C9" s="248"/>
+      <c r="D9" s="248"/>
+      <c r="E9" s="248"/>
+      <c r="F9" s="249"/>
+      <c r="G9" s="250" t="s">
         <v>130</v>
       </c>
-      <c r="H9" s="238"/>
-      <c r="I9" s="238"/>
-      <c r="J9" s="238"/>
-      <c r="K9" s="238"/>
-      <c r="L9" s="238"/>
-      <c r="M9" s="238"/>
-      <c r="N9" s="239"/>
-      <c r="O9" s="244" t="s">
+      <c r="H9" s="251"/>
+      <c r="I9" s="251"/>
+      <c r="J9" s="251"/>
+      <c r="K9" s="251"/>
+      <c r="L9" s="251"/>
+      <c r="M9" s="251"/>
+      <c r="N9" s="252"/>
+      <c r="O9" s="253" t="s">
         <v>34</v>
       </c>
-      <c r="P9" s="245"/>
-      <c r="Q9" s="246"/>
-      <c r="R9" s="249">
+      <c r="P9" s="254"/>
+      <c r="Q9" s="255"/>
+      <c r="R9" s="238">
         <v>10</v>
       </c>
-      <c r="S9" s="250"/>
-      <c r="T9" s="251">
+      <c r="S9" s="239"/>
+      <c r="T9" s="258">
         <v>10</v>
       </c>
-      <c r="U9" s="252"/>
-      <c r="V9" s="247"/>
-      <c r="W9" s="248"/>
-      <c r="X9" s="272"/>
-      <c r="Y9" s="232"/>
-      <c r="Z9" s="232"/>
-      <c r="AA9" s="232"/>
-      <c r="AB9" s="232"/>
-      <c r="AC9" s="233"/>
-      <c r="AD9" s="237"/>
-      <c r="AE9" s="238"/>
-      <c r="AF9" s="238"/>
-      <c r="AG9" s="238"/>
-      <c r="AH9" s="238"/>
-      <c r="AI9" s="239"/>
+      <c r="U9" s="259"/>
+      <c r="V9" s="240"/>
+      <c r="W9" s="241"/>
+      <c r="X9" s="246"/>
+      <c r="Y9" s="242"/>
+      <c r="Z9" s="242"/>
+      <c r="AA9" s="242"/>
+      <c r="AB9" s="242"/>
+      <c r="AC9" s="243"/>
+      <c r="AD9" s="250"/>
+      <c r="AE9" s="251"/>
+      <c r="AF9" s="251"/>
+      <c r="AG9" s="251"/>
+      <c r="AH9" s="251"/>
+      <c r="AI9" s="252"/>
       <c r="AJ9" s="38"/>
-      <c r="AL9" s="184" t="s">
+      <c r="AL9" s="148" t="s">
         <v>148</v>
       </c>
-      <c r="AM9" s="182"/>
-      <c r="AN9" s="182"/>
-      <c r="AO9" s="182"/>
-      <c r="AP9" s="182"/>
-      <c r="AQ9" s="182"/>
-      <c r="AR9" s="182"/>
-      <c r="AS9" s="182"/>
-      <c r="AT9" s="182"/>
-      <c r="AU9" s="182"/>
-      <c r="AV9" s="182"/>
-      <c r="AW9" s="183"/>
-      <c r="AX9" s="259" t="s">
+      <c r="AM9" s="138"/>
+      <c r="AN9" s="138"/>
+      <c r="AO9" s="138"/>
+      <c r="AP9" s="138"/>
+      <c r="AQ9" s="138"/>
+      <c r="AR9" s="138"/>
+      <c r="AS9" s="138"/>
+      <c r="AT9" s="138"/>
+      <c r="AU9" s="138"/>
+      <c r="AV9" s="138"/>
+      <c r="AW9" s="139"/>
+      <c r="AX9" s="232" t="s">
         <v>149</v>
       </c>
-      <c r="AY9" s="259"/>
-      <c r="AZ9" s="259"/>
-      <c r="BA9" s="259"/>
-      <c r="BB9" s="259"/>
-      <c r="BC9" s="184" t="s">
+      <c r="AY9" s="232"/>
+      <c r="AZ9" s="232"/>
+      <c r="BA9" s="232"/>
+      <c r="BB9" s="232"/>
+      <c r="BC9" s="148" t="s">
         <v>150</v>
       </c>
-      <c r="BD9" s="185"/>
-      <c r="BE9" s="185"/>
-      <c r="BF9" s="185"/>
-      <c r="BG9" s="186"/>
-      <c r="BH9" s="284" t="s">
+      <c r="BD9" s="149"/>
+      <c r="BE9" s="149"/>
+      <c r="BF9" s="149"/>
+      <c r="BG9" s="150"/>
+      <c r="BH9" s="233" t="s">
         <v>151</v>
       </c>
-      <c r="BI9" s="284"/>
-      <c r="BJ9" s="284"/>
-      <c r="BK9" s="284"/>
-      <c r="BL9" s="284"/>
-      <c r="BM9" s="284"/>
-      <c r="BN9" s="284"/>
+      <c r="BI9" s="233"/>
+      <c r="BJ9" s="233"/>
+      <c r="BK9" s="233"/>
+      <c r="BL9" s="233"/>
+      <c r="BM9" s="233"/>
+      <c r="BN9" s="233"/>
     </row>
     <row r="10" spans="1:66" s="92" customFormat="1" ht="30" customHeight="1">
       <c r="A10" s="91">
         <v>2</v>
       </c>
-      <c r="B10" s="276" t="s">
+      <c r="B10" s="247" t="s">
         <v>119</v>
       </c>
-      <c r="C10" s="277"/>
-      <c r="D10" s="277"/>
-      <c r="E10" s="277"/>
-      <c r="F10" s="278"/>
-      <c r="G10" s="237" t="s">
+      <c r="C10" s="248"/>
+      <c r="D10" s="248"/>
+      <c r="E10" s="248"/>
+      <c r="F10" s="249"/>
+      <c r="G10" s="250" t="s">
         <v>131</v>
       </c>
-      <c r="H10" s="238"/>
-      <c r="I10" s="238"/>
-      <c r="J10" s="238"/>
-      <c r="K10" s="238"/>
-      <c r="L10" s="238"/>
-      <c r="M10" s="238"/>
-      <c r="N10" s="239"/>
-      <c r="O10" s="244" t="s">
+      <c r="H10" s="251"/>
+      <c r="I10" s="251"/>
+      <c r="J10" s="251"/>
+      <c r="K10" s="251"/>
+      <c r="L10" s="251"/>
+      <c r="M10" s="251"/>
+      <c r="N10" s="252"/>
+      <c r="O10" s="253" t="s">
         <v>32</v>
       </c>
-      <c r="P10" s="245"/>
-      <c r="Q10" s="246"/>
-      <c r="R10" s="249">
+      <c r="P10" s="254"/>
+      <c r="Q10" s="255"/>
+      <c r="R10" s="238">
         <v>3</v>
       </c>
-      <c r="S10" s="250"/>
-      <c r="T10" s="251">
+      <c r="S10" s="239"/>
+      <c r="T10" s="258">
         <v>7</v>
       </c>
-      <c r="U10" s="252"/>
-      <c r="V10" s="247"/>
-      <c r="W10" s="248"/>
-      <c r="X10" s="272"/>
-      <c r="Y10" s="232"/>
-      <c r="Z10" s="232"/>
-      <c r="AA10" s="232"/>
-      <c r="AB10" s="232"/>
-      <c r="AC10" s="233"/>
-      <c r="AD10" s="237"/>
-      <c r="AE10" s="238"/>
-      <c r="AF10" s="238"/>
-      <c r="AG10" s="238"/>
-      <c r="AH10" s="238"/>
-      <c r="AI10" s="239"/>
+      <c r="U10" s="259"/>
+      <c r="V10" s="240"/>
+      <c r="W10" s="241"/>
+      <c r="X10" s="246"/>
+      <c r="Y10" s="242"/>
+      <c r="Z10" s="242"/>
+      <c r="AA10" s="242"/>
+      <c r="AB10" s="242"/>
+      <c r="AC10" s="243"/>
+      <c r="AD10" s="250"/>
+      <c r="AE10" s="251"/>
+      <c r="AF10" s="251"/>
+      <c r="AG10" s="251"/>
+      <c r="AH10" s="251"/>
+      <c r="AI10" s="252"/>
       <c r="AJ10" s="39"/>
-      <c r="AL10" s="240" t="s">
+      <c r="AL10" s="287" t="s">
         <v>231</v>
       </c>
-      <c r="AM10" s="185"/>
-      <c r="AN10" s="185"/>
-      <c r="AO10" s="185"/>
-      <c r="AP10" s="185"/>
-      <c r="AQ10" s="185"/>
-      <c r="AR10" s="185"/>
-      <c r="AS10" s="185"/>
-      <c r="AT10" s="185"/>
-      <c r="AU10" s="185"/>
-      <c r="AV10" s="185"/>
-      <c r="AW10" s="186"/>
-      <c r="AX10" s="259" t="s">
+      <c r="AM10" s="149"/>
+      <c r="AN10" s="149"/>
+      <c r="AO10" s="149"/>
+      <c r="AP10" s="149"/>
+      <c r="AQ10" s="149"/>
+      <c r="AR10" s="149"/>
+      <c r="AS10" s="149"/>
+      <c r="AT10" s="149"/>
+      <c r="AU10" s="149"/>
+      <c r="AV10" s="149"/>
+      <c r="AW10" s="150"/>
+      <c r="AX10" s="232" t="s">
         <v>152</v>
       </c>
-      <c r="AY10" s="259"/>
-      <c r="AZ10" s="259"/>
-      <c r="BA10" s="259"/>
-      <c r="BB10" s="259"/>
-      <c r="BC10" s="184" t="s">
+      <c r="AY10" s="232"/>
+      <c r="AZ10" s="232"/>
+      <c r="BA10" s="232"/>
+      <c r="BB10" s="232"/>
+      <c r="BC10" s="148" t="s">
         <v>153</v>
       </c>
-      <c r="BD10" s="185"/>
-      <c r="BE10" s="185"/>
-      <c r="BF10" s="185"/>
-      <c r="BG10" s="186"/>
-      <c r="BH10" s="284"/>
-      <c r="BI10" s="284"/>
-      <c r="BJ10" s="284"/>
-      <c r="BK10" s="284"/>
-      <c r="BL10" s="284"/>
-      <c r="BM10" s="284"/>
-      <c r="BN10" s="284"/>
+      <c r="BD10" s="149"/>
+      <c r="BE10" s="149"/>
+      <c r="BF10" s="149"/>
+      <c r="BG10" s="150"/>
+      <c r="BH10" s="233"/>
+      <c r="BI10" s="233"/>
+      <c r="BJ10" s="233"/>
+      <c r="BK10" s="233"/>
+      <c r="BL10" s="233"/>
+      <c r="BM10" s="233"/>
+      <c r="BN10" s="233"/>
     </row>
     <row r="11" spans="1:66" s="92" customFormat="1" ht="30" customHeight="1">
       <c r="A11" s="91">
         <v>3</v>
       </c>
-      <c r="B11" s="276" t="s">
+      <c r="B11" s="247" t="s">
         <v>125</v>
       </c>
-      <c r="C11" s="277"/>
-      <c r="D11" s="277"/>
-      <c r="E11" s="277"/>
-      <c r="F11" s="278"/>
-      <c r="G11" s="237" t="s">
+      <c r="C11" s="248"/>
+      <c r="D11" s="248"/>
+      <c r="E11" s="248"/>
+      <c r="F11" s="249"/>
+      <c r="G11" s="250" t="s">
         <v>132</v>
       </c>
-      <c r="H11" s="238"/>
-      <c r="I11" s="238"/>
-      <c r="J11" s="238"/>
-      <c r="K11" s="238"/>
-      <c r="L11" s="238"/>
-      <c r="M11" s="238"/>
-      <c r="N11" s="239"/>
-      <c r="O11" s="244" t="s">
+      <c r="H11" s="251"/>
+      <c r="I11" s="251"/>
+      <c r="J11" s="251"/>
+      <c r="K11" s="251"/>
+      <c r="L11" s="251"/>
+      <c r="M11" s="251"/>
+      <c r="N11" s="252"/>
+      <c r="O11" s="253" t="s">
         <v>36</v>
       </c>
-      <c r="P11" s="245"/>
-      <c r="Q11" s="246"/>
-      <c r="R11" s="249"/>
-      <c r="S11" s="250"/>
-      <c r="T11" s="251">
+      <c r="P11" s="254"/>
+      <c r="Q11" s="255"/>
+      <c r="R11" s="238"/>
+      <c r="S11" s="239"/>
+      <c r="T11" s="258">
         <v>20</v>
       </c>
-      <c r="U11" s="252"/>
-      <c r="V11" s="247"/>
-      <c r="W11" s="248"/>
-      <c r="X11" s="272"/>
-      <c r="Y11" s="232"/>
-      <c r="Z11" s="232"/>
-      <c r="AA11" s="232"/>
-      <c r="AB11" s="232"/>
-      <c r="AC11" s="233"/>
-      <c r="AD11" s="237"/>
-      <c r="AE11" s="238"/>
-      <c r="AF11" s="238"/>
-      <c r="AG11" s="238"/>
-      <c r="AH11" s="238"/>
-      <c r="AI11" s="239"/>
+      <c r="U11" s="259"/>
+      <c r="V11" s="240"/>
+      <c r="W11" s="241"/>
+      <c r="X11" s="246"/>
+      <c r="Y11" s="242"/>
+      <c r="Z11" s="242"/>
+      <c r="AA11" s="242"/>
+      <c r="AB11" s="242"/>
+      <c r="AC11" s="243"/>
+      <c r="AD11" s="250"/>
+      <c r="AE11" s="251"/>
+      <c r="AF11" s="251"/>
+      <c r="AG11" s="251"/>
+      <c r="AH11" s="251"/>
+      <c r="AI11" s="252"/>
       <c r="AJ11" s="38"/>
-      <c r="AL11" s="184" t="s">
+      <c r="AL11" s="148" t="s">
         <v>154</v>
       </c>
-      <c r="AM11" s="182"/>
-      <c r="AN11" s="182"/>
-      <c r="AO11" s="182"/>
-      <c r="AP11" s="182"/>
-      <c r="AQ11" s="182"/>
-      <c r="AR11" s="182"/>
-      <c r="AS11" s="182"/>
-      <c r="AT11" s="182"/>
-      <c r="AU11" s="182"/>
-      <c r="AV11" s="182"/>
-      <c r="AW11" s="183"/>
-      <c r="AX11" s="259" t="s">
+      <c r="AM11" s="138"/>
+      <c r="AN11" s="138"/>
+      <c r="AO11" s="138"/>
+      <c r="AP11" s="138"/>
+      <c r="AQ11" s="138"/>
+      <c r="AR11" s="138"/>
+      <c r="AS11" s="138"/>
+      <c r="AT11" s="138"/>
+      <c r="AU11" s="138"/>
+      <c r="AV11" s="138"/>
+      <c r="AW11" s="139"/>
+      <c r="AX11" s="232" t="s">
         <v>155</v>
       </c>
-      <c r="AY11" s="259"/>
-      <c r="AZ11" s="259"/>
-      <c r="BA11" s="259"/>
-      <c r="BB11" s="259"/>
-      <c r="BC11" s="184" t="s">
+      <c r="AY11" s="232"/>
+      <c r="AZ11" s="232"/>
+      <c r="BA11" s="232"/>
+      <c r="BB11" s="232"/>
+      <c r="BC11" s="148" t="s">
         <v>36</v>
       </c>
-      <c r="BD11" s="185"/>
-      <c r="BE11" s="185"/>
-      <c r="BF11" s="185"/>
-      <c r="BG11" s="186"/>
-      <c r="BH11" s="284"/>
-      <c r="BI11" s="284"/>
-      <c r="BJ11" s="284"/>
-      <c r="BK11" s="284"/>
-      <c r="BL11" s="284"/>
-      <c r="BM11" s="284"/>
-      <c r="BN11" s="284"/>
+      <c r="BD11" s="149"/>
+      <c r="BE11" s="149"/>
+      <c r="BF11" s="149"/>
+      <c r="BG11" s="150"/>
+      <c r="BH11" s="233"/>
+      <c r="BI11" s="233"/>
+      <c r="BJ11" s="233"/>
+      <c r="BK11" s="233"/>
+      <c r="BL11" s="233"/>
+      <c r="BM11" s="233"/>
+      <c r="BN11" s="233"/>
     </row>
     <row r="12" spans="1:66" s="92" customFormat="1" ht="30" customHeight="1">
       <c r="A12" s="91">
         <v>4</v>
       </c>
-      <c r="B12" s="276" t="s">
+      <c r="B12" s="247" t="s">
         <v>126</v>
       </c>
-      <c r="C12" s="277"/>
-      <c r="D12" s="277"/>
-      <c r="E12" s="277"/>
-      <c r="F12" s="278"/>
-      <c r="G12" s="237" t="s">
+      <c r="C12" s="248"/>
+      <c r="D12" s="248"/>
+      <c r="E12" s="248"/>
+      <c r="F12" s="249"/>
+      <c r="G12" s="250" t="s">
         <v>133</v>
       </c>
-      <c r="H12" s="238"/>
-      <c r="I12" s="238"/>
-      <c r="J12" s="238"/>
-      <c r="K12" s="238"/>
-      <c r="L12" s="238"/>
-      <c r="M12" s="238"/>
-      <c r="N12" s="239"/>
-      <c r="O12" s="244" t="s">
+      <c r="H12" s="251"/>
+      <c r="I12" s="251"/>
+      <c r="J12" s="251"/>
+      <c r="K12" s="251"/>
+      <c r="L12" s="251"/>
+      <c r="M12" s="251"/>
+      <c r="N12" s="252"/>
+      <c r="O12" s="253" t="s">
         <v>141</v>
       </c>
-      <c r="P12" s="245"/>
-      <c r="Q12" s="246"/>
-      <c r="R12" s="249"/>
-      <c r="S12" s="250"/>
-      <c r="T12" s="251">
+      <c r="P12" s="254"/>
+      <c r="Q12" s="255"/>
+      <c r="R12" s="238"/>
+      <c r="S12" s="239"/>
+      <c r="T12" s="258">
         <v>20</v>
       </c>
-      <c r="U12" s="252"/>
-      <c r="V12" s="247"/>
-      <c r="W12" s="248"/>
-      <c r="X12" s="272"/>
-      <c r="Y12" s="232"/>
-      <c r="Z12" s="232"/>
-      <c r="AA12" s="232"/>
-      <c r="AB12" s="232"/>
-      <c r="AC12" s="233"/>
-      <c r="AD12" s="237"/>
-      <c r="AE12" s="238"/>
-      <c r="AF12" s="238"/>
-      <c r="AG12" s="238"/>
-      <c r="AH12" s="238"/>
-      <c r="AI12" s="239"/>
+      <c r="U12" s="259"/>
+      <c r="V12" s="240"/>
+      <c r="W12" s="241"/>
+      <c r="X12" s="246"/>
+      <c r="Y12" s="242"/>
+      <c r="Z12" s="242"/>
+      <c r="AA12" s="242"/>
+      <c r="AB12" s="242"/>
+      <c r="AC12" s="243"/>
+      <c r="AD12" s="250"/>
+      <c r="AE12" s="251"/>
+      <c r="AF12" s="251"/>
+      <c r="AG12" s="251"/>
+      <c r="AH12" s="251"/>
+      <c r="AI12" s="252"/>
       <c r="AJ12" s="38"/>
-      <c r="AL12" s="184" t="s">
+      <c r="AL12" s="148" t="s">
         <v>154</v>
       </c>
-      <c r="AM12" s="182"/>
-      <c r="AN12" s="182"/>
-      <c r="AO12" s="182"/>
-      <c r="AP12" s="182"/>
-      <c r="AQ12" s="182"/>
-      <c r="AR12" s="182"/>
-      <c r="AS12" s="182"/>
-      <c r="AT12" s="182"/>
-      <c r="AU12" s="182"/>
-      <c r="AV12" s="182"/>
-      <c r="AW12" s="183"/>
-      <c r="AX12" s="259" t="s">
+      <c r="AM12" s="138"/>
+      <c r="AN12" s="138"/>
+      <c r="AO12" s="138"/>
+      <c r="AP12" s="138"/>
+      <c r="AQ12" s="138"/>
+      <c r="AR12" s="138"/>
+      <c r="AS12" s="138"/>
+      <c r="AT12" s="138"/>
+      <c r="AU12" s="138"/>
+      <c r="AV12" s="138"/>
+      <c r="AW12" s="139"/>
+      <c r="AX12" s="232" t="s">
         <v>156</v>
       </c>
-      <c r="AY12" s="259"/>
-      <c r="AZ12" s="259"/>
-      <c r="BA12" s="259"/>
-      <c r="BB12" s="259"/>
-      <c r="BC12" s="184" t="s">
+      <c r="AY12" s="232"/>
+      <c r="AZ12" s="232"/>
+      <c r="BA12" s="232"/>
+      <c r="BB12" s="232"/>
+      <c r="BC12" s="148" t="s">
         <v>157</v>
       </c>
-      <c r="BD12" s="185"/>
-      <c r="BE12" s="185"/>
-      <c r="BF12" s="185"/>
-      <c r="BG12" s="186"/>
-      <c r="BH12" s="284"/>
-      <c r="BI12" s="284"/>
-      <c r="BJ12" s="284"/>
-      <c r="BK12" s="284"/>
-      <c r="BL12" s="284"/>
-      <c r="BM12" s="284"/>
-      <c r="BN12" s="284"/>
+      <c r="BD12" s="149"/>
+      <c r="BE12" s="149"/>
+      <c r="BF12" s="149"/>
+      <c r="BG12" s="150"/>
+      <c r="BH12" s="233"/>
+      <c r="BI12" s="233"/>
+      <c r="BJ12" s="233"/>
+      <c r="BK12" s="233"/>
+      <c r="BL12" s="233"/>
+      <c r="BM12" s="233"/>
+      <c r="BN12" s="233"/>
     </row>
     <row r="13" spans="1:66" s="92" customFormat="1" ht="30" customHeight="1">
       <c r="A13" s="91">
         <v>5</v>
       </c>
-      <c r="B13" s="276" t="s">
+      <c r="B13" s="247" t="s">
         <v>127</v>
       </c>
-      <c r="C13" s="277"/>
-      <c r="D13" s="277"/>
-      <c r="E13" s="277"/>
-      <c r="F13" s="278"/>
-      <c r="G13" s="237" t="s">
+      <c r="C13" s="248"/>
+      <c r="D13" s="248"/>
+      <c r="E13" s="248"/>
+      <c r="F13" s="249"/>
+      <c r="G13" s="250" t="s">
         <v>134</v>
       </c>
-      <c r="H13" s="238"/>
-      <c r="I13" s="238"/>
-      <c r="J13" s="238"/>
-      <c r="K13" s="238"/>
-      <c r="L13" s="238"/>
-      <c r="M13" s="238"/>
-      <c r="N13" s="239"/>
-      <c r="O13" s="244" t="s">
+      <c r="H13" s="251"/>
+      <c r="I13" s="251"/>
+      <c r="J13" s="251"/>
+      <c r="K13" s="251"/>
+      <c r="L13" s="251"/>
+      <c r="M13" s="251"/>
+      <c r="N13" s="252"/>
+      <c r="O13" s="253" t="s">
         <v>44</v>
       </c>
-      <c r="P13" s="245"/>
-      <c r="Q13" s="246"/>
-      <c r="R13" s="249">
+      <c r="P13" s="254"/>
+      <c r="Q13" s="255"/>
+      <c r="R13" s="238">
         <v>1</v>
       </c>
-      <c r="S13" s="250"/>
-      <c r="T13" s="251">
+      <c r="S13" s="239"/>
+      <c r="T13" s="258">
         <v>2</v>
       </c>
-      <c r="U13" s="252"/>
-      <c r="V13" s="247"/>
-      <c r="W13" s="248"/>
-      <c r="X13" s="272"/>
-      <c r="Y13" s="232"/>
-      <c r="Z13" s="232"/>
-      <c r="AA13" s="232"/>
-      <c r="AB13" s="232"/>
-      <c r="AC13" s="233"/>
-      <c r="AD13" s="237"/>
-      <c r="AE13" s="238"/>
-      <c r="AF13" s="238"/>
-      <c r="AG13" s="238"/>
-      <c r="AH13" s="238"/>
-      <c r="AI13" s="239"/>
+      <c r="U13" s="259"/>
+      <c r="V13" s="240"/>
+      <c r="W13" s="241"/>
+      <c r="X13" s="246"/>
+      <c r="Y13" s="242"/>
+      <c r="Z13" s="242"/>
+      <c r="AA13" s="242"/>
+      <c r="AB13" s="242"/>
+      <c r="AC13" s="243"/>
+      <c r="AD13" s="250"/>
+      <c r="AE13" s="251"/>
+      <c r="AF13" s="251"/>
+      <c r="AG13" s="251"/>
+      <c r="AH13" s="251"/>
+      <c r="AI13" s="252"/>
       <c r="AJ13" s="38"/>
-      <c r="AL13" s="240" t="s">
+      <c r="AL13" s="287" t="s">
         <v>232</v>
       </c>
-      <c r="AM13" s="182"/>
-      <c r="AN13" s="182"/>
-      <c r="AO13" s="182"/>
-      <c r="AP13" s="182"/>
-      <c r="AQ13" s="182"/>
-      <c r="AR13" s="182"/>
-      <c r="AS13" s="182"/>
-      <c r="AT13" s="182"/>
-      <c r="AU13" s="182"/>
-      <c r="AV13" s="182"/>
-      <c r="AW13" s="183"/>
-      <c r="AX13" s="259" t="s">
+      <c r="AM13" s="138"/>
+      <c r="AN13" s="138"/>
+      <c r="AO13" s="138"/>
+      <c r="AP13" s="138"/>
+      <c r="AQ13" s="138"/>
+      <c r="AR13" s="138"/>
+      <c r="AS13" s="138"/>
+      <c r="AT13" s="138"/>
+      <c r="AU13" s="138"/>
+      <c r="AV13" s="138"/>
+      <c r="AW13" s="139"/>
+      <c r="AX13" s="232" t="s">
         <v>158</v>
       </c>
-      <c r="AY13" s="259"/>
-      <c r="AZ13" s="259"/>
-      <c r="BA13" s="259"/>
-      <c r="BB13" s="259"/>
-      <c r="BC13" s="184"/>
-      <c r="BD13" s="185"/>
-      <c r="BE13" s="185"/>
-      <c r="BF13" s="185"/>
-      <c r="BG13" s="186"/>
-      <c r="BH13" s="284"/>
-      <c r="BI13" s="284"/>
-      <c r="BJ13" s="284"/>
-      <c r="BK13" s="284"/>
-      <c r="BL13" s="284"/>
-      <c r="BM13" s="284"/>
-      <c r="BN13" s="284"/>
+      <c r="AY13" s="232"/>
+      <c r="AZ13" s="232"/>
+      <c r="BA13" s="232"/>
+      <c r="BB13" s="232"/>
+      <c r="BC13" s="148"/>
+      <c r="BD13" s="149"/>
+      <c r="BE13" s="149"/>
+      <c r="BF13" s="149"/>
+      <c r="BG13" s="150"/>
+      <c r="BH13" s="233"/>
+      <c r="BI13" s="233"/>
+      <c r="BJ13" s="233"/>
+      <c r="BK13" s="233"/>
+      <c r="BL13" s="233"/>
+      <c r="BM13" s="233"/>
+      <c r="BN13" s="233"/>
     </row>
     <row r="14" spans="1:66" s="92" customFormat="1" ht="30" customHeight="1">
       <c r="A14" s="91">
         <v>6</v>
       </c>
-      <c r="B14" s="276" t="s">
+      <c r="B14" s="247" t="s">
         <v>120</v>
       </c>
-      <c r="C14" s="277"/>
-      <c r="D14" s="277"/>
-      <c r="E14" s="277"/>
-      <c r="F14" s="278"/>
-      <c r="G14" s="237" t="s">
+      <c r="C14" s="248"/>
+      <c r="D14" s="248"/>
+      <c r="E14" s="248"/>
+      <c r="F14" s="249"/>
+      <c r="G14" s="250" t="s">
         <v>135</v>
       </c>
-      <c r="H14" s="238"/>
-      <c r="I14" s="238"/>
-      <c r="J14" s="238"/>
-      <c r="K14" s="238"/>
-      <c r="L14" s="238"/>
-      <c r="M14" s="238"/>
-      <c r="N14" s="239"/>
-      <c r="O14" s="244" t="s">
+      <c r="H14" s="251"/>
+      <c r="I14" s="251"/>
+      <c r="J14" s="251"/>
+      <c r="K14" s="251"/>
+      <c r="L14" s="251"/>
+      <c r="M14" s="251"/>
+      <c r="N14" s="252"/>
+      <c r="O14" s="253" t="s">
         <v>45</v>
       </c>
-      <c r="P14" s="245"/>
-      <c r="Q14" s="246"/>
-      <c r="R14" s="249">
+      <c r="P14" s="254"/>
+      <c r="Q14" s="255"/>
+      <c r="R14" s="238">
         <v>4</v>
       </c>
-      <c r="S14" s="250"/>
-      <c r="T14" s="251">
+      <c r="S14" s="239"/>
+      <c r="T14" s="258">
         <v>9</v>
       </c>
-      <c r="U14" s="252"/>
-      <c r="V14" s="247">
+      <c r="U14" s="259"/>
+      <c r="V14" s="240">
         <v>3</v>
       </c>
-      <c r="W14" s="248"/>
-      <c r="X14" s="272"/>
-      <c r="Y14" s="232"/>
-      <c r="Z14" s="232"/>
-      <c r="AA14" s="232"/>
-      <c r="AB14" s="232"/>
-      <c r="AC14" s="233"/>
-      <c r="AD14" s="237"/>
-      <c r="AE14" s="238"/>
-      <c r="AF14" s="238"/>
-      <c r="AG14" s="238"/>
-      <c r="AH14" s="238"/>
-      <c r="AI14" s="239"/>
+      <c r="W14" s="241"/>
+      <c r="X14" s="246"/>
+      <c r="Y14" s="242"/>
+      <c r="Z14" s="242"/>
+      <c r="AA14" s="242"/>
+      <c r="AB14" s="242"/>
+      <c r="AC14" s="243"/>
+      <c r="AD14" s="250"/>
+      <c r="AE14" s="251"/>
+      <c r="AF14" s="251"/>
+      <c r="AG14" s="251"/>
+      <c r="AH14" s="251"/>
+      <c r="AI14" s="252"/>
       <c r="AJ14" s="38"/>
-      <c r="AL14" s="240" t="s">
+      <c r="AL14" s="287" t="s">
         <v>233</v>
       </c>
-      <c r="AM14" s="182"/>
-      <c r="AN14" s="182"/>
-      <c r="AO14" s="182"/>
-      <c r="AP14" s="182"/>
-      <c r="AQ14" s="182"/>
-      <c r="AR14" s="182"/>
-      <c r="AS14" s="182"/>
-      <c r="AT14" s="182"/>
-      <c r="AU14" s="182"/>
-      <c r="AV14" s="182"/>
-      <c r="AW14" s="183"/>
-      <c r="AX14" s="259" t="s">
+      <c r="AM14" s="138"/>
+      <c r="AN14" s="138"/>
+      <c r="AO14" s="138"/>
+      <c r="AP14" s="138"/>
+      <c r="AQ14" s="138"/>
+      <c r="AR14" s="138"/>
+      <c r="AS14" s="138"/>
+      <c r="AT14" s="138"/>
+      <c r="AU14" s="138"/>
+      <c r="AV14" s="138"/>
+      <c r="AW14" s="139"/>
+      <c r="AX14" s="232" t="s">
         <v>160</v>
       </c>
-      <c r="AY14" s="259"/>
-      <c r="AZ14" s="259"/>
-      <c r="BA14" s="259"/>
-      <c r="BB14" s="259"/>
-      <c r="BC14" s="184"/>
-      <c r="BD14" s="185"/>
-      <c r="BE14" s="185"/>
-      <c r="BF14" s="185"/>
-      <c r="BG14" s="186"/>
-      <c r="BH14" s="284"/>
-      <c r="BI14" s="284"/>
-      <c r="BJ14" s="284"/>
-      <c r="BK14" s="284"/>
-      <c r="BL14" s="284"/>
-      <c r="BM14" s="284"/>
-      <c r="BN14" s="284"/>
+      <c r="AY14" s="232"/>
+      <c r="AZ14" s="232"/>
+      <c r="BA14" s="232"/>
+      <c r="BB14" s="232"/>
+      <c r="BC14" s="148"/>
+      <c r="BD14" s="149"/>
+      <c r="BE14" s="149"/>
+      <c r="BF14" s="149"/>
+      <c r="BG14" s="150"/>
+      <c r="BH14" s="233"/>
+      <c r="BI14" s="233"/>
+      <c r="BJ14" s="233"/>
+      <c r="BK14" s="233"/>
+      <c r="BL14" s="233"/>
+      <c r="BM14" s="233"/>
+      <c r="BN14" s="233"/>
     </row>
     <row r="15" spans="1:66" s="92" customFormat="1" ht="30" customHeight="1">
       <c r="A15" s="91">
         <v>7</v>
       </c>
-      <c r="B15" s="276" t="s">
+      <c r="B15" s="247" t="s">
         <v>128</v>
       </c>
-      <c r="C15" s="277"/>
-      <c r="D15" s="277"/>
-      <c r="E15" s="277"/>
-      <c r="F15" s="278"/>
-      <c r="G15" s="237" t="s">
+      <c r="C15" s="248"/>
+      <c r="D15" s="248"/>
+      <c r="E15" s="248"/>
+      <c r="F15" s="249"/>
+      <c r="G15" s="250" t="s">
         <v>136</v>
       </c>
-      <c r="H15" s="238"/>
-      <c r="I15" s="238"/>
-      <c r="J15" s="238"/>
-      <c r="K15" s="238"/>
-      <c r="L15" s="238"/>
-      <c r="M15" s="238"/>
-      <c r="N15" s="239"/>
-      <c r="O15" s="244" t="s">
+      <c r="H15" s="251"/>
+      <c r="I15" s="251"/>
+      <c r="J15" s="251"/>
+      <c r="K15" s="251"/>
+      <c r="L15" s="251"/>
+      <c r="M15" s="251"/>
+      <c r="N15" s="252"/>
+      <c r="O15" s="253" t="s">
         <v>142</v>
       </c>
-      <c r="P15" s="245"/>
-      <c r="Q15" s="246"/>
-      <c r="R15" s="249"/>
-      <c r="S15" s="250"/>
-      <c r="T15" s="251"/>
-      <c r="U15" s="252"/>
-      <c r="V15" s="247"/>
-      <c r="W15" s="248"/>
-      <c r="X15" s="272" t="s">
+      <c r="P15" s="254"/>
+      <c r="Q15" s="255"/>
+      <c r="R15" s="238"/>
+      <c r="S15" s="239"/>
+      <c r="T15" s="258"/>
+      <c r="U15" s="259"/>
+      <c r="V15" s="240"/>
+      <c r="W15" s="241"/>
+      <c r="X15" s="246" t="s">
         <v>143</v>
       </c>
-      <c r="Y15" s="232"/>
-      <c r="Z15" s="232"/>
-      <c r="AA15" s="232"/>
-      <c r="AB15" s="232"/>
-      <c r="AC15" s="233"/>
-      <c r="AD15" s="237"/>
-      <c r="AE15" s="238"/>
-      <c r="AF15" s="238"/>
-      <c r="AG15" s="238"/>
-      <c r="AH15" s="238"/>
-      <c r="AI15" s="239"/>
+      <c r="Y15" s="242"/>
+      <c r="Z15" s="242"/>
+      <c r="AA15" s="242"/>
+      <c r="AB15" s="242"/>
+      <c r="AC15" s="243"/>
+      <c r="AD15" s="250"/>
+      <c r="AE15" s="251"/>
+      <c r="AF15" s="251"/>
+      <c r="AG15" s="251"/>
+      <c r="AH15" s="251"/>
+      <c r="AI15" s="252"/>
       <c r="AJ15" s="38"/>
-      <c r="AL15" s="181" t="s">
+      <c r="AL15" s="137" t="s">
         <v>161</v>
       </c>
-      <c r="AM15" s="182"/>
-      <c r="AN15" s="182"/>
-      <c r="AO15" s="182"/>
-      <c r="AP15" s="182"/>
-      <c r="AQ15" s="182"/>
-      <c r="AR15" s="182"/>
-      <c r="AS15" s="182"/>
-      <c r="AT15" s="182"/>
-      <c r="AU15" s="182"/>
-      <c r="AV15" s="182"/>
-      <c r="AW15" s="183"/>
-      <c r="AX15" s="259" t="s">
+      <c r="AM15" s="138"/>
+      <c r="AN15" s="138"/>
+      <c r="AO15" s="138"/>
+      <c r="AP15" s="138"/>
+      <c r="AQ15" s="138"/>
+      <c r="AR15" s="138"/>
+      <c r="AS15" s="138"/>
+      <c r="AT15" s="138"/>
+      <c r="AU15" s="138"/>
+      <c r="AV15" s="138"/>
+      <c r="AW15" s="139"/>
+      <c r="AX15" s="232" t="s">
         <v>143</v>
       </c>
-      <c r="AY15" s="259"/>
-      <c r="AZ15" s="259"/>
-      <c r="BA15" s="259"/>
-      <c r="BB15" s="259"/>
-      <c r="BC15" s="184"/>
-      <c r="BD15" s="185"/>
-      <c r="BE15" s="185"/>
-      <c r="BF15" s="185"/>
-      <c r="BG15" s="186"/>
-      <c r="BH15" s="284"/>
-      <c r="BI15" s="284"/>
-      <c r="BJ15" s="284"/>
-      <c r="BK15" s="284"/>
-      <c r="BL15" s="284"/>
-      <c r="BM15" s="284"/>
-      <c r="BN15" s="284"/>
+      <c r="AY15" s="232"/>
+      <c r="AZ15" s="232"/>
+      <c r="BA15" s="232"/>
+      <c r="BB15" s="232"/>
+      <c r="BC15" s="148"/>
+      <c r="BD15" s="149"/>
+      <c r="BE15" s="149"/>
+      <c r="BF15" s="149"/>
+      <c r="BG15" s="150"/>
+      <c r="BH15" s="233"/>
+      <c r="BI15" s="233"/>
+      <c r="BJ15" s="233"/>
+      <c r="BK15" s="233"/>
+      <c r="BL15" s="233"/>
+      <c r="BM15" s="233"/>
+      <c r="BN15" s="233"/>
     </row>
     <row r="16" spans="1:66" s="92" customFormat="1" ht="30" customHeight="1">
       <c r="A16" s="91">
         <v>8</v>
       </c>
-      <c r="B16" s="276" t="s">
+      <c r="B16" s="247" t="s">
         <v>121</v>
       </c>
-      <c r="C16" s="277"/>
-      <c r="D16" s="277"/>
-      <c r="E16" s="277"/>
-      <c r="F16" s="278"/>
-      <c r="G16" s="237" t="s">
+      <c r="C16" s="248"/>
+      <c r="D16" s="248"/>
+      <c r="E16" s="248"/>
+      <c r="F16" s="249"/>
+      <c r="G16" s="250" t="s">
         <v>137</v>
       </c>
-      <c r="H16" s="238"/>
-      <c r="I16" s="238"/>
-      <c r="J16" s="238"/>
-      <c r="K16" s="238"/>
-      <c r="L16" s="238"/>
-      <c r="M16" s="238"/>
-      <c r="N16" s="239"/>
-      <c r="O16" s="244" t="s">
+      <c r="H16" s="251"/>
+      <c r="I16" s="251"/>
+      <c r="J16" s="251"/>
+      <c r="K16" s="251"/>
+      <c r="L16" s="251"/>
+      <c r="M16" s="251"/>
+      <c r="N16" s="252"/>
+      <c r="O16" s="253" t="s">
         <v>44</v>
       </c>
-      <c r="P16" s="245"/>
-      <c r="Q16" s="246"/>
-      <c r="R16" s="280"/>
-      <c r="S16" s="281"/>
-      <c r="T16" s="282"/>
-      <c r="U16" s="283"/>
-      <c r="V16" s="282"/>
-      <c r="W16" s="246"/>
-      <c r="X16" s="272"/>
-      <c r="Y16" s="232"/>
-      <c r="Z16" s="232"/>
-      <c r="AA16" s="232"/>
-      <c r="AB16" s="232"/>
-      <c r="AC16" s="233"/>
-      <c r="AD16" s="237" t="s">
+      <c r="P16" s="254"/>
+      <c r="Q16" s="255"/>
+      <c r="R16" s="256"/>
+      <c r="S16" s="257"/>
+      <c r="T16" s="244"/>
+      <c r="U16" s="245"/>
+      <c r="V16" s="244"/>
+      <c r="W16" s="255"/>
+      <c r="X16" s="246"/>
+      <c r="Y16" s="242"/>
+      <c r="Z16" s="242"/>
+      <c r="AA16" s="242"/>
+      <c r="AB16" s="242"/>
+      <c r="AC16" s="243"/>
+      <c r="AD16" s="250" t="s">
         <v>144</v>
       </c>
-      <c r="AE16" s="238"/>
-      <c r="AF16" s="238"/>
-      <c r="AG16" s="238"/>
-      <c r="AH16" s="238"/>
-      <c r="AI16" s="239"/>
+      <c r="AE16" s="251"/>
+      <c r="AF16" s="251"/>
+      <c r="AG16" s="251"/>
+      <c r="AH16" s="251"/>
+      <c r="AI16" s="252"/>
       <c r="AJ16" s="38"/>
-      <c r="AL16" s="184" t="s">
+      <c r="AL16" s="148" t="s">
         <v>162</v>
       </c>
-      <c r="AM16" s="182"/>
-      <c r="AN16" s="182"/>
-      <c r="AO16" s="182"/>
-      <c r="AP16" s="182"/>
-      <c r="AQ16" s="182"/>
-      <c r="AR16" s="182"/>
-      <c r="AS16" s="182"/>
-      <c r="AT16" s="182"/>
-      <c r="AU16" s="182"/>
-      <c r="AV16" s="182"/>
-      <c r="AW16" s="183"/>
-      <c r="AX16" s="184" t="s">
+      <c r="AM16" s="138"/>
+      <c r="AN16" s="138"/>
+      <c r="AO16" s="138"/>
+      <c r="AP16" s="138"/>
+      <c r="AQ16" s="138"/>
+      <c r="AR16" s="138"/>
+      <c r="AS16" s="138"/>
+      <c r="AT16" s="138"/>
+      <c r="AU16" s="138"/>
+      <c r="AV16" s="138"/>
+      <c r="AW16" s="139"/>
+      <c r="AX16" s="148" t="s">
         <v>163</v>
       </c>
-      <c r="AY16" s="185"/>
-      <c r="AZ16" s="185"/>
-      <c r="BA16" s="185"/>
-      <c r="BB16" s="186"/>
-      <c r="BC16" s="184"/>
-      <c r="BD16" s="185"/>
-      <c r="BE16" s="185"/>
-      <c r="BF16" s="185"/>
-      <c r="BG16" s="186"/>
-      <c r="BH16" s="285" t="s">
+      <c r="AY16" s="149"/>
+      <c r="AZ16" s="149"/>
+      <c r="BA16" s="149"/>
+      <c r="BB16" s="150"/>
+      <c r="BC16" s="148"/>
+      <c r="BD16" s="149"/>
+      <c r="BE16" s="149"/>
+      <c r="BF16" s="149"/>
+      <c r="BG16" s="150"/>
+      <c r="BH16" s="234" t="s">
         <v>164</v>
       </c>
-      <c r="BI16" s="286"/>
-      <c r="BJ16" s="286"/>
-      <c r="BK16" s="286"/>
-      <c r="BL16" s="286"/>
-      <c r="BM16" s="286"/>
-      <c r="BN16" s="287"/>
+      <c r="BI16" s="235"/>
+      <c r="BJ16" s="235"/>
+      <c r="BK16" s="235"/>
+      <c r="BL16" s="235"/>
+      <c r="BM16" s="235"/>
+      <c r="BN16" s="236"/>
     </row>
     <row r="17" spans="1:66" s="92" customFormat="1" ht="30" customHeight="1">
       <c r="A17" s="91">
         <v>9</v>
       </c>
-      <c r="B17" s="276" t="s">
+      <c r="B17" s="247" t="s">
         <v>129</v>
       </c>
-      <c r="C17" s="277"/>
-      <c r="D17" s="277"/>
-      <c r="E17" s="277"/>
-      <c r="F17" s="278"/>
-      <c r="G17" s="237" t="s">
+      <c r="C17" s="248"/>
+      <c r="D17" s="248"/>
+      <c r="E17" s="248"/>
+      <c r="F17" s="249"/>
+      <c r="G17" s="250" t="s">
         <v>138</v>
       </c>
-      <c r="H17" s="238"/>
-      <c r="I17" s="238"/>
-      <c r="J17" s="238"/>
-      <c r="K17" s="238"/>
-      <c r="L17" s="238"/>
-      <c r="M17" s="238"/>
-      <c r="N17" s="239"/>
-      <c r="O17" s="244" t="s">
+      <c r="H17" s="251"/>
+      <c r="I17" s="251"/>
+      <c r="J17" s="251"/>
+      <c r="K17" s="251"/>
+      <c r="L17" s="251"/>
+      <c r="M17" s="251"/>
+      <c r="N17" s="252"/>
+      <c r="O17" s="253" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="245"/>
-      <c r="Q17" s="246"/>
-      <c r="R17" s="249"/>
-      <c r="S17" s="250"/>
-      <c r="T17" s="251"/>
-      <c r="U17" s="252"/>
-      <c r="V17" s="247">
+      <c r="P17" s="254"/>
+      <c r="Q17" s="255"/>
+      <c r="R17" s="238"/>
+      <c r="S17" s="239"/>
+      <c r="T17" s="258"/>
+      <c r="U17" s="259"/>
+      <c r="V17" s="240">
         <v>6</v>
       </c>
-      <c r="W17" s="248"/>
-      <c r="X17" s="272"/>
-      <c r="Y17" s="232"/>
-      <c r="Z17" s="232"/>
-      <c r="AA17" s="232"/>
-      <c r="AB17" s="232"/>
-      <c r="AC17" s="233"/>
-      <c r="AD17" s="279" t="s">
+      <c r="W17" s="241"/>
+      <c r="X17" s="246"/>
+      <c r="Y17" s="242"/>
+      <c r="Z17" s="242"/>
+      <c r="AA17" s="242"/>
+      <c r="AB17" s="242"/>
+      <c r="AC17" s="243"/>
+      <c r="AD17" s="260" t="s">
         <v>145</v>
       </c>
-      <c r="AE17" s="238"/>
-      <c r="AF17" s="238"/>
-      <c r="AG17" s="238"/>
-      <c r="AH17" s="238"/>
-      <c r="AI17" s="239"/>
+      <c r="AE17" s="251"/>
+      <c r="AF17" s="251"/>
+      <c r="AG17" s="251"/>
+      <c r="AH17" s="251"/>
+      <c r="AI17" s="252"/>
       <c r="AJ17" s="39"/>
-      <c r="AL17" s="184" t="s">
+      <c r="AL17" s="148" t="s">
         <v>159</v>
       </c>
-      <c r="AM17" s="182"/>
-      <c r="AN17" s="182"/>
-      <c r="AO17" s="182"/>
-      <c r="AP17" s="182"/>
-      <c r="AQ17" s="182"/>
-      <c r="AR17" s="182"/>
-      <c r="AS17" s="182"/>
-      <c r="AT17" s="182"/>
-      <c r="AU17" s="182"/>
-      <c r="AV17" s="182"/>
-      <c r="AW17" s="183"/>
-      <c r="AX17" s="259" t="s">
+      <c r="AM17" s="138"/>
+      <c r="AN17" s="138"/>
+      <c r="AO17" s="138"/>
+      <c r="AP17" s="138"/>
+      <c r="AQ17" s="138"/>
+      <c r="AR17" s="138"/>
+      <c r="AS17" s="138"/>
+      <c r="AT17" s="138"/>
+      <c r="AU17" s="138"/>
+      <c r="AV17" s="138"/>
+      <c r="AW17" s="139"/>
+      <c r="AX17" s="232" t="s">
         <v>172</v>
       </c>
-      <c r="AY17" s="259"/>
-      <c r="AZ17" s="259"/>
-      <c r="BA17" s="259"/>
-      <c r="BB17" s="259"/>
-      <c r="BC17" s="184"/>
-      <c r="BD17" s="185"/>
-      <c r="BE17" s="185"/>
-      <c r="BF17" s="185"/>
-      <c r="BG17" s="186"/>
-      <c r="BH17" s="288" t="s">
+      <c r="AY17" s="232"/>
+      <c r="AZ17" s="232"/>
+      <c r="BA17" s="232"/>
+      <c r="BB17" s="232"/>
+      <c r="BC17" s="148"/>
+      <c r="BD17" s="149"/>
+      <c r="BE17" s="149"/>
+      <c r="BF17" s="149"/>
+      <c r="BG17" s="150"/>
+      <c r="BH17" s="237" t="s">
         <v>230</v>
       </c>
-      <c r="BI17" s="286"/>
-      <c r="BJ17" s="286"/>
-      <c r="BK17" s="286"/>
-      <c r="BL17" s="286"/>
-      <c r="BM17" s="286"/>
-      <c r="BN17" s="287"/>
+      <c r="BI17" s="235"/>
+      <c r="BJ17" s="235"/>
+      <c r="BK17" s="235"/>
+      <c r="BL17" s="235"/>
+      <c r="BM17" s="235"/>
+      <c r="BN17" s="236"/>
     </row>
     <row r="18" spans="1:66" s="92" customFormat="1" ht="30" customHeight="1">
       <c r="A18" s="91">
         <v>10</v>
       </c>
-      <c r="B18" s="276" t="s">
+      <c r="B18" s="247" t="s">
         <v>122</v>
       </c>
-      <c r="C18" s="277"/>
-      <c r="D18" s="277"/>
-      <c r="E18" s="277"/>
-      <c r="F18" s="278"/>
-      <c r="G18" s="237" t="s">
+      <c r="C18" s="248"/>
+      <c r="D18" s="248"/>
+      <c r="E18" s="248"/>
+      <c r="F18" s="249"/>
+      <c r="G18" s="250" t="s">
         <v>139</v>
       </c>
-      <c r="H18" s="238"/>
-      <c r="I18" s="238"/>
-      <c r="J18" s="238"/>
-      <c r="K18" s="238"/>
-      <c r="L18" s="238"/>
-      <c r="M18" s="238"/>
-      <c r="N18" s="239"/>
-      <c r="O18" s="244" t="s">
+      <c r="H18" s="251"/>
+      <c r="I18" s="251"/>
+      <c r="J18" s="251"/>
+      <c r="K18" s="251"/>
+      <c r="L18" s="251"/>
+      <c r="M18" s="251"/>
+      <c r="N18" s="252"/>
+      <c r="O18" s="253" t="s">
         <v>46</v>
       </c>
-      <c r="P18" s="245"/>
-      <c r="Q18" s="246"/>
-      <c r="R18" s="249">
+      <c r="P18" s="254"/>
+      <c r="Q18" s="255"/>
+      <c r="R18" s="238">
         <v>8</v>
       </c>
-      <c r="S18" s="250"/>
-      <c r="T18" s="251">
+      <c r="S18" s="239"/>
+      <c r="T18" s="258">
         <v>8</v>
       </c>
-      <c r="U18" s="252"/>
-      <c r="V18" s="247"/>
-      <c r="W18" s="248"/>
-      <c r="X18" s="272"/>
-      <c r="Y18" s="232"/>
-      <c r="Z18" s="232"/>
-      <c r="AA18" s="232"/>
-      <c r="AB18" s="232"/>
-      <c r="AC18" s="233"/>
-      <c r="AD18" s="237" t="s">
+      <c r="U18" s="259"/>
+      <c r="V18" s="240"/>
+      <c r="W18" s="241"/>
+      <c r="X18" s="246"/>
+      <c r="Y18" s="242"/>
+      <c r="Z18" s="242"/>
+      <c r="AA18" s="242"/>
+      <c r="AB18" s="242"/>
+      <c r="AC18" s="243"/>
+      <c r="AD18" s="250" t="s">
         <v>146</v>
       </c>
-      <c r="AE18" s="238"/>
-      <c r="AF18" s="238"/>
-      <c r="AG18" s="238"/>
-      <c r="AH18" s="238"/>
-      <c r="AI18" s="239"/>
+      <c r="AE18" s="251"/>
+      <c r="AF18" s="251"/>
+      <c r="AG18" s="251"/>
+      <c r="AH18" s="251"/>
+      <c r="AI18" s="252"/>
       <c r="AJ18" s="38"/>
       <c r="AK18" s="32"/>
-      <c r="AL18" s="181" t="s">
+      <c r="AL18" s="137" t="s">
         <v>165</v>
       </c>
-      <c r="AM18" s="182"/>
-      <c r="AN18" s="182"/>
-      <c r="AO18" s="182"/>
-      <c r="AP18" s="182"/>
-      <c r="AQ18" s="182"/>
-      <c r="AR18" s="182"/>
-      <c r="AS18" s="182"/>
-      <c r="AT18" s="182"/>
-      <c r="AU18" s="182"/>
-      <c r="AV18" s="182"/>
-      <c r="AW18" s="183"/>
-      <c r="AX18" s="259" t="s">
+      <c r="AM18" s="138"/>
+      <c r="AN18" s="138"/>
+      <c r="AO18" s="138"/>
+      <c r="AP18" s="138"/>
+      <c r="AQ18" s="138"/>
+      <c r="AR18" s="138"/>
+      <c r="AS18" s="138"/>
+      <c r="AT18" s="138"/>
+      <c r="AU18" s="138"/>
+      <c r="AV18" s="138"/>
+      <c r="AW18" s="139"/>
+      <c r="AX18" s="232" t="s">
         <v>166</v>
       </c>
-      <c r="AY18" s="259"/>
-      <c r="AZ18" s="259"/>
-      <c r="BA18" s="259"/>
-      <c r="BB18" s="259"/>
-      <c r="BC18" s="184" t="s">
+      <c r="AY18" s="232"/>
+      <c r="AZ18" s="232"/>
+      <c r="BA18" s="232"/>
+      <c r="BB18" s="232"/>
+      <c r="BC18" s="148" t="s">
         <v>153</v>
       </c>
-      <c r="BD18" s="185"/>
-      <c r="BE18" s="185"/>
-      <c r="BF18" s="185"/>
-      <c r="BG18" s="186"/>
-      <c r="BH18" s="284"/>
-      <c r="BI18" s="284"/>
-      <c r="BJ18" s="284"/>
-      <c r="BK18" s="284"/>
-      <c r="BL18" s="284"/>
-      <c r="BM18" s="284"/>
-      <c r="BN18" s="284"/>
+      <c r="BD18" s="149"/>
+      <c r="BE18" s="149"/>
+      <c r="BF18" s="149"/>
+      <c r="BG18" s="150"/>
+      <c r="BH18" s="233"/>
+      <c r="BI18" s="233"/>
+      <c r="BJ18" s="233"/>
+      <c r="BK18" s="233"/>
+      <c r="BL18" s="233"/>
+      <c r="BM18" s="233"/>
+      <c r="BN18" s="233"/>
     </row>
     <row r="19" spans="1:66" s="92" customFormat="1" ht="30" customHeight="1">
       <c r="A19" s="91">
         <v>11</v>
       </c>
-      <c r="B19" s="276" t="s">
+      <c r="B19" s="247" t="s">
         <v>123</v>
       </c>
-      <c r="C19" s="277"/>
-      <c r="D19" s="277"/>
-      <c r="E19" s="277"/>
-      <c r="F19" s="278"/>
-      <c r="G19" s="237" t="s">
+      <c r="C19" s="248"/>
+      <c r="D19" s="248"/>
+      <c r="E19" s="248"/>
+      <c r="F19" s="249"/>
+      <c r="G19" s="250" t="s">
         <v>140</v>
       </c>
-      <c r="H19" s="238"/>
-      <c r="I19" s="238"/>
-      <c r="J19" s="238"/>
-      <c r="K19" s="238"/>
-      <c r="L19" s="238"/>
-      <c r="M19" s="238"/>
-      <c r="N19" s="239"/>
-      <c r="O19" s="244" t="s">
+      <c r="H19" s="251"/>
+      <c r="I19" s="251"/>
+      <c r="J19" s="251"/>
+      <c r="K19" s="251"/>
+      <c r="L19" s="251"/>
+      <c r="M19" s="251"/>
+      <c r="N19" s="252"/>
+      <c r="O19" s="253" t="s">
         <v>47</v>
       </c>
-      <c r="P19" s="245"/>
-      <c r="Q19" s="246"/>
-      <c r="R19" s="249">
+      <c r="P19" s="254"/>
+      <c r="Q19" s="255"/>
+      <c r="R19" s="238">
         <v>1</v>
       </c>
-      <c r="S19" s="250"/>
-      <c r="T19" s="251">
+      <c r="S19" s="239"/>
+      <c r="T19" s="258">
         <v>1</v>
       </c>
-      <c r="U19" s="252"/>
-      <c r="V19" s="247"/>
-      <c r="W19" s="248"/>
-      <c r="X19" s="272"/>
-      <c r="Y19" s="232"/>
-      <c r="Z19" s="232"/>
-      <c r="AA19" s="232"/>
-      <c r="AB19" s="232"/>
-      <c r="AC19" s="233"/>
-      <c r="AD19" s="237" t="s">
+      <c r="U19" s="259"/>
+      <c r="V19" s="240"/>
+      <c r="W19" s="241"/>
+      <c r="X19" s="246"/>
+      <c r="Y19" s="242"/>
+      <c r="Z19" s="242"/>
+      <c r="AA19" s="242"/>
+      <c r="AB19" s="242"/>
+      <c r="AC19" s="243"/>
+      <c r="AD19" s="250" t="s">
         <v>147</v>
       </c>
-      <c r="AE19" s="238"/>
-      <c r="AF19" s="238"/>
-      <c r="AG19" s="238"/>
-      <c r="AH19" s="238"/>
-      <c r="AI19" s="239"/>
+      <c r="AE19" s="251"/>
+      <c r="AF19" s="251"/>
+      <c r="AG19" s="251"/>
+      <c r="AH19" s="251"/>
+      <c r="AI19" s="252"/>
       <c r="AJ19" s="32"/>
       <c r="AK19" s="87"/>
-      <c r="AL19" s="184" t="s">
+      <c r="AL19" s="148" t="s">
         <v>167</v>
       </c>
-      <c r="AM19" s="185"/>
-      <c r="AN19" s="185"/>
-      <c r="AO19" s="185"/>
-      <c r="AP19" s="185"/>
-      <c r="AQ19" s="185"/>
-      <c r="AR19" s="185"/>
-      <c r="AS19" s="185"/>
-      <c r="AT19" s="185"/>
-      <c r="AU19" s="185"/>
-      <c r="AV19" s="185"/>
-      <c r="AW19" s="186"/>
-      <c r="AX19" s="259" t="s">
+      <c r="AM19" s="149"/>
+      <c r="AN19" s="149"/>
+      <c r="AO19" s="149"/>
+      <c r="AP19" s="149"/>
+      <c r="AQ19" s="149"/>
+      <c r="AR19" s="149"/>
+      <c r="AS19" s="149"/>
+      <c r="AT19" s="149"/>
+      <c r="AU19" s="149"/>
+      <c r="AV19" s="149"/>
+      <c r="AW19" s="150"/>
+      <c r="AX19" s="232" t="s">
         <v>168</v>
       </c>
-      <c r="AY19" s="259"/>
-      <c r="AZ19" s="259"/>
-      <c r="BA19" s="259"/>
-      <c r="BB19" s="259"/>
-      <c r="BC19" s="184" t="s">
+      <c r="AY19" s="232"/>
+      <c r="AZ19" s="232"/>
+      <c r="BA19" s="232"/>
+      <c r="BB19" s="232"/>
+      <c r="BC19" s="148" t="s">
         <v>169</v>
       </c>
-      <c r="BD19" s="185"/>
-      <c r="BE19" s="185"/>
-      <c r="BF19" s="185"/>
-      <c r="BG19" s="186"/>
-      <c r="BH19" s="284"/>
-      <c r="BI19" s="284"/>
-      <c r="BJ19" s="284"/>
-      <c r="BK19" s="284"/>
-      <c r="BL19" s="284"/>
-      <c r="BM19" s="284"/>
-      <c r="BN19" s="284"/>
+      <c r="BD19" s="149"/>
+      <c r="BE19" s="149"/>
+      <c r="BF19" s="149"/>
+      <c r="BG19" s="150"/>
+      <c r="BH19" s="233"/>
+      <c r="BI19" s="233"/>
+      <c r="BJ19" s="233"/>
+      <c r="BK19" s="233"/>
+      <c r="BL19" s="233"/>
+      <c r="BM19" s="233"/>
+      <c r="BN19" s="233"/>
     </row>
     <row r="20" spans="1:66">
       <c r="AK20" s="93"/>
@@ -17053,55 +17051,109 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="176">
-    <mergeCell ref="AX19:BB19"/>
-    <mergeCell ref="BC19:BG19"/>
-    <mergeCell ref="BH19:BN19"/>
-    <mergeCell ref="BH10:BN10"/>
-    <mergeCell ref="BH11:BN11"/>
-    <mergeCell ref="BH12:BN12"/>
-    <mergeCell ref="BH13:BN13"/>
-    <mergeCell ref="BH14:BN14"/>
-    <mergeCell ref="BH15:BN15"/>
-    <mergeCell ref="BH16:BN16"/>
-    <mergeCell ref="BH17:BN17"/>
-    <mergeCell ref="BH18:BN18"/>
-    <mergeCell ref="AX18:BB18"/>
-    <mergeCell ref="AX17:BB17"/>
-    <mergeCell ref="BC17:BG17"/>
-    <mergeCell ref="BC18:BG18"/>
-    <mergeCell ref="AX10:BB10"/>
-    <mergeCell ref="AX11:BB11"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="AA15:AC15"/>
-    <mergeCell ref="AA16:AC16"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="X14:Z14"/>
-    <mergeCell ref="X15:Z15"/>
-    <mergeCell ref="X16:Z16"/>
-    <mergeCell ref="BH9:BN9"/>
-    <mergeCell ref="AX9:BB9"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="BC15:BG15"/>
-    <mergeCell ref="BC16:BG16"/>
-    <mergeCell ref="AX15:BB15"/>
-    <mergeCell ref="AX16:BB16"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="G9:N9"/>
-    <mergeCell ref="G10:N10"/>
-    <mergeCell ref="G11:N11"/>
-    <mergeCell ref="G12:N12"/>
-    <mergeCell ref="G13:N13"/>
-    <mergeCell ref="G14:N14"/>
-    <mergeCell ref="G15:N15"/>
-    <mergeCell ref="G16:N16"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="AA17:AC17"/>
+    <mergeCell ref="AA8:AC8"/>
+    <mergeCell ref="AA9:AC9"/>
+    <mergeCell ref="AA10:AC10"/>
+    <mergeCell ref="AA11:AC11"/>
+    <mergeCell ref="AA12:AC12"/>
+    <mergeCell ref="AD12:AI12"/>
+    <mergeCell ref="AL12:AW12"/>
+    <mergeCell ref="AD13:AI13"/>
+    <mergeCell ref="AL13:AW13"/>
+    <mergeCell ref="AL11:AW11"/>
+    <mergeCell ref="AD9:AI9"/>
+    <mergeCell ref="AL9:AW9"/>
+    <mergeCell ref="AD10:AI10"/>
+    <mergeCell ref="AL10:AW10"/>
+    <mergeCell ref="AD11:AI11"/>
+    <mergeCell ref="AD7:AI8"/>
+    <mergeCell ref="AL7:AW8"/>
+    <mergeCell ref="AL15:AW15"/>
+    <mergeCell ref="AL16:AW16"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="AX7:BB8"/>
+    <mergeCell ref="BH7:BN8"/>
+    <mergeCell ref="AA13:AC13"/>
+    <mergeCell ref="AA14:AC14"/>
+    <mergeCell ref="BC7:BG8"/>
+    <mergeCell ref="BC9:BG9"/>
+    <mergeCell ref="BC10:BG10"/>
+    <mergeCell ref="BC11:BG11"/>
+    <mergeCell ref="BC12:BG12"/>
+    <mergeCell ref="BC13:BG13"/>
+    <mergeCell ref="BC14:BG14"/>
+    <mergeCell ref="AX12:BB12"/>
+    <mergeCell ref="AX13:BB13"/>
+    <mergeCell ref="AX14:BB14"/>
+    <mergeCell ref="AL14:AW14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X8:Z8"/>
+    <mergeCell ref="G7:N8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:F8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="X17:Z17"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="O7:Q8"/>
+    <mergeCell ref="R7:W7"/>
+    <mergeCell ref="X7:AC7"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="X10:Z10"/>
+    <mergeCell ref="X11:Z11"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="X12:Z12"/>
+    <mergeCell ref="X13:Z13"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="AL17:AW17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="AA18:AC18"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="G17:N17"/>
+    <mergeCell ref="G18:N18"/>
+    <mergeCell ref="G19:N19"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="X19:Z19"/>
+    <mergeCell ref="AA19:AC19"/>
+    <mergeCell ref="AL19:AW19"/>
+    <mergeCell ref="X18:Z18"/>
+    <mergeCell ref="AL18:AW18"/>
+    <mergeCell ref="AD17:AI17"/>
+    <mergeCell ref="V18:W18"/>
     <mergeCell ref="O15:Q15"/>
     <mergeCell ref="R16:S16"/>
     <mergeCell ref="AG1:AI1"/>
@@ -17126,109 +17178,55 @@
     <mergeCell ref="R12:S12"/>
     <mergeCell ref="V15:W15"/>
     <mergeCell ref="O14:Q14"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="AL17:AW17"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="AA18:AC18"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="G17:N17"/>
-    <mergeCell ref="G18:N18"/>
-    <mergeCell ref="G19:N19"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="X19:Z19"/>
-    <mergeCell ref="AA19:AC19"/>
-    <mergeCell ref="AL19:AW19"/>
-    <mergeCell ref="X18:Z18"/>
-    <mergeCell ref="AL18:AW18"/>
-    <mergeCell ref="AD17:AI17"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="X17:Z17"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="O7:Q8"/>
-    <mergeCell ref="R7:W7"/>
-    <mergeCell ref="X7:AC7"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="X9:Z9"/>
-    <mergeCell ref="X10:Z10"/>
-    <mergeCell ref="X11:Z11"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="X12:Z12"/>
-    <mergeCell ref="X13:Z13"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X8:Z8"/>
-    <mergeCell ref="G7:N8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:F8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="AX7:BB8"/>
-    <mergeCell ref="BH7:BN8"/>
-    <mergeCell ref="AA13:AC13"/>
-    <mergeCell ref="AA14:AC14"/>
-    <mergeCell ref="BC7:BG8"/>
-    <mergeCell ref="BC9:BG9"/>
-    <mergeCell ref="BC10:BG10"/>
-    <mergeCell ref="BC11:BG11"/>
-    <mergeCell ref="BC12:BG12"/>
-    <mergeCell ref="BC13:BG13"/>
-    <mergeCell ref="BC14:BG14"/>
-    <mergeCell ref="AX12:BB12"/>
-    <mergeCell ref="AX13:BB13"/>
-    <mergeCell ref="AX14:BB14"/>
-    <mergeCell ref="AL14:AW14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="AA17:AC17"/>
-    <mergeCell ref="AA8:AC8"/>
-    <mergeCell ref="AA9:AC9"/>
-    <mergeCell ref="AA10:AC10"/>
-    <mergeCell ref="AA11:AC11"/>
-    <mergeCell ref="AA12:AC12"/>
-    <mergeCell ref="AD12:AI12"/>
-    <mergeCell ref="AL12:AW12"/>
-    <mergeCell ref="AD13:AI13"/>
-    <mergeCell ref="AL13:AW13"/>
-    <mergeCell ref="AL11:AW11"/>
-    <mergeCell ref="AD9:AI9"/>
-    <mergeCell ref="AL9:AW9"/>
-    <mergeCell ref="AD10:AI10"/>
-    <mergeCell ref="AL10:AW10"/>
-    <mergeCell ref="AD11:AI11"/>
-    <mergeCell ref="AD7:AI8"/>
-    <mergeCell ref="AL7:AW8"/>
-    <mergeCell ref="AL15:AW15"/>
-    <mergeCell ref="AL16:AW16"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="G9:N9"/>
+    <mergeCell ref="G10:N10"/>
+    <mergeCell ref="G11:N11"/>
+    <mergeCell ref="G12:N12"/>
+    <mergeCell ref="G13:N13"/>
+    <mergeCell ref="G14:N14"/>
+    <mergeCell ref="G15:N15"/>
+    <mergeCell ref="G16:N16"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="AA15:AC15"/>
+    <mergeCell ref="AA16:AC16"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="X14:Z14"/>
+    <mergeCell ref="X15:Z15"/>
+    <mergeCell ref="X16:Z16"/>
+    <mergeCell ref="BH9:BN9"/>
+    <mergeCell ref="AX9:BB9"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="BC15:BG15"/>
+    <mergeCell ref="BC16:BG16"/>
+    <mergeCell ref="AX15:BB15"/>
+    <mergeCell ref="AX16:BB16"/>
+    <mergeCell ref="AX19:BB19"/>
+    <mergeCell ref="BC19:BG19"/>
+    <mergeCell ref="BH19:BN19"/>
+    <mergeCell ref="BH10:BN10"/>
+    <mergeCell ref="BH11:BN11"/>
+    <mergeCell ref="BH12:BN12"/>
+    <mergeCell ref="BH13:BN13"/>
+    <mergeCell ref="BH14:BN14"/>
+    <mergeCell ref="BH15:BN15"/>
+    <mergeCell ref="BH16:BN16"/>
+    <mergeCell ref="BH17:BN17"/>
+    <mergeCell ref="BH18:BN18"/>
+    <mergeCell ref="AX18:BB18"/>
+    <mergeCell ref="AX17:BB17"/>
+    <mergeCell ref="BC17:BG17"/>
+    <mergeCell ref="BC18:BG18"/>
+    <mergeCell ref="AX10:BB10"/>
+    <mergeCell ref="AX11:BB11"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations count="1">
@@ -17265,157 +17263,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="20" customFormat="1">
-      <c r="A1" s="199" t="s">
+      <c r="A1" s="202" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="200"/>
-      <c r="C1" s="200"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="149" t="str">
+      <c r="B1" s="213"/>
+      <c r="C1" s="213"/>
+      <c r="D1" s="203"/>
+      <c r="E1" s="192" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="150"/>
-      <c r="G1" s="150"/>
-      <c r="H1" s="150"/>
-      <c r="I1" s="150"/>
-      <c r="J1" s="150"/>
-      <c r="K1" s="150"/>
-      <c r="L1" s="150"/>
-      <c r="M1" s="150"/>
-      <c r="N1" s="151"/>
-      <c r="O1" s="140" t="s">
+      <c r="F1" s="193"/>
+      <c r="G1" s="193"/>
+      <c r="H1" s="193"/>
+      <c r="I1" s="193"/>
+      <c r="J1" s="193"/>
+      <c r="K1" s="193"/>
+      <c r="L1" s="193"/>
+      <c r="M1" s="193"/>
+      <c r="N1" s="194"/>
+      <c r="O1" s="183" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="141"/>
-      <c r="Q1" s="141"/>
-      <c r="R1" s="142"/>
-      <c r="S1" s="214" t="str">
+      <c r="P1" s="184"/>
+      <c r="Q1" s="184"/>
+      <c r="R1" s="185"/>
+      <c r="S1" s="204" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>ドメイン定義書</v>
       </c>
-      <c r="T1" s="215"/>
-      <c r="U1" s="215"/>
-      <c r="V1" s="215"/>
-      <c r="W1" s="215"/>
-      <c r="X1" s="215"/>
-      <c r="Y1" s="215"/>
-      <c r="Z1" s="216"/>
-      <c r="AA1" s="137" t="s">
+      <c r="T1" s="205"/>
+      <c r="U1" s="205"/>
+      <c r="V1" s="205"/>
+      <c r="W1" s="205"/>
+      <c r="X1" s="205"/>
+      <c r="Y1" s="205"/>
+      <c r="Z1" s="206"/>
+      <c r="AA1" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="139"/>
-      <c r="AC1" s="196" t="str">
+      <c r="AB1" s="141"/>
+      <c r="AC1" s="142" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="197"/>
-      <c r="AE1" s="197"/>
-      <c r="AF1" s="198"/>
-      <c r="AG1" s="211">
+      <c r="AD1" s="143"/>
+      <c r="AE1" s="143"/>
+      <c r="AF1" s="144"/>
+      <c r="AG1" s="199">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="212"/>
-      <c r="AI1" s="213"/>
+      <c r="AH1" s="200"/>
+      <c r="AI1" s="201"/>
     </row>
     <row r="2" spans="1:70" s="20" customFormat="1">
-      <c r="A2" s="137" t="s">
+      <c r="A2" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="149" t="str">
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="192" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
-      <c r="I2" s="150"/>
-      <c r="J2" s="150"/>
-      <c r="K2" s="150"/>
-      <c r="L2" s="150"/>
-      <c r="M2" s="150"/>
-      <c r="N2" s="151"/>
-      <c r="O2" s="143"/>
-      <c r="P2" s="144"/>
-      <c r="Q2" s="144"/>
-      <c r="R2" s="145"/>
-      <c r="S2" s="217"/>
-      <c r="T2" s="218"/>
-      <c r="U2" s="218"/>
-      <c r="V2" s="218"/>
-      <c r="W2" s="218"/>
-      <c r="X2" s="218"/>
-      <c r="Y2" s="218"/>
-      <c r="Z2" s="219"/>
-      <c r="AA2" s="137" t="s">
+      <c r="F2" s="193"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="193"/>
+      <c r="I2" s="193"/>
+      <c r="J2" s="193"/>
+      <c r="K2" s="193"/>
+      <c r="L2" s="193"/>
+      <c r="M2" s="193"/>
+      <c r="N2" s="194"/>
+      <c r="O2" s="186"/>
+      <c r="P2" s="187"/>
+      <c r="Q2" s="187"/>
+      <c r="R2" s="188"/>
+      <c r="S2" s="207"/>
+      <c r="T2" s="208"/>
+      <c r="U2" s="208"/>
+      <c r="V2" s="208"/>
+      <c r="W2" s="208"/>
+      <c r="X2" s="208"/>
+      <c r="Y2" s="208"/>
+      <c r="Z2" s="209"/>
+      <c r="AA2" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="139"/>
-      <c r="AC2" s="196" t="str">
+      <c r="AB2" s="141"/>
+      <c r="AC2" s="142" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="197"/>
-      <c r="AE2" s="197"/>
-      <c r="AF2" s="198"/>
-      <c r="AG2" s="211" t="str">
+      <c r="AD2" s="143"/>
+      <c r="AE2" s="143"/>
+      <c r="AF2" s="144"/>
+      <c r="AG2" s="199" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="212"/>
-      <c r="AI2" s="213"/>
+      <c r="AH2" s="200"/>
+      <c r="AI2" s="201"/>
     </row>
     <row r="3" spans="1:70" s="20" customFormat="1">
-      <c r="A3" s="137" t="s">
+      <c r="A3" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="138"/>
-      <c r="C3" s="138"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="149" t="str">
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="192" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="150"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="150"/>
-      <c r="I3" s="150"/>
-      <c r="J3" s="150"/>
-      <c r="K3" s="150"/>
-      <c r="L3" s="150"/>
-      <c r="M3" s="150"/>
-      <c r="N3" s="151"/>
-      <c r="O3" s="146"/>
-      <c r="P3" s="147"/>
-      <c r="Q3" s="147"/>
-      <c r="R3" s="148"/>
-      <c r="S3" s="220"/>
-      <c r="T3" s="221"/>
-      <c r="U3" s="221"/>
-      <c r="V3" s="221"/>
-      <c r="W3" s="221"/>
-      <c r="X3" s="221"/>
-      <c r="Y3" s="221"/>
-      <c r="Z3" s="222"/>
-      <c r="AA3" s="137"/>
-      <c r="AB3" s="139"/>
-      <c r="AC3" s="196" t="str">
+      <c r="F3" s="193"/>
+      <c r="G3" s="193"/>
+      <c r="H3" s="193"/>
+      <c r="I3" s="193"/>
+      <c r="J3" s="193"/>
+      <c r="K3" s="193"/>
+      <c r="L3" s="193"/>
+      <c r="M3" s="193"/>
+      <c r="N3" s="194"/>
+      <c r="O3" s="189"/>
+      <c r="P3" s="190"/>
+      <c r="Q3" s="190"/>
+      <c r="R3" s="191"/>
+      <c r="S3" s="210"/>
+      <c r="T3" s="211"/>
+      <c r="U3" s="211"/>
+      <c r="V3" s="211"/>
+      <c r="W3" s="211"/>
+      <c r="X3" s="211"/>
+      <c r="Y3" s="211"/>
+      <c r="Z3" s="212"/>
+      <c r="AA3" s="140"/>
+      <c r="AB3" s="141"/>
+      <c r="AC3" s="142" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="197"/>
-      <c r="AE3" s="197"/>
-      <c r="AF3" s="198"/>
-      <c r="AG3" s="211" t="str">
+      <c r="AD3" s="143"/>
+      <c r="AE3" s="143"/>
+      <c r="AF3" s="144"/>
+      <c r="AG3" s="199" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="212"/>
-      <c r="AI3" s="213"/>
+      <c r="AH3" s="200"/>
+      <c r="AI3" s="201"/>
     </row>
     <row r="5" spans="1:70">
       <c r="A5" s="33" t="s">
@@ -17428,49 +17426,49 @@
       </c>
     </row>
     <row r="8" spans="1:70">
-      <c r="A8" s="225" t="s">
+      <c r="A8" s="226" t="s">
         <v>173</v>
       </c>
-      <c r="B8" s="298" t="s">
+      <c r="B8" s="291" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="299"/>
-      <c r="D8" s="299"/>
-      <c r="E8" s="299"/>
-      <c r="F8" s="299"/>
-      <c r="G8" s="299"/>
-      <c r="H8" s="299"/>
-      <c r="I8" s="300"/>
-      <c r="J8" s="298" t="s">
+      <c r="C8" s="292"/>
+      <c r="D8" s="292"/>
+      <c r="E8" s="292"/>
+      <c r="F8" s="292"/>
+      <c r="G8" s="292"/>
+      <c r="H8" s="292"/>
+      <c r="I8" s="293"/>
+      <c r="J8" s="291" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="299"/>
-      <c r="L8" s="299"/>
-      <c r="M8" s="299"/>
-      <c r="N8" s="299"/>
-      <c r="O8" s="299"/>
-      <c r="P8" s="299"/>
-      <c r="Q8" s="299"/>
-      <c r="R8" s="299"/>
-      <c r="S8" s="299"/>
-      <c r="T8" s="299"/>
-      <c r="U8" s="299"/>
-      <c r="V8" s="299"/>
-      <c r="W8" s="299"/>
-      <c r="X8" s="300"/>
-      <c r="Y8" s="270" t="s">
+      <c r="K8" s="292"/>
+      <c r="L8" s="292"/>
+      <c r="M8" s="292"/>
+      <c r="N8" s="292"/>
+      <c r="O8" s="292"/>
+      <c r="P8" s="292"/>
+      <c r="Q8" s="292"/>
+      <c r="R8" s="292"/>
+      <c r="S8" s="292"/>
+      <c r="T8" s="292"/>
+      <c r="U8" s="292"/>
+      <c r="V8" s="292"/>
+      <c r="W8" s="292"/>
+      <c r="X8" s="293"/>
+      <c r="Y8" s="277" t="s">
         <v>14</v>
       </c>
-      <c r="Z8" s="270"/>
-      <c r="AA8" s="270"/>
-      <c r="AB8" s="270"/>
-      <c r="AC8" s="270"/>
-      <c r="AD8" s="270"/>
-      <c r="AE8" s="270"/>
-      <c r="AF8" s="270"/>
-      <c r="AG8" s="270"/>
-      <c r="AH8" s="270"/>
-      <c r="AI8" s="270"/>
+      <c r="Z8" s="277"/>
+      <c r="AA8" s="277"/>
+      <c r="AB8" s="277"/>
+      <c r="AC8" s="277"/>
+      <c r="AD8" s="277"/>
+      <c r="AE8" s="277"/>
+      <c r="AF8" s="277"/>
+      <c r="AG8" s="277"/>
+      <c r="AH8" s="277"/>
+      <c r="AI8" s="277"/>
       <c r="BM8" s="23"/>
       <c r="BN8" s="23"/>
       <c r="BO8" s="23"/>
@@ -17479,45 +17477,45 @@
       <c r="BR8" s="23"/>
     </row>
     <row r="9" spans="1:70">
-      <c r="A9" s="225"/>
-      <c r="B9" s="301"/>
-      <c r="C9" s="302"/>
-      <c r="D9" s="302"/>
-      <c r="E9" s="302"/>
-      <c r="F9" s="302"/>
-      <c r="G9" s="302"/>
-      <c r="H9" s="302"/>
-      <c r="I9" s="303"/>
-      <c r="J9" s="301"/>
-      <c r="K9" s="302"/>
-      <c r="L9" s="302"/>
-      <c r="M9" s="302"/>
-      <c r="N9" s="302"/>
-      <c r="O9" s="302"/>
-      <c r="P9" s="302"/>
-      <c r="Q9" s="302"/>
-      <c r="R9" s="302"/>
-      <c r="S9" s="302"/>
-      <c r="T9" s="302"/>
-      <c r="U9" s="302"/>
-      <c r="V9" s="302"/>
-      <c r="W9" s="302"/>
-      <c r="X9" s="303"/>
-      <c r="Y9" s="270" t="s">
+      <c r="A9" s="226"/>
+      <c r="B9" s="294"/>
+      <c r="C9" s="295"/>
+      <c r="D9" s="295"/>
+      <c r="E9" s="295"/>
+      <c r="F9" s="295"/>
+      <c r="G9" s="295"/>
+      <c r="H9" s="295"/>
+      <c r="I9" s="296"/>
+      <c r="J9" s="294"/>
+      <c r="K9" s="295"/>
+      <c r="L9" s="295"/>
+      <c r="M9" s="295"/>
+      <c r="N9" s="295"/>
+      <c r="O9" s="295"/>
+      <c r="P9" s="295"/>
+      <c r="Q9" s="295"/>
+      <c r="R9" s="295"/>
+      <c r="S9" s="295"/>
+      <c r="T9" s="295"/>
+      <c r="U9" s="295"/>
+      <c r="V9" s="295"/>
+      <c r="W9" s="295"/>
+      <c r="X9" s="296"/>
+      <c r="Y9" s="277" t="s">
         <v>15</v>
       </c>
-      <c r="Z9" s="270"/>
-      <c r="AA9" s="270"/>
-      <c r="AB9" s="270"/>
-      <c r="AC9" s="270" t="s">
+      <c r="Z9" s="277"/>
+      <c r="AA9" s="277"/>
+      <c r="AB9" s="277"/>
+      <c r="AC9" s="277" t="s">
         <v>16</v>
       </c>
-      <c r="AD9" s="270"/>
-      <c r="AE9" s="270"/>
-      <c r="AF9" s="270"/>
-      <c r="AG9" s="270"/>
-      <c r="AH9" s="270"/>
-      <c r="AI9" s="270"/>
+      <c r="AD9" s="277"/>
+      <c r="AE9" s="277"/>
+      <c r="AF9" s="277"/>
+      <c r="AG9" s="277"/>
+      <c r="AH9" s="277"/>
+      <c r="AI9" s="277"/>
       <c r="AJ9" s="23"/>
       <c r="AK9" s="23"/>
       <c r="AL9" s="23"/>
@@ -17870,16 +17868,16 @@
       <c r="A14" s="88">
         <v>5</v>
       </c>
-      <c r="B14" s="293" t="s">
+      <c r="B14" s="297" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="297"/>
-      <c r="D14" s="297"/>
-      <c r="E14" s="297"/>
-      <c r="F14" s="297"/>
-      <c r="G14" s="297"/>
-      <c r="H14" s="297"/>
-      <c r="I14" s="297"/>
+      <c r="C14" s="298"/>
+      <c r="D14" s="298"/>
+      <c r="E14" s="298"/>
+      <c r="F14" s="298"/>
+      <c r="G14" s="298"/>
+      <c r="H14" s="298"/>
+      <c r="I14" s="298"/>
       <c r="J14" s="290" t="s">
         <v>67</v>
       </c>
@@ -17948,16 +17946,16 @@
       <c r="A15" s="88">
         <v>6</v>
       </c>
-      <c r="B15" s="294" t="s">
+      <c r="B15" s="299" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="295"/>
-      <c r="D15" s="295"/>
-      <c r="E15" s="295"/>
-      <c r="F15" s="295"/>
-      <c r="G15" s="295"/>
-      <c r="H15" s="295"/>
-      <c r="I15" s="296"/>
+      <c r="C15" s="300"/>
+      <c r="D15" s="300"/>
+      <c r="E15" s="300"/>
+      <c r="F15" s="300"/>
+      <c r="G15" s="300"/>
+      <c r="H15" s="300"/>
+      <c r="I15" s="301"/>
       <c r="J15" s="290" t="s">
         <v>72</v>
       </c>
@@ -18026,16 +18024,16 @@
       <c r="A16" s="88">
         <v>7</v>
       </c>
-      <c r="B16" s="293" t="s">
+      <c r="B16" s="297" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="297"/>
-      <c r="D16" s="297"/>
-      <c r="E16" s="297"/>
-      <c r="F16" s="297"/>
-      <c r="G16" s="297"/>
-      <c r="H16" s="297"/>
-      <c r="I16" s="297"/>
+      <c r="C16" s="298"/>
+      <c r="D16" s="298"/>
+      <c r="E16" s="298"/>
+      <c r="F16" s="298"/>
+      <c r="G16" s="298"/>
+      <c r="H16" s="298"/>
+      <c r="I16" s="298"/>
       <c r="J16" s="290" t="s">
         <v>67</v>
       </c>
@@ -18104,16 +18102,16 @@
       <c r="A17" s="88">
         <v>8</v>
       </c>
-      <c r="B17" s="293" t="s">
+      <c r="B17" s="297" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="293"/>
-      <c r="D17" s="293"/>
-      <c r="E17" s="293"/>
-      <c r="F17" s="293"/>
-      <c r="G17" s="293"/>
-      <c r="H17" s="293"/>
-      <c r="I17" s="293"/>
+      <c r="C17" s="297"/>
+      <c r="D17" s="297"/>
+      <c r="E17" s="297"/>
+      <c r="F17" s="297"/>
+      <c r="G17" s="297"/>
+      <c r="H17" s="297"/>
+      <c r="I17" s="297"/>
       <c r="J17" s="290" t="s">
         <v>67</v>
       </c>
@@ -18338,7 +18336,7 @@
       <c r="A20" s="88">
         <v>11</v>
       </c>
-      <c r="B20" s="291" t="s">
+      <c r="B20" s="302" t="s">
         <v>78</v>
       </c>
       <c r="C20" s="290"/>
@@ -18416,7 +18414,7 @@
       <c r="A21" s="88">
         <v>12</v>
       </c>
-      <c r="B21" s="291" t="s">
+      <c r="B21" s="302" t="s">
         <v>80</v>
       </c>
       <c r="C21" s="290"/>
@@ -18494,7 +18492,7 @@
       <c r="A22" s="88">
         <v>13</v>
       </c>
-      <c r="B22" s="292" t="s">
+      <c r="B22" s="303" t="s">
         <v>229</v>
       </c>
       <c r="C22" s="290"/>
@@ -18582,23 +18580,23 @@
       <c r="G23" s="290"/>
       <c r="H23" s="290"/>
       <c r="I23" s="290"/>
-      <c r="J23" s="291" t="s">
+      <c r="J23" s="302" t="s">
         <v>84</v>
       </c>
-      <c r="K23" s="291"/>
-      <c r="L23" s="291"/>
-      <c r="M23" s="291"/>
-      <c r="N23" s="291"/>
-      <c r="O23" s="291"/>
-      <c r="P23" s="291"/>
-      <c r="Q23" s="291"/>
-      <c r="R23" s="291"/>
-      <c r="S23" s="291"/>
-      <c r="T23" s="291"/>
-      <c r="U23" s="291"/>
-      <c r="V23" s="291"/>
-      <c r="W23" s="291"/>
-      <c r="X23" s="291"/>
+      <c r="K23" s="302"/>
+      <c r="L23" s="302"/>
+      <c r="M23" s="302"/>
+      <c r="N23" s="302"/>
+      <c r="O23" s="302"/>
+      <c r="P23" s="302"/>
+      <c r="Q23" s="302"/>
+      <c r="R23" s="302"/>
+      <c r="S23" s="302"/>
+      <c r="T23" s="302"/>
+      <c r="U23" s="302"/>
+      <c r="V23" s="302"/>
+      <c r="W23" s="302"/>
+      <c r="X23" s="302"/>
       <c r="Y23" s="289"/>
       <c r="Z23" s="289"/>
       <c r="AA23" s="289"/>
@@ -18660,23 +18658,23 @@
       <c r="G24" s="290"/>
       <c r="H24" s="290"/>
       <c r="I24" s="290"/>
-      <c r="J24" s="291" t="s">
+      <c r="J24" s="302" t="s">
         <v>86</v>
       </c>
-      <c r="K24" s="291"/>
-      <c r="L24" s="291"/>
-      <c r="M24" s="291"/>
-      <c r="N24" s="291"/>
-      <c r="O24" s="291"/>
-      <c r="P24" s="291"/>
-      <c r="Q24" s="291"/>
-      <c r="R24" s="291"/>
-      <c r="S24" s="291"/>
-      <c r="T24" s="291"/>
-      <c r="U24" s="291"/>
-      <c r="V24" s="291"/>
-      <c r="W24" s="291"/>
-      <c r="X24" s="291"/>
+      <c r="K24" s="302"/>
+      <c r="L24" s="302"/>
+      <c r="M24" s="302"/>
+      <c r="N24" s="302"/>
+      <c r="O24" s="302"/>
+      <c r="P24" s="302"/>
+      <c r="Q24" s="302"/>
+      <c r="R24" s="302"/>
+      <c r="S24" s="302"/>
+      <c r="T24" s="302"/>
+      <c r="U24" s="302"/>
+      <c r="V24" s="302"/>
+      <c r="W24" s="302"/>
+      <c r="X24" s="302"/>
       <c r="Y24" s="289"/>
       <c r="Z24" s="289"/>
       <c r="AA24" s="289"/>
@@ -18738,23 +18736,23 @@
       <c r="G25" s="290"/>
       <c r="H25" s="290"/>
       <c r="I25" s="290"/>
-      <c r="J25" s="291" t="s">
+      <c r="J25" s="302" t="s">
         <v>88</v>
       </c>
-      <c r="K25" s="291"/>
-      <c r="L25" s="291"/>
-      <c r="M25" s="291"/>
-      <c r="N25" s="291"/>
-      <c r="O25" s="291"/>
-      <c r="P25" s="291"/>
-      <c r="Q25" s="291"/>
-      <c r="R25" s="291"/>
-      <c r="S25" s="291"/>
-      <c r="T25" s="291"/>
-      <c r="U25" s="291"/>
-      <c r="V25" s="291"/>
-      <c r="W25" s="291"/>
-      <c r="X25" s="291"/>
+      <c r="K25" s="302"/>
+      <c r="L25" s="302"/>
+      <c r="M25" s="302"/>
+      <c r="N25" s="302"/>
+      <c r="O25" s="302"/>
+      <c r="P25" s="302"/>
+      <c r="Q25" s="302"/>
+      <c r="R25" s="302"/>
+      <c r="S25" s="302"/>
+      <c r="T25" s="302"/>
+      <c r="U25" s="302"/>
+      <c r="V25" s="302"/>
+      <c r="W25" s="302"/>
+      <c r="X25" s="302"/>
       <c r="Y25" s="289"/>
       <c r="Z25" s="289"/>
       <c r="AA25" s="289"/>
@@ -19364,41 +19362,43 @@
     </row>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="Y8:AI8"/>
-    <mergeCell ref="AC9:AI9"/>
-    <mergeCell ref="AC10:AI10"/>
-    <mergeCell ref="AC11:AI11"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="J10:X10"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="B8:I9"/>
-    <mergeCell ref="J11:X11"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="Y9:AB9"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="J8:X9"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="J12:X12"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="J13:X13"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="J14:X14"/>
+    <mergeCell ref="AC22:AI22"/>
+    <mergeCell ref="AC23:AI23"/>
+    <mergeCell ref="AC24:AI24"/>
+    <mergeCell ref="AC25:AI25"/>
+    <mergeCell ref="AC12:AI12"/>
+    <mergeCell ref="AC13:AI13"/>
+    <mergeCell ref="AC14:AI14"/>
+    <mergeCell ref="AC20:AI20"/>
+    <mergeCell ref="AC21:AI21"/>
+    <mergeCell ref="AC15:AI15"/>
+    <mergeCell ref="AC16:AI16"/>
+    <mergeCell ref="AC17:AI17"/>
+    <mergeCell ref="AC18:AI18"/>
+    <mergeCell ref="AC19:AI19"/>
+    <mergeCell ref="Y23:AB23"/>
+    <mergeCell ref="Y24:AB24"/>
+    <mergeCell ref="Y25:AB25"/>
+    <mergeCell ref="Y20:AB20"/>
+    <mergeCell ref="Y21:AB21"/>
+    <mergeCell ref="Y22:AB22"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="J23:X23"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="J24:X24"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="J25:X25"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="J20:X20"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="J21:X21"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="J22:X22"/>
+    <mergeCell ref="Y12:AB12"/>
+    <mergeCell ref="Y13:AB13"/>
+    <mergeCell ref="Y14:AB14"/>
+    <mergeCell ref="Y10:AB10"/>
+    <mergeCell ref="Y11:AB11"/>
     <mergeCell ref="B19:I19"/>
     <mergeCell ref="J19:X19"/>
     <mergeCell ref="Y15:AB15"/>
@@ -19414,43 +19414,41 @@
     <mergeCell ref="B16:I16"/>
     <mergeCell ref="J16:X16"/>
     <mergeCell ref="J18:X18"/>
-    <mergeCell ref="Y12:AB12"/>
-    <mergeCell ref="Y13:AB13"/>
-    <mergeCell ref="Y14:AB14"/>
-    <mergeCell ref="Y10:AB10"/>
-    <mergeCell ref="Y11:AB11"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="J20:X20"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="J21:X21"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="J22:X22"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="J23:X23"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="J24:X24"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="J25:X25"/>
-    <mergeCell ref="Y23:AB23"/>
-    <mergeCell ref="Y24:AB24"/>
-    <mergeCell ref="Y25:AB25"/>
-    <mergeCell ref="Y20:AB20"/>
-    <mergeCell ref="Y21:AB21"/>
-    <mergeCell ref="Y22:AB22"/>
-    <mergeCell ref="AC22:AI22"/>
-    <mergeCell ref="AC23:AI23"/>
-    <mergeCell ref="AC24:AI24"/>
-    <mergeCell ref="AC25:AI25"/>
-    <mergeCell ref="AC12:AI12"/>
-    <mergeCell ref="AC13:AI13"/>
-    <mergeCell ref="AC14:AI14"/>
-    <mergeCell ref="AC20:AI20"/>
-    <mergeCell ref="AC21:AI21"/>
-    <mergeCell ref="AC15:AI15"/>
-    <mergeCell ref="AC16:AI16"/>
-    <mergeCell ref="AC17:AI17"/>
-    <mergeCell ref="AC18:AI18"/>
-    <mergeCell ref="AC19:AI19"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="J12:X12"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="J13:X13"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="J14:X14"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="Y9:AB9"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="J8:X9"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="Y8:AI8"/>
+    <mergeCell ref="AC9:AI9"/>
+    <mergeCell ref="AC10:AI10"/>
+    <mergeCell ref="AC11:AI11"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="J10:X10"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B8:I9"/>
+    <mergeCell ref="J11:X11"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -19481,157 +19479,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="20" customFormat="1">
-      <c r="A1" s="199" t="s">
+      <c r="A1" s="202" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="200"/>
-      <c r="C1" s="200"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="149" t="str">
+      <c r="B1" s="213"/>
+      <c r="C1" s="213"/>
+      <c r="D1" s="203"/>
+      <c r="E1" s="192" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="150"/>
-      <c r="G1" s="150"/>
-      <c r="H1" s="150"/>
-      <c r="I1" s="150"/>
-      <c r="J1" s="150"/>
-      <c r="K1" s="150"/>
-      <c r="L1" s="150"/>
-      <c r="M1" s="150"/>
-      <c r="N1" s="151"/>
-      <c r="O1" s="140" t="s">
+      <c r="F1" s="193"/>
+      <c r="G1" s="193"/>
+      <c r="H1" s="193"/>
+      <c r="I1" s="193"/>
+      <c r="J1" s="193"/>
+      <c r="K1" s="193"/>
+      <c r="L1" s="193"/>
+      <c r="M1" s="193"/>
+      <c r="N1" s="194"/>
+      <c r="O1" s="183" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="141"/>
-      <c r="Q1" s="141"/>
-      <c r="R1" s="142"/>
-      <c r="S1" s="214" t="str">
+      <c r="P1" s="184"/>
+      <c r="Q1" s="184"/>
+      <c r="R1" s="185"/>
+      <c r="S1" s="204" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>ドメイン定義書</v>
       </c>
-      <c r="T1" s="215"/>
-      <c r="U1" s="215"/>
-      <c r="V1" s="215"/>
-      <c r="W1" s="215"/>
-      <c r="X1" s="215"/>
-      <c r="Y1" s="215"/>
-      <c r="Z1" s="216"/>
-      <c r="AA1" s="137" t="s">
+      <c r="T1" s="205"/>
+      <c r="U1" s="205"/>
+      <c r="V1" s="205"/>
+      <c r="W1" s="205"/>
+      <c r="X1" s="205"/>
+      <c r="Y1" s="205"/>
+      <c r="Z1" s="206"/>
+      <c r="AA1" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="139"/>
-      <c r="AC1" s="196" t="str">
+      <c r="AB1" s="141"/>
+      <c r="AC1" s="142" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="197"/>
-      <c r="AE1" s="197"/>
-      <c r="AF1" s="198"/>
-      <c r="AG1" s="211">
+      <c r="AD1" s="143"/>
+      <c r="AE1" s="143"/>
+      <c r="AF1" s="144"/>
+      <c r="AG1" s="199">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="212"/>
-      <c r="AI1" s="213"/>
+      <c r="AH1" s="200"/>
+      <c r="AI1" s="201"/>
     </row>
     <row r="2" spans="1:70" s="20" customFormat="1">
-      <c r="A2" s="137" t="s">
+      <c r="A2" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="149" t="str">
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="192" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
-      <c r="I2" s="150"/>
-      <c r="J2" s="150"/>
-      <c r="K2" s="150"/>
-      <c r="L2" s="150"/>
-      <c r="M2" s="150"/>
-      <c r="N2" s="151"/>
-      <c r="O2" s="143"/>
-      <c r="P2" s="144"/>
-      <c r="Q2" s="144"/>
-      <c r="R2" s="145"/>
-      <c r="S2" s="217"/>
-      <c r="T2" s="218"/>
-      <c r="U2" s="218"/>
-      <c r="V2" s="218"/>
-      <c r="W2" s="218"/>
-      <c r="X2" s="218"/>
-      <c r="Y2" s="218"/>
-      <c r="Z2" s="219"/>
-      <c r="AA2" s="137" t="s">
+      <c r="F2" s="193"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="193"/>
+      <c r="I2" s="193"/>
+      <c r="J2" s="193"/>
+      <c r="K2" s="193"/>
+      <c r="L2" s="193"/>
+      <c r="M2" s="193"/>
+      <c r="N2" s="194"/>
+      <c r="O2" s="186"/>
+      <c r="P2" s="187"/>
+      <c r="Q2" s="187"/>
+      <c r="R2" s="188"/>
+      <c r="S2" s="207"/>
+      <c r="T2" s="208"/>
+      <c r="U2" s="208"/>
+      <c r="V2" s="208"/>
+      <c r="W2" s="208"/>
+      <c r="X2" s="208"/>
+      <c r="Y2" s="208"/>
+      <c r="Z2" s="209"/>
+      <c r="AA2" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="139"/>
-      <c r="AC2" s="196" t="str">
+      <c r="AB2" s="141"/>
+      <c r="AC2" s="142" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="197"/>
-      <c r="AE2" s="197"/>
-      <c r="AF2" s="198"/>
-      <c r="AG2" s="211" t="str">
+      <c r="AD2" s="143"/>
+      <c r="AE2" s="143"/>
+      <c r="AF2" s="144"/>
+      <c r="AG2" s="199" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="212"/>
-      <c r="AI2" s="213"/>
+      <c r="AH2" s="200"/>
+      <c r="AI2" s="201"/>
     </row>
     <row r="3" spans="1:70" s="20" customFormat="1">
-      <c r="A3" s="137" t="s">
+      <c r="A3" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="138"/>
-      <c r="C3" s="138"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="149" t="str">
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="192" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="150"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="150"/>
-      <c r="I3" s="150"/>
-      <c r="J3" s="150"/>
-      <c r="K3" s="150"/>
-      <c r="L3" s="150"/>
-      <c r="M3" s="150"/>
-      <c r="N3" s="151"/>
-      <c r="O3" s="146"/>
-      <c r="P3" s="147"/>
-      <c r="Q3" s="147"/>
-      <c r="R3" s="148"/>
-      <c r="S3" s="220"/>
-      <c r="T3" s="221"/>
-      <c r="U3" s="221"/>
-      <c r="V3" s="221"/>
-      <c r="W3" s="221"/>
-      <c r="X3" s="221"/>
-      <c r="Y3" s="221"/>
-      <c r="Z3" s="222"/>
-      <c r="AA3" s="137"/>
-      <c r="AB3" s="139"/>
-      <c r="AC3" s="196" t="str">
+      <c r="F3" s="193"/>
+      <c r="G3" s="193"/>
+      <c r="H3" s="193"/>
+      <c r="I3" s="193"/>
+      <c r="J3" s="193"/>
+      <c r="K3" s="193"/>
+      <c r="L3" s="193"/>
+      <c r="M3" s="193"/>
+      <c r="N3" s="194"/>
+      <c r="O3" s="189"/>
+      <c r="P3" s="190"/>
+      <c r="Q3" s="190"/>
+      <c r="R3" s="191"/>
+      <c r="S3" s="210"/>
+      <c r="T3" s="211"/>
+      <c r="U3" s="211"/>
+      <c r="V3" s="211"/>
+      <c r="W3" s="211"/>
+      <c r="X3" s="211"/>
+      <c r="Y3" s="211"/>
+      <c r="Z3" s="212"/>
+      <c r="AA3" s="140"/>
+      <c r="AB3" s="141"/>
+      <c r="AC3" s="142" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="197"/>
-      <c r="AE3" s="197"/>
-      <c r="AF3" s="198"/>
-      <c r="AG3" s="211" t="str">
+      <c r="AD3" s="143"/>
+      <c r="AE3" s="143"/>
+      <c r="AF3" s="144"/>
+      <c r="AG3" s="199" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="212"/>
-      <c r="AI3" s="213"/>
+      <c r="AH3" s="200"/>
+      <c r="AI3" s="201"/>
     </row>
     <row r="5" spans="1:70">
       <c r="A5" s="33" t="s">
@@ -19644,49 +19642,49 @@
       </c>
     </row>
     <row r="8" spans="1:70">
-      <c r="A8" s="225" t="s">
+      <c r="A8" s="226" t="s">
         <v>173</v>
       </c>
-      <c r="B8" s="298" t="s">
+      <c r="B8" s="291" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="299"/>
-      <c r="D8" s="299"/>
-      <c r="E8" s="299"/>
-      <c r="F8" s="299"/>
-      <c r="G8" s="299"/>
-      <c r="H8" s="299"/>
-      <c r="I8" s="300"/>
-      <c r="J8" s="298" t="s">
+      <c r="C8" s="292"/>
+      <c r="D8" s="292"/>
+      <c r="E8" s="292"/>
+      <c r="F8" s="292"/>
+      <c r="G8" s="292"/>
+      <c r="H8" s="292"/>
+      <c r="I8" s="293"/>
+      <c r="J8" s="291" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="299"/>
-      <c r="L8" s="299"/>
-      <c r="M8" s="299"/>
-      <c r="N8" s="299"/>
-      <c r="O8" s="299"/>
-      <c r="P8" s="299"/>
-      <c r="Q8" s="299"/>
-      <c r="R8" s="299"/>
-      <c r="S8" s="299"/>
-      <c r="T8" s="299"/>
-      <c r="U8" s="299"/>
-      <c r="V8" s="299"/>
-      <c r="W8" s="299"/>
-      <c r="X8" s="300"/>
-      <c r="Y8" s="270" t="s">
+      <c r="K8" s="292"/>
+      <c r="L8" s="292"/>
+      <c r="M8" s="292"/>
+      <c r="N8" s="292"/>
+      <c r="O8" s="292"/>
+      <c r="P8" s="292"/>
+      <c r="Q8" s="292"/>
+      <c r="R8" s="292"/>
+      <c r="S8" s="292"/>
+      <c r="T8" s="292"/>
+      <c r="U8" s="292"/>
+      <c r="V8" s="292"/>
+      <c r="W8" s="292"/>
+      <c r="X8" s="293"/>
+      <c r="Y8" s="277" t="s">
         <v>14</v>
       </c>
-      <c r="Z8" s="270"/>
-      <c r="AA8" s="270"/>
-      <c r="AB8" s="270"/>
-      <c r="AC8" s="270"/>
-      <c r="AD8" s="270"/>
-      <c r="AE8" s="270"/>
-      <c r="AF8" s="270"/>
-      <c r="AG8" s="270"/>
-      <c r="AH8" s="270"/>
-      <c r="AI8" s="270"/>
+      <c r="Z8" s="277"/>
+      <c r="AA8" s="277"/>
+      <c r="AB8" s="277"/>
+      <c r="AC8" s="277"/>
+      <c r="AD8" s="277"/>
+      <c r="AE8" s="277"/>
+      <c r="AF8" s="277"/>
+      <c r="AG8" s="277"/>
+      <c r="AH8" s="277"/>
+      <c r="AI8" s="277"/>
       <c r="AJ8" s="23"/>
       <c r="AK8" s="23"/>
       <c r="AL8" s="23"/>
@@ -19724,45 +19722,45 @@
       <c r="BR8" s="23"/>
     </row>
     <row r="9" spans="1:70">
-      <c r="A9" s="225"/>
-      <c r="B9" s="301"/>
-      <c r="C9" s="302"/>
-      <c r="D9" s="302"/>
-      <c r="E9" s="302"/>
-      <c r="F9" s="302"/>
-      <c r="G9" s="302"/>
-      <c r="H9" s="302"/>
-      <c r="I9" s="303"/>
-      <c r="J9" s="301"/>
-      <c r="K9" s="302"/>
-      <c r="L9" s="302"/>
-      <c r="M9" s="302"/>
-      <c r="N9" s="302"/>
-      <c r="O9" s="302"/>
-      <c r="P9" s="302"/>
-      <c r="Q9" s="302"/>
-      <c r="R9" s="302"/>
-      <c r="S9" s="302"/>
-      <c r="T9" s="302"/>
-      <c r="U9" s="302"/>
-      <c r="V9" s="302"/>
-      <c r="W9" s="302"/>
-      <c r="X9" s="303"/>
-      <c r="Y9" s="270" t="s">
+      <c r="A9" s="226"/>
+      <c r="B9" s="294"/>
+      <c r="C9" s="295"/>
+      <c r="D9" s="295"/>
+      <c r="E9" s="295"/>
+      <c r="F9" s="295"/>
+      <c r="G9" s="295"/>
+      <c r="H9" s="295"/>
+      <c r="I9" s="296"/>
+      <c r="J9" s="294"/>
+      <c r="K9" s="295"/>
+      <c r="L9" s="295"/>
+      <c r="M9" s="295"/>
+      <c r="N9" s="295"/>
+      <c r="O9" s="295"/>
+      <c r="P9" s="295"/>
+      <c r="Q9" s="295"/>
+      <c r="R9" s="295"/>
+      <c r="S9" s="295"/>
+      <c r="T9" s="295"/>
+      <c r="U9" s="295"/>
+      <c r="V9" s="295"/>
+      <c r="W9" s="295"/>
+      <c r="X9" s="296"/>
+      <c r="Y9" s="277" t="s">
         <v>15</v>
       </c>
-      <c r="Z9" s="270"/>
-      <c r="AA9" s="270"/>
-      <c r="AB9" s="270"/>
-      <c r="AC9" s="270" t="s">
+      <c r="Z9" s="277"/>
+      <c r="AA9" s="277"/>
+      <c r="AB9" s="277"/>
+      <c r="AC9" s="277" t="s">
         <v>16</v>
       </c>
-      <c r="AD9" s="270"/>
-      <c r="AE9" s="270"/>
-      <c r="AF9" s="270"/>
-      <c r="AG9" s="270"/>
-      <c r="AH9" s="270"/>
-      <c r="AI9" s="270"/>
+      <c r="AD9" s="277"/>
+      <c r="AE9" s="277"/>
+      <c r="AF9" s="277"/>
+      <c r="AG9" s="277"/>
+      <c r="AH9" s="277"/>
+      <c r="AI9" s="277"/>
       <c r="AJ9" s="23"/>
       <c r="AK9" s="23"/>
       <c r="AL9" s="23"/>
@@ -20089,14 +20087,14 @@
     </row>
     <row r="14" spans="1:70">
       <c r="A14" s="88"/>
-      <c r="B14" s="293"/>
-      <c r="C14" s="297"/>
-      <c r="D14" s="297"/>
-      <c r="E14" s="297"/>
-      <c r="F14" s="297"/>
-      <c r="G14" s="297"/>
-      <c r="H14" s="297"/>
-      <c r="I14" s="297"/>
+      <c r="B14" s="297"/>
+      <c r="C14" s="298"/>
+      <c r="D14" s="298"/>
+      <c r="E14" s="298"/>
+      <c r="F14" s="298"/>
+      <c r="G14" s="298"/>
+      <c r="H14" s="298"/>
+      <c r="I14" s="298"/>
       <c r="J14" s="290"/>
       <c r="K14" s="290"/>
       <c r="L14" s="290"/>
@@ -20161,14 +20159,14 @@
     </row>
     <row r="15" spans="1:70">
       <c r="A15" s="88"/>
-      <c r="B15" s="294"/>
-      <c r="C15" s="295"/>
-      <c r="D15" s="295"/>
-      <c r="E15" s="295"/>
-      <c r="F15" s="295"/>
-      <c r="G15" s="295"/>
-      <c r="H15" s="295"/>
-      <c r="I15" s="296"/>
+      <c r="B15" s="299"/>
+      <c r="C15" s="300"/>
+      <c r="D15" s="300"/>
+      <c r="E15" s="300"/>
+      <c r="F15" s="300"/>
+      <c r="G15" s="300"/>
+      <c r="H15" s="300"/>
+      <c r="I15" s="301"/>
       <c r="J15" s="290"/>
       <c r="K15" s="290"/>
       <c r="L15" s="290"/>
@@ -20233,14 +20231,14 @@
     </row>
     <row r="16" spans="1:70">
       <c r="A16" s="88"/>
-      <c r="B16" s="293"/>
-      <c r="C16" s="297"/>
-      <c r="D16" s="297"/>
-      <c r="E16" s="297"/>
-      <c r="F16" s="297"/>
-      <c r="G16" s="297"/>
-      <c r="H16" s="297"/>
-      <c r="I16" s="297"/>
+      <c r="B16" s="297"/>
+      <c r="C16" s="298"/>
+      <c r="D16" s="298"/>
+      <c r="E16" s="298"/>
+      <c r="F16" s="298"/>
+      <c r="G16" s="298"/>
+      <c r="H16" s="298"/>
+      <c r="I16" s="298"/>
       <c r="J16" s="290"/>
       <c r="K16" s="290"/>
       <c r="L16" s="290"/>
@@ -20305,14 +20303,14 @@
     </row>
     <row r="17" spans="1:70">
       <c r="A17" s="88"/>
-      <c r="B17" s="293"/>
-      <c r="C17" s="293"/>
-      <c r="D17" s="293"/>
-      <c r="E17" s="293"/>
-      <c r="F17" s="293"/>
-      <c r="G17" s="293"/>
-      <c r="H17" s="293"/>
-      <c r="I17" s="293"/>
+      <c r="B17" s="297"/>
+      <c r="C17" s="297"/>
+      <c r="D17" s="297"/>
+      <c r="E17" s="297"/>
+      <c r="F17" s="297"/>
+      <c r="G17" s="297"/>
+      <c r="H17" s="297"/>
+      <c r="I17" s="297"/>
       <c r="J17" s="290"/>
       <c r="K17" s="290"/>
       <c r="L17" s="290"/>
@@ -20521,7 +20519,7 @@
     </row>
     <row r="20" spans="1:70">
       <c r="A20" s="88"/>
-      <c r="B20" s="291"/>
+      <c r="B20" s="302"/>
       <c r="C20" s="290"/>
       <c r="D20" s="290"/>
       <c r="E20" s="290"/>
@@ -20558,7 +20556,7 @@
     </row>
     <row r="21" spans="1:70">
       <c r="A21" s="88"/>
-      <c r="B21" s="291"/>
+      <c r="B21" s="302"/>
       <c r="C21" s="290"/>
       <c r="D21" s="290"/>
       <c r="E21" s="290"/>
@@ -20595,7 +20593,7 @@
     </row>
     <row r="22" spans="1:70">
       <c r="A22" s="88"/>
-      <c r="B22" s="291"/>
+      <c r="B22" s="302"/>
       <c r="C22" s="290"/>
       <c r="D22" s="290"/>
       <c r="E22" s="290"/>
@@ -20640,21 +20638,21 @@
       <c r="G23" s="290"/>
       <c r="H23" s="290"/>
       <c r="I23" s="290"/>
-      <c r="J23" s="291"/>
-      <c r="K23" s="291"/>
-      <c r="L23" s="291"/>
-      <c r="M23" s="291"/>
-      <c r="N23" s="291"/>
-      <c r="O23" s="291"/>
-      <c r="P23" s="291"/>
-      <c r="Q23" s="291"/>
-      <c r="R23" s="291"/>
-      <c r="S23" s="291"/>
-      <c r="T23" s="291"/>
-      <c r="U23" s="291"/>
-      <c r="V23" s="291"/>
-      <c r="W23" s="291"/>
-      <c r="X23" s="291"/>
+      <c r="J23" s="302"/>
+      <c r="K23" s="302"/>
+      <c r="L23" s="302"/>
+      <c r="M23" s="302"/>
+      <c r="N23" s="302"/>
+      <c r="O23" s="302"/>
+      <c r="P23" s="302"/>
+      <c r="Q23" s="302"/>
+      <c r="R23" s="302"/>
+      <c r="S23" s="302"/>
+      <c r="T23" s="302"/>
+      <c r="U23" s="302"/>
+      <c r="V23" s="302"/>
+      <c r="W23" s="302"/>
+      <c r="X23" s="302"/>
       <c r="Y23" s="289"/>
       <c r="Z23" s="289"/>
       <c r="AA23" s="289"/>
@@ -20677,21 +20675,21 @@
       <c r="G24" s="290"/>
       <c r="H24" s="290"/>
       <c r="I24" s="290"/>
-      <c r="J24" s="291"/>
-      <c r="K24" s="291"/>
-      <c r="L24" s="291"/>
-      <c r="M24" s="291"/>
-      <c r="N24" s="291"/>
-      <c r="O24" s="291"/>
-      <c r="P24" s="291"/>
-      <c r="Q24" s="291"/>
-      <c r="R24" s="291"/>
-      <c r="S24" s="291"/>
-      <c r="T24" s="291"/>
-      <c r="U24" s="291"/>
-      <c r="V24" s="291"/>
-      <c r="W24" s="291"/>
-      <c r="X24" s="291"/>
+      <c r="J24" s="302"/>
+      <c r="K24" s="302"/>
+      <c r="L24" s="302"/>
+      <c r="M24" s="302"/>
+      <c r="N24" s="302"/>
+      <c r="O24" s="302"/>
+      <c r="P24" s="302"/>
+      <c r="Q24" s="302"/>
+      <c r="R24" s="302"/>
+      <c r="S24" s="302"/>
+      <c r="T24" s="302"/>
+      <c r="U24" s="302"/>
+      <c r="V24" s="302"/>
+      <c r="W24" s="302"/>
+      <c r="X24" s="302"/>
       <c r="Y24" s="289"/>
       <c r="Z24" s="289"/>
       <c r="AA24" s="289"/>
@@ -20714,21 +20712,21 @@
       <c r="G25" s="290"/>
       <c r="H25" s="290"/>
       <c r="I25" s="290"/>
-      <c r="J25" s="291"/>
-      <c r="K25" s="291"/>
-      <c r="L25" s="291"/>
-      <c r="M25" s="291"/>
-      <c r="N25" s="291"/>
-      <c r="O25" s="291"/>
-      <c r="P25" s="291"/>
-      <c r="Q25" s="291"/>
-      <c r="R25" s="291"/>
-      <c r="S25" s="291"/>
-      <c r="T25" s="291"/>
-      <c r="U25" s="291"/>
-      <c r="V25" s="291"/>
-      <c r="W25" s="291"/>
-      <c r="X25" s="291"/>
+      <c r="J25" s="302"/>
+      <c r="K25" s="302"/>
+      <c r="L25" s="302"/>
+      <c r="M25" s="302"/>
+      <c r="N25" s="302"/>
+      <c r="O25" s="302"/>
+      <c r="P25" s="302"/>
+      <c r="Q25" s="302"/>
+      <c r="R25" s="302"/>
+      <c r="S25" s="302"/>
+      <c r="T25" s="302"/>
+      <c r="U25" s="302"/>
+      <c r="V25" s="302"/>
+      <c r="W25" s="302"/>
+      <c r="X25" s="302"/>
       <c r="Y25" s="289"/>
       <c r="Z25" s="289"/>
       <c r="AA25" s="289"/>
@@ -20743,50 +20741,33 @@
     </row>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="J25:X25"/>
-    <mergeCell ref="Y25:AB25"/>
-    <mergeCell ref="AC25:AI25"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="J23:X23"/>
-    <mergeCell ref="Y23:AB23"/>
-    <mergeCell ref="AC23:AI23"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="J24:X24"/>
-    <mergeCell ref="Y24:AB24"/>
-    <mergeCell ref="AC24:AI24"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="J21:X21"/>
-    <mergeCell ref="Y21:AB21"/>
-    <mergeCell ref="AC21:AI21"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="J22:X22"/>
-    <mergeCell ref="Y22:AB22"/>
-    <mergeCell ref="AC22:AI22"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="J19:X19"/>
-    <mergeCell ref="Y19:AB19"/>
-    <mergeCell ref="AC19:AI19"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="J20:X20"/>
-    <mergeCell ref="Y20:AB20"/>
-    <mergeCell ref="AC20:AI20"/>
-    <mergeCell ref="Y17:AB17"/>
-    <mergeCell ref="AC17:AI17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="J18:X18"/>
-    <mergeCell ref="Y18:AB18"/>
-    <mergeCell ref="AC18:AI18"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="J17:X17"/>
-    <mergeCell ref="Y14:AB14"/>
-    <mergeCell ref="AC14:AI14"/>
-    <mergeCell ref="Y15:AB15"/>
-    <mergeCell ref="AC15:AI15"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="J16:X16"/>
-    <mergeCell ref="Y16:AB16"/>
-    <mergeCell ref="AC16:AI16"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:I9"/>
+    <mergeCell ref="J8:X9"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="J12:X12"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="J15:X15"/>
+    <mergeCell ref="J10:X10"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="J14:X14"/>
+    <mergeCell ref="Y10:AB10"/>
+    <mergeCell ref="AC10:AI10"/>
+    <mergeCell ref="Y13:AB13"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="J13:X13"/>
+    <mergeCell ref="Y12:AB12"/>
+    <mergeCell ref="AC12:AI12"/>
+    <mergeCell ref="AC13:AI13"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="E1:N1"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="AC1:AF1"/>
@@ -20803,33 +20784,50 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="J15:X15"/>
-    <mergeCell ref="J10:X10"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="J14:X14"/>
-    <mergeCell ref="Y10:AB10"/>
-    <mergeCell ref="AC10:AI10"/>
-    <mergeCell ref="Y13:AB13"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="J13:X13"/>
-    <mergeCell ref="Y12:AB12"/>
-    <mergeCell ref="AC12:AI12"/>
-    <mergeCell ref="AC13:AI13"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:I9"/>
-    <mergeCell ref="J8:X9"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="J12:X12"/>
-    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="Y14:AB14"/>
+    <mergeCell ref="AC14:AI14"/>
+    <mergeCell ref="Y15:AB15"/>
+    <mergeCell ref="AC15:AI15"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="J16:X16"/>
+    <mergeCell ref="Y16:AB16"/>
+    <mergeCell ref="AC16:AI16"/>
+    <mergeCell ref="Y17:AB17"/>
+    <mergeCell ref="AC17:AI17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="J18:X18"/>
+    <mergeCell ref="Y18:AB18"/>
+    <mergeCell ref="AC18:AI18"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="J17:X17"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="J19:X19"/>
+    <mergeCell ref="Y19:AB19"/>
+    <mergeCell ref="AC19:AI19"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="J20:X20"/>
+    <mergeCell ref="Y20:AB20"/>
+    <mergeCell ref="AC20:AI20"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="J21:X21"/>
+    <mergeCell ref="Y21:AB21"/>
+    <mergeCell ref="AC21:AI21"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="J22:X22"/>
+    <mergeCell ref="Y22:AB22"/>
+    <mergeCell ref="AC22:AI22"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="J25:X25"/>
+    <mergeCell ref="Y25:AB25"/>
+    <mergeCell ref="AC25:AI25"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="J23:X23"/>
+    <mergeCell ref="Y23:AB23"/>
+    <mergeCell ref="AC23:AI23"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="J24:X24"/>
+    <mergeCell ref="Y24:AB24"/>
+    <mergeCell ref="AC24:AI24"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>

--- a/030_設計ドキュメント/020_サンプル/090_データモデル設計/ドメイン定義書_サンプル.xlsx
+++ b/030_設計ドキュメント/020_サンプル/090_データモデル設計/ドメイン定義書_サンプル.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F19C7E-878F-4169-9298-AAB72B11D1BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724E9497-9973-40A1-AEE5-52E6F24D01E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1290" yWindow="-110" windowWidth="37220" windowHeight="21820" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1275" yWindow="-120" windowWidth="37245" windowHeight="21840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="11" r:id="rId1"/>
@@ -19,8 +19,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'1. ドメイン定義'!$A$1:$AI$29</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'2.1. Nablarch標準提供バリデーション'!$A$1:$AI$27</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'2.2. 本システム固有のバリデーション'!$A$1:$AI$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'2.1. Nablarch標準提供バリデーション'!$A$1:$AI$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'2.2. 本システム固有のバリデーション'!$A$1:$AI$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">データ!$A$1:$B$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">はじめに!$A$1:$AI$164</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$34</definedName>
@@ -269,7 +269,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="274">
   <si>
     <t>PJ名</t>
   </si>
@@ -738,15 +738,7 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>文字種バリデーション（ASCII文字）</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>入力値が有効な文字種であることをチェックする。</t>
-  </si>
-  <si>
-    <t>文字種バリデーション（半角英数字）</t>
-    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>同上</t>
@@ -756,69 +748,19 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>文字種バリデーション（全角文字）</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>文字種バリデーション
-（システム許容文字）</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>文字数バリデーション（桁数固定）</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>入力値が有効な文字数であることをチェックする。</t>
   </si>
   <si>
-    <t>文字数バリデーション
-（桁数可変、最大値のみ指定）</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>文字数バリデーション
-（桁数可変、最大値と最小値両方指定）</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>数値桁数バリデーション（小数部指定）</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>入力値が有効な桁数であることをチェックする。</t>
   </si>
   <si>
-    <t>数値桁数バリデーション（小数部未指定）</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>数値範囲バリデーション
-（最大値のみ指定）</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>入力値が指定された最大値以下であることをチェックする。</t>
   </si>
   <si>
-    <t>数値範囲バリデーション
-（最小値のみ指定）</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>入力値が指定された最小値以上であることをチェックする。</t>
   </si>
   <si>
     <t>入力値が指定された範囲内（両端を含む）であることをチェックする。</t>
-  </si>
-  <si>
-    <t>コード値有効バリデーション</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>入力値が指定されたコードに含まれるコード値であることをチェックする。
-パターンが指定された場合には、そのパターンに含まれるコード値であることもチェックする。</t>
-    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>年月日バリデーション</t>
@@ -827,15 +769,6 @@
   <si>
     <t>入力値が年月日を表す文字列として有効であることをチェックする。
 フォーマットは、yyyy/MM/ddまたはyyyyMMddを有効とする。</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>年月バリデーション</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>入力値が年月を表す文字列として有効であることをチェックする。
-フォーマットは、yyyy/MMまたはyyyyMMを有効とする。</t>
     <phoneticPr fontId="11"/>
   </si>
   <si>
@@ -2191,11 +2124,6 @@
     <rPh sb="36" eb="38">
       <t>セイセイ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>数値範囲バリデーション
-（最大値、最小値両方指定）</t>
     <phoneticPr fontId="11"/>
   </si>
   <si>
@@ -2545,6 +2473,127 @@
       <t>フク</t>
     </rPh>
     <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>バリデーション処理名</t>
+  </si>
+  <si>
+    <t>処理内容</t>
+  </si>
+  <si>
+    <t>エラーメッセージ</t>
+  </si>
+  <si>
+    <t>メッセージID</t>
+  </si>
+  <si>
+    <t>埋め込み文字列</t>
+  </si>
+  <si>
+    <t>文字種バリデーション（ASCII文字）</t>
+  </si>
+  <si>
+    <t>文字種バリデーション（半角英数字）</t>
+  </si>
+  <si>
+    <t>文字種バリデーション（半角数字）</t>
+  </si>
+  <si>
+    <t>文字種バリデーション（全角文字）</t>
+  </si>
+  <si>
+    <t>文字種バリデーション
+（システム許容文字）</t>
+  </si>
+  <si>
+    <t>文字数バリデーション（桁数固定）</t>
+  </si>
+  <si>
+    <t>文字数バリデーション
+（桁数可変、最大値のみ指定）</t>
+  </si>
+  <si>
+    <t>文字数バリデーション
+（桁数可変、最大値と最小値両方指定）</t>
+  </si>
+  <si>
+    <t>数値桁数バリデーション（小数部指定）</t>
+  </si>
+  <si>
+    <t>数値桁数バリデーション（小数部未指定）</t>
+  </si>
+  <si>
+    <t>数値範囲バリデーション
+（最大値のみ指定）</t>
+  </si>
+  <si>
+    <t>数値範囲バリデーション
+（最小値のみ指定）</t>
+  </si>
+  <si>
+    <t>数値範囲バリデーション
+（最大値、最小値両方指定）</t>
+  </si>
+  <si>
+    <t>要素数バリデーション
+（最大値のみ指定）</t>
+    <rPh sb="0" eb="3">
+      <t>ヨウソスウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>入力値の要素数が指定された最大数以下であることをチェックする。</t>
+    <rPh sb="4" eb="7">
+      <t>ヨウソスウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>要素数バリデーション
+（最小値のみ指定）</t>
+    <rPh sb="0" eb="3">
+      <t>ヨウソスウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>入力値の要素数が指定された最小数以上であることをチェックする。</t>
+    <rPh sb="4" eb="7">
+      <t>ヨウソスウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>要素数バリデーション
+（最大値、最小値両方指定）</t>
+    <rPh sb="0" eb="3">
+      <t>ヨウソスウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>入力値の要素数が指定された範囲内（両端を含む）であることをチェックする。</t>
+    <rPh sb="4" eb="7">
+      <t>ヨウソスウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>コード値有効バリデーション</t>
+  </si>
+  <si>
+    <t>入力値が指定されたコードに含まれるコード値であることをチェックする。
+パターンが指定された場合には、そのパターンに含まれるコード値であることもチェックする。</t>
   </si>
 </sst>
 </file>
@@ -3590,7 +3639,7 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="262">
+  <cellXfs count="269">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4295,13 +4344,22 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4327,11 +4385,23 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
@@ -4430,8 +4500,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7896225" y="285750"/>
-          <a:ext cx="1390650" cy="590550"/>
+          <a:off x="7943850" y="285750"/>
+          <a:ext cx="1400175" cy="590550"/>
           <a:chOff x="591" y="61"/>
           <a:chExt cx="147" cy="62"/>
         </a:xfrm>
@@ -5697,8 +5767,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2903157" y="15729502"/>
-          <a:ext cx="1498871" cy="1216424"/>
+          <a:off x="2934907" y="16072402"/>
+          <a:ext cx="1517921" cy="1241824"/>
           <a:chOff x="3536661" y="8131330"/>
           <a:chExt cx="1522826" cy="1267664"/>
         </a:xfrm>
@@ -8190,8 +8260,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7750175" y="9607550"/>
-          <a:ext cx="1187579" cy="1934267"/>
+          <a:off x="7839075" y="9810750"/>
+          <a:ext cx="1200279" cy="1978717"/>
           <a:chOff x="11958878" y="16511691"/>
           <a:chExt cx="1535831" cy="2007553"/>
         </a:xfrm>
@@ -8933,8 +9003,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7740650" y="16081375"/>
-          <a:ext cx="1187579" cy="1934267"/>
+          <a:off x="7829550" y="16430625"/>
+          <a:ext cx="1200279" cy="1978717"/>
           <a:chOff x="11958878" y="16511691"/>
           <a:chExt cx="1535831" cy="2007553"/>
         </a:xfrm>
@@ -10340,42 +10410,42 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="8.77734375" style="1"/>
+    <col min="1" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F22" s="5"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="6:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="6:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -10386,7 +10456,7 @@
       <c r="K23" s="23"/>
       <c r="L23" s="23"/>
     </row>
-    <row r="24" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -10395,7 +10465,7 @@
       <c r="K24" s="23"/>
       <c r="L24" s="23"/>
     </row>
-    <row r="25" spans="6:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="6:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
@@ -10407,7 +10477,7 @@
       <c r="K25" s="98"/>
       <c r="L25" s="23"/>
     </row>
-    <row r="26" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -10416,7 +10486,7 @@
       <c r="K26" s="23"/>
       <c r="L26" s="23"/>
     </row>
-    <row r="27" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -10425,7 +10495,7 @@
       <c r="K27" s="23"/>
       <c r="L27" s="23"/>
     </row>
-    <row r="28" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F28" s="6"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -10434,7 +10504,7 @@
       <c r="K28" s="23"/>
       <c r="L28" s="23"/>
     </row>
-    <row r="29" spans="6:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="6:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="23"/>
@@ -10442,7 +10512,7 @@
       <c r="K29" s="23"/>
       <c r="L29" s="23"/>
     </row>
-    <row r="30" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F30" s="5"/>
       <c r="G30" s="12"/>
       <c r="H30" s="5"/>
@@ -10451,7 +10521,7 @@
       <c r="K30" s="23"/>
       <c r="L30" s="23"/>
     </row>
-    <row r="31" spans="6:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="6:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F31" s="5"/>
       <c r="G31" s="12"/>
       <c r="H31" s="5"/>
@@ -10460,7 +10530,7 @@
       <c r="K31" s="23"/>
       <c r="L31" s="23"/>
     </row>
-    <row r="32" spans="6:12" ht="19" x14ac:dyDescent="0.3">
+    <row r="32" spans="6:12" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F32" s="5"/>
       <c r="G32" s="12"/>
       <c r="H32" s="5"/>
@@ -10469,7 +10539,7 @@
       <c r="K32" s="23"/>
       <c r="L32" s="23"/>
     </row>
-    <row r="33" spans="6:19" ht="19" x14ac:dyDescent="0.3">
+    <row r="33" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="23"/>
@@ -10481,7 +10551,7 @@
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
     </row>
-    <row r="34" spans="6:19" ht="19" x14ac:dyDescent="0.3">
+    <row r="34" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="23"/>
@@ -10496,515 +10566,515 @@
       <c r="R34" s="102"/>
       <c r="S34" s="102"/>
     </row>
-    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O35" s="7"/>
       <c r="P35" s="7"/>
       <c r="Q35" s="102"/>
       <c r="R35" s="102"/>
       <c r="S35" s="102"/>
     </row>
-    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O36" s="103"/>
       <c r="P36" s="102"/>
       <c r="Q36" s="103"/>
       <c r="R36" s="102"/>
       <c r="S36" s="15"/>
     </row>
-    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O37" s="99"/>
       <c r="P37" s="100"/>
       <c r="Q37" s="99"/>
       <c r="R37" s="100"/>
       <c r="S37" s="99"/>
     </row>
-    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O38" s="100"/>
       <c r="P38" s="100"/>
       <c r="Q38" s="100"/>
       <c r="R38" s="100"/>
       <c r="S38" s="100"/>
     </row>
-    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O39" s="100"/>
       <c r="P39" s="100"/>
       <c r="Q39" s="100"/>
       <c r="R39" s="100"/>
       <c r="S39" s="100"/>
     </row>
-    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="I25:K25"/>
@@ -11033,12 +11103,12 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="11" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="4.77734375" style="18"/>
+    <col min="1" max="16384" width="4.83203125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="107" t="s">
         <v>0</v>
       </c>
@@ -11046,7 +11116,7 @@
       <c r="C1" s="152"/>
       <c r="D1" s="108"/>
       <c r="E1" s="165" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="F1" s="163"/>
       <c r="G1" s="163"/>
@@ -11096,7 +11166,7 @@
       <c r="AM1" s="9"/>
       <c r="AN1" s="10"/>
     </row>
-    <row r="2" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="107" t="s">
         <v>1</v>
       </c>
@@ -11104,7 +11174,7 @@
       <c r="C2" s="152"/>
       <c r="D2" s="108"/>
       <c r="E2" s="165" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="F2" s="163"/>
       <c r="G2" s="163"/>
@@ -11150,7 +11220,7 @@
       <c r="AM2" s="9"/>
       <c r="AN2" s="9"/>
     </row>
-    <row r="3" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="107" t="s">
         <v>2</v>
       </c>
@@ -11194,7 +11264,7 @@
       <c r="AM3" s="9"/>
       <c r="AN3" s="9"/>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A4" s="22"/>
       <c r="B4" s="22"/>
       <c r="C4" s="22"/>
@@ -11236,7 +11306,7 @@
       <c r="AM4" s="22"/>
       <c r="AN4" s="22"/>
     </row>
-    <row r="5" spans="1:40" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -11280,7 +11350,7 @@
       <c r="AM5" s="11"/>
       <c r="AN5" s="11"/>
     </row>
-    <row r="6" spans="1:40" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -11322,7 +11392,7 @@
       <c r="AM6" s="11"/>
       <c r="AN6" s="11"/>
     </row>
-    <row r="7" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
         <v>17</v>
       </c>
@@ -11378,12 +11448,12 @@
       <c r="AM7" s="30"/>
       <c r="AN7" s="30"/>
     </row>
-    <row r="8" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="62">
         <v>1</v>
       </c>
       <c r="B8" s="139" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C8" s="140"/>
       <c r="D8" s="141">
@@ -11392,12 +11462,12 @@
       <c r="E8" s="142"/>
       <c r="F8" s="143"/>
       <c r="G8" s="139" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="H8" s="144"/>
       <c r="I8" s="140"/>
       <c r="J8" s="148" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="K8" s="146"/>
       <c r="L8" s="146"/>
@@ -11406,7 +11476,7 @@
       <c r="O8" s="146"/>
       <c r="P8" s="147"/>
       <c r="Q8" s="149" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="R8" s="150"/>
       <c r="S8" s="150"/>
@@ -11423,7 +11493,7 @@
       <c r="AD8" s="150"/>
       <c r="AE8" s="151"/>
       <c r="AF8" s="145" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="AG8" s="146"/>
       <c r="AH8" s="146"/>
@@ -11434,12 +11504,12 @@
       <c r="AM8" s="30"/>
       <c r="AN8" s="30"/>
     </row>
-    <row r="9" spans="1:40" s="17" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:40" s="17" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="62">
         <v>2</v>
       </c>
       <c r="B9" s="132" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="C9" s="130"/>
       <c r="D9" s="133">
@@ -11448,12 +11518,12 @@
       <c r="E9" s="134"/>
       <c r="F9" s="135"/>
       <c r="G9" s="132" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="H9" s="129"/>
       <c r="I9" s="130"/>
       <c r="J9" s="131" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="K9" s="105"/>
       <c r="L9" s="105"/>
@@ -11462,7 +11532,7 @@
       <c r="O9" s="105"/>
       <c r="P9" s="106"/>
       <c r="Q9" s="127" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="R9" s="116"/>
       <c r="S9" s="116"/>
@@ -11488,7 +11558,7 @@
       <c r="AM9" s="30"/>
       <c r="AN9" s="30"/>
     </row>
-    <row r="10" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="62"/>
       <c r="B10" s="128"/>
       <c r="C10" s="130"/>
@@ -11530,7 +11600,7 @@
       <c r="AM10" s="30"/>
       <c r="AN10" s="30"/>
     </row>
-    <row r="11" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="62"/>
       <c r="B11" s="128"/>
       <c r="C11" s="130"/>
@@ -11572,7 +11642,7 @@
       <c r="AM11" s="30"/>
       <c r="AN11" s="30"/>
     </row>
-    <row r="12" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="62"/>
       <c r="B12" s="128"/>
       <c r="C12" s="130"/>
@@ -11614,7 +11684,7 @@
       <c r="AM12" s="30"/>
       <c r="AN12" s="30"/>
     </row>
-    <row r="13" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="62"/>
       <c r="B13" s="128"/>
       <c r="C13" s="130"/>
@@ -11656,7 +11726,7 @@
       <c r="AM13" s="30"/>
       <c r="AN13" s="30"/>
     </row>
-    <row r="14" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="62"/>
       <c r="B14" s="128"/>
       <c r="C14" s="130"/>
@@ -11698,7 +11768,7 @@
       <c r="AM14" s="30"/>
       <c r="AN14" s="30"/>
     </row>
-    <row r="15" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="62"/>
       <c r="B15" s="128"/>
       <c r="C15" s="130"/>
@@ -11740,7 +11810,7 @@
       <c r="AM15" s="30"/>
       <c r="AN15" s="30"/>
     </row>
-    <row r="16" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="62"/>
       <c r="B16" s="128"/>
       <c r="C16" s="130"/>
@@ -11782,7 +11852,7 @@
       <c r="AM16" s="30"/>
       <c r="AN16" s="30"/>
     </row>
-    <row r="17" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="62"/>
       <c r="B17" s="128"/>
       <c r="C17" s="130"/>
@@ -11824,7 +11894,7 @@
       <c r="AM17" s="30"/>
       <c r="AN17" s="30"/>
     </row>
-    <row r="18" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="62"/>
       <c r="B18" s="128"/>
       <c r="C18" s="130"/>
@@ -11866,7 +11936,7 @@
       <c r="AM18" s="30"/>
       <c r="AN18" s="30"/>
     </row>
-    <row r="19" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="62"/>
       <c r="B19" s="128"/>
       <c r="C19" s="130"/>
@@ -11908,7 +11978,7 @@
       <c r="AM19" s="30"/>
       <c r="AN19" s="30"/>
     </row>
-    <row r="20" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="62"/>
       <c r="B20" s="128"/>
       <c r="C20" s="130"/>
@@ -11950,7 +12020,7 @@
       <c r="AM20" s="30"/>
       <c r="AN20" s="30"/>
     </row>
-    <row r="21" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="62"/>
       <c r="B21" s="128"/>
       <c r="C21" s="130"/>
@@ -11992,7 +12062,7 @@
       <c r="AM21" s="30"/>
       <c r="AN21" s="30"/>
     </row>
-    <row r="22" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="62"/>
       <c r="B22" s="128"/>
       <c r="C22" s="130"/>
@@ -12034,7 +12104,7 @@
       <c r="AM22" s="30"/>
       <c r="AN22" s="30"/>
     </row>
-    <row r="23" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="62"/>
       <c r="B23" s="128"/>
       <c r="C23" s="130"/>
@@ -12076,7 +12146,7 @@
       <c r="AM23" s="30"/>
       <c r="AN23" s="30"/>
     </row>
-    <row r="24" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="62"/>
       <c r="B24" s="128"/>
       <c r="C24" s="130"/>
@@ -12118,7 +12188,7 @@
       <c r="AM24" s="30"/>
       <c r="AN24" s="30"/>
     </row>
-    <row r="25" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="62"/>
       <c r="B25" s="128"/>
       <c r="C25" s="130"/>
@@ -12160,7 +12230,7 @@
       <c r="AM25" s="30"/>
       <c r="AN25" s="30"/>
     </row>
-    <row r="26" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="62"/>
       <c r="B26" s="128"/>
       <c r="C26" s="130"/>
@@ -12202,7 +12272,7 @@
       <c r="AM26" s="30"/>
       <c r="AN26" s="30"/>
     </row>
-    <row r="27" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="62"/>
       <c r="B27" s="128"/>
       <c r="C27" s="130"/>
@@ -12244,7 +12314,7 @@
       <c r="AM27" s="30"/>
       <c r="AN27" s="30"/>
     </row>
-    <row r="28" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="62"/>
       <c r="B28" s="128"/>
       <c r="C28" s="130"/>
@@ -12286,7 +12356,7 @@
       <c r="AM28" s="30"/>
       <c r="AN28" s="30"/>
     </row>
-    <row r="29" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="62"/>
       <c r="B29" s="128"/>
       <c r="C29" s="130"/>
@@ -12328,7 +12398,7 @@
       <c r="AM29" s="30"/>
       <c r="AN29" s="30"/>
     </row>
-    <row r="30" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="62"/>
       <c r="B30" s="128"/>
       <c r="C30" s="130"/>
@@ -12370,7 +12440,7 @@
       <c r="AM30" s="30"/>
       <c r="AN30" s="30"/>
     </row>
-    <row r="31" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="62"/>
       <c r="B31" s="128"/>
       <c r="C31" s="130"/>
@@ -12412,7 +12482,7 @@
       <c r="AM31" s="30"/>
       <c r="AN31" s="30"/>
     </row>
-    <row r="32" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="62"/>
       <c r="B32" s="128"/>
       <c r="C32" s="130"/>
@@ -12454,7 +12524,7 @@
       <c r="AM32" s="30"/>
       <c r="AN32" s="30"/>
     </row>
-    <row r="33" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="62"/>
       <c r="B33" s="128"/>
       <c r="C33" s="130"/>
@@ -12496,7 +12566,7 @@
       <c r="AM33" s="30"/>
       <c r="AN33" s="30"/>
     </row>
-    <row r="34" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="22"/>
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
@@ -12538,7 +12608,7 @@
       <c r="AM34" s="30"/>
       <c r="AN34" s="30"/>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A35" s="22"/>
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
@@ -12780,142 +12850,142 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16" width="4.77734375" style="43" customWidth="1"/>
-    <col min="17" max="17" width="4.77734375" style="54" customWidth="1"/>
-    <col min="18" max="33" width="4.77734375" style="43" customWidth="1"/>
-    <col min="34" max="34" width="4.77734375" style="54" customWidth="1"/>
-    <col min="35" max="256" width="4.77734375" style="43"/>
-    <col min="257" max="290" width="4.77734375" style="43" customWidth="1"/>
-    <col min="291" max="512" width="4.77734375" style="43"/>
-    <col min="513" max="546" width="4.77734375" style="43" customWidth="1"/>
-    <col min="547" max="768" width="4.77734375" style="43"/>
-    <col min="769" max="802" width="4.77734375" style="43" customWidth="1"/>
-    <col min="803" max="1024" width="4.77734375" style="43"/>
-    <col min="1025" max="1058" width="4.77734375" style="43" customWidth="1"/>
-    <col min="1059" max="1280" width="4.77734375" style="43"/>
-    <col min="1281" max="1314" width="4.77734375" style="43" customWidth="1"/>
-    <col min="1315" max="1536" width="4.77734375" style="43"/>
-    <col min="1537" max="1570" width="4.77734375" style="43" customWidth="1"/>
-    <col min="1571" max="1792" width="4.77734375" style="43"/>
-    <col min="1793" max="1826" width="4.77734375" style="43" customWidth="1"/>
-    <col min="1827" max="2048" width="4.77734375" style="43"/>
-    <col min="2049" max="2082" width="4.77734375" style="43" customWidth="1"/>
-    <col min="2083" max="2304" width="4.77734375" style="43"/>
-    <col min="2305" max="2338" width="4.77734375" style="43" customWidth="1"/>
-    <col min="2339" max="2560" width="4.77734375" style="43"/>
-    <col min="2561" max="2594" width="4.77734375" style="43" customWidth="1"/>
-    <col min="2595" max="2816" width="4.77734375" style="43"/>
-    <col min="2817" max="2850" width="4.77734375" style="43" customWidth="1"/>
-    <col min="2851" max="3072" width="4.77734375" style="43"/>
-    <col min="3073" max="3106" width="4.77734375" style="43" customWidth="1"/>
-    <col min="3107" max="3328" width="4.77734375" style="43"/>
-    <col min="3329" max="3362" width="4.77734375" style="43" customWidth="1"/>
-    <col min="3363" max="3584" width="4.77734375" style="43"/>
-    <col min="3585" max="3618" width="4.77734375" style="43" customWidth="1"/>
-    <col min="3619" max="3840" width="4.77734375" style="43"/>
-    <col min="3841" max="3874" width="4.77734375" style="43" customWidth="1"/>
-    <col min="3875" max="4096" width="4.77734375" style="43"/>
-    <col min="4097" max="4130" width="4.77734375" style="43" customWidth="1"/>
-    <col min="4131" max="4352" width="4.77734375" style="43"/>
-    <col min="4353" max="4386" width="4.77734375" style="43" customWidth="1"/>
-    <col min="4387" max="4608" width="4.77734375" style="43"/>
-    <col min="4609" max="4642" width="4.77734375" style="43" customWidth="1"/>
-    <col min="4643" max="4864" width="4.77734375" style="43"/>
-    <col min="4865" max="4898" width="4.77734375" style="43" customWidth="1"/>
-    <col min="4899" max="5120" width="4.77734375" style="43"/>
-    <col min="5121" max="5154" width="4.77734375" style="43" customWidth="1"/>
-    <col min="5155" max="5376" width="4.77734375" style="43"/>
-    <col min="5377" max="5410" width="4.77734375" style="43" customWidth="1"/>
-    <col min="5411" max="5632" width="4.77734375" style="43"/>
-    <col min="5633" max="5666" width="4.77734375" style="43" customWidth="1"/>
-    <col min="5667" max="5888" width="4.77734375" style="43"/>
-    <col min="5889" max="5922" width="4.77734375" style="43" customWidth="1"/>
-    <col min="5923" max="6144" width="4.77734375" style="43"/>
-    <col min="6145" max="6178" width="4.77734375" style="43" customWidth="1"/>
-    <col min="6179" max="6400" width="4.77734375" style="43"/>
-    <col min="6401" max="6434" width="4.77734375" style="43" customWidth="1"/>
-    <col min="6435" max="6656" width="4.77734375" style="43"/>
-    <col min="6657" max="6690" width="4.77734375" style="43" customWidth="1"/>
-    <col min="6691" max="6912" width="4.77734375" style="43"/>
-    <col min="6913" max="6946" width="4.77734375" style="43" customWidth="1"/>
-    <col min="6947" max="7168" width="4.77734375" style="43"/>
-    <col min="7169" max="7202" width="4.77734375" style="43" customWidth="1"/>
-    <col min="7203" max="7424" width="4.77734375" style="43"/>
-    <col min="7425" max="7458" width="4.77734375" style="43" customWidth="1"/>
-    <col min="7459" max="7680" width="4.77734375" style="43"/>
-    <col min="7681" max="7714" width="4.77734375" style="43" customWidth="1"/>
-    <col min="7715" max="7936" width="4.77734375" style="43"/>
-    <col min="7937" max="7970" width="4.77734375" style="43" customWidth="1"/>
-    <col min="7971" max="8192" width="4.77734375" style="43"/>
-    <col min="8193" max="8226" width="4.77734375" style="43" customWidth="1"/>
-    <col min="8227" max="8448" width="4.77734375" style="43"/>
-    <col min="8449" max="8482" width="4.77734375" style="43" customWidth="1"/>
-    <col min="8483" max="8704" width="4.77734375" style="43"/>
-    <col min="8705" max="8738" width="4.77734375" style="43" customWidth="1"/>
-    <col min="8739" max="8960" width="4.77734375" style="43"/>
-    <col min="8961" max="8994" width="4.77734375" style="43" customWidth="1"/>
-    <col min="8995" max="9216" width="4.77734375" style="43"/>
-    <col min="9217" max="9250" width="4.77734375" style="43" customWidth="1"/>
-    <col min="9251" max="9472" width="4.77734375" style="43"/>
-    <col min="9473" max="9506" width="4.77734375" style="43" customWidth="1"/>
-    <col min="9507" max="9728" width="4.77734375" style="43"/>
-    <col min="9729" max="9762" width="4.77734375" style="43" customWidth="1"/>
-    <col min="9763" max="9984" width="4.77734375" style="43"/>
-    <col min="9985" max="10018" width="4.77734375" style="43" customWidth="1"/>
-    <col min="10019" max="10240" width="4.77734375" style="43"/>
-    <col min="10241" max="10274" width="4.77734375" style="43" customWidth="1"/>
-    <col min="10275" max="10496" width="4.77734375" style="43"/>
-    <col min="10497" max="10530" width="4.77734375" style="43" customWidth="1"/>
-    <col min="10531" max="10752" width="4.77734375" style="43"/>
-    <col min="10753" max="10786" width="4.77734375" style="43" customWidth="1"/>
-    <col min="10787" max="11008" width="4.77734375" style="43"/>
-    <col min="11009" max="11042" width="4.77734375" style="43" customWidth="1"/>
-    <col min="11043" max="11264" width="4.77734375" style="43"/>
-    <col min="11265" max="11298" width="4.77734375" style="43" customWidth="1"/>
-    <col min="11299" max="11520" width="4.77734375" style="43"/>
-    <col min="11521" max="11554" width="4.77734375" style="43" customWidth="1"/>
-    <col min="11555" max="11776" width="4.77734375" style="43"/>
-    <col min="11777" max="11810" width="4.77734375" style="43" customWidth="1"/>
-    <col min="11811" max="12032" width="4.77734375" style="43"/>
-    <col min="12033" max="12066" width="4.77734375" style="43" customWidth="1"/>
-    <col min="12067" max="12288" width="4.77734375" style="43"/>
-    <col min="12289" max="12322" width="4.77734375" style="43" customWidth="1"/>
-    <col min="12323" max="12544" width="4.77734375" style="43"/>
-    <col min="12545" max="12578" width="4.77734375" style="43" customWidth="1"/>
-    <col min="12579" max="12800" width="4.77734375" style="43"/>
-    <col min="12801" max="12834" width="4.77734375" style="43" customWidth="1"/>
-    <col min="12835" max="13056" width="4.77734375" style="43"/>
-    <col min="13057" max="13090" width="4.77734375" style="43" customWidth="1"/>
-    <col min="13091" max="13312" width="4.77734375" style="43"/>
-    <col min="13313" max="13346" width="4.77734375" style="43" customWidth="1"/>
-    <col min="13347" max="13568" width="4.77734375" style="43"/>
-    <col min="13569" max="13602" width="4.77734375" style="43" customWidth="1"/>
-    <col min="13603" max="13824" width="4.77734375" style="43"/>
-    <col min="13825" max="13858" width="4.77734375" style="43" customWidth="1"/>
-    <col min="13859" max="14080" width="4.77734375" style="43"/>
-    <col min="14081" max="14114" width="4.77734375" style="43" customWidth="1"/>
-    <col min="14115" max="14336" width="4.77734375" style="43"/>
-    <col min="14337" max="14370" width="4.77734375" style="43" customWidth="1"/>
-    <col min="14371" max="14592" width="4.77734375" style="43"/>
-    <col min="14593" max="14626" width="4.77734375" style="43" customWidth="1"/>
-    <col min="14627" max="14848" width="4.77734375" style="43"/>
-    <col min="14849" max="14882" width="4.77734375" style="43" customWidth="1"/>
-    <col min="14883" max="15104" width="4.77734375" style="43"/>
-    <col min="15105" max="15138" width="4.77734375" style="43" customWidth="1"/>
-    <col min="15139" max="15360" width="4.77734375" style="43"/>
-    <col min="15361" max="15394" width="4.77734375" style="43" customWidth="1"/>
-    <col min="15395" max="15616" width="4.77734375" style="43"/>
-    <col min="15617" max="15650" width="4.77734375" style="43" customWidth="1"/>
-    <col min="15651" max="15872" width="4.77734375" style="43"/>
-    <col min="15873" max="15906" width="4.77734375" style="43" customWidth="1"/>
-    <col min="15907" max="16128" width="4.77734375" style="43"/>
-    <col min="16129" max="16162" width="4.77734375" style="43" customWidth="1"/>
-    <col min="16163" max="16384" width="4.77734375" style="43"/>
+    <col min="1" max="16" width="4.83203125" style="43" customWidth="1"/>
+    <col min="17" max="17" width="4.83203125" style="54" customWidth="1"/>
+    <col min="18" max="33" width="4.83203125" style="43" customWidth="1"/>
+    <col min="34" max="34" width="4.83203125" style="54" customWidth="1"/>
+    <col min="35" max="256" width="4.83203125" style="43"/>
+    <col min="257" max="290" width="4.83203125" style="43" customWidth="1"/>
+    <col min="291" max="512" width="4.83203125" style="43"/>
+    <col min="513" max="546" width="4.83203125" style="43" customWidth="1"/>
+    <col min="547" max="768" width="4.83203125" style="43"/>
+    <col min="769" max="802" width="4.83203125" style="43" customWidth="1"/>
+    <col min="803" max="1024" width="4.83203125" style="43"/>
+    <col min="1025" max="1058" width="4.83203125" style="43" customWidth="1"/>
+    <col min="1059" max="1280" width="4.83203125" style="43"/>
+    <col min="1281" max="1314" width="4.83203125" style="43" customWidth="1"/>
+    <col min="1315" max="1536" width="4.83203125" style="43"/>
+    <col min="1537" max="1570" width="4.83203125" style="43" customWidth="1"/>
+    <col min="1571" max="1792" width="4.83203125" style="43"/>
+    <col min="1793" max="1826" width="4.83203125" style="43" customWidth="1"/>
+    <col min="1827" max="2048" width="4.83203125" style="43"/>
+    <col min="2049" max="2082" width="4.83203125" style="43" customWidth="1"/>
+    <col min="2083" max="2304" width="4.83203125" style="43"/>
+    <col min="2305" max="2338" width="4.83203125" style="43" customWidth="1"/>
+    <col min="2339" max="2560" width="4.83203125" style="43"/>
+    <col min="2561" max="2594" width="4.83203125" style="43" customWidth="1"/>
+    <col min="2595" max="2816" width="4.83203125" style="43"/>
+    <col min="2817" max="2850" width="4.83203125" style="43" customWidth="1"/>
+    <col min="2851" max="3072" width="4.83203125" style="43"/>
+    <col min="3073" max="3106" width="4.83203125" style="43" customWidth="1"/>
+    <col min="3107" max="3328" width="4.83203125" style="43"/>
+    <col min="3329" max="3362" width="4.83203125" style="43" customWidth="1"/>
+    <col min="3363" max="3584" width="4.83203125" style="43"/>
+    <col min="3585" max="3618" width="4.83203125" style="43" customWidth="1"/>
+    <col min="3619" max="3840" width="4.83203125" style="43"/>
+    <col min="3841" max="3874" width="4.83203125" style="43" customWidth="1"/>
+    <col min="3875" max="4096" width="4.83203125" style="43"/>
+    <col min="4097" max="4130" width="4.83203125" style="43" customWidth="1"/>
+    <col min="4131" max="4352" width="4.83203125" style="43"/>
+    <col min="4353" max="4386" width="4.83203125" style="43" customWidth="1"/>
+    <col min="4387" max="4608" width="4.83203125" style="43"/>
+    <col min="4609" max="4642" width="4.83203125" style="43" customWidth="1"/>
+    <col min="4643" max="4864" width="4.83203125" style="43"/>
+    <col min="4865" max="4898" width="4.83203125" style="43" customWidth="1"/>
+    <col min="4899" max="5120" width="4.83203125" style="43"/>
+    <col min="5121" max="5154" width="4.83203125" style="43" customWidth="1"/>
+    <col min="5155" max="5376" width="4.83203125" style="43"/>
+    <col min="5377" max="5410" width="4.83203125" style="43" customWidth="1"/>
+    <col min="5411" max="5632" width="4.83203125" style="43"/>
+    <col min="5633" max="5666" width="4.83203125" style="43" customWidth="1"/>
+    <col min="5667" max="5888" width="4.83203125" style="43"/>
+    <col min="5889" max="5922" width="4.83203125" style="43" customWidth="1"/>
+    <col min="5923" max="6144" width="4.83203125" style="43"/>
+    <col min="6145" max="6178" width="4.83203125" style="43" customWidth="1"/>
+    <col min="6179" max="6400" width="4.83203125" style="43"/>
+    <col min="6401" max="6434" width="4.83203125" style="43" customWidth="1"/>
+    <col min="6435" max="6656" width="4.83203125" style="43"/>
+    <col min="6657" max="6690" width="4.83203125" style="43" customWidth="1"/>
+    <col min="6691" max="6912" width="4.83203125" style="43"/>
+    <col min="6913" max="6946" width="4.83203125" style="43" customWidth="1"/>
+    <col min="6947" max="7168" width="4.83203125" style="43"/>
+    <col min="7169" max="7202" width="4.83203125" style="43" customWidth="1"/>
+    <col min="7203" max="7424" width="4.83203125" style="43"/>
+    <col min="7425" max="7458" width="4.83203125" style="43" customWidth="1"/>
+    <col min="7459" max="7680" width="4.83203125" style="43"/>
+    <col min="7681" max="7714" width="4.83203125" style="43" customWidth="1"/>
+    <col min="7715" max="7936" width="4.83203125" style="43"/>
+    <col min="7937" max="7970" width="4.83203125" style="43" customWidth="1"/>
+    <col min="7971" max="8192" width="4.83203125" style="43"/>
+    <col min="8193" max="8226" width="4.83203125" style="43" customWidth="1"/>
+    <col min="8227" max="8448" width="4.83203125" style="43"/>
+    <col min="8449" max="8482" width="4.83203125" style="43" customWidth="1"/>
+    <col min="8483" max="8704" width="4.83203125" style="43"/>
+    <col min="8705" max="8738" width="4.83203125" style="43" customWidth="1"/>
+    <col min="8739" max="8960" width="4.83203125" style="43"/>
+    <col min="8961" max="8994" width="4.83203125" style="43" customWidth="1"/>
+    <col min="8995" max="9216" width="4.83203125" style="43"/>
+    <col min="9217" max="9250" width="4.83203125" style="43" customWidth="1"/>
+    <col min="9251" max="9472" width="4.83203125" style="43"/>
+    <col min="9473" max="9506" width="4.83203125" style="43" customWidth="1"/>
+    <col min="9507" max="9728" width="4.83203125" style="43"/>
+    <col min="9729" max="9762" width="4.83203125" style="43" customWidth="1"/>
+    <col min="9763" max="9984" width="4.83203125" style="43"/>
+    <col min="9985" max="10018" width="4.83203125" style="43" customWidth="1"/>
+    <col min="10019" max="10240" width="4.83203125" style="43"/>
+    <col min="10241" max="10274" width="4.83203125" style="43" customWidth="1"/>
+    <col min="10275" max="10496" width="4.83203125" style="43"/>
+    <col min="10497" max="10530" width="4.83203125" style="43" customWidth="1"/>
+    <col min="10531" max="10752" width="4.83203125" style="43"/>
+    <col min="10753" max="10786" width="4.83203125" style="43" customWidth="1"/>
+    <col min="10787" max="11008" width="4.83203125" style="43"/>
+    <col min="11009" max="11042" width="4.83203125" style="43" customWidth="1"/>
+    <col min="11043" max="11264" width="4.83203125" style="43"/>
+    <col min="11265" max="11298" width="4.83203125" style="43" customWidth="1"/>
+    <col min="11299" max="11520" width="4.83203125" style="43"/>
+    <col min="11521" max="11554" width="4.83203125" style="43" customWidth="1"/>
+    <col min="11555" max="11776" width="4.83203125" style="43"/>
+    <col min="11777" max="11810" width="4.83203125" style="43" customWidth="1"/>
+    <col min="11811" max="12032" width="4.83203125" style="43"/>
+    <col min="12033" max="12066" width="4.83203125" style="43" customWidth="1"/>
+    <col min="12067" max="12288" width="4.83203125" style="43"/>
+    <col min="12289" max="12322" width="4.83203125" style="43" customWidth="1"/>
+    <col min="12323" max="12544" width="4.83203125" style="43"/>
+    <col min="12545" max="12578" width="4.83203125" style="43" customWidth="1"/>
+    <col min="12579" max="12800" width="4.83203125" style="43"/>
+    <col min="12801" max="12834" width="4.83203125" style="43" customWidth="1"/>
+    <col min="12835" max="13056" width="4.83203125" style="43"/>
+    <col min="13057" max="13090" width="4.83203125" style="43" customWidth="1"/>
+    <col min="13091" max="13312" width="4.83203125" style="43"/>
+    <col min="13313" max="13346" width="4.83203125" style="43" customWidth="1"/>
+    <col min="13347" max="13568" width="4.83203125" style="43"/>
+    <col min="13569" max="13602" width="4.83203125" style="43" customWidth="1"/>
+    <col min="13603" max="13824" width="4.83203125" style="43"/>
+    <col min="13825" max="13858" width="4.83203125" style="43" customWidth="1"/>
+    <col min="13859" max="14080" width="4.83203125" style="43"/>
+    <col min="14081" max="14114" width="4.83203125" style="43" customWidth="1"/>
+    <col min="14115" max="14336" width="4.83203125" style="43"/>
+    <col min="14337" max="14370" width="4.83203125" style="43" customWidth="1"/>
+    <col min="14371" max="14592" width="4.83203125" style="43"/>
+    <col min="14593" max="14626" width="4.83203125" style="43" customWidth="1"/>
+    <col min="14627" max="14848" width="4.83203125" style="43"/>
+    <col min="14849" max="14882" width="4.83203125" style="43" customWidth="1"/>
+    <col min="14883" max="15104" width="4.83203125" style="43"/>
+    <col min="15105" max="15138" width="4.83203125" style="43" customWidth="1"/>
+    <col min="15139" max="15360" width="4.83203125" style="43"/>
+    <col min="15361" max="15394" width="4.83203125" style="43" customWidth="1"/>
+    <col min="15395" max="15616" width="4.83203125" style="43"/>
+    <col min="15617" max="15650" width="4.83203125" style="43" customWidth="1"/>
+    <col min="15651" max="15872" width="4.83203125" style="43"/>
+    <col min="15873" max="15906" width="4.83203125" style="43" customWidth="1"/>
+    <col min="15907" max="16128" width="4.83203125" style="43"/>
+    <col min="16129" max="16162" width="4.83203125" style="43" customWidth="1"/>
+    <col min="16163" max="16384" width="4.83203125" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="11" customFormat="1" ht="11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A1" s="172" t="s">
         <v>0</v>
       </c>
@@ -12970,7 +13040,7 @@
       <c r="AH1" s="170"/>
       <c r="AI1" s="171"/>
     </row>
-    <row r="2" spans="1:35" s="11" customFormat="1" ht="11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A2" s="172" t="s">
         <v>1</v>
       </c>
@@ -13020,7 +13090,7 @@
       <c r="AH2" s="170"/>
       <c r="AI2" s="171"/>
     </row>
-    <row r="3" spans="1:35" s="11" customFormat="1" ht="11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A3" s="172" t="s">
         <v>2</v>
       </c>
@@ -13068,7 +13138,7 @@
       <c r="AH3" s="170"/>
       <c r="AI3" s="171"/>
     </row>
-    <row r="4" spans="1:35" s="39" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" s="39" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="22"/>
       <c r="B4" s="22"/>
       <c r="C4" s="22"/>
@@ -13105,7 +13175,7 @@
       <c r="AH4" s="22"/>
       <c r="AI4" s="22"/>
     </row>
-    <row r="5" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="22"/>
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
@@ -13144,7 +13214,7 @@
       <c r="AH5" s="22"/>
       <c r="AI5" s="22"/>
     </row>
-    <row r="6" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="22"/>
       <c r="B6" s="22"/>
       <c r="C6" s="22"/>
@@ -13181,7 +13251,7 @@
       <c r="AH6" s="22"/>
       <c r="AI6" s="22"/>
     </row>
-    <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="22"/>
       <c r="B7" s="40" t="s">
         <v>55</v>
@@ -13214,7 +13284,7 @@
       <c r="AH7" s="42"/>
       <c r="AI7" s="22"/>
     </row>
-    <row r="8" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="22"/>
       <c r="B8" s="22"/>
       <c r="C8" s="40"/>
@@ -13245,7 +13315,7 @@
       <c r="AH8" s="42"/>
       <c r="AI8" s="22"/>
     </row>
-    <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="22"/>
       <c r="B9" t="s">
         <v>61</v>
@@ -13274,7 +13344,7 @@
       <c r="AH9" s="42"/>
       <c r="AI9" s="22"/>
     </row>
-    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="22"/>
       <c r="B10" s="22"/>
       <c r="C10" s="20" t="s">
@@ -13307,7 +13377,7 @@
       <c r="AH10" s="42"/>
       <c r="AI10" s="22"/>
     </row>
-    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="22"/>
       <c r="B11" s="40"/>
       <c r="C11" s="20" t="s">
@@ -13346,7 +13416,7 @@
       <c r="AH11" s="42"/>
       <c r="AI11" s="22"/>
     </row>
-    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="22"/>
       <c r="P12" s="38"/>
       <c r="Q12" s="22"/>
@@ -13369,7 +13439,7 @@
       <c r="AH12" s="42"/>
       <c r="AI12" s="22"/>
     </row>
-    <row r="13" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="22"/>
       <c r="B13" s="40"/>
       <c r="C13" s="40"/>
@@ -13406,7 +13476,7 @@
       <c r="AH13" s="42"/>
       <c r="AI13" s="22"/>
     </row>
-    <row r="14" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="22"/>
       <c r="C14"/>
       <c r="O14" s="22"/>
@@ -13431,7 +13501,7 @@
       <c r="AH14" s="42"/>
       <c r="AI14" s="22"/>
     </row>
-    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="22"/>
       <c r="B15" s="22"/>
       <c r="C15"/>
@@ -13468,7 +13538,7 @@
       <c r="AH15" s="42"/>
       <c r="AI15" s="22"/>
     </row>
-    <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="22"/>
       <c r="B16" s="22"/>
       <c r="C16"/>
@@ -13505,7 +13575,7 @@
       <c r="AH16" s="42"/>
       <c r="AI16" s="22"/>
     </row>
-    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="22"/>
       <c r="C17"/>
       <c r="D17"/>
@@ -13540,7 +13610,7 @@
       <c r="AH17" s="42"/>
       <c r="AI17" s="22"/>
     </row>
-    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="22"/>
       <c r="D18"/>
       <c r="E18" s="22"/>
@@ -13562,7 +13632,7 @@
       <c r="AH18" s="42"/>
       <c r="AI18" s="22"/>
     </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="22"/>
       <c r="N19" s="41"/>
       <c r="P19" s="40"/>
@@ -13582,7 +13652,7 @@
       <c r="AH19" s="42"/>
       <c r="AI19" s="22"/>
     </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="22"/>
       <c r="U20" s="22"/>
       <c r="V20" s="22"/>
@@ -13600,7 +13670,7 @@
       <c r="AH20" s="42"/>
       <c r="AI20" s="22"/>
     </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="22"/>
       <c r="U21" s="22"/>
       <c r="V21" s="22"/>
@@ -13618,7 +13688,7 @@
       <c r="AH21" s="42"/>
       <c r="AI21" s="22"/>
     </row>
-    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="22"/>
       <c r="U22" s="22"/>
       <c r="V22" s="22"/>
@@ -13636,7 +13706,7 @@
       <c r="AH22" s="42"/>
       <c r="AI22" s="22"/>
     </row>
-    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="22"/>
       <c r="U23" s="22"/>
       <c r="V23" s="22"/>
@@ -13654,7 +13724,7 @@
       <c r="AH23" s="42"/>
       <c r="AI23" s="22"/>
     </row>
-    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="22"/>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
@@ -13689,7 +13759,7 @@
       <c r="AH24" s="42"/>
       <c r="AI24" s="22"/>
     </row>
-    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="22"/>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
@@ -13726,7 +13796,7 @@
       <c r="AH25" s="42"/>
       <c r="AI25" s="22"/>
     </row>
-    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="22"/>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
@@ -13763,7 +13833,7 @@
       <c r="AH26" s="42"/>
       <c r="AI26" s="22"/>
     </row>
-    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="22"/>
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
@@ -13800,7 +13870,7 @@
       <c r="AH27" s="42"/>
       <c r="AI27" s="22"/>
     </row>
-    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="22"/>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
@@ -13837,7 +13907,7 @@
       <c r="AH28" s="42"/>
       <c r="AI28" s="22"/>
     </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="22"/>
       <c r="B29" s="22"/>
       <c r="C29" s="22"/>
@@ -13874,7 +13944,7 @@
       <c r="AH29" s="42"/>
       <c r="AI29" s="22"/>
     </row>
-    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="45"/>
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
@@ -13911,7 +13981,7 @@
       <c r="AH30" s="47"/>
       <c r="AI30" s="45"/>
     </row>
-    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="45"/>
       <c r="B31" s="22"/>
       <c r="C31" s="38"/>
@@ -13948,7 +14018,7 @@
       <c r="AH31" s="47"/>
       <c r="AI31" s="45"/>
     </row>
-    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="45"/>
       <c r="B32" s="45"/>
       <c r="C32" s="22"/>
@@ -13985,7 +14055,7 @@
       <c r="AH32" s="47"/>
       <c r="AI32" s="45"/>
     </row>
-    <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="45"/>
       <c r="B33" s="45"/>
       <c r="C33" s="22"/>
@@ -14022,7 +14092,7 @@
       <c r="AH33" s="47"/>
       <c r="AI33" s="45"/>
     </row>
-    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="45"/>
       <c r="B34" s="45"/>
       <c r="C34" s="22"/>
@@ -14059,7 +14129,7 @@
       <c r="AH34" s="47"/>
       <c r="AI34" s="45"/>
     </row>
-    <row r="35" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="45"/>
       <c r="B35" s="45"/>
       <c r="C35" s="22"/>
@@ -14096,7 +14166,7 @@
       <c r="AH35" s="47"/>
       <c r="AI35" s="45"/>
     </row>
-    <row r="36" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="45"/>
       <c r="B36" s="45"/>
       <c r="C36" s="45"/>
@@ -14133,50 +14203,50 @@
       <c r="AH36" s="47"/>
       <c r="AI36" s="45"/>
     </row>
-    <row r="37" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P37" s="53"/>
       <c r="U37" s="55"/>
       <c r="AG37" s="56"/>
     </row>
-    <row r="38" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="U38" s="55"/>
       <c r="AF38" s="56"/>
       <c r="AG38" s="53"/>
     </row>
-    <row r="39" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="T39" s="55"/>
       <c r="AF39" s="56"/>
       <c r="AG39" s="56"/>
     </row>
-    <row r="40" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AG40" s="53"/>
     </row>
-    <row r="41" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AG41" s="53"/>
     </row>
-    <row r="42" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AF42" s="56"/>
       <c r="AG42" s="53"/>
     </row>
-    <row r="43" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AF43" s="56"/>
       <c r="AG43" s="56"/>
     </row>
-    <row r="44" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AF44" s="56"/>
       <c r="AG44" s="56"/>
     </row>
-    <row r="45" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AG45" s="56"/>
     </row>
-    <row r="46" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AF46" s="56"/>
       <c r="AG46" s="56"/>
     </row>
-    <row r="47" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AG47" s="56"/>
     </row>
-    <row r="49" spans="33:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="33:33" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AG49" s="56"/>
     </row>
   </sheetData>
@@ -14219,14 +14289,14 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="11" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="32" width="4.77734375" style="22"/>
-    <col min="33" max="35" width="4.77734375" style="22" customWidth="1"/>
-    <col min="36" max="16384" width="4.77734375" style="22"/>
+    <col min="1" max="32" width="4.83203125" style="22"/>
+    <col min="33" max="35" width="4.83203125" style="22" customWidth="1"/>
+    <col min="36" max="16384" width="4.83203125" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="172" t="s">
         <v>0</v>
       </c>
@@ -14247,7 +14317,7 @@
       <c r="M1" s="163"/>
       <c r="N1" s="164"/>
       <c r="O1" s="153" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="P1" s="154"/>
       <c r="Q1" s="154"/>
@@ -14281,7 +14351,7 @@
       <c r="AH1" s="170"/>
       <c r="AI1" s="171"/>
     </row>
-    <row r="2" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="107" t="s">
         <v>1</v>
       </c>
@@ -14331,7 +14401,7 @@
       <c r="AH2" s="170"/>
       <c r="AI2" s="171"/>
     </row>
-    <row r="3" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="107" t="s">
         <v>2</v>
       </c>
@@ -14379,37 +14449,37 @@
       <c r="AH3" s="170"/>
       <c r="AI3" s="171"/>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B5"/>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.15">
       <c r="C8" s="22" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.15">
       <c r="C13" s="22" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.15">
       <c r="C15" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="17" spans="3:33" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="3:33" x14ac:dyDescent="0.15">
       <c r="D17" s="195" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="E17" s="195"/>
       <c r="F17" s="195"/>
@@ -14443,9 +14513,9 @@
       <c r="AF17" s="195"/>
       <c r="AG17" s="195"/>
     </row>
-    <row r="18" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:33" x14ac:dyDescent="0.15">
       <c r="D18" s="193" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="E18" s="193"/>
       <c r="F18" s="193"/>
@@ -14454,7 +14524,7 @@
       <c r="I18" s="193"/>
       <c r="J18" s="193"/>
       <c r="K18" s="193" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="L18" s="193"/>
       <c r="M18" s="193"/>
@@ -14479,9 +14549,9 @@
       <c r="AF18" s="193"/>
       <c r="AG18" s="193"/>
     </row>
-    <row r="19" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:33" x14ac:dyDescent="0.15">
       <c r="D19" s="196" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="E19" s="196"/>
       <c r="F19" s="196"/>
@@ -14490,7 +14560,7 @@
       <c r="I19" s="196"/>
       <c r="J19" s="196"/>
       <c r="K19" s="198" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="L19" s="196"/>
       <c r="M19" s="196"/>
@@ -14515,7 +14585,7 @@
       <c r="AF19" s="196"/>
       <c r="AG19" s="196"/>
     </row>
-    <row r="20" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:33" x14ac:dyDescent="0.15">
       <c r="D20" s="194"/>
       <c r="E20" s="194"/>
       <c r="F20" s="194"/>
@@ -14524,7 +14594,7 @@
       <c r="I20" s="194"/>
       <c r="J20" s="194"/>
       <c r="K20" s="197" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="L20" s="194"/>
       <c r="M20" s="194"/>
@@ -14549,14 +14619,14 @@
       <c r="AF20" s="194"/>
       <c r="AG20" s="194"/>
     </row>
-    <row r="22" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:33" x14ac:dyDescent="0.15">
       <c r="C22" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="24" spans="3:33" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="3:33" x14ac:dyDescent="0.15">
       <c r="D24" s="195" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="E24" s="195"/>
       <c r="F24" s="195"/>
@@ -14590,9 +14660,9 @@
       <c r="AF24" s="195"/>
       <c r="AG24" s="195"/>
     </row>
-    <row r="25" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:33" x14ac:dyDescent="0.15">
       <c r="D25" s="193" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="E25" s="193"/>
       <c r="F25" s="193"/>
@@ -14601,7 +14671,7 @@
       <c r="I25" s="193"/>
       <c r="J25" s="193"/>
       <c r="K25" s="193" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="L25" s="193"/>
       <c r="M25" s="193"/>
@@ -14626,9 +14696,9 @@
       <c r="AF25" s="193"/>
       <c r="AG25" s="193"/>
     </row>
-    <row r="26" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:33" x14ac:dyDescent="0.15">
       <c r="D26" s="193" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="E26" s="193"/>
       <c r="F26" s="193"/>
@@ -14637,7 +14707,7 @@
       <c r="I26" s="193"/>
       <c r="J26" s="193"/>
       <c r="K26" s="193" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="L26" s="193"/>
       <c r="M26" s="193"/>
@@ -14662,9 +14732,9 @@
       <c r="AF26" s="193"/>
       <c r="AG26" s="193"/>
     </row>
-    <row r="27" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:33" x14ac:dyDescent="0.15">
       <c r="D27" s="193" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="E27" s="193"/>
       <c r="F27" s="193"/>
@@ -14673,7 +14743,7 @@
       <c r="I27" s="193"/>
       <c r="J27" s="193"/>
       <c r="K27" s="193" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="L27" s="193"/>
       <c r="M27" s="193"/>
@@ -14698,14 +14768,14 @@
       <c r="AF27" s="193"/>
       <c r="AG27" s="193"/>
     </row>
-    <row r="29" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:33" x14ac:dyDescent="0.15">
       <c r="C29" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="31" spans="3:33" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="31" spans="3:33" x14ac:dyDescent="0.15">
       <c r="D31" s="195" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="E31" s="195"/>
       <c r="F31" s="195"/>
@@ -14739,9 +14809,9 @@
       <c r="AF31" s="195"/>
       <c r="AG31" s="195"/>
     </row>
-    <row r="32" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:33" x14ac:dyDescent="0.15">
       <c r="D32" s="196" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="E32" s="196"/>
       <c r="F32" s="196"/>
@@ -14750,7 +14820,7 @@
       <c r="I32" s="196"/>
       <c r="J32" s="196"/>
       <c r="K32" s="196" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="L32" s="196"/>
       <c r="M32" s="196"/>
@@ -14775,7 +14845,7 @@
       <c r="AF32" s="196"/>
       <c r="AG32" s="196"/>
     </row>
-    <row r="33" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:33" x14ac:dyDescent="0.15">
       <c r="D33" s="194"/>
       <c r="E33" s="194"/>
       <c r="F33" s="194"/>
@@ -14784,7 +14854,7 @@
       <c r="I33" s="194"/>
       <c r="J33" s="194"/>
       <c r="K33" s="194" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="L33" s="194"/>
       <c r="M33" s="194"/>
@@ -14809,9 +14879,9 @@
       <c r="AF33" s="194"/>
       <c r="AG33" s="194"/>
     </row>
-    <row r="34" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:33" x14ac:dyDescent="0.15">
       <c r="D34" s="196" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="E34" s="196"/>
       <c r="F34" s="196"/>
@@ -14820,7 +14890,7 @@
       <c r="I34" s="196"/>
       <c r="J34" s="196"/>
       <c r="K34" s="196" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="L34" s="196"/>
       <c r="M34" s="196"/>
@@ -14845,7 +14915,7 @@
       <c r="AF34" s="196"/>
       <c r="AG34" s="196"/>
     </row>
-    <row r="35" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:33" x14ac:dyDescent="0.15">
       <c r="D35" s="194"/>
       <c r="E35" s="194"/>
       <c r="F35" s="194"/>
@@ -14854,7 +14924,7 @@
       <c r="I35" s="194"/>
       <c r="J35" s="194"/>
       <c r="K35" s="194" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="L35" s="194"/>
       <c r="M35" s="194"/>
@@ -14879,9 +14949,9 @@
       <c r="AF35" s="194"/>
       <c r="AG35" s="194"/>
     </row>
-    <row r="36" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D36" s="193" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="E36" s="193"/>
       <c r="F36" s="193"/>
@@ -14890,7 +14960,7 @@
       <c r="I36" s="193"/>
       <c r="J36" s="193"/>
       <c r="K36" s="193" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="L36" s="193"/>
       <c r="M36" s="193"/>
@@ -14915,14 +14985,14 @@
       <c r="AF36" s="193"/>
       <c r="AG36" s="193"/>
     </row>
-    <row r="38" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:33" x14ac:dyDescent="0.15">
       <c r="C38" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="40" spans="2:33" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="40" spans="2:33" x14ac:dyDescent="0.15">
       <c r="D40" s="195" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="E40" s="195"/>
       <c r="F40" s="195"/>
@@ -14956,7 +15026,7 @@
       <c r="AF40" s="195"/>
       <c r="AG40" s="195"/>
     </row>
-    <row r="41" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:33" x14ac:dyDescent="0.15">
       <c r="D41" s="193" t="s">
         <v>60</v>
       </c>
@@ -14967,7 +15037,7 @@
       <c r="I41" s="193"/>
       <c r="J41" s="193"/>
       <c r="K41" s="193" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="L41" s="193"/>
       <c r="M41" s="193"/>
@@ -14992,7 +15062,7 @@
       <c r="AF41" s="193"/>
       <c r="AG41" s="193"/>
     </row>
-    <row r="42" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:33" x14ac:dyDescent="0.15">
       <c r="D42" s="43"/>
       <c r="E42" s="43"/>
       <c r="F42" s="43"/>
@@ -15024,148 +15094,148 @@
       <c r="AF42" s="43"/>
       <c r="AG42" s="43"/>
     </row>
-    <row r="44" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="46" spans="2:33" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="46" spans="2:33" x14ac:dyDescent="0.15">
       <c r="C46" s="22" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="47" spans="2:33" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="2:33" x14ac:dyDescent="0.15">
       <c r="C47" s="22" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C49" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D51" s="22" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E53" s="22" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E54" s="22" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="85" spans="3:5" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="85" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D85" s="22" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="87" spans="3:5" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="87" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E87" s="22" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="88" spans="3:5" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="88" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E88" s="22" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="89" spans="3:5" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="89" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E89" s="22" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="90" spans="3:5" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="90" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E90" s="22" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="91" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E91" s="22" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="92" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E92" s="22" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="95" spans="3:5" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="95" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C95" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="97" spans="4:5" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="97" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D97" s="22" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="99" spans="4:5" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="99" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E99" s="22" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="100" spans="4:5" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E100" s="22" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="132" spans="2:9" x14ac:dyDescent="0.15">
       <c r="D132" s="22" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="134" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E134" s="22" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="135" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E135" s="22" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="136" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E136" s="22" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="137" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E137" s="22" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="138" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E138" s="22" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="141" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B141" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="142" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B142"/>
       <c r="C142" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="I142"/>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B143"/>
       <c r="C143" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="I143"/>
     </row>
-    <row r="145" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="145" spans="3:31" x14ac:dyDescent="0.15">
       <c r="C145" s="63" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="D145" s="64"/>
       <c r="E145" s="64"/>
@@ -15176,10 +15246,10 @@
       <c r="J145" s="64"/>
       <c r="K145" s="65"/>
       <c r="L145" s="66" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="M145" s="63" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="N145" s="67"/>
       <c r="O145" s="64"/>
@@ -15200,9 +15270,9 @@
       <c r="AD145" s="64"/>
       <c r="AE145" s="65"/>
     </row>
-    <row r="146" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="146" spans="3:31" x14ac:dyDescent="0.15">
       <c r="C146" s="68" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="D146" s="69"/>
       <c r="E146" s="69"/>
@@ -15213,10 +15283,10 @@
       <c r="J146" s="70"/>
       <c r="K146" s="70"/>
       <c r="L146" s="71" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="M146" s="72" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="N146" s="73"/>
       <c r="O146" s="69"/>
@@ -15237,10 +15307,10 @@
       <c r="AD146" s="69"/>
       <c r="AE146" s="74"/>
     </row>
-    <row r="147" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="147" spans="3:31" x14ac:dyDescent="0.15">
       <c r="C147" s="75"/>
       <c r="D147" s="76" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="E147" s="77"/>
       <c r="F147" s="77"/>
@@ -15250,10 +15320,10 @@
       <c r="J147" s="77"/>
       <c r="K147" s="78"/>
       <c r="L147" s="79" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="M147" s="76" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="N147" s="80"/>
       <c r="O147" s="77"/>
@@ -15274,10 +15344,10 @@
       <c r="AD147" s="77"/>
       <c r="AE147" s="78"/>
     </row>
-    <row r="148" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="148" spans="3:31" x14ac:dyDescent="0.15">
       <c r="C148" s="81"/>
       <c r="D148" s="82" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="E148" s="83"/>
       <c r="F148" s="83"/>
@@ -15287,10 +15357,10 @@
       <c r="J148" s="83"/>
       <c r="K148" s="84"/>
       <c r="L148" s="85" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="M148" s="82" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="N148" s="86"/>
       <c r="O148" s="83"/>
@@ -15311,7 +15381,7 @@
       <c r="AD148" s="83"/>
       <c r="AE148" s="84"/>
     </row>
-    <row r="149" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="149" spans="3:31" x14ac:dyDescent="0.15">
       <c r="C149" s="68" t="s">
         <v>63</v>
       </c>
@@ -15324,10 +15394,10 @@
       <c r="J149" s="69"/>
       <c r="K149" s="74"/>
       <c r="L149" s="87" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="M149" s="68" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="N149" s="73"/>
       <c r="O149" s="69"/>
@@ -15348,17 +15418,17 @@
       <c r="AD149" s="69"/>
       <c r="AE149" s="74"/>
     </row>
-    <row r="150" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="150" spans="3:31" x14ac:dyDescent="0.15">
       <c r="C150" s="75"/>
       <c r="K150" s="88"/>
       <c r="L150" s="89"/>
       <c r="M150" s="75" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="N150"/>
       <c r="AE150" s="88"/>
     </row>
-    <row r="151" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="151" spans="3:31" x14ac:dyDescent="0.15">
       <c r="C151" s="68" t="s">
         <v>57</v>
       </c>
@@ -15371,10 +15441,10 @@
       <c r="J151" s="69"/>
       <c r="K151" s="74"/>
       <c r="L151" s="90" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="M151" s="68" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="N151" s="73"/>
       <c r="O151" s="69"/>
@@ -15395,7 +15465,7 @@
       <c r="AD151" s="69"/>
       <c r="AE151" s="74"/>
     </row>
-    <row r="152" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="152" spans="3:31" x14ac:dyDescent="0.15">
       <c r="C152" s="81"/>
       <c r="D152" s="91"/>
       <c r="E152" s="91"/>
@@ -15407,7 +15477,7 @@
       <c r="K152" s="92"/>
       <c r="L152" s="93"/>
       <c r="M152" s="81" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="N152" s="94"/>
       <c r="O152" s="91"/>
@@ -15428,44 +15498,44 @@
       <c r="AD152" s="91"/>
       <c r="AE152" s="92"/>
     </row>
-    <row r="154" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="154" spans="3:31" x14ac:dyDescent="0.15">
       <c r="C154" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="156" spans="3:31" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="156" spans="3:31" x14ac:dyDescent="0.15">
       <c r="C156" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="157" spans="3:31" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="157" spans="3:31" x14ac:dyDescent="0.15">
       <c r="C157" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="158" spans="3:31" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="158" spans="3:31" x14ac:dyDescent="0.15">
       <c r="C158" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="159" spans="3:31" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="159" spans="3:31" x14ac:dyDescent="0.15">
       <c r="C159" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="160" spans="3:31" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="160" spans="3:31" x14ac:dyDescent="0.15">
       <c r="C160" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="161" spans="3:3" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="161" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C161" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="162" spans="3:3" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="162" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C162" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -15545,18 +15615,18 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="11" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="23" width="4.77734375" style="22"/>
-    <col min="24" max="24" width="4.77734375" style="22" customWidth="1"/>
-    <col min="25" max="36" width="4.77734375" style="22"/>
-    <col min="37" max="39" width="4.77734375" style="22" customWidth="1"/>
-    <col min="40" max="41" width="4.77734375" style="22"/>
-    <col min="42" max="44" width="4.77734375" style="22" customWidth="1"/>
-    <col min="45" max="16384" width="4.77734375" style="22"/>
+    <col min="1" max="23" width="4.83203125" style="22"/>
+    <col min="24" max="24" width="4.83203125" style="22" customWidth="1"/>
+    <col min="25" max="36" width="4.83203125" style="22"/>
+    <col min="37" max="39" width="4.83203125" style="22" customWidth="1"/>
+    <col min="40" max="41" width="4.83203125" style="22"/>
+    <col min="42" max="44" width="4.83203125" style="22" customWidth="1"/>
+    <col min="45" max="16384" width="4.83203125" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:66" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="172" t="s">
         <v>0</v>
       </c>
@@ -15614,7 +15684,7 @@
       <c r="AK1" s="9"/>
       <c r="AL1" s="10"/>
     </row>
-    <row r="2" spans="1:66" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:66" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="107" t="s">
         <v>1</v>
       </c>
@@ -15667,7 +15737,7 @@
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
     </row>
-    <row r="3" spans="1:66" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:66" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="107" t="s">
         <v>2</v>
       </c>
@@ -15718,24 +15788,24 @@
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
     </row>
-    <row r="5" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A5" s="22" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:66" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:66" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="234" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="B7" s="236" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="C7" s="236"/>
       <c r="D7" s="236"/>
       <c r="E7" s="236"/>
       <c r="F7" s="236"/>
       <c r="G7" s="228" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="H7" s="229"/>
       <c r="I7" s="229"/>
@@ -15758,7 +15828,7 @@
       <c r="V7" s="195"/>
       <c r="W7" s="195"/>
       <c r="X7" s="220" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="Y7" s="221"/>
       <c r="Z7" s="221"/>
@@ -15775,7 +15845,7 @@
       <c r="AI7" s="219"/>
       <c r="AJ7" s="59"/>
       <c r="AL7" s="245" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="AM7" s="238"/>
       <c r="AN7" s="238"/>
@@ -15812,7 +15882,7 @@
       <c r="BM7" s="238"/>
       <c r="BN7" s="238"/>
     </row>
-    <row r="8" spans="1:66" s="60" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:66" s="60" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="235"/>
       <c r="B8" s="236"/>
       <c r="C8" s="236"/>
@@ -15843,12 +15913,12 @@
       </c>
       <c r="W8" s="225"/>
       <c r="X8" s="226" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="Y8" s="227"/>
       <c r="Z8" s="227"/>
       <c r="AA8" s="249" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="AB8" s="227"/>
       <c r="AC8" s="225"/>
@@ -15889,19 +15959,19 @@
       <c r="BM8" s="238"/>
       <c r="BN8" s="238"/>
     </row>
-    <row r="9" spans="1:66" s="31" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:66" s="31" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="61">
         <v>1</v>
       </c>
       <c r="B9" s="206" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="C9" s="207"/>
       <c r="D9" s="207"/>
       <c r="E9" s="207"/>
       <c r="F9" s="208"/>
       <c r="G9" s="127" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="H9" s="116"/>
       <c r="I9" s="116"/>
@@ -15939,7 +16009,7 @@
       <c r="AI9" s="117"/>
       <c r="AJ9" s="36"/>
       <c r="AL9" s="115" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="AM9" s="105"/>
       <c r="AN9" s="105"/>
@@ -15953,21 +16023,21 @@
       <c r="AV9" s="105"/>
       <c r="AW9" s="106"/>
       <c r="AX9" s="200" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="AY9" s="201"/>
       <c r="AZ9" s="201"/>
       <c r="BA9" s="201"/>
       <c r="BB9" s="201"/>
       <c r="BC9" s="115" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="BD9" s="116"/>
       <c r="BE9" s="116"/>
       <c r="BF9" s="116"/>
       <c r="BG9" s="117"/>
       <c r="BH9" s="199" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="BI9" s="199"/>
       <c r="BJ9" s="199"/>
@@ -15976,19 +16046,19 @@
       <c r="BM9" s="199"/>
       <c r="BN9" s="199"/>
     </row>
-    <row r="10" spans="1:66" s="31" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:66" s="31" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="61">
         <v>2</v>
       </c>
       <c r="B10" s="115" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="C10" s="116"/>
       <c r="D10" s="116"/>
       <c r="E10" s="116"/>
       <c r="F10" s="117"/>
       <c r="G10" s="200" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="H10" s="201"/>
       <c r="I10" s="201"/>
@@ -16026,7 +16096,7 @@
       <c r="AI10" s="117"/>
       <c r="AJ10" s="37"/>
       <c r="AL10" s="115" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AM10" s="116"/>
       <c r="AN10" s="116"/>
@@ -16040,14 +16110,14 @@
       <c r="AV10" s="116"/>
       <c r="AW10" s="117"/>
       <c r="AX10" s="127" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="AY10" s="116"/>
       <c r="AZ10" s="116"/>
       <c r="BA10" s="116"/>
       <c r="BB10" s="117"/>
       <c r="BC10" s="115" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="BD10" s="116"/>
       <c r="BE10" s="116"/>
@@ -16061,19 +16131,19 @@
       <c r="BM10" s="199"/>
       <c r="BN10" s="199"/>
     </row>
-    <row r="11" spans="1:66" s="31" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:66" s="31" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="61">
         <v>3</v>
       </c>
       <c r="B11" s="115" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="C11" s="116"/>
       <c r="D11" s="116"/>
       <c r="E11" s="116"/>
       <c r="F11" s="117"/>
       <c r="G11" s="200" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="H11" s="201"/>
       <c r="I11" s="201"/>
@@ -16111,7 +16181,7 @@
       <c r="AI11" s="117"/>
       <c r="AJ11" s="36"/>
       <c r="AL11" s="115" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AM11" s="116"/>
       <c r="AN11" s="116"/>
@@ -16125,14 +16195,14 @@
       <c r="AV11" s="116"/>
       <c r="AW11" s="117"/>
       <c r="AX11" s="127" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="AY11" s="116"/>
       <c r="AZ11" s="116"/>
       <c r="BA11" s="116"/>
       <c r="BB11" s="117"/>
       <c r="BC11" s="115" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="BD11" s="116"/>
       <c r="BE11" s="116"/>
@@ -16146,19 +16216,19 @@
       <c r="BM11" s="199"/>
       <c r="BN11" s="199"/>
     </row>
-    <row r="12" spans="1:66" s="31" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:66" s="31" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="61">
         <v>4</v>
       </c>
       <c r="B12" s="115" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="C12" s="116"/>
       <c r="D12" s="116"/>
       <c r="E12" s="116"/>
       <c r="F12" s="117"/>
       <c r="G12" s="200" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="H12" s="201"/>
       <c r="I12" s="201"/>
@@ -16196,7 +16266,7 @@
       <c r="AI12" s="117"/>
       <c r="AJ12" s="36"/>
       <c r="AL12" s="127" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="AM12" s="116"/>
       <c r="AN12" s="116"/>
@@ -16210,7 +16280,7 @@
       <c r="AV12" s="116"/>
       <c r="AW12" s="117"/>
       <c r="AX12" s="127" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="AY12" s="116"/>
       <c r="AZ12" s="116"/>
@@ -16231,19 +16301,19 @@
       <c r="BM12" s="199"/>
       <c r="BN12" s="199"/>
     </row>
-    <row r="13" spans="1:66" s="31" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:66" s="31" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="61">
         <v>5</v>
       </c>
       <c r="B13" s="115" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="C13" s="116"/>
       <c r="D13" s="116"/>
       <c r="E13" s="116"/>
       <c r="F13" s="117"/>
       <c r="G13" s="200" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="H13" s="201"/>
       <c r="I13" s="201"/>
@@ -16281,7 +16351,7 @@
       <c r="AI13" s="97"/>
       <c r="AJ13" s="36"/>
       <c r="AL13" s="127" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="AM13" s="116"/>
       <c r="AN13" s="116"/>
@@ -16295,7 +16365,7 @@
       <c r="AV13" s="116"/>
       <c r="AW13" s="117"/>
       <c r="AX13" s="127" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="AY13" s="116"/>
       <c r="AZ13" s="116"/>
@@ -16316,19 +16386,19 @@
       <c r="BM13" s="199"/>
       <c r="BN13" s="199"/>
     </row>
-    <row r="14" spans="1:66" s="31" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:66" s="31" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="61">
         <v>6</v>
       </c>
       <c r="B14" s="206" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="C14" s="207"/>
       <c r="D14" s="207"/>
       <c r="E14" s="207"/>
       <c r="F14" s="208"/>
       <c r="G14" s="127" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="H14" s="116"/>
       <c r="I14" s="116"/>
@@ -16366,7 +16436,7 @@
       <c r="AI14" s="117"/>
       <c r="AJ14" s="36"/>
       <c r="AL14" s="127" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="AM14" s="105"/>
       <c r="AN14" s="105"/>
@@ -16380,7 +16450,7 @@
       <c r="AV14" s="105"/>
       <c r="AW14" s="106"/>
       <c r="AX14" s="200" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="AY14" s="201"/>
       <c r="AZ14" s="201"/>
@@ -16401,19 +16471,19 @@
       <c r="BM14" s="199"/>
       <c r="BN14" s="199"/>
     </row>
-    <row r="15" spans="1:66" s="31" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:66" s="31" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="61">
         <v>7</v>
       </c>
       <c r="B15" s="206" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="C15" s="207"/>
       <c r="D15" s="207"/>
       <c r="E15" s="207"/>
       <c r="F15" s="208"/>
       <c r="G15" s="115" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="H15" s="116"/>
       <c r="I15" s="116"/>
@@ -16453,7 +16523,7 @@
       <c r="AI15" s="117"/>
       <c r="AJ15" s="36"/>
       <c r="AL15" s="127" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="AM15" s="105"/>
       <c r="AN15" s="105"/>
@@ -16467,7 +16537,7 @@
       <c r="AV15" s="105"/>
       <c r="AW15" s="106"/>
       <c r="AX15" s="200" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="AY15" s="201"/>
       <c r="AZ15" s="201"/>
@@ -16488,19 +16558,19 @@
       <c r="BM15" s="199"/>
       <c r="BN15" s="199"/>
     </row>
-    <row r="16" spans="1:66" s="31" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:66" s="31" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="61">
         <v>8</v>
       </c>
       <c r="B16" s="206" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C16" s="207"/>
       <c r="D16" s="207"/>
       <c r="E16" s="207"/>
       <c r="F16" s="208"/>
       <c r="G16" s="127" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="H16" s="116"/>
       <c r="I16" s="116"/>
@@ -16510,7 +16580,7 @@
       <c r="M16" s="116"/>
       <c r="N16" s="117"/>
       <c r="O16" s="206" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="P16" s="207"/>
       <c r="Q16" s="208"/>
@@ -16521,7 +16591,7 @@
       <c r="V16" s="212"/>
       <c r="W16" s="213"/>
       <c r="X16" s="218" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="Y16" s="216"/>
       <c r="Z16" s="216"/>
@@ -16536,7 +16606,7 @@
       <c r="AI16" s="117"/>
       <c r="AJ16" s="36"/>
       <c r="AL16" s="104" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="AM16" s="105"/>
       <c r="AN16" s="105"/>
@@ -16550,14 +16620,14 @@
       <c r="AV16" s="105"/>
       <c r="AW16" s="106"/>
       <c r="AX16" s="200" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="AY16" s="201"/>
       <c r="AZ16" s="201"/>
       <c r="BA16" s="201"/>
       <c r="BB16" s="201"/>
       <c r="BC16" s="115" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="BD16" s="116"/>
       <c r="BE16" s="116"/>
@@ -16571,19 +16641,19 @@
       <c r="BM16" s="199"/>
       <c r="BN16" s="199"/>
     </row>
-    <row r="17" spans="1:66" s="31" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:66" s="31" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="61">
         <v>9</v>
       </c>
       <c r="B17" s="206" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="C17" s="207"/>
       <c r="D17" s="207"/>
       <c r="E17" s="207"/>
       <c r="F17" s="208"/>
       <c r="G17" s="127" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="H17" s="116"/>
       <c r="I17" s="116"/>
@@ -16610,7 +16680,7 @@
       <c r="AB17" s="216"/>
       <c r="AC17" s="217"/>
       <c r="AD17" s="115" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="AE17" s="116"/>
       <c r="AF17" s="116"/>
@@ -16619,7 +16689,7 @@
       <c r="AI17" s="117"/>
       <c r="AJ17" s="36"/>
       <c r="AL17" s="115" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="AM17" s="105"/>
       <c r="AN17" s="105"/>
@@ -16633,7 +16703,7 @@
       <c r="AV17" s="105"/>
       <c r="AW17" s="106"/>
       <c r="AX17" s="127" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="AY17" s="116"/>
       <c r="AZ17" s="116"/>
@@ -16647,7 +16717,7 @@
       <c r="BF17" s="116"/>
       <c r="BG17" s="117"/>
       <c r="BH17" s="202" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="BI17" s="203"/>
       <c r="BJ17" s="203"/>
@@ -16656,19 +16726,19 @@
       <c r="BM17" s="203"/>
       <c r="BN17" s="204"/>
     </row>
-    <row r="18" spans="1:66" s="31" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:66" s="31" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="61">
         <v>10</v>
       </c>
       <c r="B18" s="206" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="C18" s="207"/>
       <c r="D18" s="207"/>
       <c r="E18" s="207"/>
       <c r="F18" s="208"/>
       <c r="G18" s="127" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="H18" s="116"/>
       <c r="I18" s="116"/>
@@ -16697,7 +16767,7 @@
       <c r="AB18" s="216"/>
       <c r="AC18" s="217"/>
       <c r="AD18" s="127" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="AE18" s="116"/>
       <c r="AF18" s="116"/>
@@ -16706,7 +16776,7 @@
       <c r="AI18" s="117"/>
       <c r="AJ18" s="37"/>
       <c r="AL18" s="115" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="AM18" s="105"/>
       <c r="AN18" s="105"/>
@@ -16720,7 +16790,7 @@
       <c r="AV18" s="105"/>
       <c r="AW18" s="106"/>
       <c r="AX18" s="200" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="AY18" s="201"/>
       <c r="AZ18" s="201"/>
@@ -16734,7 +16804,7 @@
       <c r="BF18" s="116"/>
       <c r="BG18" s="117"/>
       <c r="BH18" s="205" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="BI18" s="203"/>
       <c r="BJ18" s="203"/>
@@ -16743,12 +16813,12 @@
       <c r="BM18" s="203"/>
       <c r="BN18" s="204"/>
     </row>
-    <row r="19" spans="1:66" s="31" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:66" s="31" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="61">
         <v>11</v>
       </c>
       <c r="B19" s="115" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="C19" s="116"/>
       <c r="D19" s="116"/>
@@ -16786,7 +16856,7 @@
       <c r="AB19" s="216"/>
       <c r="AC19" s="217"/>
       <c r="AD19" s="115" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="AE19" s="116"/>
       <c r="AF19" s="116"/>
@@ -16795,7 +16865,7 @@
       <c r="AI19" s="117"/>
       <c r="AJ19" s="36"/>
       <c r="AL19" s="104" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="AM19" s="105"/>
       <c r="AN19" s="105"/>
@@ -16809,14 +16879,14 @@
       <c r="AV19" s="105"/>
       <c r="AW19" s="106"/>
       <c r="AX19" s="200" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="AY19" s="201"/>
       <c r="AZ19" s="201"/>
       <c r="BA19" s="201"/>
       <c r="BB19" s="201"/>
       <c r="BC19" s="115" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="BD19" s="116"/>
       <c r="BE19" s="116"/>
@@ -16830,19 +16900,19 @@
       <c r="BM19" s="199"/>
       <c r="BN19" s="199"/>
     </row>
-    <row r="20" spans="1:66" s="31" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:66" s="31" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="61">
         <v>12</v>
       </c>
       <c r="B20" s="206" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="C20" s="207"/>
       <c r="D20" s="207"/>
       <c r="E20" s="207"/>
       <c r="F20" s="208"/>
       <c r="G20" s="127" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="H20" s="116"/>
       <c r="I20" s="116"/>
@@ -16873,7 +16943,7 @@
       <c r="AB20" s="216"/>
       <c r="AC20" s="217"/>
       <c r="AD20" s="115" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="AE20" s="116"/>
       <c r="AF20" s="116"/>
@@ -16882,7 +16952,7 @@
       <c r="AI20" s="117"/>
       <c r="AK20" s="57"/>
       <c r="AL20" s="115" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="AM20" s="116"/>
       <c r="AN20" s="116"/>
@@ -16896,14 +16966,14 @@
       <c r="AV20" s="116"/>
       <c r="AW20" s="117"/>
       <c r="AX20" s="200" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="AY20" s="201"/>
       <c r="AZ20" s="201"/>
       <c r="BA20" s="201"/>
       <c r="BB20" s="201"/>
       <c r="BC20" s="115" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="BD20" s="116"/>
       <c r="BE20" s="116"/>
@@ -16917,19 +16987,19 @@
       <c r="BM20" s="199"/>
       <c r="BN20" s="199"/>
     </row>
-    <row r="21" spans="1:66" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:66" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="61">
         <v>13</v>
       </c>
       <c r="B21" s="115" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="C21" s="116"/>
       <c r="D21" s="116"/>
       <c r="E21" s="116"/>
       <c r="F21" s="117"/>
       <c r="G21" s="200" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="H21" s="201"/>
       <c r="I21" s="201"/>
@@ -16966,7 +17036,7 @@
       <c r="AH21" s="116"/>
       <c r="AI21" s="117"/>
       <c r="AL21" s="115" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AM21" s="116"/>
       <c r="AN21" s="116"/>
@@ -16980,7 +17050,7 @@
       <c r="AV21" s="116"/>
       <c r="AW21" s="117"/>
       <c r="AX21" s="127" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="AY21" s="116"/>
       <c r="AZ21" s="116"/>
@@ -17001,19 +17071,19 @@
       <c r="BM21" s="199"/>
       <c r="BN21" s="199"/>
     </row>
-    <row r="22" spans="1:66" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:66" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="61">
         <v>14</v>
       </c>
       <c r="B22" s="115" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="C22" s="116"/>
       <c r="D22" s="116"/>
       <c r="E22" s="116"/>
       <c r="F22" s="117"/>
       <c r="G22" s="200" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="H22" s="201"/>
       <c r="I22" s="201"/>
@@ -17050,7 +17120,7 @@
       <c r="AH22" s="116"/>
       <c r="AI22" s="117"/>
       <c r="AL22" s="127" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="AM22" s="116"/>
       <c r="AN22" s="116"/>
@@ -17064,7 +17134,7 @@
       <c r="AV22" s="116"/>
       <c r="AW22" s="117"/>
       <c r="AX22" s="127" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="AY22" s="116"/>
       <c r="AZ22" s="116"/>
@@ -17085,19 +17155,19 @@
       <c r="BM22" s="199"/>
       <c r="BN22" s="199"/>
     </row>
-    <row r="23" spans="1:66" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:66" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="61">
         <v>15</v>
       </c>
       <c r="B23" s="115" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="C23" s="116"/>
       <c r="D23" s="116"/>
       <c r="E23" s="116"/>
       <c r="F23" s="117"/>
       <c r="G23" s="200" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="H23" s="201"/>
       <c r="I23" s="201"/>
@@ -17134,7 +17204,7 @@
       <c r="AH23" s="116"/>
       <c r="AI23" s="117"/>
       <c r="AL23" s="127" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="AM23" s="116"/>
       <c r="AN23" s="116"/>
@@ -17148,7 +17218,7 @@
       <c r="AV23" s="116"/>
       <c r="AW23" s="117"/>
       <c r="AX23" s="127" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="AY23" s="116"/>
       <c r="AZ23" s="116"/>
@@ -17169,19 +17239,19 @@
       <c r="BM23" s="199"/>
       <c r="BN23" s="199"/>
     </row>
-    <row r="24" spans="1:66" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:66" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="61">
         <v>16</v>
       </c>
       <c r="B24" s="115" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="C24" s="116"/>
       <c r="D24" s="116"/>
       <c r="E24" s="116"/>
       <c r="F24" s="117"/>
       <c r="G24" s="200" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="H24" s="201"/>
       <c r="I24" s="201"/>
@@ -17218,7 +17288,7 @@
       <c r="AH24" s="116"/>
       <c r="AI24" s="117"/>
       <c r="AL24" s="127" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="AM24" s="116"/>
       <c r="AN24" s="116"/>
@@ -17232,7 +17302,7 @@
       <c r="AV24" s="116"/>
       <c r="AW24" s="117"/>
       <c r="AX24" s="127" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="AY24" s="116"/>
       <c r="AZ24" s="116"/>
@@ -17253,19 +17323,19 @@
       <c r="BM24" s="199"/>
       <c r="BN24" s="199"/>
     </row>
-    <row r="25" spans="1:66" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:66" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="61">
         <v>17</v>
       </c>
       <c r="B25" s="115" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="C25" s="116"/>
       <c r="D25" s="116"/>
       <c r="E25" s="116"/>
       <c r="F25" s="117"/>
       <c r="G25" s="201" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="H25" s="201"/>
       <c r="I25" s="201"/>
@@ -17302,7 +17372,7 @@
       <c r="AH25" s="116"/>
       <c r="AI25" s="117"/>
       <c r="AL25" s="127" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="AM25" s="116"/>
       <c r="AN25" s="116"/>
@@ -17316,7 +17386,7 @@
       <c r="AV25" s="116"/>
       <c r="AW25" s="117"/>
       <c r="AX25" s="127" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="AY25" s="116"/>
       <c r="AZ25" s="116"/>
@@ -17337,19 +17407,19 @@
       <c r="BM25" s="199"/>
       <c r="BN25" s="199"/>
     </row>
-    <row r="26" spans="1:66" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:66" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="61">
         <v>18</v>
       </c>
       <c r="B26" s="115" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="C26" s="116"/>
       <c r="D26" s="116"/>
       <c r="E26" s="116"/>
       <c r="F26" s="117"/>
       <c r="G26" s="200" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="H26" s="201"/>
       <c r="I26" s="201"/>
@@ -17386,7 +17456,7 @@
       <c r="AH26" s="116"/>
       <c r="AI26" s="117"/>
       <c r="AL26" s="115" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AM26" s="116"/>
       <c r="AN26" s="116"/>
@@ -17400,7 +17470,7 @@
       <c r="AV26" s="116"/>
       <c r="AW26" s="117"/>
       <c r="AX26" s="127" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="AY26" s="116"/>
       <c r="AZ26" s="116"/>
@@ -17421,19 +17491,19 @@
       <c r="BM26" s="199"/>
       <c r="BN26" s="199"/>
     </row>
-    <row r="27" spans="1:66" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:66" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="61">
         <v>19</v>
       </c>
       <c r="B27" s="115" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="C27" s="116"/>
       <c r="D27" s="116"/>
       <c r="E27" s="116"/>
       <c r="F27" s="117"/>
       <c r="G27" s="200" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="H27" s="201"/>
       <c r="I27" s="201"/>
@@ -17443,7 +17513,7 @@
       <c r="M27" s="201"/>
       <c r="N27" s="201"/>
       <c r="O27" s="206" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="P27" s="207"/>
       <c r="Q27" s="208"/>
@@ -17470,7 +17540,7 @@
       <c r="AH27" s="116"/>
       <c r="AI27" s="117"/>
       <c r="AL27" s="104" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="AM27" s="105"/>
       <c r="AN27" s="105"/>
@@ -17484,14 +17554,14 @@
       <c r="AV27" s="105"/>
       <c r="AW27" s="106"/>
       <c r="AX27" s="127" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="AY27" s="116"/>
       <c r="AZ27" s="116"/>
       <c r="BA27" s="116"/>
       <c r="BB27" s="117"/>
       <c r="BC27" s="115" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="BD27" s="116"/>
       <c r="BE27" s="116"/>
@@ -17505,35 +17575,35 @@
       <c r="BM27" s="199"/>
       <c r="BN27" s="199"/>
     </row>
-    <row r="30" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:66" x14ac:dyDescent="0.15">
       <c r="AX30" s="250"/>
       <c r="AY30" s="250"/>
       <c r="AZ30" s="250"/>
       <c r="BA30" s="250"/>
       <c r="BB30" s="250"/>
     </row>
-    <row r="31" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:66" x14ac:dyDescent="0.15">
       <c r="AX31" s="250"/>
       <c r="AY31" s="250"/>
       <c r="AZ31" s="250"/>
       <c r="BA31" s="250"/>
       <c r="BB31" s="250"/>
     </row>
-    <row r="32" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:66" x14ac:dyDescent="0.15">
       <c r="AX32" s="250"/>
       <c r="AY32" s="250"/>
       <c r="AZ32" s="250"/>
       <c r="BA32" s="250"/>
       <c r="BB32" s="250"/>
     </row>
-    <row r="33" spans="50:54" x14ac:dyDescent="0.2">
+    <row r="33" spans="50:54" x14ac:dyDescent="0.15">
       <c r="AX33" s="250"/>
       <c r="AY33" s="250"/>
       <c r="AZ33" s="250"/>
       <c r="BA33" s="250"/>
       <c r="BB33" s="250"/>
     </row>
-    <row r="34" spans="50:54" x14ac:dyDescent="0.2">
+    <row r="34" spans="50:54" x14ac:dyDescent="0.15">
       <c r="AX34" s="250"/>
       <c r="AY34" s="250"/>
       <c r="AZ34" s="250"/>
@@ -17848,23 +17918,23 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:BR36"/>
+  <dimension ref="A1:BR37"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="11" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="29" width="4.77734375" style="32" customWidth="1"/>
+    <col min="1" max="29" width="4.83203125" style="32" customWidth="1"/>
     <col min="30" max="30" width="5" style="32" customWidth="1"/>
-    <col min="31" max="70" width="4.77734375" style="32" customWidth="1"/>
+    <col min="31" max="70" width="4.83203125" style="32" customWidth="1"/>
     <col min="71" max="16384" width="9.33203125" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:70" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="172" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="B1" s="183"/>
       <c r="C1" s="183"/>
@@ -17917,7 +17987,7 @@
       <c r="AH1" s="170"/>
       <c r="AI1" s="171"/>
     </row>
-    <row r="2" spans="1:70" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:70" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="107" t="s">
         <v>1</v>
       </c>
@@ -17967,7 +18037,7 @@
       <c r="AH2" s="170"/>
       <c r="AI2" s="171"/>
     </row>
-    <row r="3" spans="1:70" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:70" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="107" t="s">
         <v>2</v>
       </c>
@@ -18015,49 +18085,49 @@
       <c r="AH3" s="170"/>
       <c r="AI3" s="171"/>
     </row>
-    <row r="5" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A5" s="32" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:70" x14ac:dyDescent="0.15">
       <c r="B6" s="32" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A8" s="195" t="s">
-        <v>146</v>
-      </c>
-      <c r="B8" s="254" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="255"/>
-      <c r="D8" s="255"/>
-      <c r="E8" s="255"/>
-      <c r="F8" s="255"/>
-      <c r="G8" s="255"/>
-      <c r="H8" s="255"/>
-      <c r="I8" s="256"/>
-      <c r="J8" s="254" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" s="255"/>
-      <c r="L8" s="255"/>
-      <c r="M8" s="255"/>
-      <c r="N8" s="255"/>
-      <c r="O8" s="255"/>
-      <c r="P8" s="255"/>
-      <c r="Q8" s="255"/>
-      <c r="R8" s="255"/>
-      <c r="S8" s="255"/>
-      <c r="T8" s="255"/>
-      <c r="U8" s="255"/>
-      <c r="V8" s="255"/>
-      <c r="W8" s="255"/>
-      <c r="X8" s="256"/>
+        <v>247</v>
+      </c>
+      <c r="B8" s="257" t="s">
+        <v>248</v>
+      </c>
+      <c r="C8" s="258"/>
+      <c r="D8" s="258"/>
+      <c r="E8" s="258"/>
+      <c r="F8" s="258"/>
+      <c r="G8" s="258"/>
+      <c r="H8" s="258"/>
+      <c r="I8" s="259"/>
+      <c r="J8" s="257" t="s">
+        <v>249</v>
+      </c>
+      <c r="K8" s="258"/>
+      <c r="L8" s="258"/>
+      <c r="M8" s="258"/>
+      <c r="N8" s="258"/>
+      <c r="O8" s="258"/>
+      <c r="P8" s="258"/>
+      <c r="Q8" s="258"/>
+      <c r="R8" s="258"/>
+      <c r="S8" s="258"/>
+      <c r="T8" s="258"/>
+      <c r="U8" s="258"/>
+      <c r="V8" s="258"/>
+      <c r="W8" s="258"/>
+      <c r="X8" s="259"/>
       <c r="Y8" s="236" t="s">
-        <v>14</v>
+        <v>250</v>
       </c>
       <c r="Z8" s="236"/>
       <c r="AA8" s="236"/>
@@ -18069,6 +18139,35 @@
       <c r="AG8" s="236"/>
       <c r="AH8" s="236"/>
       <c r="AI8" s="236"/>
+      <c r="AJ8" s="22"/>
+      <c r="AK8" s="22"/>
+      <c r="AL8" s="22"/>
+      <c r="AM8" s="22"/>
+      <c r="AN8" s="22"/>
+      <c r="AO8" s="22"/>
+      <c r="AP8" s="22"/>
+      <c r="AQ8" s="22"/>
+      <c r="AR8" s="22"/>
+      <c r="AS8" s="22"/>
+      <c r="AT8" s="22"/>
+      <c r="AU8" s="22"/>
+      <c r="AV8" s="22"/>
+      <c r="AW8" s="22"/>
+      <c r="AX8" s="22"/>
+      <c r="AY8" s="22"/>
+      <c r="AZ8" s="22"/>
+      <c r="BA8" s="22"/>
+      <c r="BB8" s="22"/>
+      <c r="BC8" s="22"/>
+      <c r="BD8" s="22"/>
+      <c r="BE8" s="22"/>
+      <c r="BF8" s="22"/>
+      <c r="BG8" s="22"/>
+      <c r="BH8" s="22"/>
+      <c r="BI8" s="22"/>
+      <c r="BJ8" s="22"/>
+      <c r="BK8" s="22"/>
+      <c r="BL8" s="22"/>
       <c r="BM8" s="22"/>
       <c r="BN8" s="22"/>
       <c r="BO8" s="22"/>
@@ -18076,39 +18175,39 @@
       <c r="BQ8" s="22"/>
       <c r="BR8" s="22"/>
     </row>
-    <row r="9" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A9" s="195"/>
-      <c r="B9" s="257"/>
-      <c r="C9" s="258"/>
-      <c r="D9" s="258"/>
-      <c r="E9" s="258"/>
-      <c r="F9" s="258"/>
-      <c r="G9" s="258"/>
-      <c r="H9" s="258"/>
-      <c r="I9" s="259"/>
-      <c r="J9" s="257"/>
-      <c r="K9" s="258"/>
-      <c r="L9" s="258"/>
-      <c r="M9" s="258"/>
-      <c r="N9" s="258"/>
-      <c r="O9" s="258"/>
-      <c r="P9" s="258"/>
-      <c r="Q9" s="258"/>
-      <c r="R9" s="258"/>
-      <c r="S9" s="258"/>
-      <c r="T9" s="258"/>
-      <c r="U9" s="258"/>
-      <c r="V9" s="258"/>
-      <c r="W9" s="258"/>
-      <c r="X9" s="259"/>
+      <c r="B9" s="260"/>
+      <c r="C9" s="261"/>
+      <c r="D9" s="261"/>
+      <c r="E9" s="261"/>
+      <c r="F9" s="261"/>
+      <c r="G9" s="261"/>
+      <c r="H9" s="261"/>
+      <c r="I9" s="262"/>
+      <c r="J9" s="260"/>
+      <c r="K9" s="261"/>
+      <c r="L9" s="261"/>
+      <c r="M9" s="261"/>
+      <c r="N9" s="261"/>
+      <c r="O9" s="261"/>
+      <c r="P9" s="261"/>
+      <c r="Q9" s="261"/>
+      <c r="R9" s="261"/>
+      <c r="S9" s="261"/>
+      <c r="T9" s="261"/>
+      <c r="U9" s="261"/>
+      <c r="V9" s="261"/>
+      <c r="W9" s="261"/>
+      <c r="X9" s="262"/>
       <c r="Y9" s="236" t="s">
-        <v>15</v>
+        <v>251</v>
       </c>
       <c r="Z9" s="236"/>
       <c r="AA9" s="236"/>
       <c r="AB9" s="236"/>
       <c r="AC9" s="236" t="s">
-        <v>16</v>
+        <v>252</v>
       </c>
       <c r="AD9" s="236"/>
       <c r="AE9" s="236"/>
@@ -18152,48 +18251,48 @@
       <c r="BQ9" s="22"/>
       <c r="BR9" s="22"/>
     </row>
-    <row r="10" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A10" s="58">
         <v>1</v>
       </c>
-      <c r="B10" s="252" t="s">
+      <c r="B10" s="251" t="s">
+        <v>253</v>
+      </c>
+      <c r="C10" s="251"/>
+      <c r="D10" s="251"/>
+      <c r="E10" s="251"/>
+      <c r="F10" s="251"/>
+      <c r="G10" s="251"/>
+      <c r="H10" s="251"/>
+      <c r="I10" s="251"/>
+      <c r="J10" s="251" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="252"/>
-      <c r="D10" s="252"/>
-      <c r="E10" s="252"/>
-      <c r="F10" s="252"/>
-      <c r="G10" s="252"/>
-      <c r="H10" s="252"/>
-      <c r="I10" s="252"/>
-      <c r="J10" s="252" t="s">
-        <v>65</v>
-      </c>
-      <c r="K10" s="252"/>
-      <c r="L10" s="252"/>
-      <c r="M10" s="252"/>
-      <c r="N10" s="252"/>
-      <c r="O10" s="252"/>
-      <c r="P10" s="252"/>
-      <c r="Q10" s="252"/>
-      <c r="R10" s="252"/>
-      <c r="S10" s="252"/>
-      <c r="T10" s="252"/>
-      <c r="U10" s="252"/>
-      <c r="V10" s="252"/>
-      <c r="W10" s="252"/>
-      <c r="X10" s="252"/>
-      <c r="Y10" s="251"/>
-      <c r="Z10" s="251"/>
-      <c r="AA10" s="251"/>
-      <c r="AB10" s="251"/>
-      <c r="AC10" s="251"/>
-      <c r="AD10" s="251"/>
-      <c r="AE10" s="251"/>
-      <c r="AF10" s="251"/>
-      <c r="AG10" s="251"/>
-      <c r="AH10" s="251"/>
-      <c r="AI10" s="251"/>
+      <c r="K10" s="251"/>
+      <c r="L10" s="251"/>
+      <c r="M10" s="251"/>
+      <c r="N10" s="251"/>
+      <c r="O10" s="251"/>
+      <c r="P10" s="251"/>
+      <c r="Q10" s="251"/>
+      <c r="R10" s="251"/>
+      <c r="S10" s="251"/>
+      <c r="T10" s="251"/>
+      <c r="U10" s="251"/>
+      <c r="V10" s="251"/>
+      <c r="W10" s="251"/>
+      <c r="X10" s="251"/>
+      <c r="Y10" s="256"/>
+      <c r="Z10" s="253"/>
+      <c r="AA10" s="253"/>
+      <c r="AB10" s="253"/>
+      <c r="AC10" s="253"/>
+      <c r="AD10" s="253"/>
+      <c r="AE10" s="253"/>
+      <c r="AF10" s="253"/>
+      <c r="AG10" s="253"/>
+      <c r="AH10" s="253"/>
+      <c r="AI10" s="253"/>
       <c r="AJ10" s="22"/>
       <c r="AK10" s="22"/>
       <c r="AL10" s="22"/>
@@ -18230,48 +18329,48 @@
       <c r="BQ10" s="22"/>
       <c r="BR10" s="22"/>
     </row>
-    <row r="11" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A11" s="58">
         <v>2</v>
       </c>
-      <c r="B11" s="253" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="252"/>
-      <c r="D11" s="252"/>
-      <c r="E11" s="252"/>
-      <c r="F11" s="252"/>
-      <c r="G11" s="252"/>
-      <c r="H11" s="252"/>
-      <c r="I11" s="252"/>
-      <c r="J11" s="252" t="s">
-        <v>67</v>
-      </c>
-      <c r="K11" s="252"/>
-      <c r="L11" s="252"/>
-      <c r="M11" s="252"/>
-      <c r="N11" s="252"/>
-      <c r="O11" s="252"/>
-      <c r="P11" s="252"/>
-      <c r="Q11" s="252"/>
-      <c r="R11" s="252"/>
-      <c r="S11" s="252"/>
-      <c r="T11" s="252"/>
-      <c r="U11" s="252"/>
-      <c r="V11" s="252"/>
-      <c r="W11" s="252"/>
-      <c r="X11" s="252"/>
-      <c r="Y11" s="251"/>
-      <c r="Z11" s="251"/>
-      <c r="AA11" s="251"/>
-      <c r="AB11" s="251"/>
-      <c r="AC11" s="251"/>
-      <c r="AD11" s="251"/>
-      <c r="AE11" s="251"/>
-      <c r="AF11" s="251"/>
-      <c r="AG11" s="251"/>
-      <c r="AH11" s="251"/>
-      <c r="AI11" s="251"/>
+      <c r="B11" s="251" t="s">
+        <v>254</v>
+      </c>
+      <c r="C11" s="251"/>
+      <c r="D11" s="251"/>
+      <c r="E11" s="251"/>
+      <c r="F11" s="251"/>
+      <c r="G11" s="251"/>
+      <c r="H11" s="251"/>
+      <c r="I11" s="251"/>
+      <c r="J11" s="251" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" s="251"/>
+      <c r="L11" s="251"/>
+      <c r="M11" s="251"/>
+      <c r="N11" s="251"/>
+      <c r="O11" s="251"/>
+      <c r="P11" s="251"/>
+      <c r="Q11" s="251"/>
+      <c r="R11" s="251"/>
+      <c r="S11" s="251"/>
+      <c r="T11" s="251"/>
+      <c r="U11" s="251"/>
+      <c r="V11" s="251"/>
+      <c r="W11" s="251"/>
+      <c r="X11" s="251"/>
+      <c r="Y11" s="256"/>
+      <c r="Z11" s="253"/>
+      <c r="AA11" s="253"/>
+      <c r="AB11" s="253"/>
+      <c r="AC11" s="253"/>
+      <c r="AD11" s="253"/>
+      <c r="AE11" s="253"/>
+      <c r="AF11" s="253"/>
+      <c r="AG11" s="253"/>
+      <c r="AH11" s="253"/>
+      <c r="AI11" s="253"/>
       <c r="AJ11" s="22"/>
       <c r="AK11" s="22"/>
       <c r="AL11" s="22"/>
@@ -18308,48 +18407,48 @@
       <c r="BQ11" s="22"/>
       <c r="BR11" s="22"/>
     </row>
-    <row r="12" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A12" s="58">
         <v>3</v>
       </c>
-      <c r="B12" s="252" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="252"/>
-      <c r="D12" s="252"/>
-      <c r="E12" s="252"/>
-      <c r="F12" s="252"/>
-      <c r="G12" s="252"/>
-      <c r="H12" s="252"/>
-      <c r="I12" s="252"/>
-      <c r="J12" s="252" t="s">
-        <v>67</v>
-      </c>
-      <c r="K12" s="252"/>
-      <c r="L12" s="252"/>
-      <c r="M12" s="252"/>
-      <c r="N12" s="252"/>
-      <c r="O12" s="252"/>
-      <c r="P12" s="252"/>
-      <c r="Q12" s="252"/>
-      <c r="R12" s="252"/>
-      <c r="S12" s="252"/>
-      <c r="T12" s="252"/>
-      <c r="U12" s="252"/>
-      <c r="V12" s="252"/>
-      <c r="W12" s="252"/>
-      <c r="X12" s="252"/>
-      <c r="Y12" s="251"/>
-      <c r="Z12" s="251"/>
-      <c r="AA12" s="251"/>
-      <c r="AB12" s="251"/>
-      <c r="AC12" s="251"/>
-      <c r="AD12" s="251"/>
-      <c r="AE12" s="251"/>
-      <c r="AF12" s="251"/>
-      <c r="AG12" s="251"/>
-      <c r="AH12" s="251"/>
-      <c r="AI12" s="251"/>
+      <c r="B12" s="251" t="s">
+        <v>255</v>
+      </c>
+      <c r="C12" s="251"/>
+      <c r="D12" s="251"/>
+      <c r="E12" s="251"/>
+      <c r="F12" s="251"/>
+      <c r="G12" s="251"/>
+      <c r="H12" s="251"/>
+      <c r="I12" s="251"/>
+      <c r="J12" s="251" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" s="251"/>
+      <c r="L12" s="251"/>
+      <c r="M12" s="251"/>
+      <c r="N12" s="251"/>
+      <c r="O12" s="251"/>
+      <c r="P12" s="251"/>
+      <c r="Q12" s="251"/>
+      <c r="R12" s="251"/>
+      <c r="S12" s="251"/>
+      <c r="T12" s="251"/>
+      <c r="U12" s="251"/>
+      <c r="V12" s="251"/>
+      <c r="W12" s="251"/>
+      <c r="X12" s="251"/>
+      <c r="Y12" s="256"/>
+      <c r="Z12" s="253"/>
+      <c r="AA12" s="253"/>
+      <c r="AB12" s="253"/>
+      <c r="AC12" s="253"/>
+      <c r="AD12" s="253"/>
+      <c r="AE12" s="253"/>
+      <c r="AF12" s="253"/>
+      <c r="AG12" s="253"/>
+      <c r="AH12" s="253"/>
+      <c r="AI12" s="253"/>
       <c r="AJ12" s="22"/>
       <c r="AK12" s="22"/>
       <c r="AL12" s="22"/>
@@ -18386,48 +18485,48 @@
       <c r="BQ12" s="22"/>
       <c r="BR12" s="22"/>
     </row>
-    <row r="13" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A13" s="58">
         <v>4</v>
       </c>
-      <c r="B13" s="253" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="252"/>
-      <c r="D13" s="252"/>
-      <c r="E13" s="252"/>
-      <c r="F13" s="252"/>
-      <c r="G13" s="252"/>
-      <c r="H13" s="252"/>
-      <c r="I13" s="252"/>
-      <c r="J13" s="252" t="s">
-        <v>67</v>
-      </c>
-      <c r="K13" s="252"/>
-      <c r="L13" s="252"/>
-      <c r="M13" s="252"/>
-      <c r="N13" s="252"/>
-      <c r="O13" s="252"/>
-      <c r="P13" s="252"/>
-      <c r="Q13" s="252"/>
-      <c r="R13" s="252"/>
-      <c r="S13" s="252"/>
-      <c r="T13" s="252"/>
-      <c r="U13" s="252"/>
-      <c r="V13" s="252"/>
-      <c r="W13" s="252"/>
-      <c r="X13" s="252"/>
-      <c r="Y13" s="251"/>
-      <c r="Z13" s="251"/>
-      <c r="AA13" s="251"/>
-      <c r="AB13" s="251"/>
-      <c r="AC13" s="251"/>
-      <c r="AD13" s="251"/>
-      <c r="AE13" s="251"/>
-      <c r="AF13" s="251"/>
-      <c r="AG13" s="251"/>
-      <c r="AH13" s="251"/>
-      <c r="AI13" s="251"/>
+      <c r="B13" s="251" t="s">
+        <v>256</v>
+      </c>
+      <c r="C13" s="251"/>
+      <c r="D13" s="251"/>
+      <c r="E13" s="251"/>
+      <c r="F13" s="251"/>
+      <c r="G13" s="251"/>
+      <c r="H13" s="251"/>
+      <c r="I13" s="251"/>
+      <c r="J13" s="251" t="s">
+        <v>65</v>
+      </c>
+      <c r="K13" s="251"/>
+      <c r="L13" s="251"/>
+      <c r="M13" s="251"/>
+      <c r="N13" s="251"/>
+      <c r="O13" s="251"/>
+      <c r="P13" s="251"/>
+      <c r="Q13" s="251"/>
+      <c r="R13" s="251"/>
+      <c r="S13" s="251"/>
+      <c r="T13" s="251"/>
+      <c r="U13" s="251"/>
+      <c r="V13" s="251"/>
+      <c r="W13" s="251"/>
+      <c r="X13" s="251"/>
+      <c r="Y13" s="256"/>
+      <c r="Z13" s="253"/>
+      <c r="AA13" s="253"/>
+      <c r="AB13" s="253"/>
+      <c r="AC13" s="253"/>
+      <c r="AD13" s="253"/>
+      <c r="AE13" s="253"/>
+      <c r="AF13" s="253"/>
+      <c r="AG13" s="253"/>
+      <c r="AH13" s="253"/>
+      <c r="AI13" s="253"/>
       <c r="AJ13" s="22"/>
       <c r="AK13" s="22"/>
       <c r="AL13" s="22"/>
@@ -18464,48 +18563,48 @@
       <c r="BQ13" s="22"/>
       <c r="BR13" s="22"/>
     </row>
-    <row r="14" spans="1:70" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:70" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="58">
         <v>5</v>
       </c>
-      <c r="B14" s="260" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="252"/>
-      <c r="D14" s="252"/>
-      <c r="E14" s="252"/>
-      <c r="F14" s="252"/>
-      <c r="G14" s="252"/>
-      <c r="H14" s="252"/>
-      <c r="I14" s="252"/>
-      <c r="J14" s="252" t="s">
-        <v>67</v>
-      </c>
-      <c r="K14" s="252"/>
-      <c r="L14" s="252"/>
-      <c r="M14" s="252"/>
-      <c r="N14" s="252"/>
-      <c r="O14" s="252"/>
-      <c r="P14" s="252"/>
-      <c r="Q14" s="252"/>
-      <c r="R14" s="252"/>
-      <c r="S14" s="252"/>
-      <c r="T14" s="252"/>
-      <c r="U14" s="252"/>
-      <c r="V14" s="252"/>
-      <c r="W14" s="252"/>
-      <c r="X14" s="252"/>
-      <c r="Y14" s="251"/>
-      <c r="Z14" s="251"/>
-      <c r="AA14" s="251"/>
-      <c r="AB14" s="251"/>
-      <c r="AC14" s="251"/>
-      <c r="AD14" s="251"/>
-      <c r="AE14" s="251"/>
-      <c r="AF14" s="251"/>
-      <c r="AG14" s="251"/>
-      <c r="AH14" s="251"/>
-      <c r="AI14" s="251"/>
+      <c r="B14" s="252" t="s">
+        <v>257</v>
+      </c>
+      <c r="C14" s="251"/>
+      <c r="D14" s="251"/>
+      <c r="E14" s="251"/>
+      <c r="F14" s="251"/>
+      <c r="G14" s="251"/>
+      <c r="H14" s="251"/>
+      <c r="I14" s="251"/>
+      <c r="J14" s="251" t="s">
+        <v>65</v>
+      </c>
+      <c r="K14" s="251"/>
+      <c r="L14" s="251"/>
+      <c r="M14" s="251"/>
+      <c r="N14" s="251"/>
+      <c r="O14" s="251"/>
+      <c r="P14" s="251"/>
+      <c r="Q14" s="251"/>
+      <c r="R14" s="251"/>
+      <c r="S14" s="251"/>
+      <c r="T14" s="251"/>
+      <c r="U14" s="251"/>
+      <c r="V14" s="251"/>
+      <c r="W14" s="251"/>
+      <c r="X14" s="251"/>
+      <c r="Y14" s="256"/>
+      <c r="Z14" s="253"/>
+      <c r="AA14" s="253"/>
+      <c r="AB14" s="253"/>
+      <c r="AC14" s="253"/>
+      <c r="AD14" s="253"/>
+      <c r="AE14" s="253"/>
+      <c r="AF14" s="253"/>
+      <c r="AG14" s="253"/>
+      <c r="AH14" s="253"/>
+      <c r="AI14" s="253"/>
       <c r="AJ14" s="22"/>
       <c r="AK14" s="22"/>
       <c r="AL14" s="22"/>
@@ -18542,12 +18641,12 @@
       <c r="BQ14" s="22"/>
       <c r="BR14" s="22"/>
     </row>
-    <row r="15" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A15" s="58">
         <v>6</v>
       </c>
       <c r="B15" s="104" t="s">
-        <v>71</v>
+        <v>258</v>
       </c>
       <c r="C15" s="105"/>
       <c r="D15" s="105"/>
@@ -18556,34 +18655,34 @@
       <c r="G15" s="105"/>
       <c r="H15" s="105"/>
       <c r="I15" s="106"/>
-      <c r="J15" s="252" t="s">
-        <v>72</v>
-      </c>
-      <c r="K15" s="252"/>
-      <c r="L15" s="252"/>
-      <c r="M15" s="252"/>
-      <c r="N15" s="252"/>
-      <c r="O15" s="252"/>
-      <c r="P15" s="252"/>
-      <c r="Q15" s="252"/>
-      <c r="R15" s="252"/>
-      <c r="S15" s="252"/>
-      <c r="T15" s="252"/>
-      <c r="U15" s="252"/>
-      <c r="V15" s="252"/>
-      <c r="W15" s="252"/>
-      <c r="X15" s="252"/>
-      <c r="Y15" s="251"/>
-      <c r="Z15" s="251"/>
-      <c r="AA15" s="251"/>
-      <c r="AB15" s="251"/>
-      <c r="AC15" s="251"/>
-      <c r="AD15" s="251"/>
-      <c r="AE15" s="251"/>
-      <c r="AF15" s="251"/>
-      <c r="AG15" s="251"/>
-      <c r="AH15" s="251"/>
-      <c r="AI15" s="251"/>
+      <c r="J15" s="251" t="s">
+        <v>67</v>
+      </c>
+      <c r="K15" s="251"/>
+      <c r="L15" s="251"/>
+      <c r="M15" s="251"/>
+      <c r="N15" s="251"/>
+      <c r="O15" s="251"/>
+      <c r="P15" s="251"/>
+      <c r="Q15" s="251"/>
+      <c r="R15" s="251"/>
+      <c r="S15" s="251"/>
+      <c r="T15" s="251"/>
+      <c r="U15" s="251"/>
+      <c r="V15" s="251"/>
+      <c r="W15" s="251"/>
+      <c r="X15" s="251"/>
+      <c r="Y15" s="256"/>
+      <c r="Z15" s="253"/>
+      <c r="AA15" s="253"/>
+      <c r="AB15" s="253"/>
+      <c r="AC15" s="253"/>
+      <c r="AD15" s="253"/>
+      <c r="AE15" s="253"/>
+      <c r="AF15" s="253"/>
+      <c r="AG15" s="253"/>
+      <c r="AH15" s="253"/>
+      <c r="AI15" s="253"/>
       <c r="AJ15" s="22"/>
       <c r="AK15" s="22"/>
       <c r="AL15" s="22"/>
@@ -18620,48 +18719,48 @@
       <c r="BQ15" s="22"/>
       <c r="BR15" s="22"/>
     </row>
-    <row r="16" spans="1:70" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:70" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="58">
         <v>7</v>
       </c>
-      <c r="B16" s="260" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="252"/>
-      <c r="D16" s="252"/>
-      <c r="E16" s="252"/>
-      <c r="F16" s="252"/>
-      <c r="G16" s="252"/>
-      <c r="H16" s="252"/>
-      <c r="I16" s="252"/>
-      <c r="J16" s="252" t="s">
-        <v>67</v>
-      </c>
-      <c r="K16" s="252"/>
-      <c r="L16" s="252"/>
-      <c r="M16" s="252"/>
-      <c r="N16" s="252"/>
-      <c r="O16" s="252"/>
-      <c r="P16" s="252"/>
-      <c r="Q16" s="252"/>
-      <c r="R16" s="252"/>
-      <c r="S16" s="252"/>
-      <c r="T16" s="252"/>
-      <c r="U16" s="252"/>
-      <c r="V16" s="252"/>
-      <c r="W16" s="252"/>
-      <c r="X16" s="252"/>
-      <c r="Y16" s="251"/>
-      <c r="Z16" s="251"/>
-      <c r="AA16" s="251"/>
-      <c r="AB16" s="251"/>
-      <c r="AC16" s="251"/>
-      <c r="AD16" s="251"/>
-      <c r="AE16" s="251"/>
-      <c r="AF16" s="251"/>
-      <c r="AG16" s="251"/>
-      <c r="AH16" s="251"/>
-      <c r="AI16" s="251"/>
+      <c r="B16" s="252" t="s">
+        <v>259</v>
+      </c>
+      <c r="C16" s="251"/>
+      <c r="D16" s="251"/>
+      <c r="E16" s="251"/>
+      <c r="F16" s="251"/>
+      <c r="G16" s="251"/>
+      <c r="H16" s="251"/>
+      <c r="I16" s="251"/>
+      <c r="J16" s="251" t="s">
+        <v>65</v>
+      </c>
+      <c r="K16" s="251"/>
+      <c r="L16" s="251"/>
+      <c r="M16" s="251"/>
+      <c r="N16" s="251"/>
+      <c r="O16" s="251"/>
+      <c r="P16" s="251"/>
+      <c r="Q16" s="251"/>
+      <c r="R16" s="251"/>
+      <c r="S16" s="251"/>
+      <c r="T16" s="251"/>
+      <c r="U16" s="251"/>
+      <c r="V16" s="251"/>
+      <c r="W16" s="251"/>
+      <c r="X16" s="251"/>
+      <c r="Y16" s="256"/>
+      <c r="Z16" s="253"/>
+      <c r="AA16" s="253"/>
+      <c r="AB16" s="253"/>
+      <c r="AC16" s="253"/>
+      <c r="AD16" s="253"/>
+      <c r="AE16" s="253"/>
+      <c r="AF16" s="253"/>
+      <c r="AG16" s="253"/>
+      <c r="AH16" s="253"/>
+      <c r="AI16" s="253"/>
       <c r="AJ16" s="22"/>
       <c r="AK16" s="22"/>
       <c r="AL16" s="22"/>
@@ -18698,48 +18797,48 @@
       <c r="BQ16" s="22"/>
       <c r="BR16" s="22"/>
     </row>
-    <row r="17" spans="1:70" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:70" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="58">
         <v>8</v>
       </c>
-      <c r="B17" s="260" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="260"/>
-      <c r="D17" s="260"/>
-      <c r="E17" s="260"/>
-      <c r="F17" s="260"/>
-      <c r="G17" s="260"/>
-      <c r="H17" s="260"/>
-      <c r="I17" s="260"/>
-      <c r="J17" s="252" t="s">
-        <v>67</v>
-      </c>
-      <c r="K17" s="252"/>
-      <c r="L17" s="252"/>
-      <c r="M17" s="252"/>
-      <c r="N17" s="252"/>
-      <c r="O17" s="252"/>
-      <c r="P17" s="252"/>
-      <c r="Q17" s="252"/>
-      <c r="R17" s="252"/>
-      <c r="S17" s="252"/>
-      <c r="T17" s="252"/>
-      <c r="U17" s="252"/>
-      <c r="V17" s="252"/>
-      <c r="W17" s="252"/>
-      <c r="X17" s="252"/>
-      <c r="Y17" s="251"/>
-      <c r="Z17" s="251"/>
-      <c r="AA17" s="251"/>
-      <c r="AB17" s="251"/>
-      <c r="AC17" s="251"/>
-      <c r="AD17" s="251"/>
-      <c r="AE17" s="251"/>
-      <c r="AF17" s="251"/>
-      <c r="AG17" s="251"/>
-      <c r="AH17" s="251"/>
-      <c r="AI17" s="251"/>
+      <c r="B17" s="252" t="s">
+        <v>260</v>
+      </c>
+      <c r="C17" s="252"/>
+      <c r="D17" s="252"/>
+      <c r="E17" s="252"/>
+      <c r="F17" s="252"/>
+      <c r="G17" s="252"/>
+      <c r="H17" s="252"/>
+      <c r="I17" s="252"/>
+      <c r="J17" s="251" t="s">
+        <v>65</v>
+      </c>
+      <c r="K17" s="251"/>
+      <c r="L17" s="251"/>
+      <c r="M17" s="251"/>
+      <c r="N17" s="251"/>
+      <c r="O17" s="251"/>
+      <c r="P17" s="251"/>
+      <c r="Q17" s="251"/>
+      <c r="R17" s="251"/>
+      <c r="S17" s="251"/>
+      <c r="T17" s="251"/>
+      <c r="U17" s="251"/>
+      <c r="V17" s="251"/>
+      <c r="W17" s="251"/>
+      <c r="X17" s="251"/>
+      <c r="Y17" s="256"/>
+      <c r="Z17" s="253"/>
+      <c r="AA17" s="253"/>
+      <c r="AB17" s="253"/>
+      <c r="AC17" s="253"/>
+      <c r="AD17" s="253"/>
+      <c r="AE17" s="253"/>
+      <c r="AF17" s="253"/>
+      <c r="AG17" s="253"/>
+      <c r="AH17" s="253"/>
+      <c r="AI17" s="253"/>
       <c r="AJ17" s="22"/>
       <c r="AK17" s="22"/>
       <c r="AL17" s="22"/>
@@ -18776,48 +18875,48 @@
       <c r="BQ17" s="22"/>
       <c r="BR17" s="22"/>
     </row>
-    <row r="18" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A18" s="58">
         <v>9</v>
       </c>
-      <c r="B18" s="252" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="252"/>
-      <c r="D18" s="252"/>
-      <c r="E18" s="252"/>
-      <c r="F18" s="252"/>
-      <c r="G18" s="252"/>
-      <c r="H18" s="252"/>
-      <c r="I18" s="252"/>
-      <c r="J18" s="252" t="s">
-        <v>76</v>
-      </c>
-      <c r="K18" s="252"/>
-      <c r="L18" s="252"/>
-      <c r="M18" s="252"/>
-      <c r="N18" s="252"/>
-      <c r="O18" s="252"/>
-      <c r="P18" s="252"/>
-      <c r="Q18" s="252"/>
-      <c r="R18" s="252"/>
-      <c r="S18" s="252"/>
-      <c r="T18" s="252"/>
-      <c r="U18" s="252"/>
-      <c r="V18" s="252"/>
-      <c r="W18" s="252"/>
-      <c r="X18" s="252"/>
-      <c r="Y18" s="251"/>
-      <c r="Z18" s="251"/>
-      <c r="AA18" s="251"/>
-      <c r="AB18" s="251"/>
-      <c r="AC18" s="251"/>
-      <c r="AD18" s="251"/>
-      <c r="AE18" s="251"/>
-      <c r="AF18" s="251"/>
-      <c r="AG18" s="251"/>
-      <c r="AH18" s="251"/>
-      <c r="AI18" s="251"/>
+      <c r="B18" s="251" t="s">
+        <v>261</v>
+      </c>
+      <c r="C18" s="251"/>
+      <c r="D18" s="251"/>
+      <c r="E18" s="251"/>
+      <c r="F18" s="251"/>
+      <c r="G18" s="251"/>
+      <c r="H18" s="251"/>
+      <c r="I18" s="251"/>
+      <c r="J18" s="251" t="s">
+        <v>68</v>
+      </c>
+      <c r="K18" s="251"/>
+      <c r="L18" s="251"/>
+      <c r="M18" s="251"/>
+      <c r="N18" s="251"/>
+      <c r="O18" s="251"/>
+      <c r="P18" s="251"/>
+      <c r="Q18" s="251"/>
+      <c r="R18" s="251"/>
+      <c r="S18" s="251"/>
+      <c r="T18" s="251"/>
+      <c r="U18" s="251"/>
+      <c r="V18" s="251"/>
+      <c r="W18" s="251"/>
+      <c r="X18" s="251"/>
+      <c r="Y18" s="256"/>
+      <c r="Z18" s="253"/>
+      <c r="AA18" s="253"/>
+      <c r="AB18" s="253"/>
+      <c r="AC18" s="253"/>
+      <c r="AD18" s="253"/>
+      <c r="AE18" s="253"/>
+      <c r="AF18" s="253"/>
+      <c r="AG18" s="253"/>
+      <c r="AH18" s="253"/>
+      <c r="AI18" s="253"/>
       <c r="AJ18" s="22"/>
       <c r="AK18" s="22"/>
       <c r="AL18" s="22"/>
@@ -18854,48 +18953,48 @@
       <c r="BQ18" s="22"/>
       <c r="BR18" s="22"/>
     </row>
-    <row r="19" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A19" s="58">
         <v>10</v>
       </c>
-      <c r="B19" s="252" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="252"/>
-      <c r="D19" s="252"/>
-      <c r="E19" s="252"/>
-      <c r="F19" s="252"/>
-      <c r="G19" s="252"/>
-      <c r="H19" s="252"/>
-      <c r="I19" s="252"/>
-      <c r="J19" s="252" t="s">
-        <v>67</v>
-      </c>
-      <c r="K19" s="252"/>
-      <c r="L19" s="252"/>
-      <c r="M19" s="252"/>
-      <c r="N19" s="252"/>
-      <c r="O19" s="252"/>
-      <c r="P19" s="252"/>
-      <c r="Q19" s="252"/>
-      <c r="R19" s="252"/>
-      <c r="S19" s="252"/>
-      <c r="T19" s="252"/>
-      <c r="U19" s="252"/>
-      <c r="V19" s="252"/>
-      <c r="W19" s="252"/>
-      <c r="X19" s="252"/>
-      <c r="Y19" s="251"/>
-      <c r="Z19" s="251"/>
-      <c r="AA19" s="251"/>
-      <c r="AB19" s="251"/>
-      <c r="AC19" s="251"/>
-      <c r="AD19" s="251"/>
-      <c r="AE19" s="251"/>
-      <c r="AF19" s="251"/>
-      <c r="AG19" s="251"/>
-      <c r="AH19" s="251"/>
-      <c r="AI19" s="251"/>
+      <c r="B19" s="251" t="s">
+        <v>262</v>
+      </c>
+      <c r="C19" s="251"/>
+      <c r="D19" s="251"/>
+      <c r="E19" s="251"/>
+      <c r="F19" s="251"/>
+      <c r="G19" s="251"/>
+      <c r="H19" s="251"/>
+      <c r="I19" s="251"/>
+      <c r="J19" s="251" t="s">
+        <v>65</v>
+      </c>
+      <c r="K19" s="251"/>
+      <c r="L19" s="251"/>
+      <c r="M19" s="251"/>
+      <c r="N19" s="251"/>
+      <c r="O19" s="251"/>
+      <c r="P19" s="251"/>
+      <c r="Q19" s="251"/>
+      <c r="R19" s="251"/>
+      <c r="S19" s="251"/>
+      <c r="T19" s="251"/>
+      <c r="U19" s="251"/>
+      <c r="V19" s="251"/>
+      <c r="W19" s="251"/>
+      <c r="X19" s="251"/>
+      <c r="Y19" s="256"/>
+      <c r="Z19" s="253"/>
+      <c r="AA19" s="253"/>
+      <c r="AB19" s="253"/>
+      <c r="AC19" s="253"/>
+      <c r="AD19" s="253"/>
+      <c r="AE19" s="253"/>
+      <c r="AF19" s="253"/>
+      <c r="AG19" s="253"/>
+      <c r="AH19" s="253"/>
+      <c r="AI19" s="253"/>
       <c r="AJ19" s="22"/>
       <c r="AK19" s="22"/>
       <c r="AL19" s="22"/>
@@ -18932,48 +19031,48 @@
       <c r="BQ19" s="22"/>
       <c r="BR19" s="22"/>
     </row>
-    <row r="20" spans="1:70" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:70" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="58">
         <v>11</v>
       </c>
-      <c r="B20" s="260" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="252"/>
-      <c r="D20" s="252"/>
-      <c r="E20" s="252"/>
-      <c r="F20" s="252"/>
-      <c r="G20" s="252"/>
-      <c r="H20" s="252"/>
-      <c r="I20" s="252"/>
-      <c r="J20" s="252" t="s">
-        <v>79</v>
-      </c>
-      <c r="K20" s="252"/>
-      <c r="L20" s="252"/>
-      <c r="M20" s="252"/>
-      <c r="N20" s="252"/>
-      <c r="O20" s="252"/>
-      <c r="P20" s="252"/>
-      <c r="Q20" s="252"/>
-      <c r="R20" s="252"/>
-      <c r="S20" s="252"/>
-      <c r="T20" s="252"/>
-      <c r="U20" s="252"/>
-      <c r="V20" s="252"/>
-      <c r="W20" s="252"/>
-      <c r="X20" s="252"/>
-      <c r="Y20" s="251"/>
-      <c r="Z20" s="251"/>
-      <c r="AA20" s="251"/>
-      <c r="AB20" s="251"/>
-      <c r="AC20" s="251"/>
-      <c r="AD20" s="251"/>
-      <c r="AE20" s="251"/>
-      <c r="AF20" s="251"/>
-      <c r="AG20" s="251"/>
-      <c r="AH20" s="251"/>
-      <c r="AI20" s="251"/>
+      <c r="B20" s="252" t="s">
+        <v>263</v>
+      </c>
+      <c r="C20" s="251"/>
+      <c r="D20" s="251"/>
+      <c r="E20" s="251"/>
+      <c r="F20" s="251"/>
+      <c r="G20" s="251"/>
+      <c r="H20" s="251"/>
+      <c r="I20" s="251"/>
+      <c r="J20" s="251" t="s">
+        <v>69</v>
+      </c>
+      <c r="K20" s="251"/>
+      <c r="L20" s="251"/>
+      <c r="M20" s="251"/>
+      <c r="N20" s="251"/>
+      <c r="O20" s="251"/>
+      <c r="P20" s="251"/>
+      <c r="Q20" s="251"/>
+      <c r="R20" s="251"/>
+      <c r="S20" s="251"/>
+      <c r="T20" s="251"/>
+      <c r="U20" s="251"/>
+      <c r="V20" s="251"/>
+      <c r="W20" s="251"/>
+      <c r="X20" s="251"/>
+      <c r="Y20" s="200"/>
+      <c r="Z20" s="201"/>
+      <c r="AA20" s="201"/>
+      <c r="AB20" s="201"/>
+      <c r="AC20" s="253"/>
+      <c r="AD20" s="253"/>
+      <c r="AE20" s="253"/>
+      <c r="AF20" s="253"/>
+      <c r="AG20" s="253"/>
+      <c r="AH20" s="253"/>
+      <c r="AI20" s="253"/>
       <c r="AJ20" s="22"/>
       <c r="AK20" s="22"/>
       <c r="AL20" s="22"/>
@@ -19010,48 +19109,48 @@
       <c r="BQ20" s="22"/>
       <c r="BR20" s="22"/>
     </row>
-    <row r="21" spans="1:70" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:70" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="58">
         <v>12</v>
       </c>
-      <c r="B21" s="260" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="252"/>
-      <c r="D21" s="252"/>
-      <c r="E21" s="252"/>
-      <c r="F21" s="252"/>
-      <c r="G21" s="252"/>
-      <c r="H21" s="252"/>
-      <c r="I21" s="252"/>
-      <c r="J21" s="252" t="s">
-        <v>81</v>
-      </c>
-      <c r="K21" s="252"/>
-      <c r="L21" s="252"/>
-      <c r="M21" s="252"/>
-      <c r="N21" s="252"/>
-      <c r="O21" s="252"/>
-      <c r="P21" s="252"/>
-      <c r="Q21" s="252"/>
-      <c r="R21" s="252"/>
-      <c r="S21" s="252"/>
-      <c r="T21" s="252"/>
-      <c r="U21" s="252"/>
-      <c r="V21" s="252"/>
-      <c r="W21" s="252"/>
-      <c r="X21" s="252"/>
-      <c r="Y21" s="251"/>
-      <c r="Z21" s="251"/>
-      <c r="AA21" s="251"/>
-      <c r="AB21" s="251"/>
-      <c r="AC21" s="251"/>
-      <c r="AD21" s="251"/>
-      <c r="AE21" s="251"/>
-      <c r="AF21" s="251"/>
-      <c r="AG21" s="251"/>
-      <c r="AH21" s="251"/>
-      <c r="AI21" s="251"/>
+      <c r="B21" s="252" t="s">
+        <v>264</v>
+      </c>
+      <c r="C21" s="251"/>
+      <c r="D21" s="251"/>
+      <c r="E21" s="251"/>
+      <c r="F21" s="251"/>
+      <c r="G21" s="251"/>
+      <c r="H21" s="251"/>
+      <c r="I21" s="251"/>
+      <c r="J21" s="251" t="s">
+        <v>70</v>
+      </c>
+      <c r="K21" s="251"/>
+      <c r="L21" s="251"/>
+      <c r="M21" s="251"/>
+      <c r="N21" s="251"/>
+      <c r="O21" s="251"/>
+      <c r="P21" s="251"/>
+      <c r="Q21" s="251"/>
+      <c r="R21" s="251"/>
+      <c r="S21" s="251"/>
+      <c r="T21" s="251"/>
+      <c r="U21" s="251"/>
+      <c r="V21" s="251"/>
+      <c r="W21" s="251"/>
+      <c r="X21" s="251"/>
+      <c r="Y21" s="200"/>
+      <c r="Z21" s="201"/>
+      <c r="AA21" s="201"/>
+      <c r="AB21" s="201"/>
+      <c r="AC21" s="253"/>
+      <c r="AD21" s="253"/>
+      <c r="AE21" s="253"/>
+      <c r="AF21" s="253"/>
+      <c r="AG21" s="253"/>
+      <c r="AH21" s="253"/>
+      <c r="AI21" s="253"/>
       <c r="AJ21" s="22"/>
       <c r="AK21" s="22"/>
       <c r="AL21" s="22"/>
@@ -19088,48 +19187,48 @@
       <c r="BQ21" s="22"/>
       <c r="BR21" s="22"/>
     </row>
-    <row r="22" spans="1:70" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:70" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="58">
         <v>13</v>
       </c>
-      <c r="B22" s="261" t="s">
-        <v>202</v>
-      </c>
-      <c r="C22" s="252"/>
-      <c r="D22" s="252"/>
-      <c r="E22" s="252"/>
-      <c r="F22" s="252"/>
-      <c r="G22" s="252"/>
-      <c r="H22" s="252"/>
-      <c r="I22" s="252"/>
-      <c r="J22" s="252" t="s">
-        <v>82</v>
-      </c>
-      <c r="K22" s="252"/>
-      <c r="L22" s="252"/>
-      <c r="M22" s="252"/>
-      <c r="N22" s="252"/>
-      <c r="O22" s="252"/>
-      <c r="P22" s="252"/>
-      <c r="Q22" s="252"/>
-      <c r="R22" s="252"/>
-      <c r="S22" s="252"/>
-      <c r="T22" s="252"/>
-      <c r="U22" s="252"/>
-      <c r="V22" s="252"/>
-      <c r="W22" s="252"/>
-      <c r="X22" s="252"/>
-      <c r="Y22" s="251"/>
-      <c r="Z22" s="251"/>
-      <c r="AA22" s="251"/>
-      <c r="AB22" s="251"/>
-      <c r="AC22" s="251"/>
-      <c r="AD22" s="251"/>
-      <c r="AE22" s="251"/>
-      <c r="AF22" s="251"/>
-      <c r="AG22" s="251"/>
-      <c r="AH22" s="251"/>
-      <c r="AI22" s="251"/>
+      <c r="B22" s="252" t="s">
+        <v>265</v>
+      </c>
+      <c r="C22" s="251"/>
+      <c r="D22" s="251"/>
+      <c r="E22" s="251"/>
+      <c r="F22" s="251"/>
+      <c r="G22" s="251"/>
+      <c r="H22" s="251"/>
+      <c r="I22" s="251"/>
+      <c r="J22" s="251" t="s">
+        <v>71</v>
+      </c>
+      <c r="K22" s="251"/>
+      <c r="L22" s="251"/>
+      <c r="M22" s="251"/>
+      <c r="N22" s="251"/>
+      <c r="O22" s="251"/>
+      <c r="P22" s="251"/>
+      <c r="Q22" s="251"/>
+      <c r="R22" s="251"/>
+      <c r="S22" s="251"/>
+      <c r="T22" s="251"/>
+      <c r="U22" s="251"/>
+      <c r="V22" s="251"/>
+      <c r="W22" s="251"/>
+      <c r="X22" s="251"/>
+      <c r="Y22" s="200"/>
+      <c r="Z22" s="201"/>
+      <c r="AA22" s="201"/>
+      <c r="AB22" s="201"/>
+      <c r="AC22" s="253"/>
+      <c r="AD22" s="253"/>
+      <c r="AE22" s="253"/>
+      <c r="AF22" s="253"/>
+      <c r="AG22" s="253"/>
+      <c r="AH22" s="253"/>
+      <c r="AI22" s="253"/>
       <c r="AJ22" s="22"/>
       <c r="AK22" s="22"/>
       <c r="AL22" s="22"/>
@@ -19166,48 +19265,48 @@
       <c r="BQ22" s="22"/>
       <c r="BR22" s="22"/>
     </row>
-    <row r="23" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:70" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="58">
         <v>14</v>
       </c>
-      <c r="B23" s="252" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" s="252"/>
-      <c r="D23" s="252"/>
-      <c r="E23" s="252"/>
-      <c r="F23" s="252"/>
-      <c r="G23" s="252"/>
-      <c r="H23" s="252"/>
-      <c r="I23" s="252"/>
-      <c r="J23" s="260" t="s">
-        <v>84</v>
-      </c>
-      <c r="K23" s="260"/>
-      <c r="L23" s="260"/>
-      <c r="M23" s="260"/>
-      <c r="N23" s="260"/>
-      <c r="O23" s="260"/>
-      <c r="P23" s="260"/>
-      <c r="Q23" s="260"/>
-      <c r="R23" s="260"/>
-      <c r="S23" s="260"/>
-      <c r="T23" s="260"/>
-      <c r="U23" s="260"/>
-      <c r="V23" s="260"/>
-      <c r="W23" s="260"/>
-      <c r="X23" s="260"/>
-      <c r="Y23" s="251"/>
-      <c r="Z23" s="251"/>
-      <c r="AA23" s="251"/>
-      <c r="AB23" s="251"/>
-      <c r="AC23" s="251"/>
-      <c r="AD23" s="251"/>
-      <c r="AE23" s="251"/>
-      <c r="AF23" s="251"/>
-      <c r="AG23" s="251"/>
-      <c r="AH23" s="251"/>
-      <c r="AI23" s="251"/>
+      <c r="B23" s="255" t="s">
+        <v>266</v>
+      </c>
+      <c r="C23" s="251"/>
+      <c r="D23" s="251"/>
+      <c r="E23" s="251"/>
+      <c r="F23" s="251"/>
+      <c r="G23" s="251"/>
+      <c r="H23" s="251"/>
+      <c r="I23" s="251"/>
+      <c r="J23" s="254" t="s">
+        <v>267</v>
+      </c>
+      <c r="K23" s="251"/>
+      <c r="L23" s="251"/>
+      <c r="M23" s="251"/>
+      <c r="N23" s="251"/>
+      <c r="O23" s="251"/>
+      <c r="P23" s="251"/>
+      <c r="Q23" s="251"/>
+      <c r="R23" s="251"/>
+      <c r="S23" s="251"/>
+      <c r="T23" s="251"/>
+      <c r="U23" s="251"/>
+      <c r="V23" s="251"/>
+      <c r="W23" s="251"/>
+      <c r="X23" s="251"/>
+      <c r="Y23" s="200"/>
+      <c r="Z23" s="201"/>
+      <c r="AA23" s="201"/>
+      <c r="AB23" s="201"/>
+      <c r="AC23" s="253"/>
+      <c r="AD23" s="253"/>
+      <c r="AE23" s="253"/>
+      <c r="AF23" s="253"/>
+      <c r="AG23" s="253"/>
+      <c r="AH23" s="253"/>
+      <c r="AI23" s="253"/>
       <c r="AJ23" s="22"/>
       <c r="AK23" s="22"/>
       <c r="AL23" s="22"/>
@@ -19244,48 +19343,48 @@
       <c r="BQ23" s="22"/>
       <c r="BR23" s="22"/>
     </row>
-    <row r="24" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:70" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="58">
         <v>15</v>
       </c>
-      <c r="B24" s="252" t="s">
-        <v>85</v>
-      </c>
-      <c r="C24" s="252"/>
-      <c r="D24" s="252"/>
-      <c r="E24" s="252"/>
-      <c r="F24" s="252"/>
-      <c r="G24" s="252"/>
-      <c r="H24" s="252"/>
-      <c r="I24" s="252"/>
-      <c r="J24" s="260" t="s">
-        <v>86</v>
-      </c>
-      <c r="K24" s="260"/>
-      <c r="L24" s="260"/>
-      <c r="M24" s="260"/>
-      <c r="N24" s="260"/>
-      <c r="O24" s="260"/>
-      <c r="P24" s="260"/>
-      <c r="Q24" s="260"/>
-      <c r="R24" s="260"/>
-      <c r="S24" s="260"/>
-      <c r="T24" s="260"/>
-      <c r="U24" s="260"/>
-      <c r="V24" s="260"/>
-      <c r="W24" s="260"/>
-      <c r="X24" s="260"/>
-      <c r="Y24" s="251"/>
-      <c r="Z24" s="251"/>
-      <c r="AA24" s="251"/>
-      <c r="AB24" s="251"/>
-      <c r="AC24" s="251"/>
-      <c r="AD24" s="251"/>
-      <c r="AE24" s="251"/>
-      <c r="AF24" s="251"/>
-      <c r="AG24" s="251"/>
-      <c r="AH24" s="251"/>
-      <c r="AI24" s="251"/>
+      <c r="B24" s="255" t="s">
+        <v>268</v>
+      </c>
+      <c r="C24" s="251"/>
+      <c r="D24" s="251"/>
+      <c r="E24" s="251"/>
+      <c r="F24" s="251"/>
+      <c r="G24" s="251"/>
+      <c r="H24" s="251"/>
+      <c r="I24" s="251"/>
+      <c r="J24" s="254" t="s">
+        <v>269</v>
+      </c>
+      <c r="K24" s="251"/>
+      <c r="L24" s="251"/>
+      <c r="M24" s="251"/>
+      <c r="N24" s="251"/>
+      <c r="O24" s="251"/>
+      <c r="P24" s="251"/>
+      <c r="Q24" s="251"/>
+      <c r="R24" s="251"/>
+      <c r="S24" s="251"/>
+      <c r="T24" s="251"/>
+      <c r="U24" s="251"/>
+      <c r="V24" s="251"/>
+      <c r="W24" s="251"/>
+      <c r="X24" s="251"/>
+      <c r="Y24" s="200"/>
+      <c r="Z24" s="201"/>
+      <c r="AA24" s="201"/>
+      <c r="AB24" s="201"/>
+      <c r="AC24" s="253"/>
+      <c r="AD24" s="253"/>
+      <c r="AE24" s="253"/>
+      <c r="AF24" s="253"/>
+      <c r="AG24" s="253"/>
+      <c r="AH24" s="253"/>
+      <c r="AI24" s="253"/>
       <c r="AJ24" s="22"/>
       <c r="AK24" s="22"/>
       <c r="AL24" s="22"/>
@@ -19322,48 +19421,48 @@
       <c r="BQ24" s="22"/>
       <c r="BR24" s="22"/>
     </row>
-    <row r="25" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:70" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="58">
         <v>16</v>
       </c>
-      <c r="B25" s="252" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25" s="252"/>
-      <c r="D25" s="252"/>
-      <c r="E25" s="252"/>
-      <c r="F25" s="252"/>
-      <c r="G25" s="252"/>
-      <c r="H25" s="252"/>
-      <c r="I25" s="252"/>
-      <c r="J25" s="260" t="s">
-        <v>88</v>
-      </c>
-      <c r="K25" s="260"/>
-      <c r="L25" s="260"/>
-      <c r="M25" s="260"/>
-      <c r="N25" s="260"/>
-      <c r="O25" s="260"/>
-      <c r="P25" s="260"/>
-      <c r="Q25" s="260"/>
-      <c r="R25" s="260"/>
-      <c r="S25" s="260"/>
-      <c r="T25" s="260"/>
-      <c r="U25" s="260"/>
-      <c r="V25" s="260"/>
-      <c r="W25" s="260"/>
-      <c r="X25" s="260"/>
-      <c r="Y25" s="251"/>
-      <c r="Z25" s="251"/>
-      <c r="AA25" s="251"/>
-      <c r="AB25" s="251"/>
-      <c r="AC25" s="251"/>
-      <c r="AD25" s="251"/>
-      <c r="AE25" s="251"/>
-      <c r="AF25" s="251"/>
-      <c r="AG25" s="251"/>
-      <c r="AH25" s="251"/>
-      <c r="AI25" s="251"/>
+      <c r="B25" s="255" t="s">
+        <v>270</v>
+      </c>
+      <c r="C25" s="251"/>
+      <c r="D25" s="251"/>
+      <c r="E25" s="251"/>
+      <c r="F25" s="251"/>
+      <c r="G25" s="251"/>
+      <c r="H25" s="251"/>
+      <c r="I25" s="251"/>
+      <c r="J25" s="254" t="s">
+        <v>271</v>
+      </c>
+      <c r="K25" s="251"/>
+      <c r="L25" s="251"/>
+      <c r="M25" s="251"/>
+      <c r="N25" s="251"/>
+      <c r="O25" s="251"/>
+      <c r="P25" s="251"/>
+      <c r="Q25" s="251"/>
+      <c r="R25" s="251"/>
+      <c r="S25" s="251"/>
+      <c r="T25" s="251"/>
+      <c r="U25" s="251"/>
+      <c r="V25" s="251"/>
+      <c r="W25" s="251"/>
+      <c r="X25" s="251"/>
+      <c r="Y25" s="200"/>
+      <c r="Z25" s="201"/>
+      <c r="AA25" s="201"/>
+      <c r="AB25" s="201"/>
+      <c r="AC25" s="253"/>
+      <c r="AD25" s="253"/>
+      <c r="AE25" s="253"/>
+      <c r="AF25" s="253"/>
+      <c r="AG25" s="253"/>
+      <c r="AH25" s="253"/>
+      <c r="AI25" s="253"/>
       <c r="AJ25" s="22"/>
       <c r="AK25" s="22"/>
       <c r="AL25" s="22"/>
@@ -19400,48 +19499,48 @@
       <c r="BQ25" s="22"/>
       <c r="BR25" s="22"/>
     </row>
-    <row r="26" spans="1:70" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:70" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="58">
         <v>17</v>
       </c>
-      <c r="B26" s="253" t="s">
-        <v>261</v>
-      </c>
-      <c r="C26" s="252"/>
-      <c r="D26" s="252"/>
-      <c r="E26" s="252"/>
-      <c r="F26" s="252"/>
-      <c r="G26" s="252"/>
-      <c r="H26" s="252"/>
-      <c r="I26" s="252"/>
-      <c r="J26" s="261" t="s">
-        <v>262</v>
-      </c>
-      <c r="K26" s="260"/>
-      <c r="L26" s="260"/>
-      <c r="M26" s="260"/>
-      <c r="N26" s="260"/>
-      <c r="O26" s="260"/>
-      <c r="P26" s="260"/>
-      <c r="Q26" s="260"/>
-      <c r="R26" s="260"/>
-      <c r="S26" s="260"/>
-      <c r="T26" s="260"/>
-      <c r="U26" s="260"/>
-      <c r="V26" s="260"/>
-      <c r="W26" s="260"/>
-      <c r="X26" s="260"/>
-      <c r="Y26" s="251"/>
-      <c r="Z26" s="251"/>
-      <c r="AA26" s="251"/>
-      <c r="AB26" s="251"/>
-      <c r="AC26" s="251"/>
-      <c r="AD26" s="251"/>
-      <c r="AE26" s="251"/>
-      <c r="AF26" s="251"/>
-      <c r="AG26" s="251"/>
-      <c r="AH26" s="251"/>
-      <c r="AI26" s="251"/>
+      <c r="B26" s="251" t="s">
+        <v>272</v>
+      </c>
+      <c r="C26" s="251"/>
+      <c r="D26" s="251"/>
+      <c r="E26" s="251"/>
+      <c r="F26" s="251"/>
+      <c r="G26" s="251"/>
+      <c r="H26" s="251"/>
+      <c r="I26" s="251"/>
+      <c r="J26" s="252" t="s">
+        <v>273</v>
+      </c>
+      <c r="K26" s="252"/>
+      <c r="L26" s="252"/>
+      <c r="M26" s="252"/>
+      <c r="N26" s="252"/>
+      <c r="O26" s="252"/>
+      <c r="P26" s="252"/>
+      <c r="Q26" s="252"/>
+      <c r="R26" s="252"/>
+      <c r="S26" s="252"/>
+      <c r="T26" s="252"/>
+      <c r="U26" s="252"/>
+      <c r="V26" s="252"/>
+      <c r="W26" s="252"/>
+      <c r="X26" s="252"/>
+      <c r="Y26" s="253"/>
+      <c r="Z26" s="253"/>
+      <c r="AA26" s="253"/>
+      <c r="AB26" s="253"/>
+      <c r="AC26" s="253"/>
+      <c r="AD26" s="253"/>
+      <c r="AE26" s="253"/>
+      <c r="AF26" s="253"/>
+      <c r="AG26" s="253"/>
+      <c r="AH26" s="253"/>
+      <c r="AI26" s="253"/>
       <c r="AJ26" s="22"/>
       <c r="AK26" s="22"/>
       <c r="AL26" s="22"/>
@@ -19478,42 +19577,48 @@
       <c r="BQ26" s="22"/>
       <c r="BR26" s="22"/>
     </row>
-    <row r="27" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="22"/>
-      <c r="S27" s="22"/>
-      <c r="T27" s="22"/>
-      <c r="U27" s="22"/>
-      <c r="V27" s="22"/>
-      <c r="W27" s="22"/>
-      <c r="X27" s="22"/>
-      <c r="Y27" s="22"/>
-      <c r="Z27" s="22"/>
-      <c r="AA27" s="22"/>
-      <c r="AB27" s="22"/>
-      <c r="AC27" s="22"/>
-      <c r="AD27" s="22"/>
-      <c r="AE27" s="22"/>
-      <c r="AF27" s="22"/>
-      <c r="AG27" s="22"/>
-      <c r="AH27" s="22"/>
-      <c r="AI27" s="22"/>
+    <row r="27" spans="1:70" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="58">
+        <v>18</v>
+      </c>
+      <c r="B27" s="254" t="s">
+        <v>245</v>
+      </c>
+      <c r="C27" s="251"/>
+      <c r="D27" s="251"/>
+      <c r="E27" s="251"/>
+      <c r="F27" s="251"/>
+      <c r="G27" s="251"/>
+      <c r="H27" s="251"/>
+      <c r="I27" s="251"/>
+      <c r="J27" s="255" t="s">
+        <v>246</v>
+      </c>
+      <c r="K27" s="252"/>
+      <c r="L27" s="252"/>
+      <c r="M27" s="252"/>
+      <c r="N27" s="252"/>
+      <c r="O27" s="252"/>
+      <c r="P27" s="252"/>
+      <c r="Q27" s="252"/>
+      <c r="R27" s="252"/>
+      <c r="S27" s="252"/>
+      <c r="T27" s="252"/>
+      <c r="U27" s="252"/>
+      <c r="V27" s="252"/>
+      <c r="W27" s="252"/>
+      <c r="X27" s="252"/>
+      <c r="Y27" s="253"/>
+      <c r="Z27" s="253"/>
+      <c r="AA27" s="253"/>
+      <c r="AB27" s="253"/>
+      <c r="AC27" s="253"/>
+      <c r="AD27" s="253"/>
+      <c r="AE27" s="253"/>
+      <c r="AF27" s="253"/>
+      <c r="AG27" s="253"/>
+      <c r="AH27" s="253"/>
+      <c r="AI27" s="253"/>
       <c r="AJ27" s="22"/>
       <c r="AK27" s="22"/>
       <c r="AL27" s="22"/>
@@ -19550,7 +19655,7 @@
       <c r="BQ27" s="22"/>
       <c r="BR27" s="22"/>
     </row>
-    <row r="28" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A28" s="22"/>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
@@ -19622,7 +19727,7 @@
       <c r="BQ28" s="22"/>
       <c r="BR28" s="22"/>
     </row>
-    <row r="29" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A29" s="22"/>
       <c r="B29" s="22"/>
       <c r="C29" s="22"/>
@@ -19694,7 +19799,7 @@
       <c r="BQ29" s="22"/>
       <c r="BR29" s="22"/>
     </row>
-    <row r="30" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A30" s="22"/>
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
@@ -19766,7 +19871,7 @@
       <c r="BQ30" s="22"/>
       <c r="BR30" s="22"/>
     </row>
-    <row r="31" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A31" s="22"/>
       <c r="B31" s="22"/>
       <c r="C31" s="22"/>
@@ -19838,7 +19943,39 @@
       <c r="BQ31" s="22"/>
       <c r="BR31" s="22"/>
     </row>
-    <row r="32" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:70" x14ac:dyDescent="0.15">
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="22"/>
+      <c r="R32" s="22"/>
+      <c r="S32" s="22"/>
+      <c r="T32" s="22"/>
+      <c r="U32" s="22"/>
+      <c r="V32" s="22"/>
+      <c r="W32" s="22"/>
+      <c r="X32" s="22"/>
+      <c r="Y32" s="22"/>
+      <c r="Z32" s="22"/>
+      <c r="AA32" s="22"/>
+      <c r="AB32" s="22"/>
+      <c r="AC32" s="22"/>
+      <c r="AD32" s="22"/>
+      <c r="AE32" s="22"/>
+      <c r="AF32" s="22"/>
       <c r="AG32" s="22"/>
       <c r="AH32" s="22"/>
       <c r="AI32" s="22"/>
@@ -19878,7 +20015,7 @@
       <c r="BQ32" s="22"/>
       <c r="BR32" s="22"/>
     </row>
-    <row r="33" spans="33:70" x14ac:dyDescent="0.2">
+    <row r="33" spans="33:70" x14ac:dyDescent="0.15">
       <c r="AG33" s="22"/>
       <c r="AH33" s="22"/>
       <c r="AI33" s="22"/>
@@ -19918,7 +20055,7 @@
       <c r="BQ33" s="22"/>
       <c r="BR33" s="22"/>
     </row>
-    <row r="34" spans="33:70" x14ac:dyDescent="0.2">
+    <row r="34" spans="33:70" x14ac:dyDescent="0.15">
       <c r="AG34" s="22"/>
       <c r="AH34" s="22"/>
       <c r="AI34" s="22"/>
@@ -19958,7 +20095,7 @@
       <c r="BQ34" s="22"/>
       <c r="BR34" s="22"/>
     </row>
-    <row r="35" spans="33:70" x14ac:dyDescent="0.2">
+    <row r="35" spans="33:70" x14ac:dyDescent="0.15">
       <c r="AG35" s="22"/>
       <c r="AH35" s="22"/>
       <c r="AI35" s="22"/>
@@ -19998,7 +20135,7 @@
       <c r="BQ35" s="22"/>
       <c r="BR35" s="22"/>
     </row>
-    <row r="36" spans="33:70" x14ac:dyDescent="0.2">
+    <row r="36" spans="33:70" x14ac:dyDescent="0.15">
       <c r="AG36" s="22"/>
       <c r="AH36" s="22"/>
       <c r="AI36" s="22"/>
@@ -20038,79 +20175,55 @@
       <c r="BQ36" s="22"/>
       <c r="BR36" s="22"/>
     </row>
+    <row r="37" spans="33:70" x14ac:dyDescent="0.15">
+      <c r="AG37" s="22"/>
+      <c r="AH37" s="22"/>
+      <c r="AI37" s="22"/>
+      <c r="AJ37" s="22"/>
+      <c r="AK37" s="22"/>
+      <c r="AL37" s="22"/>
+      <c r="AM37" s="22"/>
+      <c r="AN37" s="22"/>
+      <c r="AO37" s="22"/>
+      <c r="AP37" s="22"/>
+      <c r="AQ37" s="22"/>
+      <c r="AR37" s="22"/>
+      <c r="AS37" s="22"/>
+      <c r="AT37" s="22"/>
+      <c r="AU37" s="22"/>
+      <c r="AV37" s="22"/>
+      <c r="AW37" s="22"/>
+      <c r="AX37" s="22"/>
+      <c r="AY37" s="22"/>
+      <c r="AZ37" s="22"/>
+      <c r="BA37" s="22"/>
+      <c r="BB37" s="22"/>
+      <c r="BC37" s="22"/>
+      <c r="BD37" s="22"/>
+      <c r="BE37" s="22"/>
+      <c r="BF37" s="22"/>
+      <c r="BG37" s="22"/>
+      <c r="BH37" s="22"/>
+      <c r="BI37" s="22"/>
+      <c r="BJ37" s="22"/>
+      <c r="BK37" s="22"/>
+      <c r="BL37" s="22"/>
+      <c r="BM37" s="22"/>
+      <c r="BN37" s="22"/>
+      <c r="BO37" s="22"/>
+      <c r="BP37" s="22"/>
+      <c r="BQ37" s="22"/>
+      <c r="BR37" s="22"/>
+    </row>
   </sheetData>
-  <mergeCells count="91">
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="J26:X26"/>
-    <mergeCell ref="Y26:AB26"/>
-    <mergeCell ref="AC26:AI26"/>
-    <mergeCell ref="AC22:AI22"/>
-    <mergeCell ref="AC23:AI23"/>
-    <mergeCell ref="AC24:AI24"/>
-    <mergeCell ref="AC25:AI25"/>
-    <mergeCell ref="AC12:AI12"/>
-    <mergeCell ref="AC13:AI13"/>
-    <mergeCell ref="AC14:AI14"/>
-    <mergeCell ref="AC20:AI20"/>
-    <mergeCell ref="AC21:AI21"/>
-    <mergeCell ref="AC15:AI15"/>
-    <mergeCell ref="AC16:AI16"/>
-    <mergeCell ref="AC17:AI17"/>
-    <mergeCell ref="AC18:AI18"/>
-    <mergeCell ref="AC19:AI19"/>
-    <mergeCell ref="Y23:AB23"/>
-    <mergeCell ref="Y24:AB24"/>
-    <mergeCell ref="Y25:AB25"/>
-    <mergeCell ref="Y20:AB20"/>
-    <mergeCell ref="Y21:AB21"/>
-    <mergeCell ref="Y22:AB22"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="J23:X23"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="J24:X24"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="J25:X25"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="J20:X20"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="J21:X21"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="J22:X22"/>
-    <mergeCell ref="Y12:AB12"/>
-    <mergeCell ref="Y13:AB13"/>
-    <mergeCell ref="Y14:AB14"/>
-    <mergeCell ref="Y10:AB10"/>
-    <mergeCell ref="Y11:AB11"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="J19:X19"/>
-    <mergeCell ref="Y15:AB15"/>
-    <mergeCell ref="Y16:AB16"/>
-    <mergeCell ref="Y17:AB17"/>
-    <mergeCell ref="Y18:AB18"/>
-    <mergeCell ref="Y19:AB19"/>
-    <mergeCell ref="J15:X15"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="J17:X17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="J16:X16"/>
-    <mergeCell ref="J18:X18"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="J12:X12"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="J13:X13"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="J14:X14"/>
+  <mergeCells count="95">
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="Y9:AB9"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="J8:X9"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -20122,15 +20235,83 @@
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:I9"/>
+    <mergeCell ref="J8:X9"/>
     <mergeCell ref="Y8:AI8"/>
+    <mergeCell ref="Y9:AB9"/>
     <mergeCell ref="AC9:AI9"/>
-    <mergeCell ref="AC10:AI10"/>
-    <mergeCell ref="AC11:AI11"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="J10:X10"/>
+    <mergeCell ref="Y10:AB10"/>
+    <mergeCell ref="AC10:AI10"/>
     <mergeCell ref="B11:I11"/>
-    <mergeCell ref="B8:I9"/>
     <mergeCell ref="J11:X11"/>
+    <mergeCell ref="Y11:AB11"/>
+    <mergeCell ref="AC11:AI11"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="J12:X12"/>
+    <mergeCell ref="Y12:AB12"/>
+    <mergeCell ref="AC12:AI12"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="J13:X13"/>
+    <mergeCell ref="Y13:AB13"/>
+    <mergeCell ref="AC13:AI13"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="J14:X14"/>
+    <mergeCell ref="Y14:AB14"/>
+    <mergeCell ref="AC14:AI14"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="J15:X15"/>
+    <mergeCell ref="Y15:AB15"/>
+    <mergeCell ref="AC15:AI15"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="J16:X16"/>
+    <mergeCell ref="Y16:AB16"/>
+    <mergeCell ref="AC16:AI16"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="J17:X17"/>
+    <mergeCell ref="Y17:AB17"/>
+    <mergeCell ref="AC17:AI17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="J18:X18"/>
+    <mergeCell ref="Y18:AB18"/>
+    <mergeCell ref="AC18:AI18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="J19:X19"/>
+    <mergeCell ref="Y19:AB19"/>
+    <mergeCell ref="AC19:AI19"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="J20:X20"/>
+    <mergeCell ref="Y20:AB20"/>
+    <mergeCell ref="AC20:AI20"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="J21:X21"/>
+    <mergeCell ref="Y21:AB21"/>
+    <mergeCell ref="AC21:AI21"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="J22:X22"/>
+    <mergeCell ref="Y22:AB22"/>
+    <mergeCell ref="AC22:AI22"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="J23:X23"/>
+    <mergeCell ref="Y23:AB23"/>
+    <mergeCell ref="AC23:AI23"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="J24:X24"/>
+    <mergeCell ref="Y24:AB24"/>
+    <mergeCell ref="AC24:AI24"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="J25:X25"/>
+    <mergeCell ref="Y25:AB25"/>
+    <mergeCell ref="AC25:AI25"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="J26:X26"/>
+    <mergeCell ref="Y26:AB26"/>
+    <mergeCell ref="AC26:AI26"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="J27:X27"/>
+    <mergeCell ref="Y27:AB27"/>
+    <mergeCell ref="AC27:AI27"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -20146,21 +20327,21 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:BR25"/>
+  <dimension ref="A1:BR24"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="11" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="29" width="4.77734375" style="32" customWidth="1"/>
+    <col min="1" max="29" width="4.83203125" style="32" customWidth="1"/>
     <col min="30" max="30" width="5" style="32" customWidth="1"/>
-    <col min="31" max="70" width="4.77734375" style="32" customWidth="1"/>
+    <col min="31" max="70" width="4.83203125" style="32" customWidth="1"/>
     <col min="71" max="16384" width="9.33203125" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:70" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="172" t="s">
         <v>0</v>
       </c>
@@ -20215,7 +20396,7 @@
       <c r="AH1" s="170"/>
       <c r="AI1" s="171"/>
     </row>
-    <row r="2" spans="1:70" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:70" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="107" t="s">
         <v>1</v>
       </c>
@@ -20265,7 +20446,7 @@
       <c r="AH2" s="170"/>
       <c r="AI2" s="171"/>
     </row>
-    <row r="3" spans="1:70" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:70" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="107" t="s">
         <v>2</v>
       </c>
@@ -20313,47 +20494,47 @@
       <c r="AH3" s="170"/>
       <c r="AI3" s="171"/>
     </row>
-    <row r="5" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A5" s="32" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:70" x14ac:dyDescent="0.15">
       <c r="B6" s="32" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A8" s="195" t="s">
-        <v>146</v>
-      </c>
-      <c r="B8" s="254" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="257" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="255"/>
-      <c r="D8" s="255"/>
-      <c r="E8" s="255"/>
-      <c r="F8" s="255"/>
-      <c r="G8" s="255"/>
-      <c r="H8" s="255"/>
-      <c r="I8" s="256"/>
-      <c r="J8" s="254" t="s">
+      <c r="C8" s="258"/>
+      <c r="D8" s="258"/>
+      <c r="E8" s="258"/>
+      <c r="F8" s="258"/>
+      <c r="G8" s="258"/>
+      <c r="H8" s="258"/>
+      <c r="I8" s="259"/>
+      <c r="J8" s="257" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="255"/>
-      <c r="L8" s="255"/>
-      <c r="M8" s="255"/>
-      <c r="N8" s="255"/>
-      <c r="O8" s="255"/>
-      <c r="P8" s="255"/>
-      <c r="Q8" s="255"/>
-      <c r="R8" s="255"/>
-      <c r="S8" s="255"/>
-      <c r="T8" s="255"/>
-      <c r="U8" s="255"/>
-      <c r="V8" s="255"/>
-      <c r="W8" s="255"/>
-      <c r="X8" s="256"/>
+      <c r="K8" s="258"/>
+      <c r="L8" s="258"/>
+      <c r="M8" s="258"/>
+      <c r="N8" s="258"/>
+      <c r="O8" s="258"/>
+      <c r="P8" s="258"/>
+      <c r="Q8" s="258"/>
+      <c r="R8" s="258"/>
+      <c r="S8" s="258"/>
+      <c r="T8" s="258"/>
+      <c r="U8" s="258"/>
+      <c r="V8" s="258"/>
+      <c r="W8" s="258"/>
+      <c r="X8" s="259"/>
       <c r="Y8" s="236" t="s">
         <v>14</v>
       </c>
@@ -20403,31 +20584,31 @@
       <c r="BQ8" s="22"/>
       <c r="BR8" s="22"/>
     </row>
-    <row r="9" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A9" s="195"/>
-      <c r="B9" s="257"/>
-      <c r="C9" s="258"/>
-      <c r="D9" s="258"/>
-      <c r="E9" s="258"/>
-      <c r="F9" s="258"/>
-      <c r="G9" s="258"/>
-      <c r="H9" s="258"/>
-      <c r="I9" s="259"/>
-      <c r="J9" s="257"/>
-      <c r="K9" s="258"/>
-      <c r="L9" s="258"/>
-      <c r="M9" s="258"/>
-      <c r="N9" s="258"/>
-      <c r="O9" s="258"/>
-      <c r="P9" s="258"/>
-      <c r="Q9" s="258"/>
-      <c r="R9" s="258"/>
-      <c r="S9" s="258"/>
-      <c r="T9" s="258"/>
-      <c r="U9" s="258"/>
-      <c r="V9" s="258"/>
-      <c r="W9" s="258"/>
-      <c r="X9" s="259"/>
+      <c r="B9" s="260"/>
+      <c r="C9" s="261"/>
+      <c r="D9" s="261"/>
+      <c r="E9" s="261"/>
+      <c r="F9" s="261"/>
+      <c r="G9" s="261"/>
+      <c r="H9" s="261"/>
+      <c r="I9" s="262"/>
+      <c r="J9" s="260"/>
+      <c r="K9" s="261"/>
+      <c r="L9" s="261"/>
+      <c r="M9" s="261"/>
+      <c r="N9" s="261"/>
+      <c r="O9" s="261"/>
+      <c r="P9" s="261"/>
+      <c r="Q9" s="261"/>
+      <c r="R9" s="261"/>
+      <c r="S9" s="261"/>
+      <c r="T9" s="261"/>
+      <c r="U9" s="261"/>
+      <c r="V9" s="261"/>
+      <c r="W9" s="261"/>
+      <c r="X9" s="262"/>
       <c r="Y9" s="236" t="s">
         <v>15</v>
       </c>
@@ -20479,42 +20660,48 @@
       <c r="BQ9" s="22"/>
       <c r="BR9" s="22"/>
     </row>
-    <row r="10" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A10" s="58"/>
-      <c r="B10" s="252"/>
-      <c r="C10" s="252"/>
-      <c r="D10" s="252"/>
-      <c r="E10" s="252"/>
-      <c r="F10" s="252"/>
-      <c r="G10" s="252"/>
-      <c r="H10" s="252"/>
-      <c r="I10" s="252"/>
-      <c r="J10" s="252"/>
-      <c r="K10" s="252"/>
-      <c r="L10" s="252"/>
-      <c r="M10" s="252"/>
-      <c r="N10" s="252"/>
-      <c r="O10" s="252"/>
-      <c r="P10" s="252"/>
-      <c r="Q10" s="252"/>
-      <c r="R10" s="252"/>
-      <c r="S10" s="252"/>
-      <c r="T10" s="252"/>
-      <c r="U10" s="252"/>
-      <c r="V10" s="252"/>
-      <c r="W10" s="252"/>
-      <c r="X10" s="252"/>
-      <c r="Y10" s="251"/>
-      <c r="Z10" s="251"/>
-      <c r="AA10" s="251"/>
-      <c r="AB10" s="251"/>
-      <c r="AC10" s="251"/>
-      <c r="AD10" s="251"/>
-      <c r="AE10" s="251"/>
-      <c r="AF10" s="251"/>
-      <c r="AG10" s="251"/>
-      <c r="AH10" s="251"/>
-      <c r="AI10" s="251"/>
+    <row r="10" spans="1:70" x14ac:dyDescent="0.15">
+      <c r="A10" s="58">
+        <v>1</v>
+      </c>
+      <c r="B10" s="266" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="267"/>
+      <c r="D10" s="267"/>
+      <c r="E10" s="267"/>
+      <c r="F10" s="267"/>
+      <c r="G10" s="267"/>
+      <c r="H10" s="267"/>
+      <c r="I10" s="268"/>
+      <c r="J10" s="263" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10" s="264"/>
+      <c r="L10" s="264"/>
+      <c r="M10" s="264"/>
+      <c r="N10" s="264"/>
+      <c r="O10" s="264"/>
+      <c r="P10" s="264"/>
+      <c r="Q10" s="264"/>
+      <c r="R10" s="264"/>
+      <c r="S10" s="264"/>
+      <c r="T10" s="264"/>
+      <c r="U10" s="264"/>
+      <c r="V10" s="264"/>
+      <c r="W10" s="264"/>
+      <c r="X10" s="265"/>
+      <c r="Y10" s="253"/>
+      <c r="Z10" s="253"/>
+      <c r="AA10" s="253"/>
+      <c r="AB10" s="253"/>
+      <c r="AC10" s="253"/>
+      <c r="AD10" s="253"/>
+      <c r="AE10" s="253"/>
+      <c r="AF10" s="253"/>
+      <c r="AG10" s="253"/>
+      <c r="AH10" s="253"/>
+      <c r="AI10" s="253"/>
       <c r="AJ10" s="22"/>
       <c r="AK10" s="22"/>
       <c r="AL10" s="22"/>
@@ -20551,42 +20738,42 @@
       <c r="BQ10" s="22"/>
       <c r="BR10" s="22"/>
     </row>
-    <row r="11" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A11" s="58"/>
-      <c r="B11" s="252"/>
-      <c r="C11" s="252"/>
-      <c r="D11" s="252"/>
-      <c r="E11" s="252"/>
-      <c r="F11" s="252"/>
-      <c r="G11" s="252"/>
-      <c r="H11" s="252"/>
-      <c r="I11" s="252"/>
-      <c r="J11" s="252"/>
-      <c r="K11" s="252"/>
-      <c r="L11" s="252"/>
-      <c r="M11" s="252"/>
-      <c r="N11" s="252"/>
-      <c r="O11" s="252"/>
-      <c r="P11" s="252"/>
-      <c r="Q11" s="252"/>
-      <c r="R11" s="252"/>
-      <c r="S11" s="252"/>
-      <c r="T11" s="252"/>
-      <c r="U11" s="252"/>
-      <c r="V11" s="252"/>
-      <c r="W11" s="252"/>
-      <c r="X11" s="252"/>
-      <c r="Y11" s="251"/>
-      <c r="Z11" s="251"/>
-      <c r="AA11" s="251"/>
-      <c r="AB11" s="251"/>
-      <c r="AC11" s="251"/>
-      <c r="AD11" s="251"/>
-      <c r="AE11" s="251"/>
-      <c r="AF11" s="251"/>
-      <c r="AG11" s="251"/>
-      <c r="AH11" s="251"/>
-      <c r="AI11" s="251"/>
+      <c r="B11" s="251"/>
+      <c r="C11" s="251"/>
+      <c r="D11" s="251"/>
+      <c r="E11" s="251"/>
+      <c r="F11" s="251"/>
+      <c r="G11" s="251"/>
+      <c r="H11" s="251"/>
+      <c r="I11" s="251"/>
+      <c r="J11" s="251"/>
+      <c r="K11" s="251"/>
+      <c r="L11" s="251"/>
+      <c r="M11" s="251"/>
+      <c r="N11" s="251"/>
+      <c r="O11" s="251"/>
+      <c r="P11" s="251"/>
+      <c r="Q11" s="251"/>
+      <c r="R11" s="251"/>
+      <c r="S11" s="251"/>
+      <c r="T11" s="251"/>
+      <c r="U11" s="251"/>
+      <c r="V11" s="251"/>
+      <c r="W11" s="251"/>
+      <c r="X11" s="251"/>
+      <c r="Y11" s="253"/>
+      <c r="Z11" s="253"/>
+      <c r="AA11" s="253"/>
+      <c r="AB11" s="253"/>
+      <c r="AC11" s="253"/>
+      <c r="AD11" s="253"/>
+      <c r="AE11" s="253"/>
+      <c r="AF11" s="253"/>
+      <c r="AG11" s="253"/>
+      <c r="AH11" s="253"/>
+      <c r="AI11" s="253"/>
       <c r="AJ11" s="22"/>
       <c r="AK11" s="22"/>
       <c r="AL11" s="22"/>
@@ -20623,42 +20810,42 @@
       <c r="BQ11" s="22"/>
       <c r="BR11" s="22"/>
     </row>
-    <row r="12" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A12" s="58"/>
-      <c r="B12" s="252"/>
-      <c r="C12" s="252"/>
-      <c r="D12" s="252"/>
-      <c r="E12" s="252"/>
-      <c r="F12" s="252"/>
-      <c r="G12" s="252"/>
-      <c r="H12" s="252"/>
-      <c r="I12" s="252"/>
-      <c r="J12" s="252"/>
-      <c r="K12" s="252"/>
-      <c r="L12" s="252"/>
-      <c r="M12" s="252"/>
-      <c r="N12" s="252"/>
-      <c r="O12" s="252"/>
-      <c r="P12" s="252"/>
-      <c r="Q12" s="252"/>
-      <c r="R12" s="252"/>
-      <c r="S12" s="252"/>
-      <c r="T12" s="252"/>
-      <c r="U12" s="252"/>
-      <c r="V12" s="252"/>
-      <c r="W12" s="252"/>
-      <c r="X12" s="252"/>
-      <c r="Y12" s="251"/>
-      <c r="Z12" s="251"/>
-      <c r="AA12" s="251"/>
-      <c r="AB12" s="251"/>
-      <c r="AC12" s="251"/>
-      <c r="AD12" s="251"/>
-      <c r="AE12" s="251"/>
-      <c r="AF12" s="251"/>
-      <c r="AG12" s="251"/>
-      <c r="AH12" s="251"/>
-      <c r="AI12" s="251"/>
+      <c r="B12" s="251"/>
+      <c r="C12" s="251"/>
+      <c r="D12" s="251"/>
+      <c r="E12" s="251"/>
+      <c r="F12" s="251"/>
+      <c r="G12" s="251"/>
+      <c r="H12" s="251"/>
+      <c r="I12" s="251"/>
+      <c r="J12" s="251"/>
+      <c r="K12" s="251"/>
+      <c r="L12" s="251"/>
+      <c r="M12" s="251"/>
+      <c r="N12" s="251"/>
+      <c r="O12" s="251"/>
+      <c r="P12" s="251"/>
+      <c r="Q12" s="251"/>
+      <c r="R12" s="251"/>
+      <c r="S12" s="251"/>
+      <c r="T12" s="251"/>
+      <c r="U12" s="251"/>
+      <c r="V12" s="251"/>
+      <c r="W12" s="251"/>
+      <c r="X12" s="251"/>
+      <c r="Y12" s="253"/>
+      <c r="Z12" s="253"/>
+      <c r="AA12" s="253"/>
+      <c r="AB12" s="253"/>
+      <c r="AC12" s="253"/>
+      <c r="AD12" s="253"/>
+      <c r="AE12" s="253"/>
+      <c r="AF12" s="253"/>
+      <c r="AG12" s="253"/>
+      <c r="AH12" s="253"/>
+      <c r="AI12" s="253"/>
       <c r="AJ12" s="22"/>
       <c r="AK12" s="22"/>
       <c r="AL12" s="22"/>
@@ -20695,42 +20882,42 @@
       <c r="BQ12" s="22"/>
       <c r="BR12" s="22"/>
     </row>
-    <row r="13" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A13" s="58"/>
       <c r="B13" s="252"/>
-      <c r="C13" s="252"/>
-      <c r="D13" s="252"/>
-      <c r="E13" s="252"/>
-      <c r="F13" s="252"/>
-      <c r="G13" s="252"/>
-      <c r="H13" s="252"/>
-      <c r="I13" s="252"/>
-      <c r="J13" s="252"/>
-      <c r="K13" s="252"/>
-      <c r="L13" s="252"/>
-      <c r="M13" s="252"/>
-      <c r="N13" s="252"/>
-      <c r="O13" s="252"/>
-      <c r="P13" s="252"/>
-      <c r="Q13" s="252"/>
-      <c r="R13" s="252"/>
-      <c r="S13" s="252"/>
-      <c r="T13" s="252"/>
-      <c r="U13" s="252"/>
-      <c r="V13" s="252"/>
-      <c r="W13" s="252"/>
-      <c r="X13" s="252"/>
-      <c r="Y13" s="251"/>
-      <c r="Z13" s="251"/>
-      <c r="AA13" s="251"/>
-      <c r="AB13" s="251"/>
-      <c r="AC13" s="251"/>
-      <c r="AD13" s="251"/>
-      <c r="AE13" s="251"/>
-      <c r="AF13" s="251"/>
-      <c r="AG13" s="251"/>
-      <c r="AH13" s="251"/>
-      <c r="AI13" s="251"/>
+      <c r="C13" s="251"/>
+      <c r="D13" s="251"/>
+      <c r="E13" s="251"/>
+      <c r="F13" s="251"/>
+      <c r="G13" s="251"/>
+      <c r="H13" s="251"/>
+      <c r="I13" s="251"/>
+      <c r="J13" s="251"/>
+      <c r="K13" s="251"/>
+      <c r="L13" s="251"/>
+      <c r="M13" s="251"/>
+      <c r="N13" s="251"/>
+      <c r="O13" s="251"/>
+      <c r="P13" s="251"/>
+      <c r="Q13" s="251"/>
+      <c r="R13" s="251"/>
+      <c r="S13" s="251"/>
+      <c r="T13" s="251"/>
+      <c r="U13" s="251"/>
+      <c r="V13" s="251"/>
+      <c r="W13" s="251"/>
+      <c r="X13" s="251"/>
+      <c r="Y13" s="253"/>
+      <c r="Z13" s="253"/>
+      <c r="AA13" s="253"/>
+      <c r="AB13" s="253"/>
+      <c r="AC13" s="253"/>
+      <c r="AD13" s="253"/>
+      <c r="AE13" s="253"/>
+      <c r="AF13" s="253"/>
+      <c r="AG13" s="253"/>
+      <c r="AH13" s="253"/>
+      <c r="AI13" s="253"/>
       <c r="AJ13" s="22"/>
       <c r="AK13" s="22"/>
       <c r="AL13" s="22"/>
@@ -20767,42 +20954,42 @@
       <c r="BQ13" s="22"/>
       <c r="BR13" s="22"/>
     </row>
-    <row r="14" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A14" s="58"/>
-      <c r="B14" s="260"/>
-      <c r="C14" s="252"/>
-      <c r="D14" s="252"/>
-      <c r="E14" s="252"/>
-      <c r="F14" s="252"/>
-      <c r="G14" s="252"/>
-      <c r="H14" s="252"/>
-      <c r="I14" s="252"/>
-      <c r="J14" s="252"/>
-      <c r="K14" s="252"/>
-      <c r="L14" s="252"/>
-      <c r="M14" s="252"/>
-      <c r="N14" s="252"/>
-      <c r="O14" s="252"/>
-      <c r="P14" s="252"/>
-      <c r="Q14" s="252"/>
-      <c r="R14" s="252"/>
-      <c r="S14" s="252"/>
-      <c r="T14" s="252"/>
-      <c r="U14" s="252"/>
-      <c r="V14" s="252"/>
-      <c r="W14" s="252"/>
-      <c r="X14" s="252"/>
-      <c r="Y14" s="251"/>
-      <c r="Z14" s="251"/>
-      <c r="AA14" s="251"/>
-      <c r="AB14" s="251"/>
-      <c r="AC14" s="251"/>
-      <c r="AD14" s="251"/>
-      <c r="AE14" s="251"/>
-      <c r="AF14" s="251"/>
-      <c r="AG14" s="251"/>
-      <c r="AH14" s="251"/>
-      <c r="AI14" s="251"/>
+      <c r="B14" s="104"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="105"/>
+      <c r="I14" s="106"/>
+      <c r="J14" s="251"/>
+      <c r="K14" s="251"/>
+      <c r="L14" s="251"/>
+      <c r="M14" s="251"/>
+      <c r="N14" s="251"/>
+      <c r="O14" s="251"/>
+      <c r="P14" s="251"/>
+      <c r="Q14" s="251"/>
+      <c r="R14" s="251"/>
+      <c r="S14" s="251"/>
+      <c r="T14" s="251"/>
+      <c r="U14" s="251"/>
+      <c r="V14" s="251"/>
+      <c r="W14" s="251"/>
+      <c r="X14" s="251"/>
+      <c r="Y14" s="253"/>
+      <c r="Z14" s="253"/>
+      <c r="AA14" s="253"/>
+      <c r="AB14" s="253"/>
+      <c r="AC14" s="253"/>
+      <c r="AD14" s="253"/>
+      <c r="AE14" s="253"/>
+      <c r="AF14" s="253"/>
+      <c r="AG14" s="253"/>
+      <c r="AH14" s="253"/>
+      <c r="AI14" s="253"/>
       <c r="AJ14" s="22"/>
       <c r="AK14" s="22"/>
       <c r="AL14" s="22"/>
@@ -20839,42 +21026,42 @@
       <c r="BQ14" s="22"/>
       <c r="BR14" s="22"/>
     </row>
-    <row r="15" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A15" s="58"/>
-      <c r="B15" s="104"/>
-      <c r="C15" s="105"/>
-      <c r="D15" s="105"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="105"/>
-      <c r="G15" s="105"/>
-      <c r="H15" s="105"/>
-      <c r="I15" s="106"/>
-      <c r="J15" s="252"/>
-      <c r="K15" s="252"/>
-      <c r="L15" s="252"/>
-      <c r="M15" s="252"/>
-      <c r="N15" s="252"/>
-      <c r="O15" s="252"/>
-      <c r="P15" s="252"/>
-      <c r="Q15" s="252"/>
-      <c r="R15" s="252"/>
-      <c r="S15" s="252"/>
-      <c r="T15" s="252"/>
-      <c r="U15" s="252"/>
-      <c r="V15" s="252"/>
-      <c r="W15" s="252"/>
-      <c r="X15" s="252"/>
-      <c r="Y15" s="251"/>
-      <c r="Z15" s="251"/>
-      <c r="AA15" s="251"/>
-      <c r="AB15" s="251"/>
-      <c r="AC15" s="251"/>
-      <c r="AD15" s="251"/>
-      <c r="AE15" s="251"/>
-      <c r="AF15" s="251"/>
-      <c r="AG15" s="251"/>
-      <c r="AH15" s="251"/>
-      <c r="AI15" s="251"/>
+      <c r="B15" s="252"/>
+      <c r="C15" s="251"/>
+      <c r="D15" s="251"/>
+      <c r="E15" s="251"/>
+      <c r="F15" s="251"/>
+      <c r="G15" s="251"/>
+      <c r="H15" s="251"/>
+      <c r="I15" s="251"/>
+      <c r="J15" s="251"/>
+      <c r="K15" s="251"/>
+      <c r="L15" s="251"/>
+      <c r="M15" s="251"/>
+      <c r="N15" s="251"/>
+      <c r="O15" s="251"/>
+      <c r="P15" s="251"/>
+      <c r="Q15" s="251"/>
+      <c r="R15" s="251"/>
+      <c r="S15" s="251"/>
+      <c r="T15" s="251"/>
+      <c r="U15" s="251"/>
+      <c r="V15" s="251"/>
+      <c r="W15" s="251"/>
+      <c r="X15" s="251"/>
+      <c r="Y15" s="253"/>
+      <c r="Z15" s="253"/>
+      <c r="AA15" s="253"/>
+      <c r="AB15" s="253"/>
+      <c r="AC15" s="253"/>
+      <c r="AD15" s="253"/>
+      <c r="AE15" s="253"/>
+      <c r="AF15" s="253"/>
+      <c r="AG15" s="253"/>
+      <c r="AH15" s="253"/>
+      <c r="AI15" s="253"/>
       <c r="AJ15" s="22"/>
       <c r="AK15" s="22"/>
       <c r="AL15" s="22"/>
@@ -20911,9 +21098,9 @@
       <c r="BQ15" s="22"/>
       <c r="BR15" s="22"/>
     </row>
-    <row r="16" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A16" s="58"/>
-      <c r="B16" s="260"/>
+      <c r="B16" s="252"/>
       <c r="C16" s="252"/>
       <c r="D16" s="252"/>
       <c r="E16" s="252"/>
@@ -20921,32 +21108,32 @@
       <c r="G16" s="252"/>
       <c r="H16" s="252"/>
       <c r="I16" s="252"/>
-      <c r="J16" s="252"/>
-      <c r="K16" s="252"/>
-      <c r="L16" s="252"/>
-      <c r="M16" s="252"/>
-      <c r="N16" s="252"/>
-      <c r="O16" s="252"/>
-      <c r="P16" s="252"/>
-      <c r="Q16" s="252"/>
-      <c r="R16" s="252"/>
-      <c r="S16" s="252"/>
-      <c r="T16" s="252"/>
-      <c r="U16" s="252"/>
-      <c r="V16" s="252"/>
-      <c r="W16" s="252"/>
-      <c r="X16" s="252"/>
-      <c r="Y16" s="251"/>
-      <c r="Z16" s="251"/>
-      <c r="AA16" s="251"/>
-      <c r="AB16" s="251"/>
-      <c r="AC16" s="251"/>
-      <c r="AD16" s="251"/>
-      <c r="AE16" s="251"/>
-      <c r="AF16" s="251"/>
-      <c r="AG16" s="251"/>
-      <c r="AH16" s="251"/>
-      <c r="AI16" s="251"/>
+      <c r="J16" s="251"/>
+      <c r="K16" s="251"/>
+      <c r="L16" s="251"/>
+      <c r="M16" s="251"/>
+      <c r="N16" s="251"/>
+      <c r="O16" s="251"/>
+      <c r="P16" s="251"/>
+      <c r="Q16" s="251"/>
+      <c r="R16" s="251"/>
+      <c r="S16" s="251"/>
+      <c r="T16" s="251"/>
+      <c r="U16" s="251"/>
+      <c r="V16" s="251"/>
+      <c r="W16" s="251"/>
+      <c r="X16" s="251"/>
+      <c r="Y16" s="253"/>
+      <c r="Z16" s="253"/>
+      <c r="AA16" s="253"/>
+      <c r="AB16" s="253"/>
+      <c r="AC16" s="253"/>
+      <c r="AD16" s="253"/>
+      <c r="AE16" s="253"/>
+      <c r="AF16" s="253"/>
+      <c r="AG16" s="253"/>
+      <c r="AH16" s="253"/>
+      <c r="AI16" s="253"/>
       <c r="AJ16" s="22"/>
       <c r="AK16" s="22"/>
       <c r="AL16" s="22"/>
@@ -20983,42 +21170,42 @@
       <c r="BQ16" s="22"/>
       <c r="BR16" s="22"/>
     </row>
-    <row r="17" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A17" s="58"/>
-      <c r="B17" s="260"/>
-      <c r="C17" s="260"/>
-      <c r="D17" s="260"/>
-      <c r="E17" s="260"/>
-      <c r="F17" s="260"/>
-      <c r="G17" s="260"/>
-      <c r="H17" s="260"/>
-      <c r="I17" s="260"/>
-      <c r="J17" s="252"/>
-      <c r="K17" s="252"/>
-      <c r="L17" s="252"/>
-      <c r="M17" s="252"/>
-      <c r="N17" s="252"/>
-      <c r="O17" s="252"/>
-      <c r="P17" s="252"/>
-      <c r="Q17" s="252"/>
-      <c r="R17" s="252"/>
-      <c r="S17" s="252"/>
-      <c r="T17" s="252"/>
-      <c r="U17" s="252"/>
-      <c r="V17" s="252"/>
-      <c r="W17" s="252"/>
-      <c r="X17" s="252"/>
-      <c r="Y17" s="251"/>
-      <c r="Z17" s="251"/>
-      <c r="AA17" s="251"/>
-      <c r="AB17" s="251"/>
-      <c r="AC17" s="251"/>
-      <c r="AD17" s="251"/>
-      <c r="AE17" s="251"/>
-      <c r="AF17" s="251"/>
-      <c r="AG17" s="251"/>
-      <c r="AH17" s="251"/>
-      <c r="AI17" s="251"/>
+      <c r="B17" s="251"/>
+      <c r="C17" s="251"/>
+      <c r="D17" s="251"/>
+      <c r="E17" s="251"/>
+      <c r="F17" s="251"/>
+      <c r="G17" s="251"/>
+      <c r="H17" s="251"/>
+      <c r="I17" s="251"/>
+      <c r="J17" s="251"/>
+      <c r="K17" s="251"/>
+      <c r="L17" s="251"/>
+      <c r="M17" s="251"/>
+      <c r="N17" s="251"/>
+      <c r="O17" s="251"/>
+      <c r="P17" s="251"/>
+      <c r="Q17" s="251"/>
+      <c r="R17" s="251"/>
+      <c r="S17" s="251"/>
+      <c r="T17" s="251"/>
+      <c r="U17" s="251"/>
+      <c r="V17" s="251"/>
+      <c r="W17" s="251"/>
+      <c r="X17" s="251"/>
+      <c r="Y17" s="253"/>
+      <c r="Z17" s="253"/>
+      <c r="AA17" s="253"/>
+      <c r="AB17" s="253"/>
+      <c r="AC17" s="253"/>
+      <c r="AD17" s="253"/>
+      <c r="AE17" s="253"/>
+      <c r="AF17" s="253"/>
+      <c r="AG17" s="253"/>
+      <c r="AH17" s="253"/>
+      <c r="AI17" s="253"/>
       <c r="AJ17" s="22"/>
       <c r="AK17" s="22"/>
       <c r="AL17" s="22"/>
@@ -21055,42 +21242,42 @@
       <c r="BQ17" s="22"/>
       <c r="BR17" s="22"/>
     </row>
-    <row r="18" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A18" s="58"/>
-      <c r="B18" s="252"/>
-      <c r="C18" s="252"/>
-      <c r="D18" s="252"/>
-      <c r="E18" s="252"/>
-      <c r="F18" s="252"/>
-      <c r="G18" s="252"/>
-      <c r="H18" s="252"/>
-      <c r="I18" s="252"/>
-      <c r="J18" s="252"/>
-      <c r="K18" s="252"/>
-      <c r="L18" s="252"/>
-      <c r="M18" s="252"/>
-      <c r="N18" s="252"/>
-      <c r="O18" s="252"/>
-      <c r="P18" s="252"/>
-      <c r="Q18" s="252"/>
-      <c r="R18" s="252"/>
-      <c r="S18" s="252"/>
-      <c r="T18" s="252"/>
-      <c r="U18" s="252"/>
-      <c r="V18" s="252"/>
-      <c r="W18" s="252"/>
-      <c r="X18" s="252"/>
-      <c r="Y18" s="251"/>
-      <c r="Z18" s="251"/>
-      <c r="AA18" s="251"/>
-      <c r="AB18" s="251"/>
-      <c r="AC18" s="251"/>
-      <c r="AD18" s="251"/>
-      <c r="AE18" s="251"/>
-      <c r="AF18" s="251"/>
-      <c r="AG18" s="251"/>
-      <c r="AH18" s="251"/>
-      <c r="AI18" s="251"/>
+      <c r="B18" s="251"/>
+      <c r="C18" s="251"/>
+      <c r="D18" s="251"/>
+      <c r="E18" s="251"/>
+      <c r="F18" s="251"/>
+      <c r="G18" s="251"/>
+      <c r="H18" s="251"/>
+      <c r="I18" s="251"/>
+      <c r="J18" s="251"/>
+      <c r="K18" s="251"/>
+      <c r="L18" s="251"/>
+      <c r="M18" s="251"/>
+      <c r="N18" s="251"/>
+      <c r="O18" s="251"/>
+      <c r="P18" s="251"/>
+      <c r="Q18" s="251"/>
+      <c r="R18" s="251"/>
+      <c r="S18" s="251"/>
+      <c r="T18" s="251"/>
+      <c r="U18" s="251"/>
+      <c r="V18" s="251"/>
+      <c r="W18" s="251"/>
+      <c r="X18" s="251"/>
+      <c r="Y18" s="253"/>
+      <c r="Z18" s="253"/>
+      <c r="AA18" s="253"/>
+      <c r="AB18" s="253"/>
+      <c r="AC18" s="253"/>
+      <c r="AD18" s="253"/>
+      <c r="AE18" s="253"/>
+      <c r="AF18" s="253"/>
+      <c r="AG18" s="253"/>
+      <c r="AH18" s="253"/>
+      <c r="AI18" s="253"/>
       <c r="AJ18" s="22"/>
       <c r="AK18" s="22"/>
       <c r="AL18" s="22"/>
@@ -21127,162 +21314,127 @@
       <c r="BQ18" s="22"/>
       <c r="BR18" s="22"/>
     </row>
-    <row r="19" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A19" s="58"/>
       <c r="B19" s="252"/>
-      <c r="C19" s="252"/>
-      <c r="D19" s="252"/>
-      <c r="E19" s="252"/>
-      <c r="F19" s="252"/>
-      <c r="G19" s="252"/>
-      <c r="H19" s="252"/>
-      <c r="I19" s="252"/>
-      <c r="J19" s="252"/>
-      <c r="K19" s="252"/>
-      <c r="L19" s="252"/>
-      <c r="M19" s="252"/>
-      <c r="N19" s="252"/>
-      <c r="O19" s="252"/>
-      <c r="P19" s="252"/>
-      <c r="Q19" s="252"/>
-      <c r="R19" s="252"/>
-      <c r="S19" s="252"/>
-      <c r="T19" s="252"/>
-      <c r="U19" s="252"/>
-      <c r="V19" s="252"/>
-      <c r="W19" s="252"/>
-      <c r="X19" s="252"/>
-      <c r="Y19" s="251"/>
-      <c r="Z19" s="251"/>
-      <c r="AA19" s="251"/>
-      <c r="AB19" s="251"/>
-      <c r="AC19" s="251"/>
-      <c r="AD19" s="251"/>
-      <c r="AE19" s="251"/>
-      <c r="AF19" s="251"/>
-      <c r="AG19" s="251"/>
-      <c r="AH19" s="251"/>
-      <c r="AI19" s="251"/>
-      <c r="AJ19" s="22"/>
-      <c r="AK19" s="22"/>
-      <c r="AL19" s="22"/>
-      <c r="AM19" s="22"/>
-      <c r="AN19" s="22"/>
-      <c r="AO19" s="22"/>
-      <c r="AP19" s="22"/>
-      <c r="AQ19" s="22"/>
-      <c r="AR19" s="22"/>
-      <c r="AS19" s="22"/>
-      <c r="AT19" s="22"/>
-      <c r="AU19" s="22"/>
-      <c r="AV19" s="22"/>
-      <c r="AW19" s="22"/>
-      <c r="AX19" s="22"/>
-      <c r="AY19" s="22"/>
-      <c r="AZ19" s="22"/>
-      <c r="BA19" s="22"/>
-      <c r="BB19" s="22"/>
-      <c r="BC19" s="22"/>
-      <c r="BD19" s="22"/>
-      <c r="BE19" s="22"/>
-      <c r="BF19" s="22"/>
-      <c r="BG19" s="22"/>
-      <c r="BH19" s="22"/>
-      <c r="BI19" s="22"/>
-      <c r="BJ19" s="22"/>
-      <c r="BK19" s="22"/>
-      <c r="BL19" s="22"/>
-      <c r="BM19" s="22"/>
-      <c r="BN19" s="22"/>
-      <c r="BO19" s="22"/>
-      <c r="BP19" s="22"/>
-      <c r="BQ19" s="22"/>
-      <c r="BR19" s="22"/>
-    </row>
-    <row r="20" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="C19" s="251"/>
+      <c r="D19" s="251"/>
+      <c r="E19" s="251"/>
+      <c r="F19" s="251"/>
+      <c r="G19" s="251"/>
+      <c r="H19" s="251"/>
+      <c r="I19" s="251"/>
+      <c r="J19" s="251"/>
+      <c r="K19" s="251"/>
+      <c r="L19" s="251"/>
+      <c r="M19" s="251"/>
+      <c r="N19" s="251"/>
+      <c r="O19" s="251"/>
+      <c r="P19" s="251"/>
+      <c r="Q19" s="251"/>
+      <c r="R19" s="251"/>
+      <c r="S19" s="251"/>
+      <c r="T19" s="251"/>
+      <c r="U19" s="251"/>
+      <c r="V19" s="251"/>
+      <c r="W19" s="251"/>
+      <c r="X19" s="251"/>
+      <c r="Y19" s="253"/>
+      <c r="Z19" s="253"/>
+      <c r="AA19" s="253"/>
+      <c r="AB19" s="253"/>
+      <c r="AC19" s="253"/>
+      <c r="AD19" s="253"/>
+      <c r="AE19" s="253"/>
+      <c r="AF19" s="253"/>
+      <c r="AG19" s="253"/>
+      <c r="AH19" s="253"/>
+      <c r="AI19" s="253"/>
+    </row>
+    <row r="20" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A20" s="58"/>
-      <c r="B20" s="260"/>
-      <c r="C20" s="252"/>
-      <c r="D20" s="252"/>
-      <c r="E20" s="252"/>
-      <c r="F20" s="252"/>
-      <c r="G20" s="252"/>
-      <c r="H20" s="252"/>
-      <c r="I20" s="252"/>
-      <c r="J20" s="252"/>
-      <c r="K20" s="252"/>
-      <c r="L20" s="252"/>
-      <c r="M20" s="252"/>
-      <c r="N20" s="252"/>
-      <c r="O20" s="252"/>
-      <c r="P20" s="252"/>
-      <c r="Q20" s="252"/>
-      <c r="R20" s="252"/>
-      <c r="S20" s="252"/>
-      <c r="T20" s="252"/>
-      <c r="U20" s="252"/>
-      <c r="V20" s="252"/>
-      <c r="W20" s="252"/>
-      <c r="X20" s="252"/>
-      <c r="Y20" s="251"/>
-      <c r="Z20" s="251"/>
-      <c r="AA20" s="251"/>
-      <c r="AB20" s="251"/>
-      <c r="AC20" s="251"/>
-      <c r="AD20" s="251"/>
-      <c r="AE20" s="251"/>
-      <c r="AF20" s="251"/>
-      <c r="AG20" s="251"/>
-      <c r="AH20" s="251"/>
-      <c r="AI20" s="251"/>
-    </row>
-    <row r="21" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="B20" s="252"/>
+      <c r="C20" s="251"/>
+      <c r="D20" s="251"/>
+      <c r="E20" s="251"/>
+      <c r="F20" s="251"/>
+      <c r="G20" s="251"/>
+      <c r="H20" s="251"/>
+      <c r="I20" s="251"/>
+      <c r="J20" s="251"/>
+      <c r="K20" s="251"/>
+      <c r="L20" s="251"/>
+      <c r="M20" s="251"/>
+      <c r="N20" s="251"/>
+      <c r="O20" s="251"/>
+      <c r="P20" s="251"/>
+      <c r="Q20" s="251"/>
+      <c r="R20" s="251"/>
+      <c r="S20" s="251"/>
+      <c r="T20" s="251"/>
+      <c r="U20" s="251"/>
+      <c r="V20" s="251"/>
+      <c r="W20" s="251"/>
+      <c r="X20" s="251"/>
+      <c r="Y20" s="253"/>
+      <c r="Z20" s="253"/>
+      <c r="AA20" s="253"/>
+      <c r="AB20" s="253"/>
+      <c r="AC20" s="253"/>
+      <c r="AD20" s="253"/>
+      <c r="AE20" s="253"/>
+      <c r="AF20" s="253"/>
+      <c r="AG20" s="253"/>
+      <c r="AH20" s="253"/>
+      <c r="AI20" s="253"/>
+    </row>
+    <row r="21" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A21" s="58"/>
-      <c r="B21" s="260"/>
-      <c r="C21" s="252"/>
-      <c r="D21" s="252"/>
-      <c r="E21" s="252"/>
-      <c r="F21" s="252"/>
-      <c r="G21" s="252"/>
-      <c r="H21" s="252"/>
-      <c r="I21" s="252"/>
-      <c r="J21" s="252"/>
-      <c r="K21" s="252"/>
-      <c r="L21" s="252"/>
-      <c r="M21" s="252"/>
-      <c r="N21" s="252"/>
-      <c r="O21" s="252"/>
-      <c r="P21" s="252"/>
-      <c r="Q21" s="252"/>
-      <c r="R21" s="252"/>
-      <c r="S21" s="252"/>
-      <c r="T21" s="252"/>
-      <c r="U21" s="252"/>
-      <c r="V21" s="252"/>
-      <c r="W21" s="252"/>
-      <c r="X21" s="252"/>
-      <c r="Y21" s="251"/>
-      <c r="Z21" s="251"/>
-      <c r="AA21" s="251"/>
-      <c r="AB21" s="251"/>
-      <c r="AC21" s="251"/>
-      <c r="AD21" s="251"/>
-      <c r="AE21" s="251"/>
-      <c r="AF21" s="251"/>
-      <c r="AG21" s="251"/>
-      <c r="AH21" s="251"/>
-      <c r="AI21" s="251"/>
-    </row>
-    <row r="22" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="B21" s="252"/>
+      <c r="C21" s="251"/>
+      <c r="D21" s="251"/>
+      <c r="E21" s="251"/>
+      <c r="F21" s="251"/>
+      <c r="G21" s="251"/>
+      <c r="H21" s="251"/>
+      <c r="I21" s="251"/>
+      <c r="J21" s="251"/>
+      <c r="K21" s="251"/>
+      <c r="L21" s="251"/>
+      <c r="M21" s="251"/>
+      <c r="N21" s="251"/>
+      <c r="O21" s="251"/>
+      <c r="P21" s="251"/>
+      <c r="Q21" s="251"/>
+      <c r="R21" s="251"/>
+      <c r="S21" s="251"/>
+      <c r="T21" s="251"/>
+      <c r="U21" s="251"/>
+      <c r="V21" s="251"/>
+      <c r="W21" s="251"/>
+      <c r="X21" s="251"/>
+      <c r="Y21" s="253"/>
+      <c r="Z21" s="253"/>
+      <c r="AA21" s="253"/>
+      <c r="AB21" s="253"/>
+      <c r="AC21" s="253"/>
+      <c r="AD21" s="253"/>
+      <c r="AE21" s="253"/>
+      <c r="AF21" s="253"/>
+      <c r="AG21" s="253"/>
+      <c r="AH21" s="253"/>
+      <c r="AI21" s="253"/>
+    </row>
+    <row r="22" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A22" s="58"/>
-      <c r="B22" s="260"/>
-      <c r="C22" s="252"/>
-      <c r="D22" s="252"/>
-      <c r="E22" s="252"/>
-      <c r="F22" s="252"/>
-      <c r="G22" s="252"/>
-      <c r="H22" s="252"/>
-      <c r="I22" s="252"/>
+      <c r="B22" s="251"/>
+      <c r="C22" s="251"/>
+      <c r="D22" s="251"/>
+      <c r="E22" s="251"/>
+      <c r="F22" s="251"/>
+      <c r="G22" s="251"/>
+      <c r="H22" s="251"/>
+      <c r="I22" s="251"/>
       <c r="J22" s="252"/>
       <c r="K22" s="252"/>
       <c r="L22" s="252"/>
@@ -21298,167 +21450,114 @@
       <c r="V22" s="252"/>
       <c r="W22" s="252"/>
       <c r="X22" s="252"/>
-      <c r="Y22" s="251"/>
-      <c r="Z22" s="251"/>
-      <c r="AA22" s="251"/>
-      <c r="AB22" s="251"/>
-      <c r="AC22" s="251"/>
-      <c r="AD22" s="251"/>
-      <c r="AE22" s="251"/>
-      <c r="AF22" s="251"/>
-      <c r="AG22" s="251"/>
-      <c r="AH22" s="251"/>
-      <c r="AI22" s="251"/>
-    </row>
-    <row r="23" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="Y22" s="253"/>
+      <c r="Z22" s="253"/>
+      <c r="AA22" s="253"/>
+      <c r="AB22" s="253"/>
+      <c r="AC22" s="253"/>
+      <c r="AD22" s="253"/>
+      <c r="AE22" s="253"/>
+      <c r="AF22" s="253"/>
+      <c r="AG22" s="253"/>
+      <c r="AH22" s="253"/>
+      <c r="AI22" s="253"/>
+    </row>
+    <row r="23" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A23" s="58"/>
-      <c r="B23" s="252"/>
-      <c r="C23" s="252"/>
-      <c r="D23" s="252"/>
-      <c r="E23" s="252"/>
-      <c r="F23" s="252"/>
-      <c r="G23" s="252"/>
-      <c r="H23" s="252"/>
-      <c r="I23" s="252"/>
-      <c r="J23" s="260"/>
-      <c r="K23" s="260"/>
-      <c r="L23" s="260"/>
-      <c r="M23" s="260"/>
-      <c r="N23" s="260"/>
-      <c r="O23" s="260"/>
-      <c r="P23" s="260"/>
-      <c r="Q23" s="260"/>
-      <c r="R23" s="260"/>
-      <c r="S23" s="260"/>
-      <c r="T23" s="260"/>
-      <c r="U23" s="260"/>
-      <c r="V23" s="260"/>
-      <c r="W23" s="260"/>
-      <c r="X23" s="260"/>
-      <c r="Y23" s="251"/>
-      <c r="Z23" s="251"/>
-      <c r="AA23" s="251"/>
-      <c r="AB23" s="251"/>
-      <c r="AC23" s="251"/>
-      <c r="AD23" s="251"/>
-      <c r="AE23" s="251"/>
-      <c r="AF23" s="251"/>
-      <c r="AG23" s="251"/>
-      <c r="AH23" s="251"/>
-      <c r="AI23" s="251"/>
-    </row>
-    <row r="24" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="B23" s="251"/>
+      <c r="C23" s="251"/>
+      <c r="D23" s="251"/>
+      <c r="E23" s="251"/>
+      <c r="F23" s="251"/>
+      <c r="G23" s="251"/>
+      <c r="H23" s="251"/>
+      <c r="I23" s="251"/>
+      <c r="J23" s="252"/>
+      <c r="K23" s="252"/>
+      <c r="L23" s="252"/>
+      <c r="M23" s="252"/>
+      <c r="N23" s="252"/>
+      <c r="O23" s="252"/>
+      <c r="P23" s="252"/>
+      <c r="Q23" s="252"/>
+      <c r="R23" s="252"/>
+      <c r="S23" s="252"/>
+      <c r="T23" s="252"/>
+      <c r="U23" s="252"/>
+      <c r="V23" s="252"/>
+      <c r="W23" s="252"/>
+      <c r="X23" s="252"/>
+      <c r="Y23" s="253"/>
+      <c r="Z23" s="253"/>
+      <c r="AA23" s="253"/>
+      <c r="AB23" s="253"/>
+      <c r="AC23" s="253"/>
+      <c r="AD23" s="253"/>
+      <c r="AE23" s="253"/>
+      <c r="AF23" s="253"/>
+      <c r="AG23" s="253"/>
+      <c r="AH23" s="253"/>
+      <c r="AI23" s="253"/>
+    </row>
+    <row r="24" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A24" s="58"/>
-      <c r="B24" s="252"/>
-      <c r="C24" s="252"/>
-      <c r="D24" s="252"/>
-      <c r="E24" s="252"/>
-      <c r="F24" s="252"/>
-      <c r="G24" s="252"/>
-      <c r="H24" s="252"/>
-      <c r="I24" s="252"/>
-      <c r="J24" s="260"/>
-      <c r="K24" s="260"/>
-      <c r="L24" s="260"/>
-      <c r="M24" s="260"/>
-      <c r="N24" s="260"/>
-      <c r="O24" s="260"/>
-      <c r="P24" s="260"/>
-      <c r="Q24" s="260"/>
-      <c r="R24" s="260"/>
-      <c r="S24" s="260"/>
-      <c r="T24" s="260"/>
-      <c r="U24" s="260"/>
-      <c r="V24" s="260"/>
-      <c r="W24" s="260"/>
-      <c r="X24" s="260"/>
-      <c r="Y24" s="251"/>
-      <c r="Z24" s="251"/>
-      <c r="AA24" s="251"/>
-      <c r="AB24" s="251"/>
-      <c r="AC24" s="251"/>
-      <c r="AD24" s="251"/>
-      <c r="AE24" s="251"/>
-      <c r="AF24" s="251"/>
-      <c r="AG24" s="251"/>
-      <c r="AH24" s="251"/>
-      <c r="AI24" s="251"/>
-    </row>
-    <row r="25" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A25" s="58"/>
-      <c r="B25" s="252"/>
-      <c r="C25" s="252"/>
-      <c r="D25" s="252"/>
-      <c r="E25" s="252"/>
-      <c r="F25" s="252"/>
-      <c r="G25" s="252"/>
-      <c r="H25" s="252"/>
-      <c r="I25" s="252"/>
-      <c r="J25" s="260"/>
-      <c r="K25" s="260"/>
-      <c r="L25" s="260"/>
-      <c r="M25" s="260"/>
-      <c r="N25" s="260"/>
-      <c r="O25" s="260"/>
-      <c r="P25" s="260"/>
-      <c r="Q25" s="260"/>
-      <c r="R25" s="260"/>
-      <c r="S25" s="260"/>
-      <c r="T25" s="260"/>
-      <c r="U25" s="260"/>
-      <c r="V25" s="260"/>
-      <c r="W25" s="260"/>
-      <c r="X25" s="260"/>
-      <c r="Y25" s="251"/>
-      <c r="Z25" s="251"/>
-      <c r="AA25" s="251"/>
-      <c r="AB25" s="251"/>
-      <c r="AC25" s="251"/>
-      <c r="AD25" s="251"/>
-      <c r="AE25" s="251"/>
-      <c r="AF25" s="251"/>
-      <c r="AG25" s="251"/>
-      <c r="AH25" s="251"/>
-      <c r="AI25" s="251"/>
+      <c r="B24" s="251"/>
+      <c r="C24" s="251"/>
+      <c r="D24" s="251"/>
+      <c r="E24" s="251"/>
+      <c r="F24" s="251"/>
+      <c r="G24" s="251"/>
+      <c r="H24" s="251"/>
+      <c r="I24" s="251"/>
+      <c r="J24" s="252"/>
+      <c r="K24" s="252"/>
+      <c r="L24" s="252"/>
+      <c r="M24" s="252"/>
+      <c r="N24" s="252"/>
+      <c r="O24" s="252"/>
+      <c r="P24" s="252"/>
+      <c r="Q24" s="252"/>
+      <c r="R24" s="252"/>
+      <c r="S24" s="252"/>
+      <c r="T24" s="252"/>
+      <c r="U24" s="252"/>
+      <c r="V24" s="252"/>
+      <c r="W24" s="252"/>
+      <c r="X24" s="252"/>
+      <c r="Y24" s="253"/>
+      <c r="Z24" s="253"/>
+      <c r="AA24" s="253"/>
+      <c r="AB24" s="253"/>
+      <c r="AC24" s="253"/>
+      <c r="AD24" s="253"/>
+      <c r="AE24" s="253"/>
+      <c r="AF24" s="253"/>
+      <c r="AG24" s="253"/>
+      <c r="AH24" s="253"/>
+      <c r="AI24" s="253"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:I9"/>
-    <mergeCell ref="J8:X9"/>
+  <mergeCells count="83">
+    <mergeCell ref="J10:X10"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="J13:X13"/>
+    <mergeCell ref="Y10:AB10"/>
+    <mergeCell ref="AC10:AI10"/>
+    <mergeCell ref="Y12:AB12"/>
     <mergeCell ref="B12:I12"/>
     <mergeCell ref="J12:X12"/>
+    <mergeCell ref="Y11:AB11"/>
+    <mergeCell ref="AC11:AI11"/>
+    <mergeCell ref="AC12:AI12"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="J11:X11"/>
     <mergeCell ref="B10:I10"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="J15:X15"/>
-    <mergeCell ref="J10:X10"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="J14:X14"/>
-    <mergeCell ref="Y10:AB10"/>
-    <mergeCell ref="AC10:AI10"/>
-    <mergeCell ref="Y13:AB13"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="J13:X13"/>
-    <mergeCell ref="Y12:AB12"/>
-    <mergeCell ref="AC12:AI12"/>
-    <mergeCell ref="AC13:AI13"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="E2:N2"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="J11:X11"/>
-    <mergeCell ref="Y11:AB11"/>
-    <mergeCell ref="AC11:AI11"/>
-    <mergeCell ref="Y8:AI8"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="S1:Z3"/>
     <mergeCell ref="Y9:AB9"/>
     <mergeCell ref="AC9:AI9"/>
     <mergeCell ref="A2:D2"/>
@@ -21466,22 +21565,38 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:I9"/>
+    <mergeCell ref="J8:X9"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="Y8:AI8"/>
+    <mergeCell ref="Y13:AB13"/>
+    <mergeCell ref="AC13:AI13"/>
     <mergeCell ref="Y14:AB14"/>
     <mergeCell ref="AC14:AI14"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="J15:X15"/>
     <mergeCell ref="Y15:AB15"/>
     <mergeCell ref="AC15:AI15"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="J14:X14"/>
+    <mergeCell ref="Y16:AB16"/>
+    <mergeCell ref="AC16:AI16"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="J17:X17"/>
+    <mergeCell ref="Y17:AB17"/>
+    <mergeCell ref="AC17:AI17"/>
     <mergeCell ref="B16:I16"/>
     <mergeCell ref="J16:X16"/>
-    <mergeCell ref="Y16:AB16"/>
-    <mergeCell ref="AC16:AI16"/>
-    <mergeCell ref="Y17:AB17"/>
-    <mergeCell ref="AC17:AI17"/>
     <mergeCell ref="B18:I18"/>
     <mergeCell ref="J18:X18"/>
     <mergeCell ref="Y18:AB18"/>
     <mergeCell ref="AC18:AI18"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="J17:X17"/>
     <mergeCell ref="B19:I19"/>
     <mergeCell ref="J19:X19"/>
     <mergeCell ref="Y19:AB19"/>
@@ -21494,22 +21609,18 @@
     <mergeCell ref="J21:X21"/>
     <mergeCell ref="Y21:AB21"/>
     <mergeCell ref="AC21:AI21"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="J24:X24"/>
+    <mergeCell ref="Y24:AB24"/>
+    <mergeCell ref="AC24:AI24"/>
     <mergeCell ref="B22:I22"/>
     <mergeCell ref="J22:X22"/>
     <mergeCell ref="Y22:AB22"/>
     <mergeCell ref="AC22:AI22"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="J25:X25"/>
-    <mergeCell ref="Y25:AB25"/>
-    <mergeCell ref="AC25:AI25"/>
     <mergeCell ref="B23:I23"/>
     <mergeCell ref="J23:X23"/>
     <mergeCell ref="Y23:AB23"/>
     <mergeCell ref="AC23:AI23"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="J24:X24"/>
-    <mergeCell ref="Y24:AB24"/>
-    <mergeCell ref="AC24:AI24"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -21532,113 +21643,113 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="11" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.109375" style="22" customWidth="1"/>
-    <col min="2" max="16384" width="4.77734375" style="22"/>
+    <col min="1" max="1" width="22.1640625" style="22" customWidth="1"/>
+    <col min="2" max="16384" width="4.83203125" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="33" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="34" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="34" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="34" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="34" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="34" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="34" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="34" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="34" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="34" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="34" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="34" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="34" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="35" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="35" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="35" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="35" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="35" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="35" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="35" t="s">
         <v>48</v>
       </c>
